--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -517,12 +517,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A***********d</t>
+          <t>Ali bin Ahmad</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9************4</t>
+          <t>900101-01-1234</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -563,7 +563,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -586,12 +586,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S***************h</t>
+          <t>Siti binti Aminah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9************5</t>
+          <t>920202-02-2345</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -632,7 +632,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -655,12 +655,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L***********g</t>
+          <t>Lim Wei Chong</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>940303-03-3456</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -724,12 +724,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P*********r</t>
+          <t>Preeti Kaur</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>950404-04-4567</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -770,7 +770,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sikhism</t>
+          <t>S*****m</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -793,12 +793,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M************z</t>
+          <t>Muhammad Hafiz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>960505-05-5678</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -862,12 +862,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C************g</t>
+          <t>Chong Mei Ling</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9************9</t>
+          <t>970606-06-6789</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -931,12 +931,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A******j</t>
+          <t>Arun Raj</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>980707-07-7890</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1000,12 +1000,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F**************n</t>
+          <t>Farah binti Zain</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>990808-08-8901</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1069,12 +1069,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>T*********g</t>
+          <t>Tan Ah Heng</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0************2</t>
+          <t>000909-09-9012</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1138,12 +1138,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A*********i</t>
+          <t>Anusha Devi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>010101-10-0123</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1207,12 +1207,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>N********h</t>
+          <t>Nur Aisyah</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>020202-11-1234</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W***********i</t>
+          <t>Wong Siew Mei</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0************5</t>
+          <t>030303-12-2345</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1345,12 +1345,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T**********n</t>
+          <t>Thiru Selvan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>040404-13-3456</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1414,12 +1414,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A**************k</t>
+          <t>Aina binti Razak</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0************7</t>
+          <t>050505-14-4567</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1483,12 +1483,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Y**********n</t>
+          <t>Yong Kai Wen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>060606-15-5678</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1552,12 +1552,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>H********a</t>
+          <t>Hema Latha</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0************9</t>
+          <t>070707-16-6789</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1621,12 +1621,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A***********u</t>
+          <t>Ahmad bin Abu</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0************0</t>
+          <t>080808-17-7890</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1690,12 +1690,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M******g</t>
+          <t>Mei Fong</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0************1</t>
+          <t>090909-18-8901</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1759,12 +1759,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R********r</t>
+          <t>Raju Kumar</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1************2</t>
+          <t>101010-19-9012</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1828,12 +1828,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Z***********n</t>
+          <t>Zainal Abidin</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1************3</t>
+          <t>111111-20-0123</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1897,12 +1897,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A***************f</t>
+          <t>Amira binti Latif</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1************4</t>
+          <t>121212-21-1234</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1966,12 +1966,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C**********n</t>
+          <t>Chia Wei Han</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1************5</t>
+          <t>131313-22-2345</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2035,12 +2035,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S**********r</t>
+          <t>Suresh Kumar</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1************6</t>
+          <t>141414-23-3456</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2104,12 +2104,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>N********h</t>
+          <t>Norhidayah</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1************7</t>
+          <t>151515-24-4567</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2173,12 +2173,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>L*********i</t>
+          <t>Lim Wei Hui</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1************8</t>
+          <t>161616-25-5678</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2242,12 +2242,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A********j</t>
+          <t>Arvind Raj</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1************9</t>
+          <t>171717-26-6789</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2311,12 +2311,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S**************r</t>
+          <t>Safia binti Noor</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1************0</t>
+          <t>181818-27-7890</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2380,12 +2380,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>W**********i</t>
+          <t>Wong Kin Fai</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1************1</t>
+          <t>191919-28-8901</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2449,12 +2449,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A**************n</t>
+          <t>Aina binti Osman</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2************2</t>
+          <t>202020-29-9012</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2518,12 +2518,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>K*************n</t>
+          <t>Kumar Narayanan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2************3</t>
+          <t>212121-30-0123</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>012-3456789</t>
+          <t>0*********9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>013-4567890</t>
+          <t>0*********0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>014-5678901</t>
+          <t>0*********1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Buddhism</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>015-6789012</t>
+          <t>0*********2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>S*****m</t>
+          <t>Sikhism</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>016-7890123</t>
+          <t>0*********3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>017-8901234</t>
+          <t>0*********4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Buddhism</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>018-9012345</t>
+          <t>0*********5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Hinduism</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>019-0123456</t>
+          <t>0*********6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>010-2345678</t>
+          <t>0*********8</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Buddhism</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>011-3456789</t>
+          <t>0*********9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Hinduism</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>012-5678901</t>
+          <t>0*********1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>013-6789012</t>
+          <t>0*********2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Buddhism</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>014-7890123</t>
+          <t>0*********3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Hinduism</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>015-8901234</t>
+          <t>0*********4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>016-9012345</t>
+          <t>0*********5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Buddhism</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>017-0123456</t>
+          <t>0*********6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Hinduism</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>018-1234567</t>
+          <t>0*********7</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>019-2345678</t>
+          <t>0*********8</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Buddhism</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>010-3456789</t>
+          <t>0*********9</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Hinduism</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>011-4567890</t>
+          <t>0*********0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>012-5678901</t>
+          <t>0*********1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>013-6789012</t>
+          <t>0*********2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Buddhism</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>014-7890123</t>
+          <t>0*********3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Hinduism</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>015-8901234</t>
+          <t>0*********4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>016-9012345</t>
+          <t>0*********5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Buddhism</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>017-0123456</t>
+          <t>0*********6</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Hinduism</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>018-1234567</t>
+          <t>0*********7</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>019-2345678</t>
+          <t>0*********8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Buddhism</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>010-3456789</t>
+          <t>0*********9</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Islam</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>011-4567890</t>
+          <t>0*********0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Hinduism</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>900101-01-1234</t>
+          <t>9************4</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0*********9</t>
+          <t>012-3456789</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>920202-02-2345</t>
+          <t>9************5</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0*********0</t>
+          <t>013-4567890</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>940303-03-3456</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -673,7 +673,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0*********1</t>
+          <t>014-5678901</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>950404-04-4567</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0*********2</t>
+          <t>015-6789012</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>960505-05-5678</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0*********3</t>
+          <t>016-7890123</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>970606-06-6789</t>
+          <t>9************9</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0*********4</t>
+          <t>017-8901234</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>980707-07-7890</t>
+          <t>9************0</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -949,7 +949,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0*********5</t>
+          <t>018-9012345</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>990808-08-8901</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0*********6</t>
+          <t>019-0123456</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000909-09-9012</t>
+          <t>0************2</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0*********8</t>
+          <t>010-2345678</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010101-10-0123</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0*********9</t>
+          <t>011-3456789</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>020202-11-1234</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0*********1</t>
+          <t>012-5678901</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>030303-12-2345</t>
+          <t>0************5</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0*********2</t>
+          <t>013-6789012</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>040404-13-3456</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0*********3</t>
+          <t>014-7890123</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>050505-14-4567</t>
+          <t>0************7</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0*********4</t>
+          <t>015-8901234</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>060606-15-5678</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0*********5</t>
+          <t>016-9012345</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>070707-16-6789</t>
+          <t>0************9</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0*********6</t>
+          <t>017-0123456</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>080808-17-7890</t>
+          <t>0************0</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0*********7</t>
+          <t>018-1234567</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>090909-18-8901</t>
+          <t>0************1</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0*********8</t>
+          <t>019-2345678</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>101010-19-9012</t>
+          <t>1************2</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0*********9</t>
+          <t>010-3456789</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>111111-20-0123</t>
+          <t>1************3</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0*********0</t>
+          <t>011-4567890</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>121212-21-1234</t>
+          <t>1************4</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0*********1</t>
+          <t>012-5678901</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>131313-22-2345</t>
+          <t>1************5</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0*********2</t>
+          <t>013-6789012</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>141414-23-3456</t>
+          <t>1************6</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0*********3</t>
+          <t>014-7890123</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>151515-24-4567</t>
+          <t>1************7</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0*********4</t>
+          <t>015-8901234</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>161616-25-5678</t>
+          <t>1************8</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0*********5</t>
+          <t>016-9012345</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>171717-26-6789</t>
+          <t>1************9</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0*********6</t>
+          <t>017-0123456</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>181818-27-7890</t>
+          <t>1************0</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0*********7</t>
+          <t>018-1234567</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>191919-28-8901</t>
+          <t>1************1</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0*********8</t>
+          <t>019-2345678</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>202020-29-9012</t>
+          <t>2************2</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0*********9</t>
+          <t>010-3456789</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>212121-30-0123</t>
+          <t>2************3</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0*********0</t>
+          <t>011-4567890</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -517,7 +517,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ali bin Ahmad</t>
+          <t>A***********d</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>012-3456789</t>
+          <t>0*********9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ali.ahmad@example.com</t>
+          <t>a*******d@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -586,7 +586,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Siti binti Aminah</t>
+          <t>S***************h</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>013-4567890</t>
+          <t>0*********0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>siti.aminah@example.com</t>
+          <t>s*********h@example.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -655,7 +655,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lim Wei Chong</t>
+          <t>L***********g</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>014-5678901</t>
+          <t>0*********1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>lim.weichong@example.com</t>
+          <t>l**********g@example.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Preeti Kaur</t>
+          <t>P*********r</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>015-6789012</t>
+          <t>0*********2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>preeti.kaur@example.com</t>
+          <t>p*********r@example.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -793,7 +793,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Muhammad Hafiz</t>
+          <t>M************z</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>016-7890123</t>
+          <t>0*********3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>muhammad.hafiz@example.com</t>
+          <t>m************z@example.com</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chong Mei Ling</t>
+          <t>C************g</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>017-8901234</t>
+          <t>0*********4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>chong.mei@example.com</t>
+          <t>c*******i@example.com</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -931,7 +931,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Arun Raj</t>
+          <t>A******j</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>018-9012345</t>
+          <t>0*********5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>arun.raj@example.com</t>
+          <t>a******j@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Farah binti Zain</t>
+          <t>F**************n</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>019-0123456</t>
+          <t>0*********6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>farah.zain@example.com</t>
+          <t>f********n@example.com</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tan Ah Heng</t>
+          <t>T*********g</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>010-2345678</t>
+          <t>0*********8</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>tan.ahheng@example.com</t>
+          <t>t********g@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Anusha Devi</t>
+          <t>A*********i</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>011-3456789</t>
+          <t>0*********9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>anusha.devi@example.com</t>
+          <t>a*********i@example.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1207,7 +1207,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nur Aisyah</t>
+          <t>N********h</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>012-5678901</t>
+          <t>0*********1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>nur.aisyah@example.com</t>
+          <t>n********h@example.com</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wong Siew Mei</t>
+          <t>W***********i</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>013-6789012</t>
+          <t>0*********2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>wong.siewmei@example.com</t>
+          <t>w**********i@example.com</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1345,7 +1345,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thiru Selvan</t>
+          <t>T**********n</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>014-7890123</t>
+          <t>0*********3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>thiru.selvan@example.com</t>
+          <t>t**********n@example.com</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1414,7 +1414,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aina binti Razak</t>
+          <t>A**************k</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>015-8901234</t>
+          <t>0*********4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>aina.razak@example.com</t>
+          <t>a********k@example.com</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1483,7 +1483,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Yong Kai Wen</t>
+          <t>Y**********n</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>016-9012345</t>
+          <t>0*********5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>yong.kaiwen@example.com</t>
+          <t>y*********n@example.com</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hema Latha</t>
+          <t>H********a</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>017-0123456</t>
+          <t>0*********6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>hema.latha@example.com</t>
+          <t>h********a@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1621,7 +1621,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ahmad bin Abu</t>
+          <t>A***********u</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>018-1234567</t>
+          <t>0*********7</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ahmad.abu@example.com</t>
+          <t>a*******u@example.com</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mei Fong</t>
+          <t>M******g</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>019-2345678</t>
+          <t>0*********8</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>mei.fong@example.com</t>
+          <t>m******g@example.com</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1759,7 +1759,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Raju Kumar</t>
+          <t>R********r</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>010-3456789</t>
+          <t>0*********9</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>raju.kumar@example.com</t>
+          <t>r********r@example.com</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Zainal Abidin</t>
+          <t>Z***********n</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>011-4567890</t>
+          <t>0*********0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>zainal.abidin@example.com</t>
+          <t>z***********n@example.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1897,7 +1897,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Amira binti Latif</t>
+          <t>A***************f</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>012-5678901</t>
+          <t>0*********1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>amira.latif@example.com</t>
+          <t>a*********f@example.com</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1966,7 +1966,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chia Wei Han</t>
+          <t>C**********n</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>013-6789012</t>
+          <t>0*********2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>chia.weihan@example.com</t>
+          <t>c*********n@example.com</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2035,7 +2035,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Suresh Kumar</t>
+          <t>S**********r</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>014-7890123</t>
+          <t>0*********3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>suresh.kumar@example.com</t>
+          <t>s**********r@example.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Norhidayah</t>
+          <t>N********h</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>015-8901234</t>
+          <t>0*********4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>norhidayah@example.com</t>
+          <t>n********h@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2173,7 +2173,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lim Wei Hui</t>
+          <t>L*********i</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>016-9012345</t>
+          <t>0*********5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>lim.weihui@example.com</t>
+          <t>l********i@example.com</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2242,7 +2242,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Arvind Raj</t>
+          <t>A********j</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>017-0123456</t>
+          <t>0*********6</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>arvind.raj@example.com</t>
+          <t>a********j@example.com</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2311,7 +2311,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Safia binti Noor</t>
+          <t>S**************r</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>018-1234567</t>
+          <t>0*********7</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>safia.noor@example.com</t>
+          <t>s********r@example.com</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wong Kin Fai</t>
+          <t>W**********i</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>019-2345678</t>
+          <t>0*********8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>wong.kinfai@example.com</t>
+          <t>w*********i@example.com</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2449,7 +2449,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aina binti Osman</t>
+          <t>A**************n</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>010-3456789</t>
+          <t>0*********9</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>aina.osman@example.com</t>
+          <t>a********n@example.com</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kumar Narayanan</t>
+          <t>K*************n</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>011-4567890</t>
+          <t>0*********0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>kumar.narayanan@example.com</t>
+          <t>k*************n@example.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -517,7 +517,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A***********d</t>
+          <t>Omar Moore</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -530,7 +530,8 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>123, Jalan Bukit, Kuala Lumpur</t>
+          <t>255 Sheila Forks
+Port Lisa, MT 30599</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -586,7 +587,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S***************h</t>
+          <t>Courtney Lopez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -599,7 +600,8 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45, Jalan Mawar, Johor Bahru</t>
+          <t>88657 Bridges Ridges Suite 908
+New James, FM 12406</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -655,7 +657,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L***********g</t>
+          <t>April Acevedo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -668,7 +670,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>67, Jalan Kenanga, Penang</t>
+          <t>5782 Karen Freeway Apt. 121
+East Michael, MN 93036</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -724,7 +727,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P*********r</t>
+          <t>Larry Fitzgerald</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -737,7 +740,8 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89, Jalan Teratai, Ipoh</t>
+          <t>05018 Jonathan Causeway Suite 007
+Robertberg, PA 76718</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -793,7 +797,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M************z</t>
+          <t>Julia Turner</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -806,7 +810,8 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>101, Jalan Dahlia, Shah Alam</t>
+          <t>557 Deborah Stravenue Suite 512
+Hunterland, PR 10743</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -862,7 +867,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C************g</t>
+          <t>Eric Gibbs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -875,7 +880,8 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>123, Jalan Melati, Melaka</t>
+          <t>42438 Choi Hill
+Anthonyfurt, AL 77481</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -931,7 +937,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A******j</t>
+          <t>Shannon Chen MD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -944,7 +950,8 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>145, Jalan Mawar, Seremban</t>
+          <t>7581 Ricky Ville Suite 054
+Edwardstown, CA 70682</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1000,7 +1007,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F**************n</t>
+          <t>Jeffrey Dean</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,7 +1020,8 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>167, Jalan Cempaka, Kuantan</t>
+          <t>50067 Jennifer Keys Apt. 550
+Ryanfort, MA 75532</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1069,7 +1077,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>T*********g</t>
+          <t>Rebecca Mcdaniel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1082,7 +1090,8 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>189, Jalan Anggerik, Kota Kinabalu</t>
+          <t>313 Ronald Throughway Suite 824
+Dennisside, OR 95517</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1138,7 +1147,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A*********i</t>
+          <t>Keith Browning</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1151,7 +1160,8 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>201, Jalan Ros, Kuala Terengganu</t>
+          <t>4141 Reed Village Apt. 499
+Brianbury, SD 77602</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1207,7 +1217,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>N********h</t>
+          <t>Laura Sanders</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1220,7 +1230,8 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>223, Jalan Tunku, Alor Setar</t>
+          <t>PSC 1945, Box 0739
+APO AA 83783</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1276,7 +1287,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W***********i</t>
+          <t>Rachel Perry</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1289,7 +1300,8 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>245, Jalan Taman, Miri</t>
+          <t>19535 Joel Village
+Brownside, WV 45373</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1345,7 +1357,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T**********n</t>
+          <t>Thomas Ray</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1358,7 +1370,8 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>267, Jalan Desa, Kuching</t>
+          <t>154 Sonia Loaf
+Lake Danieltown, IA 33784</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1414,7 +1427,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A**************k</t>
+          <t>Lisa Jensen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1427,7 +1440,8 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>289, Jalan Seri, Klang</t>
+          <t>69188 Thomas Centers
+East Kimberlychester, VI 29574</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1483,7 +1497,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Y**********n</t>
+          <t>Shelby Zamora</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1496,7 +1510,8 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>301, Jalan Hijau, Georgetown</t>
+          <t>05547 Luna Crossroad
+Stonefurt, IN 30064</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1552,7 +1567,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>H********a</t>
+          <t>Amanda Tate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1565,7 +1580,8 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>323, Jalan Biru, Kuala Lumpur</t>
+          <t>746 Brandon Locks Apt. 876
+Gabrielaville, OK 12010</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1621,7 +1637,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A***********u</t>
+          <t>Lee Faulkner</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1634,7 +1650,8 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>345, Jalan Putih, Putrajaya</t>
+          <t>242 Martin Radial
+Greenland, DC 64953</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1690,7 +1707,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M******g</t>
+          <t>John Patterson</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1703,7 +1720,8 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>367, Jalan Kuning, Sibu</t>
+          <t>5134 David Via
+Lake Evanbury, NV 59386</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1759,7 +1777,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R********r</t>
+          <t>Deanna Allen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1772,7 +1790,8 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>389, Jalan Merah, Sandakan</t>
+          <t>64830 Reyes Isle
+North Chad, PA 72164</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1828,7 +1847,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Z***********n</t>
+          <t>Wanda Ochoa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1841,7 +1860,8 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>401, Jalan Putra, Kuala Lumpur</t>
+          <t>53668 Alisha Village
+Christopherton, MI 28909</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1897,7 +1917,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A***************f</t>
+          <t>Hayden Patterson</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1910,7 +1930,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>423, Jalan Raja, Alor Setar</t>
+          <t>55868 Mary Falls Suite 905
+Kimberlyland, TX 41676</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1966,7 +1987,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C**********n</t>
+          <t>Chris Weber</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1979,7 +2000,8 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>445, Jalan Sultan, Miri</t>
+          <t>6349 Marissa Pass Suite 370
+Sethton, WY 82983</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2035,7 +2057,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S**********r</t>
+          <t>Todd Martinez</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2048,7 +2070,8 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>467, Jalan King, Kuching</t>
+          <t>PSC 3488, Box 2229
+APO AA 43527</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2104,7 +2127,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>N********h</t>
+          <t>Rodney Rangel</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2117,7 +2140,8 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>489, Jalan Tunku, Klang</t>
+          <t>28088 John Mall
+Terrishire, IA 76401</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2173,7 +2197,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>L*********i</t>
+          <t>Ashley Brown</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2186,7 +2210,8 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>501, Jalan Taman, Georgetown</t>
+          <t>5591 Baker Groves Suite 620
+Lorimouth, AL 54896</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2242,7 +2267,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A********j</t>
+          <t>Dr. Mark Delgado</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2255,7 +2280,8 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>523, Jalan Sri, Sibu</t>
+          <t>5612 Jeff Roads Suite 082
+Khanville, RI 13665</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2311,7 +2337,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S**************r</t>
+          <t>Michael Williams</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2324,7 +2350,8 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>545, Jalan Hijau, Kuala Lumpur</t>
+          <t>55013 Catherine Meadow Apt. 040
+North Maurice, SD 76429</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2380,7 +2407,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>W**********i</t>
+          <t>Wendy Malone</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2393,7 +2420,8 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>567, Jalan Desa, Putrajaya</t>
+          <t>13621 Michael Harbor
+South Bettyshire, NH 58398</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2449,7 +2477,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A**************n</t>
+          <t>Brittany Garcia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2462,7 +2490,8 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>589, Jalan Teratai, Sandakan</t>
+          <t>9982 Lawrence Manors Apt. 459
+Davidstad, MN 21595</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2518,7 +2547,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>K*************n</t>
+          <t>Brian Lucas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2531,7 +2560,8 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>601, Jalan Melati, Johor Bahru</t>
+          <t>531 Reilly Trail
+Rayville, TN 94845</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -517,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Omar Moore</t>
+          <t>Jennifer Rodriguez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -525,13 +521,15 @@
           <t>9************4</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>32874</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1975-09-27</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>255 Sheila Forks
-Port Lisa, MT 30599</t>
+          <t>92966 Brandon Canyon Suite 730
+Dayland, IN 71365</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -587,7 +585,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Courtney Lopez</t>
+          <t>Susan Chapman</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,13 +593,15 @@
           <t>9************5</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>33636</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1972-02-12</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88657 Bridges Ridges Suite 908
-New James, FM 12406</t>
+          <t>92484 Sanchez Burg Suite 331
+Grayland, OK 72314</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>April Acevedo</t>
+          <t>Tina Elliott</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -665,13 +665,15 @@
           <t>9************6</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>34396</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1926-05-04</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5782 Karen Freeway Apt. 121
-East Michael, MN 93036</t>
+          <t>9373 Stacy Unions Suite 449
+Cannonland, IA 21742</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -727,7 +729,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Larry Fitzgerald</t>
+          <t>Nicholas Wells</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -735,13 +737,15 @@
           <t>9************7</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>34793</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1925-11-10</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05018 Jonathan Causeway Suite 007
-Robertberg, PA 76718</t>
+          <t>677 Ronald Lights
+Andrewchester, AS 30654</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -797,7 +801,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Julia Turner</t>
+          <t>Shawn Hunt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -805,13 +809,15 @@
           <t>9************8</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>35190</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1976-07-02</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>557 Deborah Stravenue Suite 512
-Hunterland, PR 10743</t>
+          <t>471 Bryan Fields
+Georgestad, NJ 77162</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -867,7 +873,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Eric Gibbs</t>
+          <t>Kristen Fox</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -875,13 +881,15 @@
           <t>9************9</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>35587</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1957-01-29</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>42438 Choi Hill
-Anthonyfurt, AL 77481</t>
+          <t>075 Macias Curve Suite 296
+Lopezborough, NH 38025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -937,7 +945,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shannon Chen MD</t>
+          <t>Madison Duncan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -945,13 +953,15 @@
           <t>9************0</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>35983</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1947-02-06</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7581 Ricky Ville Suite 054
-Edwardstown, CA 70682</t>
+          <t>75232 Walters Pines
+Jasonborough, OK 27600</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1007,7 +1017,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jeffrey Dean</t>
+          <t>Laurie Holmes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1015,13 +1025,15 @@
           <t>9************1</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>36380</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1928-07-24</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50067 Jennifer Keys Apt. 550
-Ryanfort, MA 75532</t>
+          <t>595 Brenda Harbor Suite 060
+South Madisonfurt, AZ 49540</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1077,7 +1089,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rebecca Mcdaniel</t>
+          <t>Christina Espinoza</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1085,13 +1097,15 @@
           <t>0************2</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>36778</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1975-03-10</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>313 Ronald Throughway Suite 824
-Dennisside, OR 95517</t>
+          <t>PSC 8157, Box 1769
+APO AA 76606</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1147,7 +1161,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Keith Browning</t>
+          <t>Brenda Petersen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1155,13 +1169,15 @@
           <t>0************3</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>36892</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2004-02-25</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4141 Reed Village Apt. 499
-Brianbury, SD 77602</t>
+          <t>566 Kevin Cliffs
+Port Carlos, AL 04739</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1217,7 +1233,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Laura Sanders</t>
+          <t>Sharon Owen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1225,13 +1241,15 @@
           <t>0************4</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>37289</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1939-12-02</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PSC 1945, Box 0739
-APO AA 83783</t>
+          <t>247 Felicia Keys
+Port Mary, NY 16973</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1287,7 +1305,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rachel Perry</t>
+          <t>Ashley Gonzales</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1295,13 +1313,15 @@
           <t>0************5</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>37683</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1979-02-24</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19535 Joel Village
-Brownside, WV 45373</t>
+          <t>158 David Trafficway
+Katherinechester, AS 45943</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1357,7 +1377,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thomas Ray</t>
+          <t>David Myers</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1365,13 +1385,15 @@
           <t>0************6</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>38081</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1993-02-25</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>154 Sonia Loaf
-Lake Danieltown, IA 33784</t>
+          <t>4817 Tonya Meadows
+Johnstad, OK 61309</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1427,7 +1449,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lisa Jensen</t>
+          <t>Ricky Sherman</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1435,13 +1457,15 @@
           <t>0************7</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>38477</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1957-04-19</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>69188 Thomas Centers
-East Kimberlychester, VI 29574</t>
+          <t>71763 Harris Point
+East Casey, RI 14476</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1497,7 +1521,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shelby Zamora</t>
+          <t>Nicholas Petersen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1505,13 +1529,15 @@
           <t>0************8</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>38874</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1984-05-13</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05547 Luna Crossroad
-Stonefurt, IN 30064</t>
+          <t>381 Destiny Track
+Edwinview, ID 24102</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1567,7 +1593,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amanda Tate</t>
+          <t>Daniel Garcia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1575,13 +1601,15 @@
           <t>0************9</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>39270</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1943-05-17</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>746 Brandon Locks Apt. 876
-Gabrielaville, OK 12010</t>
+          <t>PSC 3371, Box 6888
+APO AE 68523</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1637,7 +1665,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lee Faulkner</t>
+          <t>Vicki Morgan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1645,13 +1673,15 @@
           <t>0************0</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>39668</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1983-09-16</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>242 Martin Radial
-Greenland, DC 64953</t>
+          <t>091 Fischer Dale
+Andreamouth, CT 33331</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1707,7 +1737,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>John Patterson</t>
+          <t>Nicholas Davila</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1715,13 +1745,15 @@
           <t>0************1</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>40065</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1939-09-09</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5134 David Via
-Lake Evanbury, NV 59386</t>
+          <t>235 White Hills Apt. 307
+Andrewsville, GA 56368</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1777,7 +1809,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Deanna Allen</t>
+          <t>Alyssa Campos</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1785,13 +1817,15 @@
           <t>1************2</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>40461</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1998-02-06</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>64830 Reyes Isle
-North Chad, PA 72164</t>
+          <t>384 Matthew Island
+Torresland, MO 57458</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1847,7 +1881,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wanda Ochoa</t>
+          <t>James Jones</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1855,13 +1889,15 @@
           <t>1************3</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>40858</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1976-05-01</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>53668 Alisha Village
-Christopherton, MI 28909</t>
+          <t>Unit 4917 Box 9699
+DPO AA 69452</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1917,7 +1953,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hayden Patterson</t>
+          <t>Jamie Adkins</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1925,13 +1961,15 @@
           <t>1************4</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>41255</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1960-07-12</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>55868 Mary Falls Suite 905
-Kimberlyland, TX 41676</t>
+          <t>0269 Timothy Island Suite 786
+North Joshua, NJ 16285</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1987,7 +2025,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chris Weber</t>
+          <t>Alyssa Torres</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1995,13 +2033,15 @@
           <t>1************5</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>41287</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1995-12-22</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6349 Marissa Pass Suite 370
-Sethton, WY 82983</t>
+          <t>29927 Timothy Trafficway Apt. 293
+North Carla, HI 04674</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2057,7 +2097,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Todd Martinez</t>
+          <t>Dr. Ashley Padilla</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2065,13 +2105,15 @@
           <t>1************6</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>41684</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1934-10-22</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PSC 3488, Box 2229
-APO AA 43527</t>
+          <t>90193 Diana Creek
+Leestad, DE 39643</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2127,7 +2169,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rodney Rangel</t>
+          <t>David Burch</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2135,13 +2177,15 @@
           <t>1************7</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>42078</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1979-05-16</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>28088 John Mall
-Terrishire, IA 76401</t>
+          <t>44613 Jamie Orchard Apt. 408
+Sparksstad, KY 54863</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2197,7 +2241,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ashley Brown</t>
+          <t>Tiffany Riley</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2205,13 +2249,15 @@
           <t>1************8</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>42476</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1995-09-17</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5591 Baker Groves Suite 620
-Lorimouth, AL 54896</t>
+          <t>570 Rogers Locks Apt. 277
+East Juliastad, PR 81704</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2267,7 +2313,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dr. Mark Delgado</t>
+          <t>Curtis Joyce MD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2275,13 +2321,15 @@
           <t>1************9</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>42872</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1974-07-23</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5612 Jeff Roads Suite 082
-Khanville, RI 13665</t>
+          <t>PSC 3796, Box 8239
+APO AA 82046</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2337,7 +2385,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Michael Williams</t>
+          <t>Jessica Miller</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2345,13 +2393,15 @@
           <t>1************0</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>43269</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1933-09-27</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>55013 Catherine Meadow Apt. 040
-North Maurice, SD 76429</t>
+          <t>4125 Bell Trail
+Ryanfurt, AL 44201</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2407,7 +2457,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wendy Malone</t>
+          <t>Alexa Ross</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2415,13 +2465,15 @@
           <t>1************1</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>43665</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1946-07-30</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13621 Michael Harbor
-South Bettyshire, NH 58398</t>
+          <t>18124 Gary Cove Suite 762
+New Jessicaport, CA 14465</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2477,7 +2529,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brittany Garcia</t>
+          <t>Mary Kelly</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2485,13 +2537,15 @@
           <t>2************2</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>44063</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1930-06-05</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9982 Lawrence Manors Apt. 459
-Davidstad, MN 21595</t>
+          <t>USS Beard
+FPO AP 77606</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2547,7 +2601,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brian Lucas</t>
+          <t>Mary Lopez</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2555,13 +2609,15 @@
           <t>2************3</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>44460</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2001-03-16</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>531 Reilly Trail
-Rayville, TN 94845</t>
+          <t>377 Melissa Cliff
+New Kevin, NM 46953</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jennifer Rodriguez</t>
+          <t>Wayne Lopez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9************4</t>
+          <t>9**********4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1975-09-27</t>
+          <t>12/11/1992</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92966 Brandon Canyon Suite 730
-Dayland, IN 71365</t>
+          <t>USCGC Willis
+FPO AP 35902</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0*********9</t>
+          <t>***-*****89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>Smithburgh</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -571,42 +571,42 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5000</v>
+        <v>3582</v>
       </c>
       <c r="N2" t="n">
         <v>3.5</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Computer Science 1A</t>
+          <t>population</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Susan Chapman</t>
+          <t>Nichole Parsons</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9************5</t>
+          <t>9**********5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1972-02-12</t>
+          <t>30/05/1957</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92484 Sanchez Burg Suite 331
-Grayland, OK 72314</t>
+          <t>97135 Boyd Glen
+Mcdanielmouth, VA 10567</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0*********0</t>
+          <t>***-*****90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Johor Bahru</t>
+          <t>West Crystalfurt</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -643,42 +643,42 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4500</v>
+        <v>7177</v>
       </c>
       <c r="N3" t="n">
         <v>3.8</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Business Admin 2B</t>
+          <t>cause</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tina Elliott</t>
+          <t>Linda Bailey</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>9**********6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1926-05-04</t>
+          <t>10/08/1997</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9373 Stacy Unions Suite 449
-Cannonland, IA 21742</t>
+          <t>937 Foster Walks
+Grossstad, DE 27171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0*********1</t>
+          <t>***-*****01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>West Trevor</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -715,42 +715,42 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>6000</v>
+        <v>9711</v>
       </c>
       <c r="N4" t="n">
         <v>3.4</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Engineering 3C</t>
+          <t>enjoy</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nicholas Wells</t>
+          <t>Joshua Flores</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>9**********7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1925-11-10</t>
+          <t>17/02/1927</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>677 Ronald Lights
-Andrewchester, AS 30654</t>
+          <t>PSC 4065, Box 0678
+APO AE 60035</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0*********2</t>
+          <t>***-*****12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ipoh</t>
+          <t>West Bethbury</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -787,42 +787,42 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>4186</v>
       </c>
       <c r="N5" t="n">
         <v>3.6</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Medicine 4D</t>
+          <t>record</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shawn Hunt</t>
+          <t>Robert Salas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>9**********8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1976-07-02</t>
+          <t>28/10/1996</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>471 Bryan Fields
-Georgestad, NJ 77162</t>
+          <t>2001 Nicole Avenue
+Patrickfurt, PW 94092</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0*********3</t>
+          <t>***-*****23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Shah Alam</t>
+          <t>Lake Kennethstad</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -859,42 +859,42 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>5200</v>
+        <v>6285</v>
       </c>
       <c r="N6" t="n">
         <v>3.7</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Law 5E</t>
+          <t>growth</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kristen Fox</t>
+          <t>Jason Johnson</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9************9</t>
+          <t>9**********9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1957-01-29</t>
+          <t>24/12/1992</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>075 Macias Curve Suite 296
-Lopezborough, NH 38025</t>
+          <t>696 Thomas Views Suite 830
+East Marymouth, WI 73270</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0*********4</t>
+          <t>***-*****34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Melaka</t>
+          <t>Jacksonmouth</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -931,42 +931,42 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4800</v>
+        <v>6755</v>
       </c>
       <c r="N7" t="n">
         <v>3.9</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Nursing 6F</t>
+          <t>wear</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Madison Duncan</t>
+          <t>Alejandro Francis</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>9**********0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1947-02-06</t>
+          <t>04/09/1962</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>75232 Walters Pines
-Jasonborough, OK 27600</t>
+          <t>754 Perez Prairie
+North Rogerfort, KY 48698</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0*********5</t>
+          <t>***-*****45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Seremban</t>
+          <t>Powerstown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1003,42 +1003,42 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5300</v>
+        <v>7073</v>
       </c>
       <c r="N8" t="n">
         <v>3.45</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Architecture 7G</t>
+          <t>analysis</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Laurie Holmes</t>
+          <t>Stephanie Roberts</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>9**********1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1928-07-24</t>
+          <t>19/08/1930</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>595 Brenda Harbor Suite 060
-South Madisonfurt, AZ 49540</t>
+          <t>494 Hess Place
+Fosterburgh, RI 34180</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0*********6</t>
+          <t>***-*****56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Kuantan</t>
+          <t>Aprilburgh</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1075,42 +1075,42 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>4700</v>
+        <v>2351</v>
       </c>
       <c r="N9" t="n">
         <v>3.65</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Pharmacy 8H</t>
+          <t>information</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Christina Espinoza</t>
+          <t>Karen Burton</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0************2</t>
+          <t>0**********2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1975-03-10</t>
+          <t>10/12/1934</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PSC 8157, Box 1769
-APO AA 76606</t>
+          <t>69310 Jessica Rest
+Michaelstad, SC 81770</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0*********8</t>
+          <t>***-*****78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Kota Kinabalu</t>
+          <t>Lake Roberthaven</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1147,42 +1147,42 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>6200</v>
+        <v>9135</v>
       </c>
       <c r="N10" t="n">
         <v>3.75</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Accounting 9I</t>
+          <t>hit</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brenda Petersen</t>
+          <t>Justin Rodriguez</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>0**********3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2004-02-25</t>
+          <t>24/06/1934</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>566 Kevin Cliffs
-Port Carlos, AL 04739</t>
+          <t>Unit 0240 Box 1862
+DPO AP 15594</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0*********9</t>
+          <t>***-*****89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Kuala Terengganu</t>
+          <t>Georgeton</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1219,42 +1219,42 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>4900</v>
+        <v>9272</v>
       </c>
       <c r="N11" t="n">
         <v>3.85</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Biotechnology 10J</t>
+          <t>man</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sharon Owen</t>
+          <t>Maureen Rivera</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>0**********4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1939-12-02</t>
+          <t>10/04/1957</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>247 Felicia Keys
-Port Mary, NY 16973</t>
+          <t>9839 Mcmillan Lights Apt. 704
+Johnmouth, RI 68936</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0*********1</t>
+          <t>***-*****01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Alor Setar</t>
+          <t>East Peter</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1291,42 +1291,42 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>4500</v>
+        <v>4605</v>
       </c>
       <c r="N12" t="n">
         <v>3.55</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Psychology 11K</t>
+          <t>election</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ashley Gonzales</t>
+          <t>Darryl Weiss</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0************5</t>
+          <t>0**********5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1979-02-24</t>
+          <t>04/09/1930</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>158 David Trafficway
-Katherinechester, AS 45943</t>
+          <t>Unit 5002 Box 8334
+DPO AA 76006</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0*********2</t>
+          <t>***-*****12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Miri</t>
+          <t>West Molly</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1363,42 +1363,42 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5800</v>
+        <v>8922</v>
       </c>
       <c r="N13" t="n">
         <v>3.5</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Chemistry 12L</t>
+          <t>help</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>David Myers</t>
+          <t>Daniel Walker</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>0**********6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1993-02-25</t>
+          <t>10/12/1929</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4817 Tonya Meadows
-Johnstad, OK 61309</t>
+          <t>935 Morgan Drives
+Ryanport, OR 60678</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0*********3</t>
+          <t>***-*****23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kuching</t>
+          <t>Anthonytown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1435,42 +1435,42 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5600</v>
+        <v>7886</v>
       </c>
       <c r="N14" t="n">
         <v>3.6</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Physics 13M</t>
+          <t>difference</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ricky Sherman</t>
+          <t>Stephen Clark</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0************7</t>
+          <t>0**********7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1957-04-19</t>
+          <t>25/08/1985</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>71763 Harris Point
-East Casey, RI 14476</t>
+          <t>21848 Avila Court
+West Brandon, WA 47870</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0*********4</t>
+          <t>***-*****34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Klang</t>
+          <t>Caitlinmouth</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1507,42 +1507,42 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="n">
         <v>3.8</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Mathematics 14N</t>
+          <t>pattern</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nicholas Petersen</t>
+          <t>Travis Mccall</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>0**********8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1984-05-13</t>
+          <t>14/04/1951</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>381 Destiny Track
-Edwinview, ID 24102</t>
+          <t>3511 Thomas Way
+Port Jamesstad, NM 25197</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0*********5</t>
+          <t>***-*****45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>East Samuel</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1579,42 +1579,42 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>4900</v>
+        <v>9736</v>
       </c>
       <c r="N16" t="n">
         <v>3.7</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Economics 15O</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Daniel Garcia</t>
+          <t>Joshua Garcia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0************9</t>
+          <t>0**********9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1943-05-17</t>
+          <t>16/07/2006</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PSC 3371, Box 6888
-APO AE 68523</t>
+          <t>3293 Gary Drive Suite 787
+South Krista, NM 37393</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0*********6</t>
+          <t>***-*****56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>West Mariehaven</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1651,42 +1651,42 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>4600</v>
+        <v>4714</v>
       </c>
       <c r="N17" t="n">
         <v>3.75</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>History 16P</t>
+          <t>collection</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vicki Morgan</t>
+          <t>Christopher Carrillo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0************0</t>
+          <t>0**********0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1983-09-16</t>
+          <t>13/02/1983</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>091 Fischer Dale
-Andreamouth, CT 33331</t>
+          <t>8515 Thomas Parks
+Clineborough, NV 61599</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0*********7</t>
+          <t>***-*****67</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Putrajaya</t>
+          <t>Port Cindy</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1723,42 +1723,42 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>5100</v>
+        <v>2942</v>
       </c>
       <c r="N18" t="n">
         <v>3.65</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Political Sci 17Q</t>
+          <t>outside</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nicholas Davila</t>
+          <t>Lindsey Klein</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0************1</t>
+          <t>0**********1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1939-09-09</t>
+          <t>09/05/1980</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>235 White Hills Apt. 307
-Andrewsville, GA 56368</t>
+          <t>890 John Corners Apt. 904
+Lake Lisaland, NY 94693</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0*********8</t>
+          <t>***-*****78</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sibu</t>
+          <t>Danielland</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1795,42 +1795,42 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5200</v>
+        <v>8815</v>
       </c>
       <c r="N19" t="n">
         <v>3.85</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Sociology 18R</t>
+          <t>example</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alyssa Campos</t>
+          <t>Ariel Rubio</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1************2</t>
+          <t>1**********2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1998-02-06</t>
+          <t>18/07/1980</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>384 Matthew Island
-Torresland, MO 57458</t>
+          <t>8090 Jason Rue Suite 045
+Lake Stevenmouth, AS 90385</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0*********9</t>
+          <t>***-*****89</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sandakan</t>
+          <t>South Kimberlyfurt</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1867,42 +1867,42 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>4700</v>
+        <v>9754</v>
       </c>
       <c r="N20" t="n">
         <v>3.5</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Computer Science 19S</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>James Jones</t>
+          <t>Alexis Hoover DVM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1************3</t>
+          <t>1**********3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1976-05-01</t>
+          <t>07/03/1993</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Unit 4917 Box 9699
-DPO AA 69452</t>
+          <t>20036 Lori Islands Suite 642
+Lake Christopher, MO 43411</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0*********0</t>
+          <t>***-*****90</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>West Steventown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1939,42 +1939,42 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4300</v>
+        <v>6085</v>
       </c>
       <c r="N21" t="n">
         <v>3.55</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Business Admin 20T</t>
+          <t>manager</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jamie Adkins</t>
+          <t>Jermaine Sims</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1************4</t>
+          <t>1**********4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1960-07-12</t>
+          <t>05/09/1941</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0269 Timothy Island Suite 786
-North Joshua, NJ 16285</t>
+          <t>138 Roberts Ports
+Port Suzanne, PA 03681</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0*********1</t>
+          <t>***-*****01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Alor Setar</t>
+          <t>East Jay</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2011,42 +2011,42 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>4600</v>
+        <v>2072</v>
       </c>
       <c r="N22" t="n">
         <v>3.8</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Education 21U</t>
+          <t>head</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Alyssa Torres</t>
+          <t>Laurie Bell DVM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1************5</t>
+          <t>1**********5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1995-12-22</t>
+          <t>23/03/1941</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29927 Timothy Trafficway Apt. 293
-North Carla, HI 04674</t>
+          <t>Unit 2160 Box 6707
+DPO AE 26701</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0*********2</t>
+          <t>***-*****12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Miri</t>
+          <t>Stephaniestad</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2083,42 +2083,42 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5500</v>
+        <v>8977</v>
       </c>
       <c r="N23" t="n">
         <v>3.65</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Literature 22V</t>
+          <t>last</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dr. Ashley Padilla</t>
+          <t>Robert Duncan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1************6</t>
+          <t>1**********6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1934-10-22</t>
+          <t>28/04/1995</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90193 Diana Creek
-Leestad, DE 39643</t>
+          <t>4296 King Creek Apt. 808
+North Ellen, AK 29042</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0*********3</t>
+          <t>***-*****23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Kuching</t>
+          <t>Port Lacey</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2155,42 +2155,42 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>4800</v>
+        <v>8937</v>
       </c>
       <c r="N24" t="n">
         <v>3.75</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Geography 23W</t>
+          <t>lay</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>David Burch</t>
+          <t>Dawn Pham</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1************7</t>
+          <t>1**********7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1979-05-16</t>
+          <t>13/09/1971</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>44613 Jamie Orchard Apt. 408
-Sparksstad, KY 54863</t>
+          <t>1533 Laurie Corners Apt. 680
+South Christopher, MD 13700</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0*********4</t>
+          <t>***-*****34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Klang</t>
+          <t>East Ronaldland</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2214,7 +2214,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2227,42 +2227,42 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>4500</v>
+        <v>7945</v>
       </c>
       <c r="N25" t="n">
         <v>3.85</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Art 24X</t>
+          <t>modern</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tiffany Riley</t>
+          <t>Kathy Powell</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1************8</t>
+          <t>1**********8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1995-09-17</t>
+          <t>11/03/1931</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>570 Rogers Locks Apt. 277
-East Juliastad, PR 81704</t>
+          <t>586 Long Trail
+Port Laurieland, MA 84267</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0*********5</t>
+          <t>***-*****45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>Lake Brian</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2299,42 +2299,42 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>5200</v>
+        <v>3367</v>
       </c>
       <c r="N26" t="n">
         <v>3.9</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Music 25Y</t>
+          <t>world</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Curtis Joyce MD</t>
+          <t>Kimberly Gray</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1************9</t>
+          <t>1**********9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1974-07-23</t>
+          <t>09/03/1962</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PSC 3796, Box 8239
-APO AA 82046</t>
+          <t>168 Philip Knolls
+Kathrynside, ID 60944</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0*********6</t>
+          <t>***-*****56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sibu</t>
+          <t>Espinozaside</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2371,42 +2371,42 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>5400</v>
+        <v>5531</v>
       </c>
       <c r="N27" t="n">
         <v>3.8</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Dance 26Z</t>
+          <t>marriage</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jessica Miller</t>
+          <t>Kathryn White</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1************0</t>
+          <t>1**********0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1933-09-27</t>
+          <t>21/01/1939</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4125 Bell Trail
-Ryanfurt, AL 44201</t>
+          <t>729 Derek Highway Suite 964
+Jeffreyhaven, CO 81240</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0*********7</t>
+          <t>***-*****67</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>Lake Bryan</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2443,42 +2443,42 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="N28" t="n">
         <v>3.65</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Theatre 27A</t>
+          <t>decide</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Alexa Ross</t>
+          <t>Nicole Kidd</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1************1</t>
+          <t>1**********1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1946-07-30</t>
+          <t>20/10/1974</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>18124 Gary Cove Suite 762
-New Jessicaport, CA 14465</t>
+          <t>0339 Cameron Brooks Apt. 639
+East Chad, AS 35485</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0*********8</t>
+          <t>***-*****78</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Putrajaya</t>
+          <t>North Davidfurt</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2515,42 +2515,42 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>5800</v>
+        <v>4686</v>
       </c>
       <c r="N29" t="n">
         <v>3.7</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Culinary Arts 28B</t>
+          <t>voice</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mary Kelly</t>
+          <t>Justin Oneal</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2************2</t>
+          <t>2**********2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1930-06-05</t>
+          <t>25/10/1959</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>USS Beard
-FPO AP 77606</t>
+          <t>892 Allen Terrace Suite 908
+Annaville, KY 05160</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0*********9</t>
+          <t>***-*****89</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sandakan</t>
+          <t>Lake Jessebury</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2587,42 +2587,42 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>4700</v>
+        <v>7574</v>
       </c>
       <c r="N30" t="n">
         <v>3.85</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Fashion Design 29C</t>
+          <t>fish</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mary Lopez</t>
+          <t>Janice Ibarra</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2************3</t>
+          <t>2**********3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2001-03-16</t>
+          <t>28/01/2000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>377 Melissa Cliff
-New Kevin, NM 46953</t>
+          <t>PSC 1569, Box 9608
+APO AP 45134</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0*********0</t>
+          <t>***-*****90</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Johor Bahru</t>
+          <t>Leemouth</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2659,14 +2659,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4900</v>
+        <v>9315</v>
       </c>
       <c r="N31" t="n">
         <v>3.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Photography 30D</t>
+          <t>hospital</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Nama</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Home Address</t>
+          <t>Alamat Rumah</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Place of Birth</t>
+          <t>Tempat Lahir</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Umur</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Parent Salary (RM)</t>
+          <t>Gaji</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wayne Lopez</t>
+          <t>Amanda Gonzalez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -523,13 +523,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12/11/1992</t>
+          <t>19/10/1961</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>USCGC Willis
-FPO AP 35902</t>
+          <t>3278 Williamson Greens
+Johnsonchester, HI 17744</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -549,43 +549,43 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Smithburgh</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3582</v>
+        <v>2932</v>
       </c>
       <c r="N2" t="n">
         <v>3.5</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>surface</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nichole Parsons</t>
+          <t>Sabrina Tapia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,13 +595,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30/05/1957</t>
+          <t>15/01/1996</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97135 Boyd Glen
-Mcdanielmouth, VA 10567</t>
+          <t>50504 Cuevas Inlet
+Bryanfort, AK 49231</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -621,43 +621,43 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>West Crystalfurt</t>
+          <t>J*********u</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>E*******t</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7177</v>
+        <v>7020</v>
       </c>
       <c r="N3" t="n">
         <v>3.8</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>cause</t>
+          <t>reduce</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Linda Bailey</t>
+          <t>Teresa Santiago</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -667,13 +667,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10/08/1997</t>
+          <t>19/05/1985</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>937 Foster Walks
-Grossstad, DE 27171</t>
+          <t>997 Smith Overpass
+Lozanochester, TN 32656</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -693,43 +693,43 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>West Trevor</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>C*****e</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>9711</v>
+        <v>2101</v>
       </c>
       <c r="N4" t="n">
         <v>3.4</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>enjoy</t>
+          <t>dinner</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joshua Flores</t>
+          <t>Cassie Murray</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -739,13 +739,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17/02/1927</t>
+          <t>02/01/1965</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PSC 4065, Box 0678
-APO AE 60035</t>
+          <t>34619 Mike Avenue
+South Kyle, AR 82912</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -765,43 +765,43 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>West Bethbury</t>
+          <t>I**h</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>F**r</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sikhism</t>
+          <t>S*****m</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>I****n</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>4186</v>
+        <v>3471</v>
       </c>
       <c r="N5" t="n">
         <v>3.6</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>record</t>
+          <t>stuff</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Robert Salas</t>
+          <t>Nancy Jenkins</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -811,13 +811,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28/10/1996</t>
+          <t>05/02/1952</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2001 Nicole Avenue
-Patrickfurt, PW 94092</t>
+          <t>2173 Corey Turnpike Suite 308
+East Gregory, HI 82152</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -837,43 +837,43 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Lake Kennethstad</t>
+          <t>S*******m</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6285</v>
+        <v>8756</v>
       </c>
       <c r="N6" t="n">
         <v>3.7</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>speak</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jason Johnson</t>
+          <t>Morgan Anderson</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -883,13 +883,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24/12/1992</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>696 Thomas Views Suite 830
-East Marymouth, WI 73270</t>
+          <t>19571 Rios Springs Suite 593
+South Theresa, NC 76267</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -909,43 +909,43 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Jacksonmouth</t>
+          <t>M****a</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>E*******t</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>C*****e</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>6755</v>
+        <v>2589</v>
       </c>
       <c r="N7" t="n">
         <v>3.9</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>wear</t>
+          <t>parent</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alejandro Francis</t>
+          <t>Melissa Brown</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -955,13 +955,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>04/09/1962</t>
+          <t>23/11/1996</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>754 Perez Prairie
-North Rogerfort, KY 48698</t>
+          <t>984 Joseph Spur Apt. 691
+Cooperport, NJ 75797</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -981,43 +981,43 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Powerstown</t>
+          <t>S******n</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>I****n</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>7073</v>
+        <v>2930</v>
       </c>
       <c r="N8" t="n">
         <v>3.45</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>involve</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Stephanie Roberts</t>
+          <t>Corey Sanchez</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1027,13 +1027,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19/08/1930</t>
+          <t>12/04/2001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>494 Hess Place
-Fosterburgh, RI 34180</t>
+          <t>476 Lawrence Skyway Apt. 628
+Port Jeffreyhaven, KY 87031</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1053,43 +1053,43 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprilburgh</t>
+          <t>K*****n</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>F**r</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2351</v>
+        <v>8118</v>
       </c>
       <c r="N9" t="n">
         <v>3.65</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>turn</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Karen Burton</t>
+          <t>Robert Robinson</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1099,13 +1099,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10/12/1934</t>
+          <t>05/08/1981</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>69310 Jessica Rest
-Michaelstad, SC 81770</t>
+          <t>429 Lynn Station
+North Heatherburgh, NY 15831</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1125,43 +1125,43 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Lake Roberthaven</t>
+          <t>K***********u</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>C*****e</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>9135</v>
+        <v>3667</v>
       </c>
       <c r="N10" t="n">
         <v>3.75</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>hit</t>
+          <t>among</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Justin Rodriguez</t>
+          <t>Nicole Morrow</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1171,13 +1171,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>24/06/1934</t>
+          <t>20/04/2003</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Unit 0240 Box 1862
-DPO AP 15594</t>
+          <t>7935 Meagan Parkways Apt. 099
+East Patrickbury, MT 15638</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1197,43 +1197,43 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Georgeton</t>
+          <t>K**************u</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>E*******t</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>I****n</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>9272</v>
+        <v>4335</v>
       </c>
       <c r="N11" t="n">
         <v>3.85</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>toward</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Maureen Rivera</t>
+          <t>Mary Green</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1243,13 +1243,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10/04/1957</t>
+          <t>30/03/1990</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9839 Mcmillan Lights Apt. 704
-Johnmouth, RI 68936</t>
+          <t>2134 Price Valley Suite 511
+Jamesland, AZ 72484</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1269,43 +1269,43 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>East Peter</t>
+          <t>A********r</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>4605</v>
+        <v>7732</v>
       </c>
       <c r="N12" t="n">
         <v>3.55</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>election</t>
+          <t>also</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Darryl Weiss</t>
+          <t>Robert Kramer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1315,13 +1315,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>04/09/1930</t>
+          <t>01/02/1981</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Unit 5002 Box 8334
-DPO AA 76006</t>
+          <t>8023 Gregory Mills Apt. 629
+Stephenmouth, IN 79482</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1341,43 +1341,43 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>West Molly</t>
+          <t>M**i</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>F**r</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>C*****e</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>8922</v>
+        <v>2849</v>
       </c>
       <c r="N13" t="n">
         <v>3.5</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>especially</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Daniel Walker</t>
+          <t>Christopher Blake</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1387,13 +1387,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10/12/1929</t>
+          <t>02/10/1943</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>935 Morgan Drives
-Ryanport, OR 60678</t>
+          <t>USNV Aguilar
+FPO AA 30869</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1413,43 +1413,43 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Anthonytown</t>
+          <t>K*****g</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>I****n</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>7886</v>
+        <v>8929</v>
       </c>
       <c r="N14" t="n">
         <v>3.6</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>truth</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Stephen Clark</t>
+          <t>Gabriel Mckee</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1459,13 +1459,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25/08/1985</t>
+          <t>06/07/1941</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21848 Avila Court
-West Brandon, WA 47870</t>
+          <t>PSC 6028, Box 8621
+APO AP 87129</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1485,43 +1485,43 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Caitlinmouth</t>
+          <t>K***g</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>E*******t</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>8590</v>
       </c>
       <c r="N15" t="n">
         <v>3.8</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>party</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Travis Mccall</t>
+          <t>Teresa Gomez</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1531,13 +1531,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14/04/1951</t>
+          <t>04/04/1957</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3511 Thomas Way
-Port Jamesstad, NM 25197</t>
+          <t>1204 Russell Valleys Apt. 958
+Dalefurt, AZ 95723</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1557,43 +1557,43 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>East Samuel</t>
+          <t>G********n</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>C*****e</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>9736</v>
+        <v>2258</v>
       </c>
       <c r="N16" t="n">
         <v>3.7</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>really</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Joshua Garcia</t>
+          <t>Ms. Shelby Weaver</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1603,13 +1603,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16/07/2006</t>
+          <t>01/07/1984</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3293 Gary Drive Suite 787
-South Krista, NM 37393</t>
+          <t>USCGC Kerr
+FPO AP 35355</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1629,43 +1629,43 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>West Mariehaven</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>F**r</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>I****n</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>4714</v>
+        <v>2353</v>
       </c>
       <c r="N17" t="n">
         <v>3.75</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>collection</t>
+          <t>thought</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Christopher Carrillo</t>
+          <t>Brent Anderson</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1675,13 +1675,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13/02/1983</t>
+          <t>18/06/1947</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8515 Thomas Parks
-Clineborough, NV 61599</t>
+          <t>500 French Station
+Lake Kennethhaven, IL 80708</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1701,43 +1701,43 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Port Cindy</t>
+          <t>P*******a</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2942</v>
+        <v>7225</v>
       </c>
       <c r="N18" t="n">
         <v>3.65</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>outside</t>
+          <t>really</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lindsey Klein</t>
+          <t>Frank Peck</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1747,13 +1747,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09/05/1980</t>
+          <t>23/11/1924</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>890 John Corners Apt. 904
-Lake Lisaland, NY 94693</t>
+          <t>67338 James Overpass
+Andersonstad, SC 35298</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1773,43 +1773,43 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Danielland</t>
+          <t>S**u</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>E*******t</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>C*****e</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>8815</v>
+        <v>6552</v>
       </c>
       <c r="N19" t="n">
         <v>3.85</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>example</t>
+          <t>often</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ariel Rubio</t>
+          <t>Michael Dominguez</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1819,13 +1819,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18/07/1980</t>
+          <t>19/05/1966</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8090 Jason Rue Suite 045
-Lake Stevenmouth, AS 90385</t>
+          <t>5860 Latoya Camp
+Josephstad, AL 99811</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1845,43 +1845,43 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>South Kimberlyfurt</t>
+          <t>S******n</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>F**r</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>I****n</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>9754</v>
+        <v>9273</v>
       </c>
       <c r="N20" t="n">
         <v>3.5</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>structure</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alexis Hoover DVM</t>
+          <t>Bruce Rivera</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1891,13 +1891,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>07/03/1993</t>
+          <t>04/09/1971</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20036 Lori Islands Suite 642
-Lake Christopher, MO 43411</t>
+          <t>Unit 3140 Box 7141
+DPO AP 27549</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1917,43 +1917,43 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>West Steventown</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>6085</v>
+        <v>4631</v>
       </c>
       <c r="N21" t="n">
         <v>3.55</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>cup</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jermaine Sims</t>
+          <t>Kristi Ross</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1963,13 +1963,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>05/09/1941</t>
+          <t>17/10/1995</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>138 Roberts Ports
-Port Suzanne, PA 03681</t>
+          <t>3215 Sheri Prairie Apt. 770
+West Tomburgh, WI 43452</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1989,43 +1989,43 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>East Jay</t>
+          <t>A********r</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2072</v>
+        <v>3140</v>
       </c>
       <c r="N22" t="n">
         <v>3.8</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>head</t>
+          <t>machine</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Laurie Bell DVM</t>
+          <t>Eric Johnson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2035,13 +2035,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>23/03/1941</t>
+          <t>15/05/1988</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Unit 2160 Box 6707
-DPO AE 26701</t>
+          <t>64017 Franklin Mission Apt. 916
+West Penny, GU 64241</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2061,43 +2061,43 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Stephaniestad</t>
+          <t>M**i</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>F**r</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>C*****e</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>8977</v>
+        <v>8216</v>
       </c>
       <c r="N23" t="n">
         <v>3.65</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>last</t>
+          <t>day</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Robert Duncan</t>
+          <t>Kelly Leonard</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2107,13 +2107,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28/04/1995</t>
+          <t>25/08/1930</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4296 King Creek Apt. 808
-North Ellen, AK 29042</t>
+          <t>7419 Keith Alley
+East Jason, OR 80195</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2133,43 +2133,43 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Port Lacey</t>
+          <t>K*****g</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>E*******t</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>I****n</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>8937</v>
+        <v>6173</v>
       </c>
       <c r="N24" t="n">
         <v>3.75</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>sell</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dawn Pham</t>
+          <t>Donald Conrad</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2179,13 +2179,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13/09/1971</t>
+          <t>20/07/1954</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1533 Laurie Corners Apt. 680
-South Christopher, MD 13700</t>
+          <t>211 Eric Isle
+North Ryan, MP 10036</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2205,43 +2205,43 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>East Ronaldland</t>
+          <t>K***g</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>7945</v>
+        <v>6676</v>
       </c>
       <c r="N25" t="n">
         <v>3.85</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>modern</t>
+          <t>executive</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Kathy Powell</t>
+          <t>Tracy Mccullough DVM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2251,13 +2251,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11/03/1931</t>
+          <t>13/11/1975</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>586 Long Trail
-Port Laurieland, MA 84267</t>
+          <t>329 Brooks Land
+West Ethan, MI 15052</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2277,43 +2277,43 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Lake Brian</t>
+          <t>G********n</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>E*******t</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>C*****e</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>3367</v>
+        <v>3536</v>
       </c>
       <c r="N26" t="n">
         <v>3.9</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>hold</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kimberly Gray</t>
+          <t>John Greene</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2323,13 +2323,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>09/03/1962</t>
+          <t>06/01/1956</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>168 Philip Knolls
-Kathrynside, ID 60944</t>
+          <t>845 Hall Drive Apt. 851
+New Karen, TN 46751</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2349,43 +2349,43 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Espinozaside</t>
+          <t>S**u</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>I****n</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>5531</v>
+        <v>4431</v>
       </c>
       <c r="N27" t="n">
         <v>3.8</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>marriage</t>
+          <t>civil</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kathryn White</t>
+          <t>Carrie Wilson</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2395,13 +2395,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21/01/1939</t>
+          <t>30/08/1952</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>729 Derek Highway Suite 964
-Jeffreyhaven, CO 81240</t>
+          <t>93428 Cynthia Prairie Suite 799
+North Michaelmouth, ME 07195</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2421,43 +2421,43 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Lake Bryan</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>F**r</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>6700</v>
+        <v>9594</v>
       </c>
       <c r="N28" t="n">
         <v>3.65</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>decide</t>
+          <t>book</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nicole Kidd</t>
+          <t>Matthew Walsh</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2467,13 +2467,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20/10/1974</t>
+          <t>28/01/1982</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0339 Cameron Brooks Apt. 639
-East Chad, AS 35485</t>
+          <t>019 Moreno Keys Suite 834
+Jacksonburgh, WA 99547</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2493,43 +2493,43 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>North Davidfurt</t>
+          <t>P*******a</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>E*******t</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Buddhism</t>
+          <t>B******m</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>C*****e</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>4686</v>
+        <v>4392</v>
       </c>
       <c r="N29" t="n">
         <v>3.7</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>voice</t>
+          <t>audience</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Justin Oneal</t>
+          <t>Karla Scott</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2539,13 +2539,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>25/10/1959</t>
+          <t>04/08/1948</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>892 Allen Terrace Suite 908
-Annaville, KY 05160</t>
+          <t>821 Harper Stream
+Brianfurt, WV 67310</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F****e</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2565,43 +2565,43 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Lake Jessebury</t>
+          <t>S******n</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>G**d</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>I***m</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>M***y</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>7574</v>
+        <v>6025</v>
       </c>
       <c r="N30" t="n">
         <v>3.85</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>staff</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Janice Ibarra</t>
+          <t>Darren Duran</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2611,13 +2611,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28/01/2000</t>
+          <t>10/01/1924</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PSC 1569, Box 9608
-APO AP 45134</t>
+          <t>1665 Alejandro Radial
+Mercadoberg, MP 72501</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M**e</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2637,36 +2637,36 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Leemouth</t>
+          <t>J*********u</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>F**r</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hinduism</t>
+          <t>H******m</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>I****n</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>9315</v>
+        <v>4389</v>
       </c>
       <c r="N31" t="n">
         <v>3.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>country</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nama</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Alamat Rumah</t>
+          <t>Home Address</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Tempat Lahir</t>
+          <t>Place of Birth</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Umur</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Gaji</t>
+          <t>Parent Salary (RM)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amanda Gonzalez</t>
+          <t>Joseph Calderon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -523,13 +523,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19/10/1961</t>
+          <t>24/08/1988</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3278 Williamson Greens
-Johnsonchester, HI 17744</t>
+          <t>29238 Benjamin Knoll Suite 887
+West Ashleyhaven, AS 57961</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Pressure recently.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -549,43 +549,43 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>Josephmouth</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Single ten long.</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Figure huge care.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Defense decade view.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2932</v>
+        <v>5534</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>7227</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>surface</t>
+          <t>interesting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sabrina Tapia</t>
+          <t>Wesley White</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,13 +595,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15/01/1996</t>
+          <t>10/01/1962</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50504 Cuevas Inlet
-Bryanfort, AK 49231</t>
+          <t>66919 Gonzalez Coves
+South Brooke, AR 73683</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Agent picture.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -621,43 +621,43 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>J*********u</t>
+          <t>Georgehaven</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>E*******t</t>
+          <t>Design natural.</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Economic fall free.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Their society argue.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7020</v>
+        <v>2244</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>3325</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>reduce</t>
+          <t>scene</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Teresa Santiago</t>
+          <t>Nicole Calhoun</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -667,13 +667,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19/05/1985</t>
+          <t>25/04/1988</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>997 Smith Overpass
-Lozanochester, TN 32656</t>
+          <t>67520 Hines Pike
+Benjaminport, MH 25043</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Hundred single view.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -693,43 +693,43 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>Brownchester</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Report put card man.</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Fear admit get.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C*****e</t>
+          <t>Similar prevent.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2101</v>
+        <v>3181</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>5934</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>else</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cassie Murray</t>
+          <t>Cynthia Hawkins</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -739,13 +739,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02/01/1965</t>
+          <t>06/03/1994</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34619 Mike Avenue
-South Kyle, AR 82912</t>
+          <t>PSC 0059, Box 7134
+APO AP 66319</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Guy thought officer.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -765,43 +765,43 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>I**h</t>
+          <t>Richardstad</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>F**r</t>
+          <t>Security hotel lot.</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>S*****m</t>
+          <t>Experience region.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>I****n</t>
+          <t>Receive surface.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3471</v>
+        <v>6866</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>2066</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>stuff</t>
+          <t>return</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nancy Jenkins</t>
+          <t>Douglas Wagner</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -811,13 +811,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05/02/1952</t>
+          <t>11/07/1979</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2173 Corey Turnpike Suite 308
-East Gregory, HI 82152</t>
+          <t>313 Campbell Ridge Apt. 301
+Douglasburgh, PR 79132</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Mr something.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -837,43 +837,43 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S*******m</t>
+          <t>Maxwellport</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Decade raise center.</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Television street.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Carry old rule I.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>8756</v>
+        <v>4288</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>7790</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>speak</t>
+          <t>style</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Morgan Anderson</t>
+          <t>Caitlin Spears</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -883,13 +883,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19571 Rios Springs Suite 593
-South Theresa, NC 76267</t>
+          <t>USNV Hall
+FPO AE 67787</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Box affect activity.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -909,43 +909,43 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>M****a</t>
+          <t>North Karenview</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>E*******t</t>
+          <t>Wide question ahead.</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Series new.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C*****e</t>
+          <t>Win explain black.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>2589</v>
+        <v>6039</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>4678</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>similar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Melissa Brown</t>
+          <t>Robert Gould</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -955,13 +955,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23/11/1996</t>
+          <t>11/08/1994</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>984 Joseph Spur Apt. 691
-Cooperport, NJ 75797</t>
+          <t>054 Christopher Springs Apt. 722
+Lake Sheilatown, VA 86006</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Green specific fish.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -981,43 +981,43 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S******n</t>
+          <t>New Kathrynview</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Concern majority.</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Security test major.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>I****n</t>
+          <t>Born which art team.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>2930</v>
+        <v>6920</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>4381</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>involve</t>
+          <t>thousand</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Corey Sanchez</t>
+          <t>Roger Mueller</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1027,13 +1027,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12/04/2001</t>
+          <t>07/11/2001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>476 Lawrence Skyway Apt. 628
-Port Jeffreyhaven, KY 87031</t>
+          <t>69045 Bennett Dale
+Lake Christopher, UT 52529</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Bill station play.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1053,43 +1053,43 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>K*****n</t>
+          <t>Carsonshire</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>F**r</t>
+          <t>TV state type focus.</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Available save main.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Energy represent.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>8118</v>
+        <v>9810</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3805</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>herself</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Robert Robinson</t>
+          <t>George Mckenzie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1099,13 +1099,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>05/08/1981</t>
+          <t>18/05/1961</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>429 Lynn Station
-North Heatherburgh, NY 15831</t>
+          <t>31685 Amanda Stravenue
+New Carly, VT 67763</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Positive probably.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1125,43 +1125,43 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>K***********u</t>
+          <t>Cowanfort</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Magazine tax send.</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Provide born which.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C*****e</t>
+          <t>List team.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3667</v>
+        <v>8154</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>5500</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>spend</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nicole Morrow</t>
+          <t>Brian Tucker</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1171,13 +1171,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20/04/2003</t>
+          <t>24/03/1988</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7935 Meagan Parkways Apt. 099
-East Patrickbury, MT 15638</t>
+          <t>57715 Patricia Landing
+West Pamelaborough, MA 07937</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Still Mrs radio.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1197,43 +1197,43 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>K**************u</t>
+          <t>Cookton</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>E*******t</t>
+          <t>Technology grow.</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Behavior recognize.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>I****n</t>
+          <t>Expect couple pass.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>4335</v>
+        <v>7638</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>5161</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>goal</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mary Green</t>
+          <t>Richard Williams</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1243,13 +1243,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/03/1990</t>
+          <t>21/05/2005</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2134 Price Valley Suite 511
-Jamesland, AZ 72484</t>
+          <t>USNV Tanner
+FPO AE 32082</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Trip environment.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1269,43 +1269,43 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>A********r</t>
+          <t>Kendraton</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Moment husband.</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Really history.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Sometimes edge.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>7732</v>
+        <v>3870</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>7596</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>hit</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Robert Kramer</t>
+          <t>Carol Garrison</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1315,13 +1315,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/02/1981</t>
+          <t>09/04/1982</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8023 Gregory Mills Apt. 629
-Stephenmouth, IN 79482</t>
+          <t>6663 Tamara Ridges
+East Micheal, NM 53220</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Trade recognize.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1341,43 +1341,43 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>M**i</t>
+          <t>Calvinbury</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>F**r</t>
+          <t>Population feeling.</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Apply discussion.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C*****e</t>
+          <t>Again section later.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>2849</v>
+        <v>7658</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>4441</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>especially</t>
+          <t>yourself</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Christopher Blake</t>
+          <t>Mitchell Sparks</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1387,13 +1387,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>02/10/1943</t>
+          <t>15/08/1951</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>USNV Aguilar
-FPO AA 30869</t>
+          <t>24186 Sarah Lights Apt. 032
+West Darryl, MS 74171</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Air fish body area.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1413,43 +1413,43 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>K*****g</t>
+          <t>Randalltown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Wrong glass hope.</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Tell health base.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>I****n</t>
+          <t>Cell image.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>8929</v>
+        <v>8753</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>3131</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>truth</t>
+          <t>day</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gabriel Mckee</t>
+          <t>Karen Morrison MD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1459,13 +1459,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06/07/1941</t>
+          <t>16/12/1967</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PSC 6028, Box 8621
-APO AP 87129</t>
+          <t>197 Davis Parkways
+Jordanchester, NV 05949</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Another PM born.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1485,43 +1485,43 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>K***g</t>
+          <t>Butlerfurt</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>E*******t</t>
+          <t>Read wait pick.</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Employee card.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Thought within.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>8590</v>
+        <v>3804</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>6534</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>party</t>
+          <t>put</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Teresa Gomez</t>
+          <t>Susan Watson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1531,13 +1531,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>04/04/1957</t>
+          <t>17/02/1949</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1204 Russell Valleys Apt. 958
-Dalefurt, AZ 95723</t>
+          <t>19621 Amy Springs
+West Amandatown, SD 62578</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Appear focus edge.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1557,43 +1557,43 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>G********n</t>
+          <t>Williamfort</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>His strong total.</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Significant hard.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C*****e</t>
+          <t>Movement bit their.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2258</v>
+        <v>4485</v>
       </c>
       <c r="N16" t="n">
-        <v>3.7</v>
+        <v>8516</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>really</t>
+          <t>majority</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ms. Shelby Weaver</t>
+          <t>Johnny Howell</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1603,13 +1603,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/07/1984</t>
+          <t>09/06/1934</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>USCGC Kerr
-FPO AP 35355</t>
+          <t>5653 William Vista
+Lake Johntown, MA 43529</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Win say hair modern.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1629,43 +1629,43 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>Figueroaside</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>F**r</t>
+          <t>Threat note.</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Treat shoulder.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>I****n</t>
+          <t>Heart which public.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2353</v>
+        <v>5930</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>4706</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>thought</t>
+          <t>skill</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brent Anderson</t>
+          <t>Mr. James Watson</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1675,13 +1675,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18/06/1947</t>
+          <t>31/10/1974</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>500 French Station
-Lake Kennethhaven, IL 80708</t>
+          <t>11550 Barbara Groves Suite 586
+Sanchezfurt, IN 21135</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Former recently.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1701,43 +1701,43 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P*******a</t>
+          <t>Danielleburgh</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Central over family.</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Air shake able him.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Must no yourself.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>7225</v>
+        <v>7958</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>1678</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>really</t>
+          <t>near</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Frank Peck</t>
+          <t>Christina Smith</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1747,13 +1747,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23/11/1924</t>
+          <t>23/09/1973</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>67338 James Overpass
-Andersonstad, SC 35298</t>
+          <t>3443 Cook Flat Suite 564
+Burtonview, NM 90567</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Someone edge carry.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1773,43 +1773,43 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S**u</t>
+          <t>Seantown</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>E*******t</t>
+          <t>Growth treatment us.</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Present explain.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C*****e</t>
+          <t>Partner large.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>6552</v>
+        <v>9124</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>2341</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>out</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Michael Dominguez</t>
+          <t>Jason Steele</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1819,13 +1819,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19/05/1966</t>
+          <t>27/07/1981</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5860 Latoya Camp
-Josephstad, AL 99811</t>
+          <t>PSC 7514, Box 0057
+APO AP 43978</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Room this son music.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1845,43 +1845,43 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>S******n</t>
+          <t>Cassandrastad</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>F**r</t>
+          <t>Traditional similar.</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Head performance.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>I****n</t>
+          <t>Staff action any.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>9273</v>
+        <v>3494</v>
       </c>
       <c r="N20" t="n">
-        <v>3.5</v>
+        <v>3591</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>appear</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bruce Rivera</t>
+          <t>Melinda Wagner</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1891,13 +1891,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04/09/1971</t>
+          <t>09/06/1985</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Unit 3140 Box 7141
-DPO AP 27549</t>
+          <t>446 Sarah Cliffs Apt. 747
+South Barrymouth, NH 24239</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Kitchen up left.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1917,43 +1917,43 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>New Robert</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Dream imagine town.</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Serve amount large.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Certainly plan oil.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4631</v>
+        <v>4138</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>3388</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>cup</t>
+          <t>hope</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kristi Ross</t>
+          <t>Logan Lambert</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1963,13 +1963,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17/10/1995</t>
+          <t>11/03/2002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3215 Sheri Prairie Apt. 770
-West Tomburgh, WI 43452</t>
+          <t>397 Bender Harbors
+Curtisfurt, IL 48756</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Fly five meeting.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1989,43 +1989,43 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>A********r</t>
+          <t>Lake Paul</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Similar doctor.</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Seven shoulder bag.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Energy want often.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>3140</v>
+        <v>4645</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>5172</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>machine</t>
+          <t>before</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eric Johnson</t>
+          <t>Brenda Daniels</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2035,13 +2035,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15/05/1988</t>
+          <t>20/09/1996</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>64017 Franklin Mission Apt. 916
-West Penny, GU 64241</t>
+          <t>9177 Craig Ports
+Matthewmouth, GA 24780</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Part interesting.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2061,43 +2061,43 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>M**i</t>
+          <t>Saunderstown</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>F**r</t>
+          <t>Structure never.</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Free test above.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C*****e</t>
+          <t>Cup feel continue.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>8216</v>
+        <v>3768</v>
       </c>
       <c r="N23" t="n">
-        <v>3.65</v>
+        <v>5713</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>final</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kelly Leonard</t>
+          <t>Angelica Johnson</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2107,13 +2107,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>25/08/1930</t>
+          <t>02/12/1978</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7419 Keith Alley
-East Jason, OR 80195</t>
+          <t>68189 Melissa Fork
+Jenniferborough, AR 15848</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Story for political.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2133,43 +2133,43 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>K*****g</t>
+          <t>Lawrenceborough</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>E*******t</t>
+          <t>Store street health.</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Through enough use.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>I****n</t>
+          <t>Him toward better.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>6173</v>
+        <v>9791</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>4808</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>follow</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Donald Conrad</t>
+          <t>Ashley Johnson MD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2179,13 +2179,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20/07/1954</t>
+          <t>05/06/2001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>211 Eric Isle
-North Ryan, MP 10036</t>
+          <t>71875 Ortega Bypass Suite 705
+Byrdstad, FL 88627</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Add call sell store.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2205,43 +2205,43 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>K***g</t>
+          <t>Sweeneybury</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Man discover each.</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Box official.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Yard difference.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>6676</v>
+        <v>4926</v>
       </c>
       <c r="N25" t="n">
-        <v>3.85</v>
+        <v>5617</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>discuss</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tracy Mccullough DVM</t>
+          <t>Travis Thomas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2251,13 +2251,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13/11/1975</t>
+          <t>02/10/1948</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>329 Brooks Land
-West Ethan, MI 15052</t>
+          <t>6023 Jacqueline Ridge Suite 053
+West Philip, KY 02197</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Mind beyond huge by.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2277,43 +2277,43 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>G********n</t>
+          <t>Port David</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>E*******t</t>
+          <t>Walk goal night.</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>News information.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C*****e</t>
+          <t>Economy generation.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>3536</v>
+        <v>7444</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>5097</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>practice</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>John Greene</t>
+          <t>Lindsey Robinson</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2323,13 +2323,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06/01/1956</t>
+          <t>10/05/1930</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>845 Hall Drive Apt. 851
-New Karen, TN 46751</t>
+          <t>749 Howard Mews Suite 106
+South Colleenton, HI 45949</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Environmental light.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2349,43 +2349,43 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S**u</t>
+          <t>South Terrance</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Glass produce.</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Development fear.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>I****n</t>
+          <t>Live miss former.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4431</v>
+        <v>4235</v>
       </c>
       <c r="N27" t="n">
-        <v>3.8</v>
+        <v>2661</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>civil</t>
+          <t>game</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Carrie Wilson</t>
+          <t>Whitney Torres</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2395,13 +2395,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30/08/1952</t>
+          <t>27/07/1934</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93428 Cynthia Prairie Suite 799
-North Michaelmouth, ME 07195</t>
+          <t>8669 Andersen Fall Suite 300
+East Brianna, GU 57511</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Term attack them.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2421,43 +2421,43 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>Lake Mario</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>F**r</t>
+          <t>Around street boy.</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Manager back myself.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>Mother show.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>9594</v>
+        <v>5262</v>
       </c>
       <c r="N28" t="n">
-        <v>3.65</v>
+        <v>1927</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>open</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Matthew Walsh</t>
+          <t>Nicolas Underwood</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2467,13 +2467,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28/01/1982</t>
+          <t>12/07/1965</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>019 Moreno Keys Suite 834
-Jacksonburgh, WA 99547</t>
+          <t>5141 Flores Points
+North Douglas, IL 38025</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Worry doctor his.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2493,43 +2493,43 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P*******a</t>
+          <t>Sandovalberg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>E*******t</t>
+          <t>Goal political trip.</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>B******m</t>
+          <t>Model specific now.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C*****e</t>
+          <t>But about pass.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>4392</v>
+        <v>5078</v>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>3317</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>audience</t>
+          <t>national</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Karla Scott</t>
+          <t>Cody Farrell</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2539,13 +2539,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>04/08/1948</t>
+          <t>08/02/1928</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>821 Harper Stream
-Brianfurt, WV 67310</t>
+          <t>144 Ricardo Vista Apt. 480
+Dixontown, VI 35294</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>F****e</t>
+          <t>Soldier lead behind.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2565,43 +2565,43 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S******n</t>
+          <t>New Melissaburgh</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>G**d</t>
+          <t>Realize teach those.</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>I***m</t>
+          <t>Itself wish top.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>M***y</t>
+          <t>True item any media.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>6025</v>
+        <v>6188</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>4625</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>staff</t>
+          <t>benefit</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Darren Duran</t>
+          <t>Michael Wright</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2611,13 +2611,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10/01/1924</t>
+          <t>09/06/1995</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1665 Alejandro Radial
-Mercadoberg, MP 72501</t>
+          <t>100 Hurley Island Apt. 812
+Hoffmanbury, NC 14561</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>M**e</t>
+          <t>Ten language affect.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2637,36 +2637,36 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>J*********u</t>
+          <t>North Karaborough</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>F**r</t>
+          <t>Section boy who.</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>H******m</t>
+          <t>Most keep.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>I****n</t>
+          <t>Music field.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4389</v>
+        <v>9273</v>
       </c>
       <c r="N31" t="n">
-        <v>3.55</v>
+        <v>9273</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>hard</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Joseph Calderon</t>
+          <t>Lisa Adams</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -523,13 +523,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24/08/1988</t>
+          <t>19/02/1995</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29238 Benjamin Knoll Suite 887
-West Ashleyhaven, AS 57961</t>
+          <t>29005 Bryan Heights
+Port Sarahhaven, DE 77487</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pressure recently.</t>
+          <t>The meeting myself.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -549,43 +549,43 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Josephmouth</t>
+          <t>South Shannon</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Single ten long.</t>
+          <t>Size one health he.</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Figure huge care.</t>
+          <t>Partner too risk.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Defense decade view.</t>
+          <t>Truth view score.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5534</v>
+        <v>2053</v>
       </c>
       <c r="N2" t="n">
-        <v>7227</v>
+        <v>6377</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>interesting</t>
+          <t>standard</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wesley White</t>
+          <t>Sandra Rogers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,13 +595,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10/01/1962</t>
+          <t>29/01/1999</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66919 Gonzalez Coves
-South Brooke, AR 73683</t>
+          <t>9244 Franklin Oval Apt. 569
+Michealborough, IL 45211</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Agent picture.</t>
+          <t>Alone tell support.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -621,43 +621,43 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Georgehaven</t>
+          <t>Lake Lori</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Design natural.</t>
+          <t>Wrong newspaper per.</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Economic fall free.</t>
+          <t>Democrat fly people.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Their society argue.</t>
+          <t>Difficult data.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2244</v>
+        <v>4599</v>
       </c>
       <c r="N3" t="n">
-        <v>3325</v>
+        <v>2124</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>scene</t>
+          <t>vote</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nicole Calhoun</t>
+          <t>Jason Hogan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -667,13 +667,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25/04/1988</t>
+          <t>05/03/2005</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>67520 Hines Pike
-Benjaminport, MH 25043</t>
+          <t>Unit 8170 Box 4535
+DPO AP 31029</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hundred single view.</t>
+          <t>Consider reflect.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -693,43 +693,43 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Brownchester</t>
+          <t>New Brookefort</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Report put card man.</t>
+          <t>Parent contain ago.</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fear admit get.</t>
+          <t>Leave son market.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Similar prevent.</t>
+          <t>Pay which mention.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3181</v>
+        <v>8454</v>
       </c>
       <c r="N4" t="n">
-        <v>5934</v>
+        <v>1011</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>else</t>
+          <t>something</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cynthia Hawkins</t>
+          <t>Diana Owens</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -739,13 +739,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06/03/1994</t>
+          <t>23/12/1958</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PSC 0059, Box 7134
-APO AP 66319</t>
+          <t>711 Kellie Road
+South Jason, OH 41719</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Guy thought officer.</t>
+          <t>Carry citizen chair.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -765,43 +765,43 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Richardstad</t>
+          <t>New Sherryshire</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Security hotel lot.</t>
+          <t>Hotel cup project.</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Experience region.</t>
+          <t>Somebody own.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Receive surface.</t>
+          <t>Light these teach.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6866</v>
+        <v>2195</v>
       </c>
       <c r="N5" t="n">
-        <v>2066</v>
+        <v>1197</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>lot</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Douglas Wagner</t>
+          <t>Stuart Santiago</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -811,13 +811,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11/07/1979</t>
+          <t>19/10/1957</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>313 Campbell Ridge Apt. 301
-Douglasburgh, PR 79132</t>
+          <t>USS Guzman
+FPO AA 39720</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mr something.</t>
+          <t>Agency call but.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -837,43 +837,43 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Maxwellport</t>
+          <t>Adriantown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Decade raise center.</t>
+          <t>Head through.</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Television street.</t>
+          <t>Wall sport free air.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Carry old rule I.</t>
+          <t>Race myself fish.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4288</v>
+        <v>2921</v>
       </c>
       <c r="N6" t="n">
-        <v>7790</v>
+        <v>9787</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>about</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Caitlin Spears</t>
+          <t>Jeffrey Holloway</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -883,13 +883,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>24/02/1942</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>USNV Hall
-FPO AE 67787</t>
+          <t>439 Wendy Via
+Lisahaven, UT 17632</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Box affect activity.</t>
+          <t>Wonder fast.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -909,43 +909,43 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>North Karenview</t>
+          <t>New Julia</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Wide question ahead.</t>
+          <t>Again use key store.</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Series new.</t>
+          <t>Be position.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Win explain black.</t>
+          <t>Make style figure.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>6039</v>
+        <v>7749</v>
       </c>
       <c r="N7" t="n">
-        <v>4678</v>
+        <v>8018</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>similar</t>
+          <t>administration</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Robert Gould</t>
+          <t>Nicholas Mitchell</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -955,13 +955,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11/08/1994</t>
+          <t>02/02/1993</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>054 Christopher Springs Apt. 722
-Lake Sheilatown, VA 86006</t>
+          <t>204 Cole Plains
+Port Justin, MS 95954</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Green specific fish.</t>
+          <t>Skin white.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -981,43 +981,43 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>New Kathrynview</t>
+          <t>Port Nicoleland</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Concern majority.</t>
+          <t>National side no.</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Security test major.</t>
+          <t>Agent box specific.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Born which art team.</t>
+          <t>Interview floor.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>6920</v>
+        <v>7890</v>
       </c>
       <c r="N8" t="n">
-        <v>4381</v>
+        <v>8225</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>thousand</t>
+          <t>individual</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Roger Mueller</t>
+          <t>Ricardo Davis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1027,13 +1027,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07/11/2001</t>
+          <t>15/02/1986</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>69045 Bennett Dale
-Lake Christopher, UT 52529</t>
+          <t>09863 Jessica Estates
+North Marc, VA 19730</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bill station play.</t>
+          <t>Still partner next.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1053,43 +1053,43 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Carsonshire</t>
+          <t>Charlesstad</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV state type focus.</t>
+          <t>Practice husband.</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Available save main.</t>
+          <t>Together collection.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Energy represent.</t>
+          <t>Pretty cover.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>9810</v>
+        <v>9308</v>
       </c>
       <c r="N9" t="n">
-        <v>3805</v>
+        <v>7326</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>herself</t>
+          <t>edge</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>George Mckenzie</t>
+          <t>Brett Scott</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1099,13 +1099,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18/05/1961</t>
+          <t>19/09/1967</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31685 Amanda Stravenue
-New Carly, VT 67763</t>
+          <t>Unit 8558 Box 3894
+DPO AP 85220</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Positive probably.</t>
+          <t>State because.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1125,43 +1125,43 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cowanfort</t>
+          <t>South Sarah</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Magazine tax send.</t>
+          <t>Write sense note.</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Provide born which.</t>
+          <t>Special bring hour.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>List team.</t>
+          <t>Behind order stand.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>8154</v>
+        <v>6035</v>
       </c>
       <c r="N10" t="n">
-        <v>5500</v>
+        <v>4074</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>spend</t>
+          <t>race</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brian Tucker</t>
+          <t>Richard Howard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1171,13 +1171,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>24/03/1988</t>
+          <t>18/09/1993</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>57715 Patricia Landing
-West Pamelaborough, MA 07937</t>
+          <t>073 Robinson Unions Suite 180
+Hebertview, AS 83530</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Still Mrs radio.</t>
+          <t>Both hospital send.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1197,43 +1197,43 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cookton</t>
+          <t>East Craig</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Technology grow.</t>
+          <t>Attorney front.</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Behavior recognize.</t>
+          <t>Series chance may.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Expect couple pass.</t>
+          <t>Challenge structure.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>7638</v>
+        <v>2042</v>
       </c>
       <c r="N11" t="n">
-        <v>5161</v>
+        <v>6804</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>create</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Richard Williams</t>
+          <t>Drew Kane</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1243,13 +1243,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21/05/2005</t>
+          <t>18/07/1946</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>USNV Tanner
-FPO AE 32082</t>
+          <t>PSC 5825, Box 1127
+APO AE 53983</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trip environment.</t>
+          <t>Street worry just.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1269,43 +1269,43 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Kendraton</t>
+          <t>Port Michaelborough</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Moment husband.</t>
+          <t>How group stuff.</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Really history.</t>
+          <t>Look heavy wonder.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Sometimes edge.</t>
+          <t>Tough force early.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>3870</v>
+        <v>4678</v>
       </c>
       <c r="N12" t="n">
-        <v>7596</v>
+        <v>2204</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>hit</t>
+          <t>phone</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Carol Garrison</t>
+          <t>Yvonne Taylor</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1315,13 +1315,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09/04/1982</t>
+          <t>26/03/1942</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6663 Tamara Ridges
-East Micheal, NM 53220</t>
+          <t>6254 Susan Plaza Apt. 256
+South Daniel, CT 46017</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trade recognize.</t>
+          <t>Outside sing save.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1341,43 +1341,43 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Calvinbury</t>
+          <t>East Lacey</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Population feeling.</t>
+          <t>Light dark letter.</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Apply discussion.</t>
+          <t>Conference player.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Again section later.</t>
+          <t>The remember them.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>7658</v>
+        <v>2673</v>
       </c>
       <c r="N13" t="n">
-        <v>4441</v>
+        <v>5481</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>yourself</t>
+          <t>style</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mitchell Sparks</t>
+          <t>Jose Rivera</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1387,13 +1387,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15/08/1951</t>
+          <t>27/02/1967</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24186 Sarah Lights Apt. 032
-West Darryl, MS 74171</t>
+          <t>28283 Williams Ford Apt. 175
+East Caleb, WA 75733</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Air fish body area.</t>
+          <t>Cell describe.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1413,43 +1413,43 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Randalltown</t>
+          <t>Francohaven</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Wrong glass hope.</t>
+          <t>Left mission lose.</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Tell health base.</t>
+          <t>Item physical film.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Cell image.</t>
+          <t>Charge above.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>8753</v>
+        <v>4381</v>
       </c>
       <c r="N14" t="n">
-        <v>3131</v>
+        <v>8882</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>project</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Karen Morrison MD</t>
+          <t>Kelly Harrison</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1459,13 +1459,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16/12/1967</t>
+          <t>18/10/2002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>197 Davis Parkways
-Jordanchester, NV 05949</t>
+          <t>357 Deborah Lights
+Butlerfurt, MD 35339</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Another PM born.</t>
+          <t>Arrive rule within.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1485,43 +1485,43 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Butlerfurt</t>
+          <t>South Kevin</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Read wait pick.</t>
+          <t>Focus thing ok.</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Employee card.</t>
+          <t>It agreement stock.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Thought within.</t>
+          <t>Dog might daughter.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3804</v>
+        <v>6505</v>
       </c>
       <c r="N15" t="n">
-        <v>6534</v>
+        <v>3092</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>put</t>
+          <t>measure</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Susan Watson</t>
+          <t>Frank Walker</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1531,13 +1531,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17/02/1949</t>
+          <t>23/01/1967</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19621 Amy Springs
-West Amandatown, SD 62578</t>
+          <t>032 Ruiz Landing
+East Zoechester, MN 26575</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Appear focus edge.</t>
+          <t>Yes nice us skin.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1557,43 +1557,43 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Williamfort</t>
+          <t>North Mike</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>His strong total.</t>
+          <t>Cover despite size.</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Significant hard.</t>
+          <t>Us forward style.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Movement bit their.</t>
+          <t>Word feel seem.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>4485</v>
+        <v>5854</v>
       </c>
       <c r="N16" t="n">
-        <v>8516</v>
+        <v>4999</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>majority</t>
+          <t>easy</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Johnny Howell</t>
+          <t>Dr. Gregory Bell</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1603,13 +1603,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09/06/1934</t>
+          <t>29/07/1974</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5653 William Vista
-Lake Johntown, MA 43529</t>
+          <t>5091 James Roads Apt. 198
+Ashleyshire, IA 58448</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Win say hair modern.</t>
+          <t>Trip spend page.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1629,43 +1629,43 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Figueroaside</t>
+          <t>Hensleyberg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Threat note.</t>
+          <t>Environmental pull.</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Treat shoulder.</t>
+          <t>Help education.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Heart which public.</t>
+          <t>Serve store tonight.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5930</v>
+        <v>5138</v>
       </c>
       <c r="N17" t="n">
-        <v>4706</v>
+        <v>8357</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>skill</t>
+          <t>cut</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mr. James Watson</t>
+          <t>James Rangel</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1675,13 +1675,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/10/1974</t>
+          <t>23/09/1969</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11550 Barbara Groves Suite 586
-Sanchezfurt, IN 21135</t>
+          <t>5316 Kimberly Lakes
+Brittanyville, AZ 35336</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Former recently.</t>
+          <t>Wonder technology.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Danielleburgh</t>
+          <t>West Timothyside</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Central over family.</t>
+          <t>Writer join indeed.</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1714,30 +1714,30 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Air shake able him.</t>
+          <t>Serve life until.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Must no yourself.</t>
+          <t>Mrs card remain.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>7958</v>
+        <v>5712</v>
       </c>
       <c r="N18" t="n">
-        <v>1678</v>
+        <v>2088</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>figure</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Christina Smith</t>
+          <t>Eric Rubio</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1747,13 +1747,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23/09/1973</t>
+          <t>26/03/1969</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3443 Cook Flat Suite 564
-Burtonview, NM 90567</t>
+          <t>2927 Richard Lane
+Larsonberg, CT 37839</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Someone edge carry.</t>
+          <t>Describe strategy.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1773,43 +1773,43 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Seantown</t>
+          <t>Cookemouth</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Growth treatment us.</t>
+          <t>Heart particular TV.</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Present explain.</t>
+          <t>Trip source land.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Partner large.</t>
+          <t>Home current door.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>9124</v>
+        <v>6089</v>
       </c>
       <c r="N19" t="n">
-        <v>2341</v>
+        <v>6372</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>either</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jason Steele</t>
+          <t>Justin Thomas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1819,13 +1819,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>27/07/1981</t>
+          <t>01/07/1953</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PSC 7514, Box 0057
-APO AP 43978</t>
+          <t>60593 Burgess Loaf Suite 886
+Bryanfurt, LA 99653</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Room this son music.</t>
+          <t>Meet method lose.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1845,43 +1845,43 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cassandrastad</t>
+          <t>East Devin</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Traditional similar.</t>
+          <t>Finish century.</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Head performance.</t>
+          <t>Age part these.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Staff action any.</t>
+          <t>Open difference.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3494</v>
+        <v>8601</v>
       </c>
       <c r="N20" t="n">
-        <v>3591</v>
+        <v>5530</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>appear</t>
+          <t>whether</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Melinda Wagner</t>
+          <t>Brent Brock</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1891,13 +1891,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09/06/1985</t>
+          <t>02/03/1960</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>446 Sarah Cliffs Apt. 747
-South Barrymouth, NH 24239</t>
+          <t>USNV Watson
+FPO AP 92112</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kitchen up left.</t>
+          <t>Player including.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1917,43 +1917,43 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>New Robert</t>
+          <t>Lake Kevin</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Dream imagine town.</t>
+          <t>Recently far.</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Serve amount large.</t>
+          <t>Far old positive.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Certainly plan oil.</t>
+          <t>Half show hotel but.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4138</v>
+        <v>3081</v>
       </c>
       <c r="N21" t="n">
-        <v>3388</v>
+        <v>3381</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>hope</t>
+          <t>trade</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Logan Lambert</t>
+          <t>Victoria Gibson</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1963,13 +1963,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11/03/2002</t>
+          <t>24/07/1947</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>397 Bender Harbors
-Curtisfurt, IL 48756</t>
+          <t>989 Kevin Courts Suite 628
+Fletcherton, PA 98373</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fly five meeting.</t>
+          <t>Perhaps cold wide.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1989,43 +1989,43 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Lake Paul</t>
+          <t>Port Andrew</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Similar doctor.</t>
+          <t>Tree should late.</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Seven shoulder bag.</t>
+          <t>Relate reason.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Energy want often.</t>
+          <t>Trial create.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>4645</v>
+        <v>6781</v>
       </c>
       <c r="N22" t="n">
-        <v>5172</v>
+        <v>2535</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>deal</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brenda Daniels</t>
+          <t>Jennifer Gibson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2035,13 +2035,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20/09/1996</t>
+          <t>13/04/1943</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9177 Craig Ports
-Matthewmouth, GA 24780</t>
+          <t>PSC 3551, Box 2374
+APO AA 07967</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Part interesting.</t>
+          <t>Watch feel draw.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2061,43 +2061,43 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Saunderstown</t>
+          <t>North Angelaburgh</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Structure never.</t>
+          <t>Action.</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Free test above.</t>
+          <t>Coach treatment.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Cup feel continue.</t>
+          <t>Past base skill.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>3768</v>
+        <v>2447</v>
       </c>
       <c r="N23" t="n">
-        <v>5713</v>
+        <v>3602</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>final</t>
+          <t>skill</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Angelica Johnson</t>
+          <t>Thomas Peters</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2107,13 +2107,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>02/12/1978</t>
+          <t>24/03/1935</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>68189 Melissa Fork
-Jenniferborough, AR 15848</t>
+          <t>2402 Brandon Cliff
+Port Kellyborough, CA 60361</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Story for political.</t>
+          <t>Organization piece.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2133,43 +2133,43 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Lawrenceborough</t>
+          <t>Georgeport</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Store street health.</t>
+          <t>The relate from.</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Through enough use.</t>
+          <t>Role recognize onto.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Him toward better.</t>
+          <t>Great ask future.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>9791</v>
+        <v>3293</v>
       </c>
       <c r="N24" t="n">
-        <v>4808</v>
+        <v>1702</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>follow</t>
+          <t>foot</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ashley Johnson MD</t>
+          <t>Aaron Smith</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2179,13 +2179,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>05/06/2001</t>
+          <t>07/07/1956</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>71875 Ortega Bypass Suite 705
-Byrdstad, FL 88627</t>
+          <t>00336 Donald Station Suite 067
+Powellstad, OK 47233</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Add call sell store.</t>
+          <t>Eight help task.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2205,43 +2205,43 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sweeneybury</t>
+          <t>Lauraton</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Man discover each.</t>
+          <t>Figure away vote.</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Box official.</t>
+          <t>Role enough middle.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Yard difference.</t>
+          <t>Pretty gun now low.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>4926</v>
+        <v>9147</v>
       </c>
       <c r="N25" t="n">
-        <v>5617</v>
+        <v>2430</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>talk</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Travis Thomas</t>
+          <t>Sarah Cooper</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2251,13 +2251,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>02/10/1948</t>
+          <t>27/01/1962</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6023 Jacqueline Ridge Suite 053
-West Philip, KY 02197</t>
+          <t>USNV Hall
+FPO AE 68993</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mind beyond huge by.</t>
+          <t>Building represent.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2277,43 +2277,43 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Port David</t>
+          <t>Rebeccaside</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Walk goal night.</t>
+          <t>The decide and.</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>News information.</t>
+          <t>Recently air author.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Economy generation.</t>
+          <t>Population price.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>7444</v>
+        <v>9617</v>
       </c>
       <c r="N26" t="n">
-        <v>5097</v>
+        <v>7995</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>prepare</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lindsey Robinson</t>
+          <t>Ian Woodard</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2323,13 +2323,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10/05/1930</t>
+          <t>15/01/2000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>749 Howard Mews Suite 106
-South Colleenton, HI 45949</t>
+          <t>93952 Kirby Station Suite 917
+Deleonland, GU 71717</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Environmental light.</t>
+          <t>Deal truth join.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2349,43 +2349,43 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>South Terrance</t>
+          <t>South Taylortown</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Glass produce.</t>
+          <t>Source ready.</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Development fear.</t>
+          <t>Paper approach most.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Live miss former.</t>
+          <t>Price ok according.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4235</v>
+        <v>4581</v>
       </c>
       <c r="N27" t="n">
-        <v>2661</v>
+        <v>3230</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Whitney Torres</t>
+          <t>Lucas Newton</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2395,13 +2395,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27/07/1934</t>
+          <t>26/04/1971</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8669 Andersen Fall Suite 300
-East Brianna, GU 57511</t>
+          <t>1707 Chase Ways
+Hicksmouth, NJ 47962</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Term attack them.</t>
+          <t>Building thing.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2421,43 +2421,43 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Lake Mario</t>
+          <t>Haleymouth</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Around street boy.</t>
+          <t>The ago oil summer.</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Manager back myself.</t>
+          <t>Very remember.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Mother show.</t>
+          <t>Four federal.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>5262</v>
+        <v>2590</v>
       </c>
       <c r="N28" t="n">
-        <v>1927</v>
+        <v>6765</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>watch</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nicolas Underwood</t>
+          <t>Kimberly Rowland</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2467,13 +2467,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12/07/1965</t>
+          <t>13/06/1956</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5141 Flores Points
-North Douglas, IL 38025</t>
+          <t>02875 Neal Isle
+Mcdonaldshire, PA 30325</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Worry doctor his.</t>
+          <t>Put possible fine.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2493,43 +2493,43 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sandovalberg</t>
+          <t>North Kelsey</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Goal political trip.</t>
+          <t>Level sister.</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Model specific now.</t>
+          <t>Put between various.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>But about pass.</t>
+          <t>Wind tree hold.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>5078</v>
+        <v>5641</v>
       </c>
       <c r="N29" t="n">
-        <v>3317</v>
+        <v>4768</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>factor</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cody Farrell</t>
+          <t>Anthony Garner</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2539,13 +2539,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08/02/1928</t>
+          <t>16/01/1986</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>144 Ricardo Vista Apt. 480
-Dixontown, VI 35294</t>
+          <t>52578 Molina Ferry Suite 364
+West Daniellechester, ND 41899</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Soldier lead behind.</t>
+          <t>Method bad free.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2565,43 +2565,43 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>New Melissaburgh</t>
+          <t>New Sheila</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Realize teach those.</t>
+          <t>Time above natural.</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Itself wish top.</t>
+          <t>Hotel all difficult.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>True item any media.</t>
+          <t>More side young.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>6188</v>
+        <v>6250</v>
       </c>
       <c r="N30" t="n">
-        <v>4625</v>
+        <v>3666</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>ability</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Michael Wright</t>
+          <t>Allen Alvarez</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2611,13 +2611,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>09/06/1995</t>
+          <t>26/06/1939</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>100 Hurley Island Apt. 812
-Hoffmanbury, NC 14561</t>
+          <t>72493 Sandy Prairie Apt. 059
+East Dawn, LA 63121</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ten language affect.</t>
+          <t>Reality successful.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2637,36 +2637,36 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>North Karaborough</t>
+          <t>North Ryanstad</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Section boy who.</t>
+          <t>Pull cultural along.</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Most keep.</t>
+          <t>Base his next.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Music field.</t>
+          <t>Important help.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>9273</v>
+        <v>2191</v>
       </c>
       <c r="N31" t="n">
-        <v>9273</v>
+        <v>4326</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>magazine</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,23 +513,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lisa Adams</t>
+          <t>Jasmine Day</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9**********4</t>
+          <t>3************2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19/02/1995</t>
+          <t>28/09/1933</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29005 Bryan Heights
-Port Sarahhaven, DE 77487</t>
+          <t>95604 Cassandra Road Apt. 633
+Port Victoriafort, CO 71069</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The meeting myself.</t>
+          <t>Perform address.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -549,59 +549,59 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>South Shannon</t>
+          <t>North Jacob</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Size one health he.</t>
+          <t>No up citizen when.</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Partner too risk.</t>
+          <t>State including.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Truth view score.</t>
+          <t>Determine her.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2053</v>
+        <v>3948</v>
       </c>
       <c r="N2" t="n">
-        <v>6377</v>
+        <v>9633</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sandra Rogers</t>
+          <t>Chris Villegas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9**********5</t>
+          <t>8************5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>29/01/1999</t>
+          <t>14/01/1964</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9244 Franklin Oval Apt. 569
-Michealborough, IL 45211</t>
+          <t>356 Townsend Islands
+Lake Matthew, NJ 15801</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Alone tell support.</t>
+          <t>Theory move.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -621,59 +621,59 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lake Lori</t>
+          <t>East Henry</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Wrong newspaper per.</t>
+          <t>Enter sometimes PM.</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Democrat fly people.</t>
+          <t>Born political use.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Difficult data.</t>
+          <t>Mention before list.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4599</v>
+        <v>2016</v>
       </c>
       <c r="N3" t="n">
-        <v>2124</v>
+        <v>3598</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>vote</t>
+          <t>offer</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jason Hogan</t>
+          <t>Donna Walsh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9**********6</t>
+          <t>8************6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05/03/2005</t>
+          <t>16/09/1976</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Unit 8170 Box 4535
-DPO AP 31029</t>
+          <t>5040 Bryant Motorway
+West Janet, IA 23729</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Consider reflect.</t>
+          <t>Nor rich debate.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -693,59 +693,59 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>New Brookefort</t>
+          <t>North Codychester</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Parent contain ago.</t>
+          <t>Body treatment.</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Leave son market.</t>
+          <t>Subject human.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Pay which mention.</t>
+          <t>Yeah when product.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8454</v>
+        <v>8352</v>
       </c>
       <c r="N4" t="n">
-        <v>1011</v>
+        <v>4204</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>animal</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diana Owens</t>
+          <t>Ian Vasquez DDS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9**********7</t>
+          <t>4************8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23/12/1958</t>
+          <t>01/08/1933</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>711 Kellie Road
-South Jason, OH 41719</t>
+          <t>233 Zachary Course Apt. 717
+Perryborough, WA 82106</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Carry citizen chair.</t>
+          <t>Over position.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -765,59 +765,59 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>New Sherryshire</t>
+          <t>Matthewhaven</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Hotel cup project.</t>
+          <t>Of room measure.</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Somebody own.</t>
+          <t>Congress move begin.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Light these teach.</t>
+          <t>No method start.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2195</v>
+        <v>2642</v>
       </c>
       <c r="N5" t="n">
-        <v>1197</v>
+        <v>6425</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>lot</t>
+          <t>work</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Stuart Santiago</t>
+          <t>Alex Russell</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9**********8</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19/10/1957</t>
+          <t>18/01/1927</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>USS Guzman
-FPO AA 39720</t>
+          <t>144 Brett Park Suite 101
+Lake Christopher, MD 55636</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Agency call but.</t>
+          <t>Officer yourself.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -837,59 +837,59 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Adriantown</t>
+          <t>Gonzalesmouth</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Head through.</t>
+          <t>Beyond language.</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wall sport free air.</t>
+          <t>By rich training.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Race myself fish.</t>
+          <t>Cost should second.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2921</v>
+        <v>4940</v>
       </c>
       <c r="N6" t="n">
-        <v>9787</v>
+        <v>9056</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>will</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jeffrey Holloway</t>
+          <t>Jason Elliott</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9**********9</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24/02/1942</t>
+          <t>02/06/1947</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>439 Wendy Via
-Lisahaven, UT 17632</t>
+          <t>USCGC Carlson
+FPO AA 19018</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wonder fast.</t>
+          <t>News social list.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -909,59 +909,59 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>New Julia</t>
+          <t>Lake Matthewberg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Again use key store.</t>
+          <t>Only maybe history.</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Be position.</t>
+          <t>Wrong our article.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Make style figure.</t>
+          <t>Local strategy.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>7749</v>
+        <v>3499</v>
       </c>
       <c r="N7" t="n">
-        <v>8018</v>
+        <v>7904</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>administration</t>
+          <t>live</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nicholas Mitchell</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9**********0</t>
+          <t>8************0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02/02/1993</t>
+          <t>31/08/1933</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>204 Cole Plains
-Port Justin, MS 95954</t>
+          <t>2189 Martin Street
+North Amanda, GU 59555</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skin white.</t>
+          <t>Various oil what.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -981,59 +981,59 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Port Nicoleland</t>
+          <t>Carpenterfurt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>National side no.</t>
+          <t>Future able street.</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Agent box specific.</t>
+          <t>Can difference term.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Interview floor.</t>
+          <t>Father decide key.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>7890</v>
+        <v>8112</v>
       </c>
       <c r="N8" t="n">
-        <v>8225</v>
+        <v>7459</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>within</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ricardo Davis</t>
+          <t>Erica Keller</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9**********1</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15/02/1986</t>
+          <t>20/08/1985</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09863 Jessica Estates
-North Marc, VA 19730</t>
+          <t>853 Allen Plains Apt. 968
+Howardborough, IA 63954</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Still partner next.</t>
+          <t>Daughter cause.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1053,59 +1053,59 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Charlesstad</t>
+          <t>East Amy</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Practice husband.</t>
+          <t>Room toward before.</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Together collection.</t>
+          <t>Bag between leader.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Pretty cover.</t>
+          <t>Business economic.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>9308</v>
+        <v>2720</v>
       </c>
       <c r="N9" t="n">
-        <v>7326</v>
+        <v>5999</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>edge</t>
+          <t>behind</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brett Scott</t>
+          <t>Jennifer Butler</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0**********2</t>
+          <t>2************0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19/09/1967</t>
+          <t>17/12/1972</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Unit 8558 Box 3894
-DPO AP 85220</t>
+          <t>1259 Baker Parks Suite 277
+Burkeland, CO 62870</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>State because.</t>
+          <t>Success green.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1125,59 +1125,59 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>South Sarah</t>
+          <t>Campbellfort</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Write sense note.</t>
+          <t>Ahead them fall.</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Special bring hour.</t>
+          <t>Factor him cause.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Behind order stand.</t>
+          <t>Me camera shake.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>6035</v>
+        <v>4319</v>
       </c>
       <c r="N10" t="n">
-        <v>4074</v>
+        <v>3134</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>race</t>
+          <t>building</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Richard Howard</t>
+          <t>Linda Tran</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0**********3</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18/09/1993</t>
+          <t>02/01/1946</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>073 Robinson Unions Suite 180
-Hebertview, AS 83530</t>
+          <t>7114 Sanchez Canyon Suite 597
+Houstontown, IN 40676</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Both hospital send.</t>
+          <t>Training attorney.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1197,59 +1197,59 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>East Craig</t>
+          <t>Kennethmouth</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Attorney front.</t>
+          <t>Officer me speak.</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Series chance may.</t>
+          <t>Much name protect.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Challenge structure.</t>
+          <t>Show moment.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2042</v>
+        <v>3825</v>
       </c>
       <c r="N11" t="n">
-        <v>6804</v>
+        <v>6888</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>create</t>
+          <t>tree</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Drew Kane</t>
+          <t>Jessica Brown</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0**********4</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18/07/1946</t>
+          <t>19/02/1989</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PSC 5825, Box 1127
-APO AE 53983</t>
+          <t>852 Darrell Estate
+Andrewborough, MN 37579</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Street worry just.</t>
+          <t>Pull husband.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1269,59 +1269,59 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Port Michaelborough</t>
+          <t>East Megan</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>How group stuff.</t>
+          <t>Space tell suffer.</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Look heavy wonder.</t>
+          <t>Watch position.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Tough force early.</t>
+          <t>Human theory coach.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>4678</v>
+        <v>6394</v>
       </c>
       <c r="N12" t="n">
-        <v>2204</v>
+        <v>6384</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>spend</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Yvonne Taylor</t>
+          <t>Tyler Wilkerson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0**********5</t>
+          <t>0************7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26/03/1942</t>
+          <t>20/01/1936</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6254 Susan Plaza Apt. 256
-South Daniel, CT 46017</t>
+          <t>9455 Jeffrey Court Suite 350
+North Susanfurt, CT 30635</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Outside sing save.</t>
+          <t>Relationship hit.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1341,59 +1341,59 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>East Lacey</t>
+          <t>South Carlland</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Light dark letter.</t>
+          <t>Billion real.</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Conference player.</t>
+          <t>Direction prove.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>The remember them.</t>
+          <t>One dark democratic.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>2673</v>
+        <v>9039</v>
       </c>
       <c r="N13" t="n">
-        <v>5481</v>
+        <v>2401</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>majority</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jose Rivera</t>
+          <t>Taylor Rowe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0**********6</t>
+          <t>5************3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27/02/1967</t>
+          <t>27/02/1974</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28283 Williams Ford Apt. 175
-East Caleb, WA 75733</t>
+          <t>8452 Bennett River Suite 609
+West Heather, SC 96601</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cell describe.</t>
+          <t>Record social every.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1413,59 +1413,59 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Francohaven</t>
+          <t>Davidburgh</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Left mission lose.</t>
+          <t>Thousand oil sense.</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Item physical film.</t>
+          <t>Attorney recent.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Charge above.</t>
+          <t>Before issue event.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>4381</v>
+        <v>6887</v>
       </c>
       <c r="N14" t="n">
-        <v>8882</v>
+        <v>9577</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>blue</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kelly Harrison</t>
+          <t>Lindsey Stuart</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0**********7</t>
+          <t>8************2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18/10/2002</t>
+          <t>27/04/1949</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>357 Deborah Lights
-Butlerfurt, MD 35339</t>
+          <t>55064 Munoz Meadows
+West Autumn, TX 49288</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Arrive rule within.</t>
+          <t>Away voice.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1485,59 +1485,59 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>South Kevin</t>
+          <t>South Teresastad</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Focus thing ok.</t>
+          <t>Guess unit heart.</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>It agreement stock.</t>
+          <t>Same great still.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Dog might daughter.</t>
+          <t>To under movie ask.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>6505</v>
+        <v>5929</v>
       </c>
       <c r="N15" t="n">
-        <v>3092</v>
+        <v>6438</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>measure</t>
+          <t>group</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Frank Walker</t>
+          <t>Michael Butler</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0**********8</t>
+          <t>5************1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23/01/1967</t>
+          <t>12/12/1977</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>032 Ruiz Landing
-East Zoechester, MN 26575</t>
+          <t>26513 Campbell Stravenue Apt. 183
+West Scottfort, UT 28555</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Yes nice us skin.</t>
+          <t>Outside best.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1557,59 +1557,59 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>North Mike</t>
+          <t>Tiffanyview</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Cover despite size.</t>
+          <t>Week part thank.</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Us forward style.</t>
+          <t>Rich scientist.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Word feel seem.</t>
+          <t>Manager almost.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>5854</v>
+        <v>5419</v>
       </c>
       <c r="N16" t="n">
-        <v>4999</v>
+        <v>6910</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>role</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dr. Gregory Bell</t>
+          <t>Vanessa Campos</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0**********9</t>
+          <t>3************1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>29/07/1974</t>
+          <t>24/07/1982</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5091 James Roads Apt. 198
-Ashleyshire, IA 58448</t>
+          <t>86212 Johnson Ways Apt. 892
+Smithfort, ID 90278</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trip spend page.</t>
+          <t>Girl require writer.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1629,59 +1629,59 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hensleyberg</t>
+          <t>East James</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Environmental pull.</t>
+          <t>None speech.</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Help education.</t>
+          <t>Position best that.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Serve store tonight.</t>
+          <t>Ground teach short.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5138</v>
+        <v>4849</v>
       </c>
       <c r="N17" t="n">
-        <v>8357</v>
+        <v>8887</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>cut</t>
+          <t>art</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>James Rangel</t>
+          <t>Timothy Moreno</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0**********0</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>23/09/1969</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5316 Kimberly Lakes
-Brittanyville, AZ 35336</t>
+          <t>7518 Barbara Manors
+Timothymouth, OH 79682</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wonder technology.</t>
+          <t>Position trip.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1701,59 +1701,59 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>West Timothyside</t>
+          <t>West Stevenstad</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Writer join indeed.</t>
+          <t>Activity thank.</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Serve life until.</t>
+          <t>Money kind reflect.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Mrs card remain.</t>
+          <t>Others work discuss.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>5712</v>
+        <v>8809</v>
       </c>
       <c r="N18" t="n">
-        <v>2088</v>
+        <v>9891</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>figure</t>
+          <t>offer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Eric Rubio</t>
+          <t>Ashley Roach</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0**********1</t>
+          <t>9************5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>26/03/1969</t>
+          <t>17/04/1957</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2927 Richard Lane
-Larsonberg, CT 37839</t>
+          <t>0106 Henry Stravenue
+East Angela, NC 74149</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Describe strategy.</t>
+          <t>Wear growth system.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1773,59 +1773,59 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cookemouth</t>
+          <t>Karenhaven</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Heart particular TV.</t>
+          <t>Rate kitchen fish.</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Trip source land.</t>
+          <t>Rate meeting chair.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Home current door.</t>
+          <t>Quickly although.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>6089</v>
+        <v>2166</v>
       </c>
       <c r="N19" t="n">
-        <v>6372</v>
+        <v>4469</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>pretty</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Justin Thomas</t>
+          <t>Jenna Jones</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1**********2</t>
+          <t>4************6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/07/1953</t>
+          <t>23/07/1935</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>60593 Burgess Loaf Suite 886
-Bryanfurt, LA 99653</t>
+          <t>2895 Pacheco Ranch Apt. 824
+Simsborough, PA 31956</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Meet method lose.</t>
+          <t>Remember give.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1845,59 +1845,59 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>East Devin</t>
+          <t>North Donna</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Finish century.</t>
+          <t>Make into card firm.</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Age part these.</t>
+          <t>Part wide current.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Open difference.</t>
+          <t>Pretty key.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>8601</v>
+        <v>9836</v>
       </c>
       <c r="N20" t="n">
-        <v>5530</v>
+        <v>6315</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>whether</t>
+          <t>remember</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brent Brock</t>
+          <t>Ashley Hansen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1**********3</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>02/03/1960</t>
+          <t>23/06/1927</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>USNV Watson
-FPO AP 92112</t>
+          <t>USS Garcia
+FPO AA 51097</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Player including.</t>
+          <t>View join walk cell.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1917,59 +1917,59 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Lake Kevin</t>
+          <t>Byrdton</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Recently far.</t>
+          <t>Second lot if hold.</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Far old positive.</t>
+          <t>Science management.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Half show hotel but.</t>
+          <t>Interest perform.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>3081</v>
+        <v>9461</v>
       </c>
       <c r="N21" t="n">
-        <v>3381</v>
+        <v>4164</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>daughter</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Victoria Gibson</t>
+          <t>Emma Marshall</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1**********4</t>
+          <t>4************3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>24/07/1947</t>
+          <t>16/03/1944</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>989 Kevin Courts Suite 628
-Fletcherton, PA 98373</t>
+          <t>2579 Hall Lights
+Josephburgh, IN 92388</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Perhaps cold wide.</t>
+          <t>Daughter must upon.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1989,59 +1989,59 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Port Andrew</t>
+          <t>Andrewhaven</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tree should late.</t>
+          <t>Mean avoid itself.</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Relate reason.</t>
+          <t>Pay among human.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Trial create.</t>
+          <t>Woman budget sport.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>6781</v>
+        <v>6664</v>
       </c>
       <c r="N22" t="n">
-        <v>2535</v>
+        <v>4963</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>deal</t>
+          <t>firm</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jennifer Gibson</t>
+          <t>Harry Wilson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1**********5</t>
+          <t>0************0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13/04/1943</t>
+          <t>09/12/2005</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PSC 3551, Box 2374
-APO AA 07967</t>
+          <t>524 Jonathan Causeway Apt. 771
+Annehaven, MH 35480</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Watch feel draw.</t>
+          <t>Cut who raise.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2061,59 +2061,59 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>North Angelaburgh</t>
+          <t>North Brittany</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Action.</t>
+          <t>Say decision find.</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Coach treatment.</t>
+          <t>For surface stop.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Past base skill.</t>
+          <t>Evening value him.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2447</v>
+        <v>3063</v>
       </c>
       <c r="N23" t="n">
-        <v>3602</v>
+        <v>8773</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>skill</t>
+          <t>yeah</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Thomas Peters</t>
+          <t>Patricia Kramer</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1**********6</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24/03/1935</t>
+          <t>24/10/1979</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2402 Brandon Cliff
-Port Kellyborough, CA 60361</t>
+          <t>78667 Jeffrey Grove
+Lake Marissachester, RI 23908</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Organization piece.</t>
+          <t>Mean total state.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2133,59 +2133,59 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Georgeport</t>
+          <t>North Coleshire</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>The relate from.</t>
+          <t>Through try skill.</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Role recognize onto.</t>
+          <t>Subject record.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Great ask future.</t>
+          <t>Page wish meet my.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3293</v>
+        <v>6323</v>
       </c>
       <c r="N24" t="n">
-        <v>1702</v>
+        <v>6877</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>shoulder</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aaron Smith</t>
+          <t>Kaitlin Brennan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1**********7</t>
+          <t>0************2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>07/07/1956</t>
+          <t>13/08/1975</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>00336 Donald Station Suite 067
-Powellstad, OK 47233</t>
+          <t>973 Gardner Hollow
+Ballchester, FM 35574</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Eight help task.</t>
+          <t>Agent nice voice.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2205,59 +2205,59 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Lauraton</t>
+          <t>East Frank</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Figure away vote.</t>
+          <t>Forget imagine.</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Role enough middle.</t>
+          <t>Laugh industry.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pretty gun now low.</t>
+          <t>Happy standard.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>9147</v>
+        <v>8758</v>
       </c>
       <c r="N25" t="n">
-        <v>2430</v>
+        <v>8357</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>talk</t>
+          <t>process</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sarah Cooper</t>
+          <t>Molly Mcknight</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1**********8</t>
+          <t>7************4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>27/01/1962</t>
+          <t>31/08/1966</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>USNV Hall
-FPO AE 68993</t>
+          <t>27667 Gates Cove Suite 107
+Nicolefort, TX 33737</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Building represent.</t>
+          <t>Production sense.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2277,59 +2277,59 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rebeccaside</t>
+          <t>New Keith</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>The decide and.</t>
+          <t>Recognize challenge.</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Recently air author.</t>
+          <t>Outside reflect.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Population price.</t>
+          <t>Begin one anything.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>9617</v>
+        <v>8511</v>
       </c>
       <c r="N26" t="n">
-        <v>7995</v>
+        <v>7165</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>prepare</t>
+          <t>community</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ian Woodard</t>
+          <t>Jennifer Castro</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1**********9</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15/01/2000</t>
+          <t>08/02/1974</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93952 Kirby Station Suite 917
-Deleonland, GU 71717</t>
+          <t>78506 Nicole Cliff
+Port Kevinborough, TN 06706</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Deal truth join.</t>
+          <t>Save bank TV.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2349,59 +2349,59 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>South Taylortown</t>
+          <t>Port Gregory</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Source ready.</t>
+          <t>Social method.</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Paper approach most.</t>
+          <t>Rich or firm.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Price ok according.</t>
+          <t>Anything body.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4581</v>
+        <v>4941</v>
       </c>
       <c r="N27" t="n">
-        <v>3230</v>
+        <v>5423</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>though</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lucas Newton</t>
+          <t>Cheryl Lee</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1**********0</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>26/04/1971</t>
+          <t>19/05/1972</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1707 Chase Ways
-Hicksmouth, NJ 47962</t>
+          <t>7825 West Forest
+East Jason, KS 35208</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Building thing.</t>
+          <t>Simple fine often.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2421,59 +2421,59 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Haleymouth</t>
+          <t>Lindsayview</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>The ago oil summer.</t>
+          <t>Share listen.</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Very remember.</t>
+          <t>International need.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Four federal.</t>
+          <t>Lead forget six.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2590</v>
+        <v>3895</v>
       </c>
       <c r="N28" t="n">
-        <v>6765</v>
+        <v>8207</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>ability</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kimberly Rowland</t>
+          <t>Ryan Brown</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1**********1</t>
+          <t>5************5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13/06/1956</t>
+          <t>17/11/1986</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>02875 Neal Isle
-Mcdonaldshire, PA 30325</t>
+          <t>115 Cardenas Mountain Suite 333
+Christinamouth, LA 83337</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Put possible fine.</t>
+          <t>Play full team.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2493,59 +2493,59 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>North Kelsey</t>
+          <t>North Coryview</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Level sister.</t>
+          <t>Fill culture read.</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Put between various.</t>
+          <t>Hope into social.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Wind tree hold.</t>
+          <t>Remember option.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>5641</v>
+        <v>9140</v>
       </c>
       <c r="N29" t="n">
-        <v>4768</v>
+        <v>8056</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>accept</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Anthony Garner</t>
+          <t>Jennifer Heath</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2**********2</t>
+          <t>2************0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16/01/1986</t>
+          <t>09/10/1935</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>52578 Molina Ferry Suite 364
-West Daniellechester, ND 41899</t>
+          <t>5778 Burgess Stravenue
+Port Patriciaside, PA 48083</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Method bad free.</t>
+          <t>Anyone mother.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2565,59 +2565,59 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>New Sheila</t>
+          <t>East James</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Time above natural.</t>
+          <t>Position challenge.</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hotel all difficult.</t>
+          <t>Chair statement no.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>More side young.</t>
+          <t>Stand federal final.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>6250</v>
+        <v>9582</v>
       </c>
       <c r="N30" t="n">
-        <v>3666</v>
+        <v>7280</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>over</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Allen Alvarez</t>
+          <t>Holly Torres</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2**********3</t>
+          <t>7************3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>26/06/1939</t>
+          <t>14/07/1974</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>72493 Sandy Prairie Apt. 059
-East Dawn, LA 63121</t>
+          <t>PSC 7807, Box 0960
+APO AA 28266</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Reality successful.</t>
+          <t>Large recently let.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2637,36 +2637,36 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>North Ryanstad</t>
+          <t>Kaylaborough</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Pull cultural along.</t>
+          <t>Condition billion.</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Base his next.</t>
+          <t>Think plant space.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Important help.</t>
+          <t>Black TV everything.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>2191</v>
+        <v>7819</v>
       </c>
       <c r="N31" t="n">
-        <v>4326</v>
+        <v>3449</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>magazine</t>
+          <t>inside</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>IC Number</t>
+          <t>No. MyKad</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -513,23 +513,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jasmine Day</t>
+          <t>Angela Lee</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3************2</t>
+          <t>5************3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28/09/1933</t>
+          <t>02/04/1985</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95604 Cassandra Road Apt. 633
-Port Victoriafort, CO 71069</t>
+          <t>4679 Moore Tunnel Apt. 572
+Davisshire, DE 14376</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Perform address.</t>
+          <t>Minute already.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -549,59 +549,59 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>North Jacob</t>
+          <t>Ground certain.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>No up citizen when.</t>
+          <t>Degree performance.</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>State including.</t>
+          <t>Strong hear.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Determine her.</t>
+          <t>Feel human wrong.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3948</v>
+        <v>3177</v>
       </c>
       <c r="N2" t="n">
-        <v>9633</v>
+        <v>8583</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>Mrs friend in cost.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chris Villegas</t>
+          <t>Sarah Williams</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8************5</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14/01/1964</t>
+          <t>15/08/1972</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>356 Townsend Islands
-Lake Matthew, NJ 15801</t>
+          <t>12813 Tanya Lodge
+East Mark, DE 83159</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Theory move.</t>
+          <t>Among great letter.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -621,59 +621,59 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>East Henry</t>
+          <t>Believe above the.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Enter sometimes PM.</t>
+          <t>Job billion short.</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Born political use.</t>
+          <t>Region film thing.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Mention before list.</t>
+          <t>Strategy pull star.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2016</v>
+        <v>6362</v>
       </c>
       <c r="N3" t="n">
-        <v>3598</v>
+        <v>3577</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>Speech wonder seek.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Donna Walsh</t>
+          <t>Ryan Harris</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8************6</t>
+          <t>4************7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16/09/1976</t>
+          <t>30/03/1925</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5040 Bryant Motorway
-West Janet, IA 23729</t>
+          <t>PSC 1973, Box 1849
+APO AP 61855</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nor rich debate.</t>
+          <t>Someone girl spend.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -693,59 +693,59 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>North Codychester</t>
+          <t>Scientist oil might.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Body treatment.</t>
+          <t>Media hotel.</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Subject human.</t>
+          <t>Summer stuff rise.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Yeah when product.</t>
+          <t>Administration.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8352</v>
+        <v>2574</v>
       </c>
       <c r="N4" t="n">
-        <v>4204</v>
+        <v>3483</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>Though page parent.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ian Vasquez DDS</t>
+          <t>Connie Williamson</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4************8</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/08/1933</t>
+          <t>25/04/1926</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>233 Zachary Course Apt. 717
-Perryborough, WA 82106</t>
+          <t>3564 Mary Place Apt. 261
+Port Richardview, SC 78791</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Over position.</t>
+          <t>Himself it kid also.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -765,59 +765,59 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Matthewhaven</t>
+          <t>Know force because.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Of room measure.</t>
+          <t>Notice government.</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Congress move begin.</t>
+          <t>Expect part again.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>No method start.</t>
+          <t>Leave increase.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2642</v>
+        <v>5854</v>
       </c>
       <c r="N5" t="n">
-        <v>6425</v>
+        <v>8816</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>While decision.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alex Russell</t>
+          <t>Gerald Smith</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6************6</t>
+          <t>0************9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18/01/1927</t>
+          <t>10/08/1932</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>144 Brett Park Suite 101
-Lake Christopher, MD 55636</t>
+          <t>4149 Scott Run Apt. 014
+West Ericabury, CA 13311</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Officer yourself.</t>
+          <t>Maintain address.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -837,59 +837,59 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Gonzalesmouth</t>
+          <t>Ten standard make.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Beyond language.</t>
+          <t>Analysis court.</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>By rich training.</t>
+          <t>Great letter land.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Cost should second.</t>
+          <t>Long design.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4940</v>
+        <v>8508</v>
       </c>
       <c r="N6" t="n">
-        <v>9056</v>
+        <v>5483</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>Measure soon.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jason Elliott</t>
+          <t>Katherine Johnson</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>8************2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>02/06/1947</t>
+          <t>14/02/1995</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>USCGC Carlson
-FPO AA 19018</t>
+          <t>032 Jason Oval Apt. 254
+South Danielle, NE 37345</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>News social list.</t>
+          <t>Quickly institution.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -909,59 +909,59 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Lake Matthewberg</t>
+          <t>Able former body.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Only maybe history.</t>
+          <t>Upon who enter it.</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wrong our article.</t>
+          <t>Statement yes wear.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Local strategy.</t>
+          <t>Well even finally.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3499</v>
+        <v>7369</v>
       </c>
       <c r="N7" t="n">
-        <v>7904</v>
+        <v>3503</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>live</t>
+          <t>Traditional far low.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Matthew Hensley</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8************0</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/08/1933</t>
+          <t>14/10/1993</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2189 Martin Street
-North Amanda, GU 59555</t>
+          <t>2546 Smith Ports
+West Melissamouth, WI 36605</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Various oil what.</t>
+          <t>Cup paper drug keep.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -981,59 +981,59 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Carpenterfurt</t>
+          <t>Later according.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Future able street.</t>
+          <t>Expert about hand.</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Can difference term.</t>
+          <t>Realize we crime.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Father decide key.</t>
+          <t>Seat official.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>8112</v>
+        <v>9363</v>
       </c>
       <c r="N8" t="n">
-        <v>7459</v>
+        <v>5780</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>Difference party.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Erica Keller</t>
+          <t>Mariah Graham</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20/08/1985</t>
+          <t>10/01/1957</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>853 Allen Plains Apt. 968
-Howardborough, IA 63954</t>
+          <t>858 Bryan Row
+East Ashleyville, OR 92955</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Daughter cause.</t>
+          <t>When everybody them.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1053,59 +1053,59 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>East Amy</t>
+          <t>Around off response.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Room toward before.</t>
+          <t>Agent court prevent.</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bag between leader.</t>
+          <t>Else environmental.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Business economic.</t>
+          <t>Once drive wait.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2720</v>
+        <v>2559</v>
       </c>
       <c r="N9" t="n">
-        <v>5999</v>
+        <v>7602</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>behind</t>
+          <t>Culture mother.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jennifer Butler</t>
+          <t>Elizabeth Jones</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2************0</t>
+          <t>3************7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17/12/1972</t>
+          <t>19/05/1944</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1259 Baker Parks Suite 277
-Burkeland, CO 62870</t>
+          <t>05883 Nathan Garden Apt. 475
+Hubbardview, WA 45441</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Success green.</t>
+          <t>Smile indicate trip.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1125,59 +1125,59 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Campbellfort</t>
+          <t>Morning firm plan.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ahead them fall.</t>
+          <t>Computer on live.</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Factor him cause.</t>
+          <t>Leave star describe.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Me camera shake.</t>
+          <t>Door yes hundred.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4319</v>
+        <v>8633</v>
       </c>
       <c r="N10" t="n">
-        <v>3134</v>
+        <v>2007</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>Before before here.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Linda Tran</t>
+          <t>Kelsey Horton</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>8************7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>02/01/1946</t>
+          <t>19/07/1926</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7114 Sanchez Canyon Suite 597
-Houstontown, IN 40676</t>
+          <t>42733 Jackson Dam Apt. 824
+Wilsonbury, PA 03753</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Training attorney.</t>
+          <t>Part third million.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1197,59 +1197,59 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Kennethmouth</t>
+          <t>Left energy it.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Officer me speak.</t>
+          <t>Create real.</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Much name protect.</t>
+          <t>Radio side use cold.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Show moment.</t>
+          <t>Involve if best.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3825</v>
+        <v>3899</v>
       </c>
       <c r="N11" t="n">
-        <v>6888</v>
+        <v>2539</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>tree</t>
+          <t>Around food tax.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jessica Brown</t>
+          <t>Rodney Silva</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19/02/1989</t>
+          <t>17/01/1935</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>852 Darrell Estate
-Andrewborough, MN 37579</t>
+          <t>8939 Shelly Dam
+Allenstad, AK 27497</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pull husband.</t>
+          <t>Join spring improve.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1269,59 +1269,59 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>East Megan</t>
+          <t>Huge try appear eye.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Space tell suffer.</t>
+          <t>Company feel yet.</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Watch position.</t>
+          <t>System table.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Human theory coach.</t>
+          <t>Marriage sport.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>6394</v>
+        <v>8396</v>
       </c>
       <c r="N12" t="n">
-        <v>6384</v>
+        <v>7755</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>spend</t>
+          <t>Bank performance.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tyler Wilkerson</t>
+          <t>William Jenkins</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0************7</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20/01/1936</t>
+          <t>28/03/1930</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9455 Jeffrey Court Suite 350
-North Susanfurt, CT 30635</t>
+          <t>3676 Mikayla Loop
+Jacquelinestad, AK 65990</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Relationship hit.</t>
+          <t>Foreign foreign.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1341,59 +1341,59 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>South Carlland</t>
+          <t>Allow energy have.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Billion real.</t>
+          <t>Team question.</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Direction prove.</t>
+          <t>Us bank produce.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>One dark democratic.</t>
+          <t>View development.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>9039</v>
+        <v>2943</v>
       </c>
       <c r="N13" t="n">
-        <v>2401</v>
+        <v>6529</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>majority</t>
+          <t>Safe case language.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Taylor Rowe</t>
+          <t>Charles Ingram</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5************3</t>
+          <t>6************1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27/02/1974</t>
+          <t>10/09/1998</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8452 Bennett River Suite 609
-West Heather, SC 96601</t>
+          <t>5816 Williams Track
+Kristintown, DE 28543</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Record social every.</t>
+          <t>His beat senior.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1413,59 +1413,59 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Davidburgh</t>
+          <t>Down television.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Thousand oil sense.</t>
+          <t>Executive carry.</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Attorney recent.</t>
+          <t>And team choose.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Before issue event.</t>
+          <t>Year beat thus much.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>6887</v>
+        <v>4701</v>
       </c>
       <c r="N14" t="n">
-        <v>9577</v>
+        <v>4620</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>Final film time.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lindsey Stuart</t>
+          <t>Sandy Moran</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8************2</t>
+          <t>6************4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>27/04/1949</t>
+          <t>10/07/1995</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>55064 Munoz Meadows
-West Autumn, TX 49288</t>
+          <t>323 Jennifer Stream Suite 601
+New Reginaldchester, AZ 05235</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Away voice.</t>
+          <t>Fly economy heavy.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1485,59 +1485,59 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>South Teresastad</t>
+          <t>Sister movement.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Guess unit heart.</t>
+          <t>Company present.</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Same great still.</t>
+          <t>Modern enter hour.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>To under movie ask.</t>
+          <t>Eight including.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5929</v>
+        <v>5635</v>
       </c>
       <c r="N15" t="n">
-        <v>6438</v>
+        <v>6886</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>Meet another.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Michael Butler</t>
+          <t>Alexandra Hampton</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5************1</t>
+          <t>6************3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12/12/1977</t>
+          <t>15/10/1954</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26513 Campbell Stravenue Apt. 183
-West Scottfort, UT 28555</t>
+          <t>PSC 0939, Box 9193
+APO AA 52054</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Outside best.</t>
+          <t>Prepare mother my.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1557,59 +1557,59 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tiffanyview</t>
+          <t>Service toward.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Week part thank.</t>
+          <t>Remember third site.</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Rich scientist.</t>
+          <t>Field thousand old.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Manager almost.</t>
+          <t>Include and.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>5419</v>
+        <v>6246</v>
       </c>
       <c r="N16" t="n">
-        <v>6910</v>
+        <v>3830</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>Bag kind talk voice.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vanessa Campos</t>
+          <t>Debra Miller</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3************1</t>
+          <t>5************6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24/07/1982</t>
+          <t>25/08/1996</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>86212 Johnson Ways Apt. 892
-Smithfort, ID 90278</t>
+          <t>321 Francis Knoll
+East Benjamintown, MT 42315</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Girl require writer.</t>
+          <t>Already past.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1629,59 +1629,59 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>East James</t>
+          <t>Trouble herself.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>None speech.</t>
+          <t>What peace marriage.</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Position best that.</t>
+          <t>Window heart.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Ground teach short.</t>
+          <t>Street worker well.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>4849</v>
+        <v>8866</v>
       </c>
       <c r="N17" t="n">
-        <v>8887</v>
+        <v>8129</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>Give Mrs generation.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Timothy Moreno</t>
+          <t>Lisa Hood</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>9************9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>19/06/1967</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7518 Barbara Manors
-Timothymouth, OH 79682</t>
+          <t>4075 Heather Centers
+Longhaven, TX 26477</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Position trip.</t>
+          <t>Seat item than.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1701,59 +1701,59 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>West Stevenstad</t>
+          <t>Full attack already.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Activity thank.</t>
+          <t>Address matter find.</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Money kind reflect.</t>
+          <t>Involve reason.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Others work discuss.</t>
+          <t>Investment.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>8809</v>
+        <v>7908</v>
       </c>
       <c r="N18" t="n">
-        <v>9891</v>
+        <v>7058</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>Option never later.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ashley Roach</t>
+          <t>Shaun Stephens</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9************5</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17/04/1957</t>
+          <t>06/07/1961</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0106 Henry Stravenue
-East Angela, NC 74149</t>
+          <t>398 Salas Parkway
+West Aliciastad, IN 49856</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wear growth system.</t>
+          <t>Wind deal who.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1773,59 +1773,59 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Karenhaven</t>
+          <t>Put affect baby.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Rate kitchen fish.</t>
+          <t>Sort region explain.</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Rate meeting chair.</t>
+          <t>Everybody discover.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Quickly although.</t>
+          <t>Our mission pattern.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2166</v>
+        <v>5787</v>
       </c>
       <c r="N19" t="n">
-        <v>4469</v>
+        <v>9520</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>pretty</t>
+          <t>Movement figure.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jenna Jones</t>
+          <t>Christopher George</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4************6</t>
+          <t>7************6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23/07/1935</t>
+          <t>26/04/1938</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2895 Pacheco Ranch Apt. 824
-Simsborough, PA 31956</t>
+          <t>8960 Palmer Valley
+North Henry, NY 46200</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Remember give.</t>
+          <t>Point wall culture.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1845,59 +1845,59 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>North Donna</t>
+          <t>Boy join else radio.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Make into card firm.</t>
+          <t>Speech necessary.</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Part wide current.</t>
+          <t>Land light remain.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pretty key.</t>
+          <t>House ground.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>9836</v>
+        <v>3340</v>
       </c>
       <c r="N20" t="n">
-        <v>6315</v>
+        <v>5718</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>remember</t>
+          <t>Seek floor painting.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ashley Hansen</t>
+          <t>Ashley Thomas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>5************4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>23/06/1927</t>
+          <t>15/09/1976</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>USS Garcia
-FPO AA 51097</t>
+          <t>545 Nelson Isle Suite 473
+East Zacharyland, GU 86070</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>View join walk cell.</t>
+          <t>Fall bar when.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1917,59 +1917,59 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Byrdton</t>
+          <t>Up oil outside.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Second lot if hold.</t>
+          <t>Run customer common.</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Science management.</t>
+          <t>Democrat minute.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Interest perform.</t>
+          <t>Unit better surface.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>9461</v>
+        <v>3038</v>
       </c>
       <c r="N21" t="n">
-        <v>4164</v>
+        <v>3066</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>daughter</t>
+          <t>Establish gun.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Emma Marshall</t>
+          <t>Bryan Bowman</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4************3</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16/03/1944</t>
+          <t>26/08/1945</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2579 Hall Lights
-Josephburgh, IN 92388</t>
+          <t>5735 Savannah Mews Apt. 981
+Jameschester, MI 92606</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Daughter must upon.</t>
+          <t>Her view simple.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1989,59 +1989,59 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Andrewhaven</t>
+          <t>Adult probably sea.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Mean avoid itself.</t>
+          <t>Show control cell.</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Pay among human.</t>
+          <t>Improve place list.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Woman budget sport.</t>
+          <t>Believe receive.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>6664</v>
+        <v>2434</v>
       </c>
       <c r="N22" t="n">
-        <v>4963</v>
+        <v>4450</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>firm</t>
+          <t>Market hope senior.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Harry Wilson</t>
+          <t>Nicholas Moody</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0************0</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09/12/2005</t>
+          <t>17/11/1937</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>524 Jonathan Causeway Apt. 771
-Annehaven, MH 35480</t>
+          <t>44996 Bautista Manors Suite 726
+Isaacton, MT 45037</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cut who raise.</t>
+          <t>Clear particular.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2061,59 +2061,59 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>North Brittany</t>
+          <t>Discuss return.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Say decision find.</t>
+          <t>Catch especially he.</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>For surface stop.</t>
+          <t>Happen build.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Evening value him.</t>
+          <t>Sister her can.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>3063</v>
+        <v>5398</v>
       </c>
       <c r="N23" t="n">
-        <v>8773</v>
+        <v>6958</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>Organization world.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Patricia Kramer</t>
+          <t>Christopher Mcmillan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7************0</t>
+          <t>0************1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24/10/1979</t>
+          <t>09/11/1939</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>78667 Jeffrey Grove
-Lake Marissachester, RI 23908</t>
+          <t>40557 Christina Extension
+Lake Michelleborough, AR 68930</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mean total state.</t>
+          <t>Anything ever page.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2133,59 +2133,59 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>North Coleshire</t>
+          <t>While turn develop.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Through try skill.</t>
+          <t>Too eat thank.</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Subject record.</t>
+          <t>Contain election.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Page wish meet my.</t>
+          <t>Hour within teacher.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>6323</v>
+        <v>7533</v>
       </c>
       <c r="N24" t="n">
-        <v>6877</v>
+        <v>1693</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>shoulder</t>
+          <t>Pattern smile seven.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kaitlin Brennan</t>
+          <t>David Moreno</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0************2</t>
+          <t>4************7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13/08/1975</t>
+          <t>21/04/1961</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>973 Gardner Hollow
-Ballchester, FM 35574</t>
+          <t>96665 Cruz Loaf Suite 464
+Priceview, TX 52842</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Agent nice voice.</t>
+          <t>Safe about.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2205,59 +2205,59 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>East Frank</t>
+          <t>Organization.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Forget imagine.</t>
+          <t>Raise method.</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Laugh industry.</t>
+          <t>Decade themselves.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Happy standard.</t>
+          <t>Lot population.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>8758</v>
+        <v>2357</v>
       </c>
       <c r="N25" t="n">
-        <v>8357</v>
+        <v>8792</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Program year quite.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Molly Mcknight</t>
+          <t>Lori Wagner</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7************4</t>
+          <t>3************3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/08/1966</t>
+          <t>10/07/1933</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>27667 Gates Cove Suite 107
-Nicolefort, TX 33737</t>
+          <t>43702 Linda Ferry Suite 410
+Sharonburgh, WV 87279</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Production sense.</t>
+          <t>Character.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2277,59 +2277,59 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>New Keith</t>
+          <t>Radio try require.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Recognize challenge.</t>
+          <t>Brother drive.</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Outside reflect.</t>
+          <t>Smile fact rule if.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Begin one anything.</t>
+          <t>Opportunity alone.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>8511</v>
+        <v>5221</v>
       </c>
       <c r="N26" t="n">
-        <v>7165</v>
+        <v>9629</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>Never east exist.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jennifer Castro</t>
+          <t>Peter Figueroa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08/02/1974</t>
+          <t>05/12/1996</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>78506 Nicole Cliff
-Port Kevinborough, TN 06706</t>
+          <t>52611 Lewis Burgs
+West Suzanne, FL 26414</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Save bank TV.</t>
+          <t>Individual make.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2349,59 +2349,59 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Port Gregory</t>
+          <t>Carry account laugh.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Social method.</t>
+          <t>Seven week at.</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Rich or firm.</t>
+          <t>Line eat list place.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Anything body.</t>
+          <t>Much cost member.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4941</v>
+        <v>9162</v>
       </c>
       <c r="N27" t="n">
-        <v>5423</v>
+        <v>2339</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>though</t>
+          <t>Brother government.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cheryl Lee</t>
+          <t>Steven Sutton</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>0************1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19/05/1972</t>
+          <t>02/03/1957</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7825 West Forest
-East Jason, KS 35208</t>
+          <t>18631 Yang Lights
+West Lorrainefurt, NH 32748</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Simple fine often.</t>
+          <t>Man employee.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2421,59 +2421,59 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Lindsayview</t>
+          <t>Different number.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Share listen.</t>
+          <t>Raise team a onto.</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>International need.</t>
+          <t>Happy produce hour.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Lead forget six.</t>
+          <t>Around study table.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>3895</v>
+        <v>2004</v>
       </c>
       <c r="N28" t="n">
-        <v>8207</v>
+        <v>9847</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>Account four while.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ryan Brown</t>
+          <t>Alicia Matthews</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5************5</t>
+          <t>5************9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17/11/1986</t>
+          <t>24/01/1932</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>115 Cardenas Mountain Suite 333
-Christinamouth, LA 83337</t>
+          <t>116 Larry Knoll Apt. 728
+Deborahstad, DC 21693</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Play full team.</t>
+          <t>Call job material.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2493,59 +2493,59 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>North Coryview</t>
+          <t>Traditional.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Fill culture read.</t>
+          <t>Message best.</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Hope into social.</t>
+          <t>Drug reason give.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Remember option.</t>
+          <t>New way put similar.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>9140</v>
+        <v>7258</v>
       </c>
       <c r="N29" t="n">
-        <v>8056</v>
+        <v>7831</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>accept</t>
+          <t>Operation drive.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jennifer Heath</t>
+          <t>William Odom</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2************0</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>09/10/1935</t>
+          <t>19/01/1948</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5778 Burgess Stravenue
-Port Patriciaside, PA 48083</t>
+          <t>8890 Jill Valleys Apt. 921
+Port Garystad, OR 61756</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Anyone mother.</t>
+          <t>Stand agency term.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2565,59 +2565,59 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>East James</t>
+          <t>Side range various.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Position challenge.</t>
+          <t>Use old stop each.</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Chair statement no.</t>
+          <t>Wall go inside.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Stand federal final.</t>
+          <t>Real sport real.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>9582</v>
+        <v>6429</v>
       </c>
       <c r="N30" t="n">
-        <v>7280</v>
+        <v>8341</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>Main turn example.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Holly Torres</t>
+          <t>Javier Jackson</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7************3</t>
+          <t>8************7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14/07/1974</t>
+          <t>30/09/1989</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PSC 7807, Box 0960
-APO AA 28266</t>
+          <t>PSC 4360, Box 7407
+APO AE 95877</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Large recently let.</t>
+          <t>Peace water accept.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2637,36 +2637,36 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kaylaborough</t>
+          <t>Time pressure.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Condition billion.</t>
+          <t>Speak state and.</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Think plant space.</t>
+          <t>Important push long.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Black TV everything.</t>
+          <t>Very direction.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>7819</v>
+        <v>9412</v>
       </c>
       <c r="N31" t="n">
-        <v>3449</v>
+        <v>1865</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>inside</t>
+          <t>Same interview thus.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. MyKad</t>
+          <t>IC Number</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Emel</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -513,23 +513,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angela Lee</t>
+          <t>Melissa Pitts</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5************3</t>
+          <t>4************2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02/04/1985</t>
+          <t>29/01/2000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4679 Moore Tunnel Apt. 572
-Davisshire, DE 14376</t>
+          <t>89001 Doyle Terrace Suite 596
+Williamsmouth, PR 96502</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,22 +539,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Minute already.</t>
+          <t>Result town second.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>a*******d@example.com</t>
+          <t>v****n@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ground certain.</t>
+          <t>Show middle may.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Degree performance.</t>
+          <t>Return attention.</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -562,46 +562,46 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Strong hear.</t>
+          <t>Real charge bring.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Feel human wrong.</t>
+          <t>Building fact same.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3177</v>
+        <v>4332</v>
       </c>
       <c r="N2" t="n">
-        <v>8583</v>
+        <v>7454</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Mrs friend in cost.</t>
+          <t>Data simple wait.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
+          <t>Barry Summers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>3************9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15/08/1972</t>
+          <t>22/07/1977</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12813 Tanya Lodge
-East Mark, DE 83159</t>
+          <t>0107 Woodward Circles
+Robintown, OH 85350</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -611,69 +611,69 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Among great letter.</t>
+          <t>Something why much.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s*********h@example.com</t>
+          <t>j************z@example.net</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Believe above the.</t>
+          <t>Each cultural rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Job billion short.</t>
+          <t>Matter per dream.</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Region film thing.</t>
+          <t>Material fly look.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Strategy pull star.</t>
+          <t>Think dream dog.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6362</v>
+        <v>7684</v>
       </c>
       <c r="N3" t="n">
-        <v>3577</v>
+        <v>7561</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Speech wonder seek.</t>
+          <t>Over health.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ryan Harris</t>
+          <t>Cheryl Green</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4************7</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/03/1925</t>
+          <t>21/06/1991</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PSC 1973, Box 1849
-APO AP 61855</t>
+          <t>85329 Michael Station
+Amychester, KY 82986</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,69 +683,69 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Someone girl spend.</t>
+          <t>Son of consumer.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>l**********g@example.com</t>
+          <t>s*********6@example.org</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Scientist oil might.</t>
+          <t>Together place type.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Media hotel.</t>
+          <t>Chair full along.</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Summer stuff rise.</t>
+          <t>Ask condition mean.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Administration.</t>
+          <t>Behind knowledge.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2574</v>
+        <v>4126</v>
       </c>
       <c r="N4" t="n">
-        <v>3483</v>
+        <v>4358</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Though page parent.</t>
+          <t>This minute power.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Connie Williamson</t>
+          <t>Michelle Ferrell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>0************2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25/04/1926</t>
+          <t>20/02/1984</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3564 Mary Place Apt. 261
-Port Richardview, SC 78791</t>
+          <t>586 Matthews Stravenue Suite 117
+East Janet, AS 56484</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -755,69 +755,69 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Himself it kid also.</t>
+          <t>Door season.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>p*********r@example.com</t>
+          <t>m************r@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Know force because.</t>
+          <t>Parent season page.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Notice government.</t>
+          <t>Eat talk minute.</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Expect part again.</t>
+          <t>Member day again.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Leave increase.</t>
+          <t>Contain woman.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5854</v>
+        <v>6169</v>
       </c>
       <c r="N5" t="n">
-        <v>8816</v>
+        <v>8384</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>While decision.</t>
+          <t>Edge skill.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gerald Smith</t>
+          <t>David Nunez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0************9</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10/08/1932</t>
+          <t>09/05/1959</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4149 Scott Run Apt. 014
-West Ericabury, CA 13311</t>
+          <t>74181 Hensley Ports Apt. 246
+Scottchester, MP 67608</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -827,69 +827,69 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maintain address.</t>
+          <t>Real find six pay.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>m************z@example.com</t>
+          <t>a*****2@example.org</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ten standard make.</t>
+          <t>Organization.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Analysis court.</t>
+          <t>Community picture.</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Great letter land.</t>
+          <t>Green radio serve.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Long design.</t>
+          <t>Hope safe close.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>8508</v>
+        <v>6241</v>
       </c>
       <c r="N6" t="n">
-        <v>5483</v>
+        <v>8985</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Measure soon.</t>
+          <t>Daughter daughter.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Katherine Johnson</t>
+          <t>Danny Jimenez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8************2</t>
+          <t>5************5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14/02/1995</t>
+          <t>24/08/1956</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>032 Jason Oval Apt. 254
-South Danielle, NE 37345</t>
+          <t>Unit 6129 Box 5812
+DPO AP 15935</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -899,69 +899,69 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Quickly institution.</t>
+          <t>Meeting rule.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>c*******i@example.com</t>
+          <t>w**********n@example.org</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Able former body.</t>
+          <t>Question support.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Upon who enter it.</t>
+          <t>Property gas.</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Statement yes wear.</t>
+          <t>Production off.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Well even finally.</t>
+          <t>Indicate.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>7369</v>
+        <v>8145</v>
       </c>
       <c r="N7" t="n">
-        <v>3503</v>
+        <v>3769</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Traditional far low.</t>
+          <t>Tell several when.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Matthew Hensley</t>
+          <t>Aaron Williams</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>4************8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14/10/1993</t>
+          <t>10/12/1945</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2546 Smith Ports
-West Melissamouth, WI 36605</t>
+          <t>6063 Lopez Land
+West Debramouth, FL 43627</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -971,69 +971,69 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cup paper drug keep.</t>
+          <t>Operation paper.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>a******j@example.com</t>
+          <t>s******6@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Later according.</t>
+          <t>Skill include.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Expert about hand.</t>
+          <t>I huge draw at.</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Realize we crime.</t>
+          <t>Wide let first hot.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Seat official.</t>
+          <t>Maybe college later.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>9363</v>
+        <v>7988</v>
       </c>
       <c r="N8" t="n">
-        <v>5780</v>
+        <v>1794</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Difference party.</t>
+          <t>Much toward list.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mariah Graham</t>
+          <t>Adam Bishop</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>4************9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10/01/1957</t>
+          <t>13/10/2004</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>858 Bryan Row
-East Ashleyville, OR 92955</t>
+          <t>8588 Torres Vista Suite 990
+New Christine, WY 94237</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1043,69 +1043,69 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>When everybody them.</t>
+          <t>Affect follow.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>f********n@example.com</t>
+          <t>s*******n@example.com</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Around off response.</t>
+          <t>TV environmental.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Agent court prevent.</t>
+          <t>His ask specific.</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Else environmental.</t>
+          <t>Painting partner.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Once drive wait.</t>
+          <t>Recognize foot.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2559</v>
+        <v>6678</v>
       </c>
       <c r="N9" t="n">
-        <v>7602</v>
+        <v>1513</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Culture mother.</t>
+          <t>Door explain pick.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Elizabeth Jones</t>
+          <t>Jeremy Wilson</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3************7</t>
+          <t>0************7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19/05/1944</t>
+          <t>25/06/1939</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>05883 Nathan Garden Apt. 475
-Hubbardview, WA 45441</t>
+          <t>737 Smith Station Suite 823
+Anthonymouth, SC 49384</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,69 +1115,69 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Smile indicate trip.</t>
+          <t>Stage story offer.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>t********g@example.com</t>
+          <t>e*********r@example.net</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Morning firm plan.</t>
+          <t>All total process.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Computer on live.</t>
+          <t>Economy admit away.</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Leave star describe.</t>
+          <t>Son more both.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Door yes hundred.</t>
+          <t>Open class crime.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>8633</v>
+        <v>2787</v>
       </c>
       <c r="N10" t="n">
-        <v>2007</v>
+        <v>2484</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Before before here.</t>
+          <t>Watch data eye.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kelsey Horton</t>
+          <t>Mary Garrett</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8************7</t>
+          <t>7************7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19/07/1926</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>42733 Jackson Dam Apt. 824
-Wilsonbury, PA 03753</t>
+          <t>3324 Deanna Court Apt. 055
+North Jessica, HI 69718</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,69 +1187,69 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Part third million.</t>
+          <t>Major speech live.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>a*********i@example.com</t>
+          <t>h*************s@example.net</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Left energy it.</t>
+          <t>Paper leave city.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Create real.</t>
+          <t>Focus door.</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Radio side use cold.</t>
+          <t>Film argue let.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Involve if best.</t>
+          <t>Room quite team gas.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3899</v>
+        <v>6069</v>
       </c>
       <c r="N11" t="n">
-        <v>2539</v>
+        <v>1739</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Around food tax.</t>
+          <t>Level baby near.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rodney Silva</t>
+          <t>Todd Gardner</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>6************0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17/01/1935</t>
+          <t>13/09/1926</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8939 Shelly Dam
-Allenstad, AK 27497</t>
+          <t>08957 Andrade Wall
+South Garymouth, RI 52226</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1259,69 +1259,69 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Join spring improve.</t>
+          <t>Family race agency.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>n********h@example.com</t>
+          <t>j****0@example.com</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Huge try appear eye.</t>
+          <t>Own always yourself.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Company feel yet.</t>
+          <t>Then beyond foot.</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>System table.</t>
+          <t>Others author.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Marriage sport.</t>
+          <t>Guy management join.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>8396</v>
+        <v>8530</v>
       </c>
       <c r="N12" t="n">
-        <v>7755</v>
+        <v>3319</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Bank performance.</t>
+          <t>Piece Democrat.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>William Jenkins</t>
+          <t>Brittney Arnold</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>7************2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28/03/1930</t>
+          <t>30/01/1977</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3676 Mikayla Loop
-Jacquelinestad, AK 65990</t>
+          <t>3430 Dorothy Place Apt. 079
+Lake Ashley, DC 02915</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1331,69 +1331,69 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Foreign foreign.</t>
+          <t>Ball follow.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>w**********i@example.com</t>
+          <t>o********a@example.org</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Allow energy have.</t>
+          <t>Since movement will.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Team question.</t>
+          <t>This wife group.</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Us bank produce.</t>
+          <t>Build well address.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>View development.</t>
+          <t>Director discover.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>2943</v>
+        <v>9617</v>
       </c>
       <c r="N13" t="n">
-        <v>6529</v>
+        <v>4567</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Safe case language.</t>
+          <t>News hear of law.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Charles Ingram</t>
+          <t>Corey Green</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6************1</t>
+          <t>2************7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10/09/1998</t>
+          <t>20/02/2005</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5816 Williams Track
-Kristintown, DE 28543</t>
+          <t>328 Reed Turnpike
+Carrollshire, KS 25086</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1403,69 +1403,69 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>His beat senior.</t>
+          <t>Certain poor pull.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>t**********n@example.com</t>
+          <t>j*****7@example.net</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Down television.</t>
+          <t>Left good capital.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Executive carry.</t>
+          <t>Single special.</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>And team choose.</t>
+          <t>Ask trade page.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Year beat thus much.</t>
+          <t>Health boy high.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>4701</v>
+        <v>5519</v>
       </c>
       <c r="N14" t="n">
-        <v>4620</v>
+        <v>2597</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Final film time.</t>
+          <t>Green past magazine.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sandy Moran</t>
+          <t>Ryan Nelson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6************4</t>
+          <t>9************2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10/07/1995</t>
+          <t>20/05/1954</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>323 Jennifer Stream Suite 601
-New Reginaldchester, AZ 05235</t>
+          <t>8952 Baker Highway
+North Kelseymouth, MO 73729</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1475,69 +1475,69 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fly economy heavy.</t>
+          <t>Leader radio eye.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>a********k@example.com</t>
+          <t>n**********s@example.net</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sister movement.</t>
+          <t>Financial almost a.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Company present.</t>
+          <t>Mrs concern weight.</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Modern enter hour.</t>
+          <t>Watch environmental.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Eight including.</t>
+          <t>Challenge young.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5635</v>
+        <v>8164</v>
       </c>
       <c r="N15" t="n">
-        <v>6886</v>
+        <v>9801</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Meet another.</t>
+          <t>Particularly sit.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alexandra Hampton</t>
+          <t>Jay Chavez</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6************3</t>
+          <t>2************0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15/10/1954</t>
+          <t>30/10/1956</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PSC 0939, Box 9193
-APO AA 52054</t>
+          <t>93760 Alvarez Mews Suite 870
+Larryville, GU 89492</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1547,69 +1547,69 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Prepare mother my.</t>
+          <t>News difficult.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>y*********n@example.com</t>
+          <t>n******o@example.com</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Service toward.</t>
+          <t>Technology thank.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Remember third site.</t>
+          <t>Maybe fire husband.</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Field thousand old.</t>
+          <t>Fire major pass.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Include and.</t>
+          <t>Bit begin report.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6246</v>
+        <v>5458</v>
       </c>
       <c r="N16" t="n">
-        <v>3830</v>
+        <v>9993</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Bag kind talk voice.</t>
+          <t>Mention street.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Debra Miller</t>
+          <t>Kelly Frazier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5************6</t>
+          <t>8************9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>25/08/1996</t>
+          <t>19/09/1947</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>321 Francis Knoll
-East Benjamintown, MT 42315</t>
+          <t>345 Valerie Plains Suite 953
+Stantonton, MI 44977</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1619,69 +1619,69 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Already past.</t>
+          <t>Unit suddenly high.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>h********a@example.com</t>
+          <t>a******s@example.org</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Trouble herself.</t>
+          <t>Prepare world hold.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>What peace marriage.</t>
+          <t>Factor certain or.</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Window heart.</t>
+          <t>Beyond three offer.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Street worker well.</t>
+          <t>Foot country senior.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>8866</v>
+        <v>5616</v>
       </c>
       <c r="N17" t="n">
-        <v>8129</v>
+        <v>9099</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Give Mrs generation.</t>
+          <t>Machine score hour.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lisa Hood</t>
+          <t>Mr. Adam Williams</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9************9</t>
+          <t>3************7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19/06/1967</t>
+          <t>22/04/1956</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4075 Heather Centers
-Longhaven, TX 26477</t>
+          <t>22539 Aguirre Road
+Flynnview, PA 01850</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1691,69 +1691,69 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Seat item than.</t>
+          <t>Guy ground gas.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>a*******u@example.com</t>
+          <t>g****y@example.org</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Full attack already.</t>
+          <t>Common worker.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Address matter find.</t>
+          <t>Reach ready sell.</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Involve reason.</t>
+          <t>Arrive case by four.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Investment.</t>
+          <t>Participant else.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>7908</v>
+        <v>4692</v>
       </c>
       <c r="N18" t="n">
-        <v>7058</v>
+        <v>2178</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Option never later.</t>
+          <t>Police discuss.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shaun Stephens</t>
+          <t>Alexander Ritter</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>4************8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06/07/1961</t>
+          <t>30/11/1980</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>398 Salas Parkway
-West Aliciastad, IN 49856</t>
+          <t>908 Barker Locks
+Ortegaburgh, MD 41675</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1763,69 +1763,69 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wind deal who.</t>
+          <t>Himself character.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>m******g@example.com</t>
+          <t>j****7@example.net</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Put affect baby.</t>
+          <t>Value glass.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sort region explain.</t>
+          <t>Man by body very.</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Everybody discover.</t>
+          <t>Dark skin any.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Our mission pattern.</t>
+          <t>Laugh suggest small.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5787</v>
+        <v>5970</v>
       </c>
       <c r="N19" t="n">
-        <v>9520</v>
+        <v>9052</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Movement figure.</t>
+          <t>Explain partner.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Christopher George</t>
+          <t>John Stephens PhD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7************6</t>
+          <t>7************5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>26/04/1938</t>
+          <t>17/07/1950</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8960 Palmer Valley
-North Henry, NY 46200</t>
+          <t>046 Jennifer Drive Apt. 260
+West Tarachester, HI 67927</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1835,69 +1835,69 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Point wall culture.</t>
+          <t>Item story but up.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>r********r@example.com</t>
+          <t>w*******l@example.com</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Boy join else radio.</t>
+          <t>Hear father action.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Speech necessary.</t>
+          <t>Former side we may.</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Land light remain.</t>
+          <t>You Mrs data while.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>House ground.</t>
+          <t>Check present.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3340</v>
+        <v>9798</v>
       </c>
       <c r="N20" t="n">
-        <v>5718</v>
+        <v>3601</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Seek floor painting.</t>
+          <t>Write less concern.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ashley Thomas</t>
+          <t>Joel Nelson</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5************4</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15/09/1976</t>
+          <t>17/04/2000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>545 Nelson Isle Suite 473
-East Zacharyland, GU 86070</t>
+          <t>8203 Gonzalez Heights
+Davidland, OH 98527</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1907,69 +1907,69 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fall bar when.</t>
+          <t>Enough sister unit.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>z***********n@example.com</t>
+          <t>d************a@example.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Up oil outside.</t>
+          <t>Man trial from gun.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Run customer common.</t>
+          <t>Trip coach future.</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Democrat minute.</t>
+          <t>Current region.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Unit better surface.</t>
+          <t>Stage sit food.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>3038</v>
+        <v>8674</v>
       </c>
       <c r="N21" t="n">
-        <v>3066</v>
+        <v>8254</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Establish gun.</t>
+          <t>Effort government.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bryan Bowman</t>
+          <t>Nina Roberts</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>7************1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>26/08/1945</t>
+          <t>07/05/1935</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5735 Savannah Mews Apt. 981
-Jameschester, MI 92606</t>
+          <t>4505 Obrien Ferry
+Carrilloview, MS 45777</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1979,69 +1979,69 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Her view simple.</t>
+          <t>Yet laugh there.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>a*********f@example.com</t>
+          <t>j*****6@example.org</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Adult probably sea.</t>
+          <t>Boy tell eight whom.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Show control cell.</t>
+          <t>Forward these big.</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Improve place list.</t>
+          <t>Final describe four.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Believe receive.</t>
+          <t>Heavy care subject.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2434</v>
+        <v>2361</v>
       </c>
       <c r="N22" t="n">
-        <v>4450</v>
+        <v>9595</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Market hope senior.</t>
+          <t>Congress he friend.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nicholas Moody</t>
+          <t>James Robinson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>2************4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17/11/1937</t>
+          <t>21/06/1947</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44996 Bautista Manors Suite 726
-Isaacton, MT 45037</t>
+          <t>57487 Anderson Circles Suite 342
+Smithland, MT 43643</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2051,69 +2051,69 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Clear particular.</t>
+          <t>Season tend debate.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>c*********n@example.com</t>
+          <t>j**********y@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Discuss return.</t>
+          <t>Similar education.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Catch especially he.</t>
+          <t>Enjoy trouble meet.</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Happen build.</t>
+          <t>Land oil second.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Sister her can.</t>
+          <t>Item structure.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5398</v>
+        <v>4195</v>
       </c>
       <c r="N23" t="n">
-        <v>6958</v>
+        <v>2264</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Organization world.</t>
+          <t>Yard light make.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Christopher Mcmillan</t>
+          <t>Michael Gill</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0************1</t>
+          <t>5************0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>09/11/1939</t>
+          <t>14/05/1925</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>40557 Christina Extension
-Lake Michelleborough, AR 68930</t>
+          <t>542 Michael Dale Apt. 205
+Peggyville, MI 18449</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2123,69 +2123,69 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Anything ever page.</t>
+          <t>Attack fly after.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>s**********r@example.com</t>
+          <t>y******n@example.org</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>While turn develop.</t>
+          <t>Pattern example do.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Too eat thank.</t>
+          <t>Case physical kind.</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Contain election.</t>
+          <t>Special cost among.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Hour within teacher.</t>
+          <t>Could doctor.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>7533</v>
+        <v>3777</v>
       </c>
       <c r="N24" t="n">
-        <v>1693</v>
+        <v>7562</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Pattern smile seven.</t>
+          <t>Defense college.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>David Moreno</t>
+          <t>Jason Bonilla</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4************7</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21/04/1961</t>
+          <t>26/05/1971</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>96665 Cruz Loaf Suite 464
-Priceview, TX 52842</t>
+          <t>62254 Anna Passage
+Stoneton, IN 21003</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2195,69 +2195,69 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Safe about.</t>
+          <t>Paper of seem.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>n********h@example.com</t>
+          <t>s**************l@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Organization.</t>
+          <t>Special end natural.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Raise method.</t>
+          <t>Side animal.</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Decade themselves.</t>
+          <t>Goal space get fact.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Lot population.</t>
+          <t>Show part myself.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2357</v>
+        <v>3370</v>
       </c>
       <c r="N25" t="n">
-        <v>8792</v>
+        <v>6839</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Program year quite.</t>
+          <t>Occur night current.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lori Wagner</t>
+          <t>Jordan Gutierrez</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3************3</t>
+          <t>3************6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10/07/1933</t>
+          <t>06/03/1967</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>43702 Linda Ferry Suite 410
-Sharonburgh, WV 87279</t>
+          <t>10371 Hamilton Green Suite 880
+Warrentown, WV 53480</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2267,69 +2267,69 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Character.</t>
+          <t>More if to against.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>l********i@example.com</t>
+          <t>b*****n@example.com</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Radio try require.</t>
+          <t>Now current better.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Brother drive.</t>
+          <t>Decide government.</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Smile fact rule if.</t>
+          <t>Reach draw.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Opportunity alone.</t>
+          <t>Lead blue left vote.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>5221</v>
+        <v>2191</v>
       </c>
       <c r="N26" t="n">
-        <v>9629</v>
+        <v>3685</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Never east exist.</t>
+          <t>Believe only.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Peter Figueroa</t>
+          <t>Leah Holmes</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>6************5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>05/12/1996</t>
+          <t>06/01/1983</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52611 Lewis Burgs
-West Suzanne, FL 26414</t>
+          <t>61567 Ramsey Harbor Apt. 542
+Michaelfort, GU 93088</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2339,69 +2339,69 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Individual make.</t>
+          <t>Or firm dog area.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>a********j@example.com</t>
+          <t>o******z@example.org</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Carry account laugh.</t>
+          <t>Pretty music.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Seven week at.</t>
+          <t>Include goal.</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Line eat list place.</t>
+          <t>Guess trial camera.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Much cost member.</t>
+          <t>Parent American.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>9162</v>
+        <v>4488</v>
       </c>
       <c r="N27" t="n">
-        <v>2339</v>
+        <v>4609</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Brother government.</t>
+          <t>Far here speak girl.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Steven Sutton</t>
+          <t>Scott Dickerson</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0************1</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>02/03/1957</t>
+          <t>31/12/1965</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18631 Yang Lights
-West Lorrainefurt, NH 32748</t>
+          <t>040 Martin Pines
+South Angelaburgh, CT 92954</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2411,69 +2411,69 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Man employee.</t>
+          <t>Change north for.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>s********r@example.com</t>
+          <t>e*********1@example.org</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Different number.</t>
+          <t>On teacher notice.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Raise team a onto.</t>
+          <t>Measure church.</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Happy produce hour.</t>
+          <t>Full put view.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Around study table.</t>
+          <t>Strong operation.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2004</v>
+        <v>8128</v>
       </c>
       <c r="N28" t="n">
-        <v>9847</v>
+        <v>1342</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Account four while.</t>
+          <t>Pattern usually.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Alicia Matthews</t>
+          <t>Joel Patel</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5************9</t>
+          <t>8************3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>24/01/1932</t>
+          <t>02/07/1989</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>116 Larry Knoll Apt. 728
-Deborahstad, DC 21693</t>
+          <t>Unit 9194 Box 5088
+DPO AP 28191</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2483,69 +2483,69 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Call job material.</t>
+          <t>Government above.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>w*********i@example.com</t>
+          <t>s************r@example.org</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Traditional.</t>
+          <t>Effect offer.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Message best.</t>
+          <t>May another apply.</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Drug reason give.</t>
+          <t>Collection go level.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>New way put similar.</t>
+          <t>Probably actually.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>7258</v>
+        <v>7044</v>
       </c>
       <c r="N29" t="n">
-        <v>7831</v>
+        <v>4243</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Operation drive.</t>
+          <t>Any arm most idea.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>William Odom</t>
+          <t>Eileen Warren</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19/01/1948</t>
+          <t>01/03/1960</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8890 Jill Valleys Apt. 921
-Port Garystad, OR 61756</t>
+          <t>54729 Dickerson Mall Apt. 883
+Lake Amanda, GU 16449</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2555,69 +2555,69 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stand agency term.</t>
+          <t>Term level travel.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>a********n@example.com</t>
+          <t>s*******1@example.org</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Side range various.</t>
+          <t>Himself ahead drug.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Use old stop each.</t>
+          <t>New simply civil.</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wall go inside.</t>
+          <t>Low approach.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Real sport real.</t>
+          <t>Land table main.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>6429</v>
+        <v>2840</v>
       </c>
       <c r="N30" t="n">
-        <v>8341</v>
+        <v>5471</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Main turn example.</t>
+          <t>Nice half next.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Javier Jackson</t>
+          <t>James Matthews</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8************7</t>
+          <t>9************2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30/09/1989</t>
+          <t>16/06/1990</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PSC 4360, Box 7407
-APO AE 95877</t>
+          <t>6703 Robin Lakes
+Melissahaven, AS 35708</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2627,46 +2627,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Peace water accept.</t>
+          <t>Stuff some somebody.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>k*************n@example.com</t>
+          <t>t*******l@example.net</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Time pressure.</t>
+          <t>Spend heart prevent.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Speak state and.</t>
+          <t>Usually candidate.</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Important push long.</t>
+          <t>Market yet cold.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Very direction.</t>
+          <t>Instead for.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>9412</v>
+        <v>9154</v>
       </c>
       <c r="N31" t="n">
-        <v>1865</v>
+        <v>8962</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Same interview thus.</t>
+          <t>Develop option.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Home Address</t>
+          <t>Alamat Rumah</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Emel</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -513,23 +513,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Melissa Pitts</t>
+          <t>Maurice Wagner</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4************2</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29/01/2000</t>
+          <t>08/05/1985</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89001 Doyle Terrace Suite 596
-Williamsmouth, PR 96502</t>
+          <t>* Hartman Cliff
+Lisastad, TN *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,69 +539,69 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Result town second.</t>
+          <t>However piece.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>v****n@example.com</t>
+          <t>b*****4@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Show middle may.</t>
+          <t>Watch prepare work.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Return attention.</t>
+          <t>Able Democrat note.</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Real charge bring.</t>
+          <t>Another both.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Building fact same.</t>
+          <t>Network must voice.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4332</v>
+        <v>4429</v>
       </c>
       <c r="N2" t="n">
-        <v>7454</v>
+        <v>5479</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Data simple wait.</t>
+          <t>Coach attack half.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barry Summers</t>
+          <t>Craig Tapia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3************9</t>
+          <t>6************5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22/07/1977</t>
+          <t>18/09/1980</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0107 Woodward Circles
-Robintown, OH 85350</t>
+          <t>* Kevin Stravenue Suite *
+North Dianetown, OH *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -611,69 +611,69 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Something why much.</t>
+          <t>Cover matter major.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>j************z@example.net</t>
+          <t>m*******n@example.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Each cultural rich.</t>
+          <t>Speak successful.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Matter per dream.</t>
+          <t>Us son include.</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Material fly look.</t>
+          <t>Process say today.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Think dream dog.</t>
+          <t>Live trouble.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7684</v>
+        <v>3818</v>
       </c>
       <c r="N3" t="n">
-        <v>7561</v>
+        <v>6950</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Over health.</t>
+          <t>Stage buy.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cheryl Green</t>
+          <t>Gabrielle Brown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>6************3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21/06/1991</t>
+          <t>23/08/1950</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85329 Michael Station
-Amychester, KY 82986</t>
+          <t>* Brenda Plains
+Adamport, AS *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,69 +683,69 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Son of consumer.</t>
+          <t>Room think national.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s*********6@example.org</t>
+          <t>g***********y@example.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Together place type.</t>
+          <t>Peace compare worry.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Chair full along.</t>
+          <t>Find method.</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Ask condition mean.</t>
+          <t>Also what fast.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Behind knowledge.</t>
+          <t>Necessary yeah.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4126</v>
+        <v>4925</v>
       </c>
       <c r="N4" t="n">
-        <v>4358</v>
+        <v>4085</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>This minute power.</t>
+          <t>When success owner.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Michelle Ferrell</t>
+          <t>Donald Beard</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0************2</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20/02/1984</t>
+          <t>30/09/1961</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>586 Matthews Stravenue Suite 117
-East Janet, AS 56484</t>
+          <t>* Nicholas Wall
+Robinchester, DE *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -755,69 +755,69 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Door season.</t>
+          <t>Value line pretty.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>m************r@example.net</t>
+          <t>s*********l@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Parent season page.</t>
+          <t>Sense network.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Eat talk minute.</t>
+          <t>High economy half.</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Member day again.</t>
+          <t>Describe sound.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Contain woman.</t>
+          <t>See system source.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6169</v>
+        <v>7192</v>
       </c>
       <c r="N5" t="n">
-        <v>8384</v>
+        <v>9501</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Edge skill.</t>
+          <t>Recent shoulder.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>David Nunez</t>
+          <t>Johnny Thornton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>6************7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09/05/1959</t>
+          <t>25/04/1938</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>74181 Hensley Ports Apt. 246
-Scottchester, MP 67608</t>
+          <t>PSC *, Box *
+APO AP *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -827,69 +827,69 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Real find six pay.</t>
+          <t>Yard us place.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>a*****2@example.org</t>
+          <t>d****s@example.net</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Organization.</t>
+          <t>Able hair do.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Community picture.</t>
+          <t>Though exactly.</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Green radio serve.</t>
+          <t>Use again create.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Hope safe close.</t>
+          <t>Difference policy.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6241</v>
+        <v>7386</v>
       </c>
       <c r="N6" t="n">
-        <v>8985</v>
+        <v>9238</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Daughter daughter.</t>
+          <t>Somebody whatever.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Danny Jimenez</t>
+          <t>Stacey Day</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5************5</t>
+          <t>4************9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24/08/1956</t>
+          <t>07/04/1973</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unit 6129 Box 5812
-DPO AP 15935</t>
+          <t>* Dalton Spring
+Dominiquemouth, HI *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -899,69 +899,69 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Meeting rule.</t>
+          <t>Understand.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>w**********n@example.org</t>
+          <t>j********a@example.net</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Question support.</t>
+          <t>Data north about.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Property gas.</t>
+          <t>Myself drive six.</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Production off.</t>
+          <t>Degree agency.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Indicate.</t>
+          <t>Man president.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>8145</v>
+        <v>7579</v>
       </c>
       <c r="N7" t="n">
-        <v>3769</v>
+        <v>4845</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Tell several when.</t>
+          <t>Each enough inside.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aaron Williams</t>
+          <t>Ryan Reed Jr.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4************8</t>
+          <t>7************4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10/12/1945</t>
+          <t>02/05/1937</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6063 Lopez Land
-West Debramouth, FL 43627</t>
+          <t>* Robert Falls
+East Bridgetside, PA *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -971,69 +971,69 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Operation paper.</t>
+          <t>Difference whom.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>s******6@example.com</t>
+          <t>k*****s@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Skill include.</t>
+          <t>Color wish.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>I huge draw at.</t>
+          <t>Case better laugh.</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wide let first hot.</t>
+          <t>Pay recognize ask.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Maybe college later.</t>
+          <t>Be democratic.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>7988</v>
+        <v>9041</v>
       </c>
       <c r="N8" t="n">
-        <v>1794</v>
+        <v>8613</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Much toward list.</t>
+          <t>Machine central.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Adam Bishop</t>
+          <t>Steven Bradford</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4************9</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13/10/2004</t>
+          <t>09/09/1954</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8588 Torres Vista Suite 990
-New Christine, WY 94237</t>
+          <t>* Angela Parkways
+Powellton, KS *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1043,69 +1043,69 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Affect follow.</t>
+          <t>Clear threat show.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>s*******n@example.com</t>
+          <t>b******g@example.org</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV environmental.</t>
+          <t>Stop factor instead.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>His ask specific.</t>
+          <t>Imagine beat could.</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Painting partner.</t>
+          <t>Purpose total write.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Recognize foot.</t>
+          <t>Community occur.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>6678</v>
+        <v>8547</v>
       </c>
       <c r="N9" t="n">
-        <v>1513</v>
+        <v>6419</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Door explain pick.</t>
+          <t>Speech every woman.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jeremy Wilson</t>
+          <t>Justin Esparza</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0************7</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>25/06/1939</t>
+          <t>13/07/1982</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>737 Smith Station Suite 823
-Anthonymouth, SC 49384</t>
+          <t>* Tyrone Hills
+Jonathanhaven, OR *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,69 +1115,69 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stage story offer.</t>
+          <t>Each run behind.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>e*********r@example.net</t>
+          <t>w*******6@example.net</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>All total process.</t>
+          <t>Book around each.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Economy admit away.</t>
+          <t>Heart civil heart.</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Son more both.</t>
+          <t>Hit director than.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Open class crime.</t>
+          <t>Material every push.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2787</v>
+        <v>5377</v>
       </c>
       <c r="N10" t="n">
-        <v>2484</v>
+        <v>7713</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Watch data eye.</t>
+          <t>Discover public.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mary Garrett</t>
+          <t>Jenna Hicks</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7************7</t>
+          <t>7************3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>10/04/1940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3324 Deanna Court Apt. 055
-North Jessica, HI 69718</t>
+          <t>* Grant River
+North Kimberly, LA *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,69 +1187,69 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Major speech live.</t>
+          <t>Draw test various.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>h*************s@example.net</t>
+          <t>m******7@example.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Paper leave city.</t>
+          <t>Kind concern power.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Focus door.</t>
+          <t>Trade bad effect.</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Film argue let.</t>
+          <t>Positive statement.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Room quite team gas.</t>
+          <t>Professional get.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>6069</v>
+        <v>6444</v>
       </c>
       <c r="N11" t="n">
-        <v>1739</v>
+        <v>7330</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Level baby near.</t>
+          <t>Same image threat.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Todd Gardner</t>
+          <t>Steven Thompson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6************0</t>
+          <t>3************7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13/09/1926</t>
+          <t>30/01/1965</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>08957 Andrade Wall
-South Garymouth, RI 52226</t>
+          <t>* Carter Courts
+Loriside, MN *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1259,53 +1259,53 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Family race agency.</t>
+          <t>Raise our door.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>j****0@example.com</t>
+          <t>w*************y@example.net</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Own always yourself.</t>
+          <t>Outside official.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Then beyond foot.</t>
+          <t>Political peace.</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Others author.</t>
+          <t>Could style career.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Guy management join.</t>
+          <t>Buy music role.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>8530</v>
+        <v>6272</v>
       </c>
       <c r="N12" t="n">
-        <v>3319</v>
+        <v>7336</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Piece Democrat.</t>
+          <t>Security community.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brittney Arnold</t>
+          <t>Stephanie Johnson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1315,13 +1315,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30/01/1977</t>
+          <t>22/08/1993</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3430 Dorothy Place Apt. 079
-Lake Ashley, DC 02915</t>
+          <t>* Peterson Lodge Apt. *
+Jamesburgh, DE *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1331,69 +1331,69 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ball follow.</t>
+          <t>Fear daughter body.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>o********a@example.org</t>
+          <t>j******a@example.net</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Since movement will.</t>
+          <t>How employee.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>This wife group.</t>
+          <t>Sound blue model.</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Build well address.</t>
+          <t>Benefit especially.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Director discover.</t>
+          <t>News common meet.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>9617</v>
+        <v>3029</v>
       </c>
       <c r="N13" t="n">
-        <v>4567</v>
+        <v>3671</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>News hear of law.</t>
+          <t>Action have public.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Corey Green</t>
+          <t>Heather Davis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2************7</t>
+          <t>9************2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20/02/2005</t>
+          <t>02/11/1947</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>328 Reed Turnpike
-Carrollshire, KS 25086</t>
+          <t>* Nicholas Key
+Port Debraburgh, IN *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1403,69 +1403,69 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Certain poor pull.</t>
+          <t>If sit money fly.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>j*****7@example.net</t>
+          <t>y****y@example.net</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Left good capital.</t>
+          <t>Give allow open.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Single special.</t>
+          <t>Born guess.</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Ask trade page.</t>
+          <t>Hot plan major.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Health boy high.</t>
+          <t>Class attack.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5519</v>
+        <v>6132</v>
       </c>
       <c r="N14" t="n">
-        <v>2597</v>
+        <v>8477</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Green past magazine.</t>
+          <t>Quickly region.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ryan Nelson</t>
+          <t>Heidi Pierce</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9************2</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20/05/1954</t>
+          <t>25/01/1941</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8952 Baker Highway
-North Kelseymouth, MO 73729</t>
+          <t>Unit * Box *
+DPO AA *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1475,69 +1475,69 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Leader radio eye.</t>
+          <t>The give whether.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>n**********s@example.net</t>
+          <t>a******5@example.org</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Financial almost a.</t>
+          <t>Student step course.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Mrs concern weight.</t>
+          <t>Protect half.</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Watch environmental.</t>
+          <t>Relate he today too.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Challenge young.</t>
+          <t>Then single bill.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>8164</v>
+        <v>6752</v>
       </c>
       <c r="N15" t="n">
-        <v>9801</v>
+        <v>9745</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Particularly sit.</t>
+          <t>Detail prevent.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jay Chavez</t>
+          <t>Brooke Thomas</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2************0</t>
+          <t>8************3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30/10/1956</t>
+          <t>21/05/1953</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93760 Alvarez Mews Suite 870
-Larryville, GU 89492</t>
+          <t>* James Walks Apt. *
+Sierraland, NC *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1547,53 +1547,53 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>News difficult.</t>
+          <t>Huge partner.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>n******o@example.com</t>
+          <t>a************n@example.com</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Technology thank.</t>
+          <t>Great real tax upon.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Maybe fire husband.</t>
+          <t>Sell significant.</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fire major pass.</t>
+          <t>Mouth my analysis.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Bit begin report.</t>
+          <t>Try country our.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>5458</v>
+        <v>4268</v>
       </c>
       <c r="N16" t="n">
-        <v>9993</v>
+        <v>9658</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Mention street.</t>
+          <t>War arm during.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kelly Frazier</t>
+          <t>Joseph White</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1603,13 +1603,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19/09/1947</t>
+          <t>08/06/1947</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>345 Valerie Plains Suite 953
-Stantonton, MI 44977</t>
+          <t>PSC *, Box *
+APO AA *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1619,69 +1619,69 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Unit suddenly high.</t>
+          <t>Article myself.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>a******s@example.org</t>
+          <t>a*******e@example.org</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Prepare world hold.</t>
+          <t>Capital indeed.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Factor certain or.</t>
+          <t>Indeed main.</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Beyond three offer.</t>
+          <t>Middle nothing site.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Foot country senior.</t>
+          <t>Hand over big at.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5616</v>
+        <v>8311</v>
       </c>
       <c r="N17" t="n">
-        <v>9099</v>
+        <v>5260</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Machine score hour.</t>
+          <t>Social ball score.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mr. Adam Williams</t>
+          <t>Raymond Gutierrez</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3************7</t>
+          <t>3************6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22/04/1956</t>
+          <t>26/02/1986</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22539 Aguirre Road
-Flynnview, PA 01850</t>
+          <t>PSC *, Box *
+APO AA *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1691,69 +1691,69 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guy ground gas.</t>
+          <t>Arm staff compare.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>g****y@example.org</t>
+          <t>x**e@example.net</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Common worker.</t>
+          <t>Performance book.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Reach ready sell.</t>
+          <t>Color news.</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Arrive case by four.</t>
+          <t>Series music.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Participant else.</t>
+          <t>Interest officer.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>4692</v>
+        <v>8726</v>
       </c>
       <c r="N18" t="n">
-        <v>2178</v>
+        <v>6423</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Police discuss.</t>
+          <t>Community sister.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alexander Ritter</t>
+          <t>Juan Hunter</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4************8</t>
+          <t>3************7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30/11/1980</t>
+          <t>18/06/1944</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>908 Barker Locks
-Ortegaburgh, MD 41675</t>
+          <t>* Blair Island Apt. *
+Teresatown, WV *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1763,69 +1763,69 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Himself character.</t>
+          <t>Attention drug side.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>j****7@example.net</t>
+          <t>n******2@example.org</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Value glass.</t>
+          <t>Sea point short.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Man by body very.</t>
+          <t>Note soldier.</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Dark skin any.</t>
+          <t>Use section detail.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Laugh suggest small.</t>
+          <t>Floor risk dinner.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5970</v>
+        <v>8208</v>
       </c>
       <c r="N19" t="n">
-        <v>9052</v>
+        <v>6640</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Explain partner.</t>
+          <t>Buy enter story.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>John Stephens PhD</t>
+          <t>Lynn Martinez</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7************5</t>
+          <t>9************0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17/07/1950</t>
+          <t>27/07/1969</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>046 Jennifer Drive Apt. 260
-West Tarachester, HI 67927</t>
+          <t>* Alison Pines Suite *
+West Benjaminhaven, CO *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1835,69 +1835,69 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Item story but up.</t>
+          <t>Character still of.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>w*******l@example.com</t>
+          <t>j***********a@example.org</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hear father action.</t>
+          <t>Such morning.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Former side we may.</t>
+          <t>Probably conference.</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>You Mrs data while.</t>
+          <t>Contain shoulder.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Check present.</t>
+          <t>Ask win book look.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>9798</v>
+        <v>7861</v>
       </c>
       <c r="N20" t="n">
-        <v>3601</v>
+        <v>9237</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Write less concern.</t>
+          <t>Teach watch son.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Joel Nelson</t>
+          <t>Rebecca Thomas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17/04/2000</t>
+          <t>12/02/1997</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8203 Gonzalez Heights
-Davidland, OH 98527</t>
+          <t>* Murray Coves
+Morrisonfort, ND *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1907,69 +1907,69 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Enough sister unit.</t>
+          <t>Occur do each ok.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>d************a@example.com</t>
+          <t>j*****3@example.net</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Man trial from gun.</t>
+          <t>Morning make stay.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Trip coach future.</t>
+          <t>Trial grow figure.</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Current region.</t>
+          <t>Foreign activity.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Stage sit food.</t>
+          <t>Standard reality.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>8674</v>
+        <v>8765</v>
       </c>
       <c r="N21" t="n">
-        <v>8254</v>
+        <v>3638</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Effort government.</t>
+          <t>Rather then quite.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nina Roberts</t>
+          <t>Joseph Harris</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7************1</t>
+          <t>6************7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07/05/1935</t>
+          <t>09/01/1995</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4505 Obrien Ferry
-Carrilloview, MS 45777</t>
+          <t>* Vickie Park Suite *
+Griffithtown, MI *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1979,69 +1979,69 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Yet laugh there.</t>
+          <t>Mission dark almost.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>j*****6@example.org</t>
+          <t>s*********a@example.com</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Boy tell eight whom.</t>
+          <t>Own fight economy.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Forward these big.</t>
+          <t>Exist sense.</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Final describe four.</t>
+          <t>Form tonight hour.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Heavy care subject.</t>
+          <t>Media spring.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2361</v>
+        <v>5688</v>
       </c>
       <c r="N22" t="n">
-        <v>9595</v>
+        <v>5725</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Congress he friend.</t>
+          <t>Room peace serve.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>James Robinson</t>
+          <t>Carlos Snyder</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2************4</t>
+          <t>0************0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21/06/1947</t>
+          <t>09/05/2004</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>57487 Anderson Circles Suite 342
-Smithland, MT 43643</t>
+          <t>PSC *, Box *
+APO AA *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2051,69 +2051,69 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Season tend debate.</t>
+          <t>Discuss reveal yard.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>j**********y@example.org</t>
+          <t>i*****s@example.com</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Similar education.</t>
+          <t>College agency fine.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Enjoy trouble meet.</t>
+          <t>Push series their.</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Land oil second.</t>
+          <t>Other particular.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Item structure.</t>
+          <t>Human commercial.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>4195</v>
+        <v>8155</v>
       </c>
       <c r="N23" t="n">
-        <v>2264</v>
+        <v>9425</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Yard light make.</t>
+          <t>Will up Mrs dream.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Michael Gill</t>
+          <t>Heather Butler</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5************0</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14/05/1925</t>
+          <t>13/08/1960</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>542 Michael Dale Apt. 205
-Peggyville, MI 18449</t>
+          <t>* Douglas Throughway Suite *
+Susanville, MS *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2123,69 +2123,69 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Attack fly after.</t>
+          <t>Writer water.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>y******n@example.org</t>
+          <t>c***********e@example.org</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pattern example do.</t>
+          <t>Voice they nearly.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Case physical kind.</t>
+          <t>Run trade authority.</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Special cost among.</t>
+          <t>Clearly series.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Could doctor.</t>
+          <t>Actually sense per.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3777</v>
+        <v>8686</v>
       </c>
       <c r="N24" t="n">
-        <v>7562</v>
+        <v>6146</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Defense college.</t>
+          <t>Source serve peace.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jason Bonilla</t>
+          <t>Paul Campbell</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>7************2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>26/05/1971</t>
+          <t>09/05/1991</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>62254 Anna Passage
-Stoneton, IN 21003</t>
+          <t>* Cassandra Heights Apt. *
+Seanton, RI *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2195,69 +2195,69 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Paper of seem.</t>
+          <t>Baby place safe.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>s**************l@example.com</t>
+          <t>j*******n@example.net</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Special end natural.</t>
+          <t>Sport value onto.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Side animal.</t>
+          <t>Finish defense.</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Goal space get fact.</t>
+          <t>Also common case.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Show part myself.</t>
+          <t>Hot it happy choice.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>3370</v>
+        <v>7489</v>
       </c>
       <c r="N25" t="n">
-        <v>6839</v>
+        <v>4771</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Occur night current.</t>
+          <t>Line house south.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jordan Gutierrez</t>
+          <t>Kathleen Collins</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3************6</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06/03/1967</t>
+          <t>08/07/1956</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10371 Hamilton Green Suite 880
-Warrentown, WV 53480</t>
+          <t>* Cooper Hill Suite *
+North Jessica, MS *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2267,69 +2267,69 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>More if to against.</t>
+          <t>Ok character water.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>b*****n@example.com</t>
+          <t>s********g@example.org</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Now current better.</t>
+          <t>Serious although.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Decide government.</t>
+          <t>Wide likely.</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Reach draw.</t>
+          <t>Involve article.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Lead blue left vote.</t>
+          <t>Family water I.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2191</v>
+        <v>3320</v>
       </c>
       <c r="N26" t="n">
-        <v>3685</v>
+        <v>5775</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Believe only.</t>
+          <t>Perform once.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Leah Holmes</t>
+          <t>Laura Bishop</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6************5</t>
+          <t>3************0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06/01/1983</t>
+          <t>02/09/1945</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>61567 Ramsey Harbor Apt. 542
-Michaelfort, GU 93088</t>
+          <t>Unit * Box *
+DPO AE *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2339,69 +2339,69 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Or firm dog area.</t>
+          <t>Ahead goal song fly.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>o******z@example.org</t>
+          <t>g************a@example.net</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pretty music.</t>
+          <t>Yet walk billion.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Include goal.</t>
+          <t>Interview wide.</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Guess trial camera.</t>
+          <t>Reflect how.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Parent American.</t>
+          <t>Consider pattern.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4488</v>
+        <v>6043</v>
       </c>
       <c r="N27" t="n">
-        <v>4609</v>
+        <v>2514</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Far here speak girl.</t>
+          <t>People probably.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Scott Dickerson</t>
+          <t>Michelle Gallagher</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/1965</t>
+          <t>07/09/1957</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>040 Martin Pines
-South Angelaburgh, CT 92954</t>
+          <t>* Ramirez Park Suite *
+Meadowsfort, VA *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2411,69 +2411,69 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Change north for.</t>
+          <t>Final throw capital.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>e*********1@example.org</t>
+          <t>k******n@example.org</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>On teacher notice.</t>
+          <t>To increase coach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Measure church.</t>
+          <t>Light voice media.</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Full put view.</t>
+          <t>Finish never main.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Strong operation.</t>
+          <t>Name seek must.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>8128</v>
+        <v>9234</v>
       </c>
       <c r="N28" t="n">
-        <v>1342</v>
+        <v>6438</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Pattern usually.</t>
+          <t>Think audience.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Joel Patel</t>
+          <t>Mia Jones</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8************3</t>
+          <t>0************1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>02/07/1989</t>
+          <t>10/03/1952</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Unit 9194 Box 5088
-DPO AP 28191</t>
+          <t>* Castillo Estate
+East Markport, KY *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2483,69 +2483,69 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Government above.</t>
+          <t>Modern rather staff.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>s************r@example.org</t>
+          <t>c**************d@example.net</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Effect offer.</t>
+          <t>Place wear nice.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>May another apply.</t>
+          <t>Method measure.</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Collection go level.</t>
+          <t>Summer old because.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Probably actually.</t>
+          <t>Successful local.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>7044</v>
+        <v>2210</v>
       </c>
       <c r="N29" t="n">
-        <v>4243</v>
+        <v>2387</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Any arm most idea.</t>
+          <t>Make of lose upon.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Eileen Warren</t>
+          <t>Denise Weaver</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>2************7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/03/1960</t>
+          <t>09/09/1955</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>54729 Dickerson Mall Apt. 883
-Lake Amanda, GU 16449</t>
+          <t>* Matthew Shores Apt. *
+East Robertstad, WV *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2555,69 +2555,69 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Term level travel.</t>
+          <t>Morning product law.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>s*******1@example.org</t>
+          <t>v****s@example.net</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Himself ahead drug.</t>
+          <t>View research thus.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>New simply civil.</t>
+          <t>Child bit strong.</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Low approach.</t>
+          <t>Half recognize wear.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Land table main.</t>
+          <t>Song practice.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2840</v>
+        <v>4227</v>
       </c>
       <c r="N30" t="n">
-        <v>5471</v>
+        <v>3598</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Nice half next.</t>
+          <t>Including design.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>James Matthews</t>
+          <t>Cody Walker</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9************2</t>
+          <t>2************1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16/06/1990</t>
+          <t>12/03/1932</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6703 Robin Lakes
-Melissahaven, AS 35708</t>
+          <t>* Steven Highway Suite *
+North Richard, GU *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2627,46 +2627,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Stuff some somebody.</t>
+          <t>Opportunity decade.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>t*******l@example.net</t>
+          <t>p********y@example.org</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Spend heart prevent.</t>
+          <t>Than mind manage.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Usually candidate.</t>
+          <t>Policy gas spend.</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Market yet cold.</t>
+          <t>Matter join crime.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Instead for.</t>
+          <t>PM democratic ok.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>9154</v>
+        <v>9446</v>
       </c>
       <c r="N31" t="n">
-        <v>8962</v>
+        <v>8169</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Develop option.</t>
+          <t>Season cultural.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Alamat Rumah</t>
+          <t>Home Address</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Umur</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -513,23 +513,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maurice Wagner</t>
+          <t>Amber Vasquez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/05/1985</t>
+          <t>26/05/1929</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Hartman Cliff
-Lisastad, TN *</t>
+          <t>* Jon Cliff Apt. *
+South Jamiemouth, PW *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,69 +539,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>However piece.</t>
+          <t>Talk industry.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>b*****4@example.com</t>
+          <t>b*************y@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Watch prepare work.</t>
+          <t>Similar dark drive.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Able Democrat note.</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>25</v>
+          <t>Likely coach.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>80-89</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Another both.</t>
+          <t>Matter risk second.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Network must voice.</t>
+          <t>Write either.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4429</v>
+        <v>5887</v>
       </c>
       <c r="N2" t="n">
-        <v>5479</v>
+        <v>3563</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Coach attack half.</t>
+          <t>Wish for might from.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Craig Tapia</t>
+          <t>Mathew Johnson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6************5</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18/09/1980</t>
+          <t>05/05/1962</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Kevin Stravenue Suite *
-North Dianetown, OH *</t>
+          <t>* Thomas Cove
+Thompsonmouth, IA *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -611,69 +613,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cover matter major.</t>
+          <t>Anything game.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>m*******n@example.com</t>
+          <t>a******9@example.net</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Speak successful.</t>
+          <t>Worker owner.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Us son include.</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>65</v>
+          <t>Front one majority.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Process say today.</t>
+          <t>Positive billion.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Live trouble.</t>
+          <t>Last federal.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3818</v>
+        <v>6738</v>
       </c>
       <c r="N3" t="n">
-        <v>6950</v>
+        <v>3743</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Stage buy.</t>
+          <t>Major deal gun.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gabrielle Brown</t>
+          <t>Colton Molina</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6************3</t>
+          <t>5************3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23/08/1950</t>
+          <t>19/05/1940</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Brenda Plains
-Adamport, AS *</t>
+          <t>* Little Island Suite *
+West Latoya, CA *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,69 +687,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Room think national.</t>
+          <t>Position through.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>g***********y@example.com</t>
+          <t>w***********a@example.org</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Peace compare worry.</t>
+          <t>Radio only parent.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Find method.</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>89</v>
+          <t>Him art begin many.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>90-99</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Also what fast.</t>
+          <t>Customer world.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Necessary yeah.</t>
+          <t>Under position.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4925</v>
+        <v>4912</v>
       </c>
       <c r="N4" t="n">
-        <v>4085</v>
+        <v>2125</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>When success owner.</t>
+          <t>Able often western.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Donald Beard</t>
+          <t>Michael Marsh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/09/1961</t>
+          <t>18/09/1926</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Nicholas Wall
-Robinchester, DE *</t>
+          <t>* Kristin Port
+Garrettmouth, OK *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -755,69 +761,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Value line pretty.</t>
+          <t>Realize director.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>s*********l@example.net</t>
+          <t>d*******7@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sense network.</t>
+          <t>Idea consider.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>High economy half.</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>58</v>
+          <t>Accept per strong.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>80-89</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Describe sound.</t>
+          <t>Student spring.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>See system source.</t>
+          <t>Environmental.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>7192</v>
+        <v>4527</v>
       </c>
       <c r="N5" t="n">
-        <v>9501</v>
+        <v>2601</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Recent shoulder.</t>
+          <t>Suggest ever least.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Johnny Thornton</t>
+          <t>Richard Nelson</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6************7</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25/04/1938</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AP *</t>
+          <t>* Miller Forges Apt. *
+Ashleyberg, DE *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -827,69 +835,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yard us place.</t>
+          <t>Up leg magazine so.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>d****s@example.net</t>
+          <t>s************s@example.net</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Able hair do.</t>
+          <t>Something foreign.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Though exactly.</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>95</v>
+          <t>During reach any.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>20-29</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Use again create.</t>
+          <t>Court thus remember.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Difference policy.</t>
+          <t>Kid run become.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>7386</v>
+        <v>7233</v>
       </c>
       <c r="N6" t="n">
-        <v>9238</v>
+        <v>1869</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Somebody whatever.</t>
+          <t>Worker out.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Stacey Day</t>
+          <t>Vanessa Perez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4************9</t>
+          <t>7************7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07/04/1973</t>
+          <t>23/01/1986</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Dalton Spring
-Dominiquemouth, HI *</t>
+          <t>PSC *, Box *
+APO AE *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -899,69 +909,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Understand.</t>
+          <t>Test down special.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>j********a@example.net</t>
+          <t>r******n@example.com</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Data north about.</t>
+          <t>Boy pressure claim.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Myself drive six.</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>80</v>
+          <t>Year relate age.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>30-39</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Degree agency.</t>
+          <t>Citizen out side.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Man president.</t>
+          <t>Day trade follow.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>7579</v>
+        <v>7772</v>
       </c>
       <c r="N7" t="n">
-        <v>4845</v>
+        <v>1687</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Each enough inside.</t>
+          <t>Senior save late.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ryan Reed Jr.</t>
+          <t>Shelby Haynes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7************4</t>
+          <t>5************5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02/05/1937</t>
+          <t>29/08/1936</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Robert Falls
-East Bridgetside, PA *</t>
+          <t>* Richard Walks Suite *
+New Stephanie, IA *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -971,69 +983,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Difference whom.</t>
+          <t>It five type pay.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>k*****s@example.com</t>
+          <t>e***********n@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Color wish.</t>
+          <t>Commercial discover.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Case better laugh.</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>24</v>
+          <t>Relationship arm.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Pay recognize ask.</t>
+          <t>Language training.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Be democratic.</t>
+          <t>Middle other.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>9041</v>
+        <v>4577</v>
       </c>
       <c r="N8" t="n">
-        <v>8613</v>
+        <v>2534</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Machine central.</t>
+          <t>Thousand role yard.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Steven Bradford</t>
+          <t>Danielle Blair</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>3************0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09/09/1954</t>
+          <t>15/10/1984</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Angela Parkways
-Powellton, KS *</t>
+          <t>* Michael Knolls Suite *
+Lopezburgh, LA *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1043,69 +1057,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Clear threat show.</t>
+          <t>Authority find side.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>b******g@example.org</t>
+          <t>n***********l@example.net</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Stop factor instead.</t>
+          <t>My task computer.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Imagine beat could.</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>55</v>
+          <t>With home range.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Purpose total write.</t>
+          <t>TV morning stuff.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Community occur.</t>
+          <t>Over begin total.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>8547</v>
+        <v>6922</v>
       </c>
       <c r="N9" t="n">
-        <v>6419</v>
+        <v>3102</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Speech every woman.</t>
+          <t>Statement father.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Justin Esparza</t>
+          <t>Samantha Shaffer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>8************0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13/07/1982</t>
+          <t>09/02/1984</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Tyrone Hills
-Jonathanhaven, OR *</t>
+          <t>* Margaret Cape Apt. *
+West Christinaborough, AS *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,69 +1131,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Each run behind.</t>
+          <t>Down hour could.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>w*******6@example.net</t>
+          <t>b************e@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Book around each.</t>
+          <t>Wind art brother.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Heart civil heart.</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>54</v>
+          <t>Music house while.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hit director than.</t>
+          <t>Sell direction.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Material every push.</t>
+          <t>Our there possible.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>5377</v>
+        <v>4447</v>
       </c>
       <c r="N10" t="n">
-        <v>7713</v>
+        <v>6356</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Discover public.</t>
+          <t>Include one month.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jenna Hicks</t>
+          <t>Jeffrey Cruz</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7************3</t>
+          <t>5************9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10/04/1940</t>
+          <t>01/03/1967</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Grant River
-North Kimberly, LA *</t>
+          <t>* Anderson Parkway Suite *
+Cruzburgh, DC *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,69 +1205,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Draw test various.</t>
+          <t>Security picture.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>m******7@example.com</t>
+          <t>c***************n@example.net</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Kind concern power.</t>
+          <t>Scientist arm bit.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Trade bad effect.</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>99</v>
+          <t>Smile moment.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>80-89</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Positive statement.</t>
+          <t>Food budget.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Professional get.</t>
+          <t>Account adult image.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>6444</v>
+        <v>6660</v>
       </c>
       <c r="N11" t="n">
-        <v>7330</v>
+        <v>3200</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Same image threat.</t>
+          <t>Pattern history.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Steven Thompson</t>
+          <t>John Sanders</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3************7</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/01/1965</t>
+          <t>30/06/1960</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Carter Courts
-Loriside, MN *</t>
+          <t>* Patrick Groves Suite *
+East Ryanstad, TX *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1259,69 +1279,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Raise our door.</t>
+          <t>Lot play maybe.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>w*************y@example.net</t>
+          <t>k***7@example.net</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Outside official.</t>
+          <t>Probably seek.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Political peace.</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>56</v>
+          <t>Student might.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>30-39</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Could style career.</t>
+          <t>Much down one.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Buy music role.</t>
+          <t>Candidate hundred.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>6272</v>
+        <v>3758</v>
       </c>
       <c r="N12" t="n">
-        <v>7336</v>
+        <v>9472</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Security community.</t>
+          <t>Hard protect by boy.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Stephanie Johnson</t>
+          <t>Robin Booker</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7************2</t>
+          <t>5************2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22/08/1993</t>
+          <t>22/08/1958</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Peterson Lodge Apt. *
-Jamesburgh, DE *</t>
+          <t>* Carol Viaduct Apt. *
+Larryton, GU *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1331,69 +1353,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fear daughter body.</t>
+          <t>Grow politics.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>j******a@example.net</t>
+          <t>c**********k@example.org</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>How employee.</t>
+          <t>Service everybody.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Sound blue model.</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>61</v>
+          <t>Live issue.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>30-39</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Benefit especially.</t>
+          <t>National across.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>News common meet.</t>
+          <t>Clear compare alone.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>3029</v>
+        <v>9420</v>
       </c>
       <c r="N13" t="n">
-        <v>3671</v>
+        <v>9449</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Action have public.</t>
+          <t>Although little man.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Heather Davis</t>
+          <t>Michael Brown</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9************2</t>
+          <t>3************4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>02/11/1947</t>
+          <t>04/07/1962</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Nicholas Key
-Port Debraburgh, IN *</t>
+          <t>* Jill Mills
+New Aprilstad, AL *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1403,69 +1427,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>If sit money fly.</t>
+          <t>Career prevent huge.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>y****y@example.net</t>
+          <t>k********m@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Give allow open.</t>
+          <t>Imagine politics.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Born guess.</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>69</v>
+          <t>None enjoy light.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hot plan major.</t>
+          <t>Western either.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Class attack.</t>
+          <t>Couple style.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>6132</v>
+        <v>7610</v>
       </c>
       <c r="N14" t="n">
-        <v>8477</v>
+        <v>4182</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Quickly region.</t>
+          <t>Mind series serve.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Heidi Pierce</t>
+          <t>Wyatt Walker</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9************3</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25/01/1941</t>
+          <t>27/03/1987</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AA *</t>
+          <t>* Nathan Brooks
+New Rebecca, UT *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1475,69 +1501,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>The give whether.</t>
+          <t>Best small who.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>a******5@example.org</t>
+          <t>c*****n@example.com</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Student step course.</t>
+          <t>Record me enter.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Protect half.</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>70</v>
+          <t>Couple town can off.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Relate he today too.</t>
+          <t>Health various.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Then single bill.</t>
+          <t>It get development.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>6752</v>
+        <v>9109</v>
       </c>
       <c r="N15" t="n">
-        <v>9745</v>
+        <v>7971</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Detail prevent.</t>
+          <t>Girl story church.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brooke Thomas</t>
+          <t>Sharon Shaw</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8************3</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21/05/1953</t>
+          <t>28/03/1944</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* James Walks Apt. *
-Sierraland, NC *</t>
+          <t>* Edwards Loop Suite *
+North Christian, AZ *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1547,69 +1575,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Huge partner.</t>
+          <t>Protect build.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>a************n@example.com</t>
+          <t>h****e@example.org</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Great real tax upon.</t>
+          <t>List wonder seven.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Sell significant.</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>25</v>
+          <t>Enough shoulder.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>20-29</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Mouth my analysis.</t>
+          <t>Nice human.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Try country our.</t>
+          <t>List close my.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>4268</v>
+        <v>9482</v>
       </c>
       <c r="N16" t="n">
-        <v>9658</v>
+        <v>1145</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>War arm during.</t>
+          <t>Former company.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Joseph White</t>
+          <t>Kari Weaver</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8************9</t>
+          <t>8************0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08/06/1947</t>
+          <t>16/05/1926</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AA *</t>
+          <t>* Donald Causeway
+Popemouth, PR *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1619,69 +1649,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Article myself.</t>
+          <t>Card line follow.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>a*******e@example.org</t>
+          <t>q*****n@example.net</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Capital indeed.</t>
+          <t>Defense service.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Indeed main.</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>45</v>
+          <t>Treat west moment.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>80-89</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Middle nothing site.</t>
+          <t>Anything strategy.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Hand over big at.</t>
+          <t>Themselves however.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>8311</v>
+        <v>2767</v>
       </c>
       <c r="N17" t="n">
-        <v>5260</v>
+        <v>1944</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Social ball score.</t>
+          <t>Minute fine.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Raymond Gutierrez</t>
+          <t>Sherri Clayton</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3************6</t>
+          <t>7************7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>26/02/1986</t>
+          <t>18/02/1995</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AA *</t>
+          <t>* Nicholas Run
+West Kevin, AR *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1691,69 +1723,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Arm staff compare.</t>
+          <t>Hope understand.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>x**e@example.net</t>
+          <t>r*******y@example.org</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Performance book.</t>
+          <t>Member month but.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Color news.</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>23</v>
+          <t>Story exist.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Series music.</t>
+          <t>In close so myself.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Interest officer.</t>
+          <t>Yard second wear.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>8726</v>
+        <v>3257</v>
       </c>
       <c r="N18" t="n">
-        <v>6423</v>
+        <v>1411</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Community sister.</t>
+          <t>Most case story.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Juan Hunter</t>
+          <t>Mark Trevino</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3************7</t>
+          <t>0************7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18/06/1944</t>
+          <t>01/04/1935</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Blair Island Apt. *
-Teresatown, WV *</t>
+          <t>* Matthew Points Suite *
+West James, WI *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1763,69 +1797,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Attention drug side.</t>
+          <t>Full short wife.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>n******2@example.org</t>
+          <t>a*********r@example.org</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sea point short.</t>
+          <t>Nor whether offer.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Note soldier.</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>35</v>
+          <t>Late eye key beyond.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>80-89</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Use section detail.</t>
+          <t>Watch hospital town.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Floor risk dinner.</t>
+          <t>Side minute modern.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>8208</v>
+        <v>7839</v>
       </c>
       <c r="N19" t="n">
-        <v>6640</v>
+        <v>9757</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Buy enter story.</t>
+          <t>Series behind.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lynn Martinez</t>
+          <t>April Richardson</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>27/07/1969</t>
+          <t>06/07/1937</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Alison Pines Suite *
-West Benjaminhaven, CO *</t>
+          <t>* *
+FPO AE *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1835,69 +1871,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Character still of.</t>
+          <t>Will better present.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>j***********a@example.org</t>
+          <t>k****e@example.com</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Such morning.</t>
+          <t>A tonight their.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Probably conference.</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>86</v>
+          <t>Hand race buy card.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Contain shoulder.</t>
+          <t>Least question.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Ask win book look.</t>
+          <t>Community she.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>7861</v>
+        <v>6578</v>
       </c>
       <c r="N20" t="n">
-        <v>9237</v>
+        <v>7271</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Teach watch son.</t>
+          <t>Head list economy.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rebecca Thomas</t>
+          <t>Jimmy Love</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>6************3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12/02/1997</t>
+          <t>03/11/1941</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Murray Coves
-Morrisonfort, ND *</t>
+          <t>* Ortiz Hill
+West Carl, KS *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1907,69 +1945,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Occur do each ok.</t>
+          <t>Mission politics.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>j*****3@example.net</t>
+          <t>v*************t@example.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Morning make stay.</t>
+          <t>Officer perhaps.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Trial grow figure.</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>78</v>
+          <t>Plan scene bed.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>30-39</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Foreign activity.</t>
+          <t>Final leader though.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Standard reality.</t>
+          <t>Community husband.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>8765</v>
+        <v>4888</v>
       </c>
       <c r="N21" t="n">
-        <v>3638</v>
+        <v>7268</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Rather then quite.</t>
+          <t>Important medical.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joseph Harris</t>
+          <t>Adam Daniels</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6************7</t>
+          <t>3************3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09/01/1995</t>
+          <t>02/08/1931</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Vickie Park Suite *
-Griffithtown, MI *</t>
+          <t>* Sarah Way Suite *
+Brownbury, WA *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1979,69 +2019,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mission dark almost.</t>
+          <t>One game would.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>s*********a@example.com</t>
+          <t>d********n@example.net</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Own fight economy.</t>
+          <t>Tree identify head.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Exist sense.</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>28</v>
+          <t>Country son once.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>80-89</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Form tonight hour.</t>
+          <t>Drive off store.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Media spring.</t>
+          <t>War space gun top.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5688</v>
+        <v>5367</v>
       </c>
       <c r="N22" t="n">
-        <v>5725</v>
+        <v>5222</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Room peace serve.</t>
+          <t>Guy fact six.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Carlos Snyder</t>
+          <t>Devin Braun</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0************0</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09/05/2004</t>
+          <t>04/06/1935</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AA *</t>
+          <t>* Christopher Falls Apt. *
+Karaville, OK *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2051,53 +2093,55 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Discuss reveal yard.</t>
+          <t>Can stuff practice.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>i*****s@example.com</t>
+          <t>c****t@example.com</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>College agency fine.</t>
+          <t>Practice live.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Push series their.</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>85</v>
+          <t>Model eye well.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>80-89</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Other particular.</t>
+          <t>Entire phone whose.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Human commercial.</t>
+          <t>Listen up majority.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>8155</v>
+        <v>6666</v>
       </c>
       <c r="N23" t="n">
-        <v>9425</v>
+        <v>7238</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Will up Mrs dream.</t>
+          <t>Worry student sport.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Heather Butler</t>
+          <t>Melissa Miller</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2107,13 +2151,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13/08/1960</t>
+          <t>08/03/1967</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Douglas Throughway Suite *
-Susanville, MS *</t>
+          <t>* Kenneth Mountain Apt. *
+Roblesside, IL *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2123,69 +2167,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Writer water.</t>
+          <t>Example become type.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>c***********e@example.org</t>
+          <t>e*****s@example.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Voice they nearly.</t>
+          <t>Past even bring.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Run trade authority.</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>94</v>
+          <t>Peace trip start.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100-100</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Clearly series.</t>
+          <t>Lot over pattern.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Actually sense per.</t>
+          <t>Film table.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>8686</v>
+        <v>5490</v>
       </c>
       <c r="N24" t="n">
-        <v>6146</v>
+        <v>8335</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Source serve peace.</t>
+          <t>Citizen trip air.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Paul Campbell</t>
+          <t>Sherry Morris</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7************2</t>
+          <t>7************4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09/05/1991</t>
+          <t>14/02/2002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Cassandra Heights Apt. *
-Seanton, RI *</t>
+          <t>* Richardson Point
+Cheryltown, AR *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2195,69 +2241,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Baby place safe.</t>
+          <t>Offer win five.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>j*******n@example.net</t>
+          <t>t*******3@example.org</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sport value onto.</t>
+          <t>Various difficult.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Finish defense.</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>96</v>
+          <t>Half decision seek.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>18-19</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Also common case.</t>
+          <t>Be share article.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Hot it happy choice.</t>
+          <t>Wait end arrive.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>7489</v>
+        <v>8313</v>
       </c>
       <c r="N25" t="n">
-        <v>4771</v>
+        <v>7569</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Line house south.</t>
+          <t>Inside tree street.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Kathleen Collins</t>
+          <t>Sarah Stewart</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7************0</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08/07/1956</t>
+          <t>13/03/1946</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Cooper Hill Suite *
-North Jessica, MS *</t>
+          <t>* Daniel Parkway
+West Henry, MT *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2267,69 +2315,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ok character water.</t>
+          <t>Occur effort two.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>s********g@example.org</t>
+          <t>w******y@example.com</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Serious although.</t>
+          <t>Grow near control.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Wide likely.</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>56</v>
+          <t>News chair general.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Involve article.</t>
+          <t>Again pretty.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Family water I.</t>
+          <t>Own lay boy yes.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>3320</v>
+        <v>9109</v>
       </c>
       <c r="N26" t="n">
-        <v>5775</v>
+        <v>1933</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Perform once.</t>
+          <t>Page nothing.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Laura Bishop</t>
+          <t>Caroline Williams</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3************0</t>
+          <t>2************9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>02/09/1945</t>
+          <t>07/05/1970</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AE *</t>
+          <t>* Schneider Station
+Walshburgh, NE *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2339,69 +2389,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ahead goal song fly.</t>
+          <t>Study range feeling.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>g************a@example.net</t>
+          <t>q****r@example.com</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Yet walk billion.</t>
+          <t>Debate hear drive.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Interview wide.</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>93</v>
+          <t>Push tend door.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>30-39</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Reflect how.</t>
+          <t>Chance science in.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Consider pattern.</t>
+          <t>Forget woman care.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>6043</v>
+        <v>8151</v>
       </c>
       <c r="N27" t="n">
-        <v>2514</v>
+        <v>3326</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>People probably.</t>
+          <t>Should still behind.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Michelle Gallagher</t>
+          <t>Michael Wood</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>4************8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>07/09/1957</t>
+          <t>03/05/1934</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Ramirez Park Suite *
-Meadowsfort, VA *</t>
+          <t>* Stephen Rest Suite *
+Hernandezshire, AK *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2411,69 +2463,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Final throw capital.</t>
+          <t>Consider few.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>k******n@example.org</t>
+          <t>w*************a@example.com</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>To increase coach.</t>
+          <t>Particularly.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Light voice media.</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>70</v>
+          <t>Least plant wall.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>90-99</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Finish never main.</t>
+          <t>She south cause.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Name seek must.</t>
+          <t>It plan message.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>9234</v>
+        <v>9807</v>
       </c>
       <c r="N28" t="n">
-        <v>6438</v>
+        <v>5572</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Think audience.</t>
+          <t>Ago near alone.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mia Jones</t>
+          <t>Meagan Shelton</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0************1</t>
+          <t>8************8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10/03/1952</t>
+          <t>13/01/1933</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Castillo Estate
-East Markport, KY *</t>
+          <t>* Rivera Plaza
+Lake Rebecca, LA *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2483,69 +2537,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Modern rather staff.</t>
+          <t>Not question beyond.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>c**************d@example.net</t>
+          <t>q****s@example.net</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Place wear nice.</t>
+          <t>Bank recently.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Method measure.</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>95</v>
+          <t>Town growth doctor.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Summer old because.</t>
+          <t>Leave base sell.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Successful local.</t>
+          <t>Daughter will.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2210</v>
+        <v>7875</v>
       </c>
       <c r="N29" t="n">
-        <v>2387</v>
+        <v>3501</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Make of lose upon.</t>
+          <t>Never within.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Denise Weaver</t>
+          <t>Renee Molina</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2************7</t>
+          <t>7************2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>09/09/1955</t>
+          <t>15/10/1990</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Matthew Shores Apt. *
-East Robertstad, WV *</t>
+          <t>* Jeffrey Fall
+Sarashire, PW *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2555,69 +2611,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Morning product law.</t>
+          <t>Never song carry.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>v****s@example.net</t>
+          <t>k*****5@example.com</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>View research thus.</t>
+          <t>Choice source ahead.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Child bit strong.</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>21</v>
+          <t>Issue case fill.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Half recognize wear.</t>
+          <t>Democrat these.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Song practice.</t>
+          <t>Item travel station.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>4227</v>
+        <v>7046</v>
       </c>
       <c r="N30" t="n">
-        <v>3598</v>
+        <v>8782</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Including design.</t>
+          <t>Thing ahead.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cody Walker</t>
+          <t>Catherine Day</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2************1</t>
+          <t>6************7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12/03/1932</t>
+          <t>14/03/1994</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Steven Highway Suite *
-North Richard, GU *</t>
+          <t>* Barbara Tunnel Apt. *
+New Kellieland, TN *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2627,46 +2685,48 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Opportunity decade.</t>
+          <t>Stuff brother.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>p********y@example.org</t>
+          <t>z****z@example.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Than mind manage.</t>
+          <t>Staff world.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Policy gas spend.</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>43</v>
+          <t>Need admit well it.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20-29</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Matter join crime.</t>
+          <t>Do store adult this.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>PM democratic ok.</t>
+          <t>Require red key.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>9446</v>
+        <v>5607</v>
       </c>
       <c r="N31" t="n">
-        <v>8169</v>
+        <v>5823</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Season cultural.</t>
+          <t>Bad one throughout.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nama</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>IC Number</t>
+          <t>No. IC</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>No. Telefon</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Umur</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -513,122 +513,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M***n A***s</t>
+          <t>J******r K***y</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>4************7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23/12/1955</t>
+          <t>11/04/1986</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Michael Center
-Jonesfurt, PW *</t>
+          <t>* Randy Corner
+North Deborahbury, NY *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>***-*****89</t>
+          <t>(012)-82767**56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Me quality.</t>
+          <t>Degree respond stop.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>a******2@example.org</t>
+          <t>r*****5@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Gas Republican.</t>
+          <t>Service agent whom.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Industry threat.</t>
+          <t>Spring machine lot.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Economic factor.</t>
+          <t>Significant give.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>No least many close.</t>
+          <t>These evidence.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3394</v>
+        <v>9233</v>
       </c>
       <c r="N2" t="n">
-        <v>8984</v>
+        <v>9372</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Mean evidence.</t>
+          <t>Affect push.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>J**n C****r</t>
+          <t>T**d J*****n</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5************6</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04/11/1981</t>
+          <t>14/08/1948</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Tina Landing
-North Carrie, DC *</t>
+          <t>* Harper Courts
+Medinashire, ME *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>***-*****90</t>
+          <t>(012)-15482**98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Subject four ahead.</t>
+          <t>Star bring science.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s************a@example.org</t>
+          <t>c**********s@example.org</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Agreement source.</t>
+          <t>Toward official.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Thought piece.</t>
+          <t>Director travel.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -638,145 +638,145 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Yard Mrs arrive.</t>
+          <t>Table throughout.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>A participant.</t>
+          <t>Those everybody.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5381</v>
+        <v>4158</v>
       </c>
       <c r="N3" t="n">
-        <v>8910</v>
+        <v>4191</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Four role listen.</t>
+          <t>Store expect decide.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P******a S****s</t>
+          <t>A****a M****r</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04/05/1942</t>
+          <t>31/08/1956</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Jones Way
-Perezmouth, MD *</t>
+          <t>* Hernandez Crescent
+Hudsonbury, MO *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>***-*****01</t>
+          <t>(012)-26000**27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wear project decide.</t>
+          <t>Any suggest coach.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>e************z@example.com</t>
+          <t>j*******g@example.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Its value speak.</t>
+          <t>Note future teach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Water paper under.</t>
+          <t>Loss adult.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Stock owner where.</t>
+          <t>Item item success.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>President magazine.</t>
+          <t>Look defense.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>5126</v>
+        <v>6750</v>
       </c>
       <c r="N4" t="n">
-        <v>3313</v>
+        <v>9680</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Fire design so.</t>
+          <t>Campaign call maybe.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S*****e B****y</t>
+          <t>D***k N****n</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0************0</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06/02/1961</t>
+          <t>16/06/1959</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Randolph Neck Suite *
-Port Monique, TX *</t>
+          <t>* Jessica Vista Apt. *
+North Jasmineview, MA *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>***-*****12</t>
+          <t>(012)-96965**12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Professor last.</t>
+          <t>Actually agency.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>j****0@example.org</t>
+          <t>d*****e@example.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Particular hard.</t>
+          <t>Agency when low.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Whatever paper.</t>
+          <t>Officer trouble.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -786,737 +786,737 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Dinner cell concern.</t>
+          <t>Along produce they.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Federal provide.</t>
+          <t>Make wonder take.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5708</v>
+        <v>3722</v>
       </c>
       <c r="N5" t="n">
-        <v>9302</v>
+        <v>9819</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Series read society.</t>
+          <t>Skin by decade.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W****e O***n</t>
+          <t>K***h P*****d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>4************8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11/01/1978</t>
+          <t>24/02/1925</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Savannah Ridge Apt. *
-Wernershire, KS *</t>
+          <t>PSC *, Box *
+APO AA *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>***-*****23</t>
+          <t>(012)-07620**19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Central sport place.</t>
+          <t>Hit always three.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>w*******2@example.net</t>
+          <t>c************n@example.com</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Condition represent.</t>
+          <t>If ball soon they.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Republican ability.</t>
+          <t>Light most never.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Kitchen leg plan.</t>
+          <t>Writer thank plan.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Yes child director.</t>
+          <t>Arm these little.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>9785</v>
+        <v>6437</v>
       </c>
       <c r="N6" t="n">
-        <v>9120</v>
+        <v>6575</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Grow these miss.</t>
+          <t>Attack foot surface.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A**m A***s</t>
+          <t>R****t G*****r</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3************7</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18/08/1975</t>
+          <t>30/08/1971</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Pamela Orchard Suite *
-South Mitchellfort, MD *</t>
+          <t>* Cesar Road Apt. *
+Lake Ellen, WV *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>***-*****34</t>
+          <t>(012)-33049**91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Left west eye.</t>
+          <t>Foreign more affect.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>s**********e@example.org</t>
+          <t>p**************a@example.com</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Field mouth partner.</t>
+          <t>Reflect person.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bank the new.</t>
+          <t>Memory every.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mind large age.</t>
+          <t>So return reason.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Travel pick recent.</t>
+          <t>Eat those north.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>2274</v>
+        <v>5234</v>
       </c>
       <c r="N7" t="n">
-        <v>9184</v>
+        <v>6905</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>There player.</t>
+          <t>Young skin heavy.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F*******o F******a</t>
+          <t>R*****d H**l</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5************2</t>
+          <t>3************5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>03/11/1940</t>
+          <t>21/08/1960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Elizabeth Summit
-Whitefort, MO *</t>
+          <t>* Davis Parkway Apt. *
+Michaeltown, GA *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>***-*****45</t>
+          <t>(012)-83311**02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Visit recently.</t>
+          <t>Success before.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>w******l@example.net</t>
+          <t>s**********y@example.net</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Information child.</t>
+          <t>Course husband.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Picture American.</t>
+          <t>Source seat along.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Night Democrat Mr.</t>
+          <t>Camera different.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Teacher they.</t>
+          <t>Class there.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>9013</v>
+        <v>6191</v>
       </c>
       <c r="N8" t="n">
-        <v>5582</v>
+        <v>8349</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Almost suddenly.</t>
+          <t>Main fill carry.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T*****a D***n</t>
+          <t>S****y M***y</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>5************6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09/09/1953</t>
+          <t>25/02/1969</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Aaron Prairie
-Smithmouth, DC *</t>
+          <t>* Moss Throughway Suite *
+Lake Adam, ID *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>***-*****56</t>
+          <t>(012)-15311**75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Allow note seek.</t>
+          <t>Machine decide.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>s******0@example.com</t>
+          <t>b*****8@example.com</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Mouth sell say west.</t>
+          <t>Assume measure.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Current hot end put.</t>
+          <t>Theory unit about.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Half safe better.</t>
+          <t>Deep wrong hospital.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Stage half general.</t>
+          <t>Property material.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>6479</v>
+        <v>4510</v>
       </c>
       <c r="N9" t="n">
-        <v>4216</v>
+        <v>7035</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Whole project.</t>
+          <t>Thought player.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>T***y R****a</t>
+          <t>G*******a H**l</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6************3</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09/10/1935</t>
+          <t>26/04/1929</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Lloyd Burg Suite *
-Port Carolyn, GA *</t>
+          <t>* Proctor Brooks Apt. *
+Johnsonfurt, AS *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>***-*****78</t>
+          <t>(012)-94664**74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kitchen film put.</t>
+          <t>Industry standard.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>j*******2@example.org</t>
+          <t>k*****r@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Reality raise song.</t>
+          <t>Student money live.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Gas see try picture.</t>
+          <t>Current special.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Raise bed ground.</t>
+          <t>Leader inside price.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Little wind surface.</t>
+          <t>Though sport key.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>9724</v>
+        <v>9907</v>
       </c>
       <c r="N10" t="n">
-        <v>4326</v>
+        <v>9096</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Foot anything air.</t>
+          <t>Need act get.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B***y W**d</t>
+          <t>A***e C******o</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6************7</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21/06/1994</t>
+          <t>21/04/1981</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Woods Street Apt. *
-Juliaville, ND *</t>
+          <t>* Stephens Hollow Apt. *
+Andrewport, AL *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>***-*****89</t>
+          <t>(012)-50732**61</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hit why whom if.</t>
+          <t>Bar operation up.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>r******6@example.net</t>
+          <t>l****************e@example.org</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hundred avoid.</t>
+          <t>View recently open.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Early agent then.</t>
+          <t>Owner leg decide.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Describe figure few.</t>
+          <t>During Congress.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Person day within.</t>
+          <t>Place than on war.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>9519</v>
+        <v>9499</v>
       </c>
       <c r="N11" t="n">
-        <v>9890</v>
+        <v>1149</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Difficult might.</t>
+          <t>Actually lose.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S*******e M*****e</t>
+          <t>M**y D**n</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2************0</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>22/08/1970</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AP *</t>
+          <t>* James Street
+Clarkburgh, NM *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>***-*****01</t>
+          <t>(012)-28329**74</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Development spring.</t>
+          <t>Economy chair.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>e***************l@example.net</t>
+          <t>d*******n@example.org</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Government sense.</t>
+          <t>Stuff read majority.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Discover culture.</t>
+          <t>Situation trial you.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Really research.</t>
+          <t>Send budget decide.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Century.</t>
+          <t>Operation stuff.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>5812</v>
+        <v>4912</v>
       </c>
       <c r="N12" t="n">
-        <v>5752</v>
+        <v>9404</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Station discover.</t>
+          <t>Figure tend admit.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C****l C*****r</t>
+          <t>C*****a J***s</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7************3</t>
+          <t>5************9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06/06/1943</t>
+          <t>27/05/1945</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Hardin Canyon
-East Jenniferville, NC *</t>
+          <t>* Mann Park Apt. *
+West Donna, OK *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>***-*****12</t>
+          <t>(012)-24173**42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Civil pick worker.</t>
+          <t>Vote close book.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>b**y@example.org</t>
+          <t>m******7@example.org</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Market environment.</t>
+          <t>Enter listen both.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Something because.</t>
+          <t>Money write again.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Shoulder window.</t>
+          <t>Paper relationship.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Area situation.</t>
+          <t>Future raise camera.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5110</v>
+        <v>2477</v>
       </c>
       <c r="N13" t="n">
-        <v>3699</v>
+        <v>2427</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Care like nor.</t>
+          <t>Story suffer cell.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>K***i R*****s</t>
+          <t>S****n G***n</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8************3</t>
+          <t>8************8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29/01/1979</t>
+          <t>08/04/1970</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Cook Course
-Port Yvette, NV *</t>
+          <t>* Barker Avenue Apt. *
+South Robert, ND *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>***-*****23</t>
+          <t>(012)-62647**44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Or upon scientist.</t>
+          <t>Son down force skin.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>j****0@example.org</t>
+          <t>a***s@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Around play us one.</t>
+          <t>Technology child.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Impact wonder some.</t>
+          <t>Same property order.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Perform good.</t>
+          <t>Letter piece best.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Either raise.</t>
+          <t>No avoid culture.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5724</v>
+        <v>9679</v>
       </c>
       <c r="N14" t="n">
-        <v>8970</v>
+        <v>8228</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Create quite author.</t>
+          <t>Listen husband fear.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D***a L**a</t>
+          <t>A****w K**g</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3************7</t>
+          <t>0************1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>26/03/1956</t>
+          <t>14/05/1977</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Tammy Passage
-East Joview, IA *</t>
+          <t>* Jones Union Apt. *
+Lake Ashley, NE *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>***-*****34</t>
+          <t>(012)-75298**50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>These range course.</t>
+          <t>Democratic firm he.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>v********n@example.com</t>
+          <t>g**********y@example.org</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Next management.</t>
+          <t>Begin certainly.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Employee care.</t>
+          <t>Take course concern.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1526,589 +1526,589 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Certainly wide.</t>
+          <t>Style now real sure.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Indicate.</t>
+          <t>Recognize play.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2398</v>
+        <v>9948</v>
       </c>
       <c r="N15" t="n">
-        <v>3112</v>
+        <v>9559</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Get perhaps threat.</t>
+          <t>Above agreement.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>J******r W****t</t>
+          <t>P****p P*****a</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8************7</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/10/1949</t>
+          <t>29/04/1990</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Gallagher Freeway
-Brownstad, KS *</t>
+          <t>* Smith Shore
+North Amyville, SD *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>***-*****45</t>
+          <t>(012)-48915**91</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kid value buy box.</t>
+          <t>Only occur grow.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>m*****8@example.org</t>
+          <t>t*****0@example.net</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Career Mr movement.</t>
+          <t>Material military.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Together up if.</t>
+          <t>Prevent indeed fly.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Buy player.</t>
+          <t>All movie home.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Share difficult.</t>
+          <t>Visit single.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6240</v>
+        <v>6168</v>
       </c>
       <c r="N16" t="n">
-        <v>9997</v>
+        <v>5701</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Offer fast reflect.</t>
+          <t>Sell hope hour.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Z*****y B***r</t>
+          <t>A****a H********n</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8************2</t>
+          <t>5************0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>04/11/1958</t>
+          <t>17/11/1925</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Nguyen Stravenue
-Natalieberg, FM *</t>
+          <t>* Christensen Village
+East Rebeccamouth, ME *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>***-*****56</t>
+          <t>(012)-10576**48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>I reason great do.</t>
+          <t>Attention song well.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>j*******n@example.net</t>
+          <t>o******t@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Front side federal.</t>
+          <t>Treat write court.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Near already away.</t>
+          <t>Use cell seem think.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Eye house hit.</t>
+          <t>Left answer nothing.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Answer easy line.</t>
+          <t>Western head model.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>4614</v>
+        <v>5808</v>
       </c>
       <c r="N17" t="n">
-        <v>1778</v>
+        <v>7087</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Research city.</t>
+          <t>Mr worry meet fund.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>J**l W*****r</t>
+          <t>C*******a T******n</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2************3</t>
+          <t>5************2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>03/09/1944</t>
+          <t>06/12/1940</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Travis Square
-New Jeremyshire, TN *</t>
+          <t>* David Neck Apt. *
+Banksmouth, WI *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>***-*****67</t>
+          <t>(012)-50858**00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Whether say simply.</t>
+          <t>Notice watch happen.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>h**********e@example.com</t>
+          <t>t**********n@example.com</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Event popular.</t>
+          <t>Former camera those.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Possible two hair.</t>
+          <t>Attorney land their.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Television campaign.</t>
+          <t>Financial place.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Middle vote TV.</t>
+          <t>Power call various.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>6102</v>
+        <v>3517</v>
       </c>
       <c r="N18" t="n">
-        <v>7988</v>
+        <v>1621</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Unit police south.</t>
+          <t>Head parent.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>L*****y B****r</t>
+          <t>O***r W****r</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7************7</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18/08/1987</t>
+          <t>08/10/1971</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Mark Trafficway
-Lake Allison, VA *</t>
+          <t>* James Neck Suite *
+Barbarabury, ME *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>***-*****78</t>
+          <t>(012)-68349**61</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Appear analysis.</t>
+          <t>Meet drive society.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>o***********y@example.com</t>
+          <t>c*********0@example.net</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Development instead.</t>
+          <t>Hand hot reduce.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Affect modern.</t>
+          <t>Then stay blood.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Family indeed.</t>
+          <t>Also detail ready.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Yourself manager.</t>
+          <t>Particular rather.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>6448</v>
+        <v>9224</v>
       </c>
       <c r="N19" t="n">
-        <v>6025</v>
+        <v>3269</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Election that your.</t>
+          <t>Billion already.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>J******r M****y</t>
+          <t>H****h H****y</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8************4</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17/06/2005</t>
+          <t>05/04/1983</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Gary Pines
-New Stevenport, VI *</t>
+          <t>* Ross Road
+West Brendaville, WI *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>***-*****89</t>
+          <t>(012)-94912**24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stock develop small.</t>
+          <t>Building treatment.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>x******e@example.net</t>
+          <t>h*********l@example.com</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Option write share.</t>
+          <t>Rather bring.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>I maintain child.</t>
+          <t>State name behind.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Where push around.</t>
+          <t>Appear life movie.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Imagine question.</t>
+          <t>Ready store.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3858</v>
+        <v>7799</v>
       </c>
       <c r="N20" t="n">
-        <v>1119</v>
+        <v>7328</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>But plan site even.</t>
+          <t>Leader foot stuff.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B****y D***s</t>
+          <t>S*******e B*****t</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>26/08/1963</t>
+          <t>31/05/1935</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Preston Ports Suite *
-Port Zoeland, ME *</t>
+          <t>PSC *, Box *
+APO AP *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>***-*****90</t>
+          <t>(012)-94296**74</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Poor into stop.</t>
+          <t>His recognize fact.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>w*********l@example.org</t>
+          <t>j***************s@example.net</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Performance because.</t>
+          <t>End ground energy.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Itself bar rest.</t>
+          <t>Reach term make.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Agree arm focus.</t>
+          <t>Popular identify.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Camera chair be.</t>
+          <t>Bar pattern young.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>2693</v>
+        <v>8884</v>
       </c>
       <c r="N21" t="n">
-        <v>6467</v>
+        <v>1983</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Service growth hope.</t>
+          <t>Tax perhaps story.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C**y J*****n</t>
+          <t>M*. S****n J*****n I*I</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7************5</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15/04/1995</t>
+          <t>04/05/1929</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Meyer Common Suite *
-North Charlesmouth, MP *</t>
+          <t>* James Brook Suite *
+New Patriciafort, HI *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>***-*****01</t>
+          <t>(012)-99947**08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Family majority.</t>
+          <t>Visit response.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>j********o@example.org</t>
+          <t>v*************n@example.net</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>If himself fly.</t>
+          <t>Again industry.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Soldier hope pay.</t>
+          <t>Four any because.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Certain man stage.</t>
+          <t>Population here our.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Quickly have fact.</t>
+          <t>Off yard add poor.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>4580</v>
+        <v>5191</v>
       </c>
       <c r="N22" t="n">
-        <v>8799</v>
+        <v>6591</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Group run name us.</t>
+          <t>Expert eye born.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>K*******e W*****e</t>
+          <t>J***n L**g</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3************6</t>
+          <t>6************5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28/04/1995</t>
+          <t>21/03/1984</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AE *</t>
+          <t>* Derek Groves Apt. *
+South Emilyview, CO *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>***-*****12</t>
+          <t>(012)-68454**59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Half reveal.</t>
+          <t>Challenge various.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>s***********r@example.net</t>
+          <t>g*********n@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sister tough ball.</t>
+          <t>Why yard last call.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>True for miss safe.</t>
+          <t>Next east test tax.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2118,367 +2118,367 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Among tell moment.</t>
+          <t>Effect talk item.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Western improve.</t>
+          <t>Hand official turn.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>7909</v>
+        <v>6218</v>
       </c>
       <c r="N23" t="n">
-        <v>1337</v>
+        <v>8578</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Store play bring.</t>
+          <t>Information road.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A*y B***n</t>
+          <t>L**a R*y</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3************0</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>29/04/1970</t>
+          <t>29/10/2005</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Linda Mission Apt. *
-West Kyleview, CO *</t>
+          <t>* Jones Ville
+Port Jenniferborough, VA *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>***-*****23</t>
+          <t>(012)-24879**91</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Relationship be.</t>
+          <t>Little family.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>a**********n@example.org</t>
+          <t>g**********a@example.net</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Available father.</t>
+          <t>Woman movie soon.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Region cold own.</t>
+          <t>Area picture wide.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>State step agent.</t>
+          <t>Why rate seat.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Drive build loss.</t>
+          <t>Be at nor suggest.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2876</v>
+        <v>3727</v>
       </c>
       <c r="N24" t="n">
-        <v>1704</v>
+        <v>3826</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Quality health.</t>
+          <t>Phone billion blood.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P**l Y***g</t>
+          <t>C*****y A******n</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6************0</t>
+          <t>5************9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22/11/1938</t>
+          <t>14/06/1960</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Robert Loop
-East Keithhaven, NJ *</t>
+          <t>* Solomon Forks Apt. *
+East Jeffreyton, OK *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>***-*****34</t>
+          <t>(012)-51459**59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>According parent.</t>
+          <t>Really PM accept.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>m*****s@example.net</t>
+          <t>a**********d@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Single forward test.</t>
+          <t>Industry operation.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Type improve heart.</t>
+          <t>Thought receive fly.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Fly teacher put.</t>
+          <t>Career stuff lot.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pay add federal.</t>
+          <t>Little technology.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>4640</v>
+        <v>2860</v>
       </c>
       <c r="N25" t="n">
-        <v>2615</v>
+        <v>2884</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Let pick level.</t>
+          <t>Method its purpose.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D***a M***r</t>
+          <t>K**i B******n</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6************1</t>
+          <t>3************1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25/10/1931</t>
+          <t>30/01/1938</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Dunn Pines
-East Markburgh, OH *</t>
+          <t>* Vazquez Landing Apt. *
+Josephfort, MT *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>***-*****45</t>
+          <t>(012)-95937**32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Likely hospital.</t>
+          <t>Common answer seven.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>t******s@example.net</t>
+          <t>h**********o@example.org</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Apply social movie.</t>
+          <t>Right machine new.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Understand down.</t>
+          <t>Late crime coach.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Great yourself try.</t>
+          <t>Whose another alone.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Person.</t>
+          <t>Method learn tough.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>4864</v>
+        <v>6003</v>
       </c>
       <c r="N26" t="n">
-        <v>2916</v>
+        <v>4243</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Agreement gun sure.</t>
+          <t>Degree expert trip.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P******a H**t</t>
+          <t>M*****a L****n</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9************9</t>
+          <t>3************1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24/08/1996</t>
+          <t>01/04/1977</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Francis Lights Apt. *
-South Jason, DC *</t>
+          <t>* Cortez Plain Suite *
+North Jenniferton, KY *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>***-*****56</t>
+          <t>(012)-70735**09</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Meet everyone past.</t>
+          <t>Central difficult.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>s****s@example.org</t>
+          <t>t******6@example.com</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Hospital to.</t>
+          <t>Doctor throw field.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Pass especially dog.</t>
+          <t>Toward action model.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Control do start.</t>
+          <t>Bed claim friend.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Program management.</t>
+          <t>Hard ok method.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>6745</v>
+        <v>9632</v>
       </c>
       <c r="N27" t="n">
-        <v>1220</v>
+        <v>9097</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Society more.</t>
+          <t>Office PM line.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G**y T**d</t>
+          <t>P***r W****s</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8************5</t>
+          <t>5************1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>25/11/1990</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Brown Land Apt. *
-West Amanda, DE *</t>
+          <t>* David Bridge Suite *
+Rhondamouth, RI *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>***-*****67</t>
+          <t>(012)-94570**74</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Wear necessary.</t>
+          <t>Begin join improve.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>j********8@example.net</t>
+          <t>s********r@example.net</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>She later other.</t>
+          <t>And let forget risk.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>About memory yeah.</t>
+          <t>Worry edge none.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2488,71 +2488,71 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Grow necessary few.</t>
+          <t>Ok card might of.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Plan cost society.</t>
+          <t>Admit me find long.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>7209</v>
+        <v>6001</v>
       </c>
       <c r="N28" t="n">
-        <v>5197</v>
+        <v>2380</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>General success.</t>
+          <t>Attack American.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J***s D*****s</t>
+          <t>A**a M******z</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2************5</t>
+          <t>4************2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22/06/1951</t>
+          <t>08/01/1934</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Maxwell Lakes
-New Kristine, SD *</t>
+          <t>* Gonzalez Flat Suite *
+Andersonhaven, MN *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>***-*****78</t>
+          <t>(012)-44166**41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fire police offer.</t>
+          <t>Again special.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>d********g@example.net</t>
+          <t>p***********r@example.com</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Son perhaps step.</t>
+          <t>American determine.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Accept teacher.</t>
+          <t>Star stuff shoulder.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2562,171 +2562,171 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Head include single.</t>
+          <t>Time upon attorney.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Wonder improve.</t>
+          <t>Who weight six eat.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>4770</v>
+        <v>6617</v>
       </c>
       <c r="N29" t="n">
-        <v>4824</v>
+        <v>1312</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Better how describe.</t>
+          <t>Production billion.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R****l G***n</t>
+          <t>S***i C****r</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5************5</t>
+          <t>3************4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21/02/1999</t>
+          <t>23/06/1960</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Morrow Prairie
-Kaylamouth, FL *</t>
+          <t>PSC *, Box *
+APO AP *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>***-*****89</t>
+          <t>(012)-06025**71</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Figure low.</t>
+          <t>Approach future.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>p******9@example.net</t>
+          <t>i********s@example.org</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Customer daughter.</t>
+          <t>Follow question bit.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Entire father.</t>
+          <t>Left behind when.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Student call.</t>
+          <t>Medical food ok.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>PM activity market.</t>
+          <t>Measure measure.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>7570</v>
+        <v>7111</v>
       </c>
       <c r="N30" t="n">
-        <v>1776</v>
+        <v>9393</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Into hard seem here.</t>
+          <t>Sort modern dream.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M*****l J***s</t>
+          <t>J***b G****s</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0************0</t>
+          <t>5************9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>29/08/1937</t>
+          <t>15/12/1950</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Crystal Forge
-North Gabrielburgh, SD *</t>
+          <t>* Virginia Lane Apt. *
+Christopherville, CA *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>***-*****90</t>
+          <t>(012)-36484**39</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Return painting.</t>
+          <t>Measure put star PM.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>i******s@example.org</t>
+          <t>e****k@example.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Read because figure.</t>
+          <t>Treatment huge buy.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Well should report.</t>
+          <t>Check stock bag.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Short you social.</t>
+          <t>Toward central.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Leg appear his.</t>
+          <t>Hair watch heart.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>8053</v>
+        <v>2298</v>
       </c>
       <c r="N31" t="n">
-        <v>9652</v>
+        <v>3572</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Likely scientist.</t>
+          <t>Hot every likely.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. IC</t>
+          <t>IC Number</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>No. Telefon</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -513,196 +513,196 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J******r K***y</t>
+          <t>A****a R*****s</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4************7</t>
+          <t>8************3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11/04/1986</t>
+          <t>06/11/1987</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Randy Corner
-North Deborahbury, NY *</t>
+          <t>* Thompson Lodge
+New Charlesmouth, ME *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(012)-82767**56</t>
+          <t>(012)-61860**91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Degree respond stop.</t>
+          <t>Word foreign staff.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>r*****5@example.com</t>
+          <t>k****s@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Service agent whom.</t>
+          <t>M*********i</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Spring machine lot.</t>
+          <t>Big first stock.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Significant give.</t>
+          <t>None seem term.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>These evidence.</t>
+          <t>Television note.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9233</v>
+        <v>4612</v>
       </c>
       <c r="N2" t="n">
-        <v>9372</v>
+        <v>7009</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Affect push.</t>
+          <t>Performance become.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T**d J*****n</t>
+          <t>A**m B***r</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9************3</t>
+          <t>6************4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14/08/1948</t>
+          <t>05/09/1989</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Harper Courts
-Medinashire, ME *</t>
+          <t>* Susan Dam Suite *
+Christinamouth, KS *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(012)-15482**98</t>
+          <t>(012)-90561**90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Star bring science.</t>
+          <t>State set woman.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>c**********s@example.org</t>
+          <t>d***********r@example.net</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Toward official.</t>
+          <t>S************a</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Director travel.</t>
+          <t>Painting shake our.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Table throughout.</t>
+          <t>Group wind me smile.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Those everybody.</t>
+          <t>Available thought.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4158</v>
+        <v>5009</v>
       </c>
       <c r="N3" t="n">
-        <v>4191</v>
+        <v>1224</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Store expect decide.</t>
+          <t>Else prepare.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A****a M****r</t>
+          <t>W*****m H****s</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>6************5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/08/1956</t>
+          <t>14/03/1968</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Hernandez Crescent
-Hudsonbury, MO *</t>
+          <t>* Michelle Squares
+Sextonshire, RI *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(012)-26000**27</t>
+          <t>(012)-35822**98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Any suggest coach.</t>
+          <t>New me safe begin.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>j*******g@example.com</t>
+          <t>e***z@example.net</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Note future teach.</t>
+          <t>M***********s</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Loss adult.</t>
+          <t>Make fight.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -712,71 +712,71 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Item item success.</t>
+          <t>Under you bill.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Look defense.</t>
+          <t>Identify care sea.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>6750</v>
+        <v>7765</v>
       </c>
       <c r="N4" t="n">
-        <v>9680</v>
+        <v>6216</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Campaign call maybe.</t>
+          <t>Foot month style.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D***k N****n</t>
+          <t>P******a M****n</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9************3</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16/06/1959</t>
+          <t>11/07/1947</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Jessica Vista Apt. *
-North Jasmineview, MA *</t>
+          <t>* Craig Mission Suite *
+West Michaelton, CO *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(012)-96965**12</t>
+          <t>(012)-39699**13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Actually agency.</t>
+          <t>Truth manage.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>d*****e@example.com</t>
+          <t>h***t@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Agency when low.</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Officer trouble.</t>
+          <t>Agency catch full.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -786,663 +786,663 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Along produce they.</t>
+          <t>Source now once.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Make wonder take.</t>
+          <t>Should agree.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3722</v>
+        <v>2135</v>
       </c>
       <c r="N5" t="n">
-        <v>9819</v>
+        <v>3942</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Skin by decade.</t>
+          <t>Game listen case.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K***h P*****d</t>
+          <t>L****e J***s</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4************8</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24/02/1925</t>
+          <t>10/04/1961</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AA *</t>
+          <t>* Robert Stream
+New Katherine, DE *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(012)-07620**19</t>
+          <t>(012)-99016**47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hit always three.</t>
+          <t>Study identify fact.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>c************n@example.com</t>
+          <t>k******e@example.org</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>If ball soon they.</t>
+          <t>L*******a</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Light most never.</t>
+          <t>Take which but lead.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Writer thank plan.</t>
+          <t>Military sell.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Arm these little.</t>
+          <t>Serve kind.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6437</v>
+        <v>8817</v>
       </c>
       <c r="N6" t="n">
-        <v>6575</v>
+        <v>1031</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Attack foot surface.</t>
+          <t>Police star.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R****t G*****r</t>
+          <t>M*****l D***s</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>5************7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30/08/1971</t>
+          <t>08/06/1987</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Cesar Road Apt. *
-Lake Ellen, WV *</t>
+          <t>Unit * Box *
+DPO AE *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(012)-33049**91</t>
+          <t>(012)-12999**47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Foreign more affect.</t>
+          <t>Fund material clear.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>p**************a@example.com</t>
+          <t>j******s@example.org</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Reflect person.</t>
+          <t>U**h</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Memory every.</t>
+          <t>Myself rise town.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>So return reason.</t>
+          <t>So bad company.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Eat those north.</t>
+          <t>Side enter stage.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5234</v>
+        <v>6094</v>
       </c>
       <c r="N7" t="n">
-        <v>6905</v>
+        <v>6369</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Young skin heavy.</t>
+          <t>Matter keep area.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R*****d H**l</t>
+          <t>P***o L***z</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3************5</t>
+          <t>4************2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21/08/1960</t>
+          <t>14/08/1932</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Davis Parkway Apt. *
-Michaeltown, GA *</t>
+          <t>* Deborah Villages
+East Devin, SD *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-83311**02</t>
+          <t>(012)-74693**76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Success before.</t>
+          <t>Foreign management.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>s**********y@example.net</t>
+          <t>s**************a@example.org</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Course husband.</t>
+          <t>U**h</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Source seat along.</t>
+          <t>Many whose.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Camera different.</t>
+          <t>Every weight.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Class there.</t>
+          <t>Light society.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>6191</v>
+        <v>5262</v>
       </c>
       <c r="N8" t="n">
-        <v>8349</v>
+        <v>4900</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Main fill carry.</t>
+          <t>Pass Democrat my.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S****y M***y</t>
+          <t>G*****y R*******z</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5************6</t>
+          <t>5************2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25/02/1969</t>
+          <t>12/06/1975</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Moss Throughway Suite *
-Lake Adam, ID *</t>
+          <t>* Bridget Court Apt. *
+Port Joannaberg, LA *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-15311**75</t>
+          <t>(012)-79270**22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Machine decide.</t>
+          <t>Third real.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>b*****8@example.com</t>
+          <t>k********s@example.org</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Assume measure.</t>
+          <t>N******a</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Theory unit about.</t>
+          <t>Test want field and.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Deep wrong hospital.</t>
+          <t>Family customer.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Property material.</t>
+          <t>Feeling rate.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>4510</v>
+        <v>8705</v>
       </c>
       <c r="N9" t="n">
-        <v>7035</v>
+        <v>1589</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Thought player.</t>
+          <t>Stay market.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>G*******a H**l</t>
+          <t>A*****n M***e</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>4************9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26/04/1929</t>
+          <t>15/12/2005</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Proctor Brooks Apt. *
-Johnsonfurt, AS *</t>
+          <t>* Tammie Mall
+Jacksonmouth, SD *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(012)-94664**74</t>
+          <t>(012)-80018**53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Industry standard.</t>
+          <t>Finish stop capital.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>k*****r@example.com</t>
+          <t>j*****4@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Student money live.</t>
+          <t>T*******e</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Current special.</t>
+          <t>Return quickly.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Leader inside price.</t>
+          <t>Really toward along.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Though sport key.</t>
+          <t>Cold cold foot.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>9907</v>
+        <v>2419</v>
       </c>
       <c r="N10" t="n">
-        <v>9096</v>
+        <v>6687</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Need act get.</t>
+          <t>Model minute.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A***e C******o</t>
+          <t>J******r N****s</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21/04/1981</t>
+          <t>07/12/1999</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Stephens Hollow Apt. *
-Andrewport, AL *</t>
+          <t>* Evans Vista Apt. *
+Smithton, IN *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-50732**61</t>
+          <t>(012)-79448**61</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bar operation up.</t>
+          <t>Argue soldier their.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>l****************e@example.org</t>
+          <t>a***********s@example.org</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>View recently open.</t>
+          <t>U**h</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Owner leg decide.</t>
+          <t>Computer second.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>During Congress.</t>
+          <t>Story good put.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Place than on war.</t>
+          <t>Sure may debate.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>9499</v>
+        <v>3819</v>
       </c>
       <c r="N11" t="n">
-        <v>1149</v>
+        <v>1395</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Actually lose.</t>
+          <t>Play size attack.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M**y D**n</t>
+          <t>P***a S****n</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>6************7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22/08/1970</t>
+          <t>23/08/2002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* James Street
-Clarkburgh, NM *</t>
+          <t>* Blair Mountain
+Lake Christian, RI *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(012)-28329**74</t>
+          <t>(012)-70651**47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Economy chair.</t>
+          <t>Now few again.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>d*******n@example.org</t>
+          <t>h*********n@example.net</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Stuff read majority.</t>
+          <t>M******n</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Situation trial you.</t>
+          <t>Plant drop gas word.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Send budget decide.</t>
+          <t>Right account give.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Operation stuff.</t>
+          <t>Rock movie since.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>4912</v>
+        <v>4130</v>
       </c>
       <c r="N12" t="n">
-        <v>9404</v>
+        <v>9942</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Figure tend admit.</t>
+          <t>Son in fine tell.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C*****a J***s</t>
+          <t>D*****h O****r</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5************9</t>
+          <t>7************2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>27/05/1945</t>
+          <t>19/01/1953</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Mann Park Apt. *
-West Donna, OK *</t>
+          <t>* Smith Union Suite *
+South Scott, MD *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(012)-24173**42</t>
+          <t>(012)-23436**82</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vote close book.</t>
+          <t>Future special.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>m******7@example.org</t>
+          <t>v****e@example.org</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Enter listen both.</t>
+          <t>T*******e</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Money write again.</t>
+          <t>Impact site.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Paper relationship.</t>
+          <t>Energy prepare only.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Future raise camera.</t>
+          <t>Adult our against.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>2477</v>
+        <v>4615</v>
       </c>
       <c r="N13" t="n">
-        <v>2427</v>
+        <v>8054</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Story suffer cell.</t>
+          <t>Fear key ground for.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S****n G***n</t>
+          <t>S****y G******z</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8************8</t>
+          <t>3************8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08/04/1970</t>
+          <t>14/11/1992</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Barker Avenue Apt. *
-South Robert, ND *</t>
+          <t>* David Lights
+Avilafurt, UT *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(012)-62647**44</t>
+          <t>(012)-01813**53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Son down force skin.</t>
+          <t>Would theory TV.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>a***s@example.org</t>
+          <t>b********s@example.net</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Technology child.</t>
+          <t>A****a</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Same property order.</t>
+          <t>Truth write if get.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1452,293 +1452,293 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Letter piece best.</t>
+          <t>Experience forward.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>No avoid culture.</t>
+          <t>Simple course.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>9679</v>
+        <v>3068</v>
       </c>
       <c r="N14" t="n">
-        <v>8228</v>
+        <v>5468</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Listen husband fear.</t>
+          <t>Page outside.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A****w K**g</t>
+          <t>D***d P***y</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0************1</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14/05/1977</t>
+          <t>25/01/1925</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Jones Union Apt. *
-Lake Ashley, NE *</t>
+          <t>* Day Heights
+East Christinaview, WV *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(012)-75298**50</t>
+          <t>(012)-75840**56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Democratic firm he.</t>
+          <t>Performance rate.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>g**********y@example.org</t>
+          <t>s*****y@example.org</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Begin certainly.</t>
+          <t>O******a</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Take course concern.</t>
+          <t>Everything look.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Style now real sure.</t>
+          <t>Finish box while.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Recognize play.</t>
+          <t>Bit answer cover.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>9948</v>
+        <v>5990</v>
       </c>
       <c r="N15" t="n">
-        <v>9559</v>
+        <v>7096</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Above agreement.</t>
+          <t>Place treatment.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P****p P*****a</t>
+          <t>G**y R**d</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>3************2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29/04/1990</t>
+          <t>09/11/1981</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Smith Shore
-North Amyville, SD *</t>
+          <t>* Weber Spring
+South Katherineburgh, PW *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(012)-48915**91</t>
+          <t>(012)-55868**14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Only occur grow.</t>
+          <t>Religious side.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>t*****0@example.net</t>
+          <t>j***********t@example.org</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Material military.</t>
+          <t>M***********s</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Prevent indeed fly.</t>
+          <t>Though address.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>All movie home.</t>
+          <t>Least you realize.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Visit single.</t>
+          <t>Important eat.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6168</v>
+        <v>9051</v>
       </c>
       <c r="N16" t="n">
-        <v>5701</v>
+        <v>8683</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Sell hope hour.</t>
+          <t>Full sound red.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A****a H********n</t>
+          <t>J***y T****s</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5************0</t>
+          <t>8************5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17/11/1925</t>
+          <t>16/09/1936</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Christensen Village
-East Rebeccamouth, ME *</t>
+          <t>* Turner Drives Suite *
+Lake Teresamouth, PA *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-10576**48</t>
+          <t>(012)-11440**96</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Attention song well.</t>
+          <t>My star evening.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>o******t@example.com</t>
+          <t>d*******n@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Treat write court.</t>
+          <t>M******n</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Use cell seem think.</t>
+          <t>Technology send.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Left answer nothing.</t>
+          <t>Yeah house my.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Western head model.</t>
+          <t>By article wonder.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5808</v>
+        <v>6414</v>
       </c>
       <c r="N17" t="n">
-        <v>7087</v>
+        <v>4159</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Mr worry meet fund.</t>
+          <t>Interview view.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C*******a T******n</t>
+          <t>M*****e S****s</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5************2</t>
+          <t>5************0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06/12/1940</t>
+          <t>03/11/1967</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* David Neck Apt. *
-Banksmouth, WI *</t>
+          <t>* Jacob Rue
+Lake Natalie, PA *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(012)-50858**00</t>
+          <t>(012)-88959**54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Notice watch happen.</t>
+          <t>Reduce play against.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>t**********n@example.com</t>
+          <t>c**************h@example.net</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Former camera those.</t>
+          <t>A****a</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Attorney land their.</t>
+          <t>Back step.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1748,188 +1748,188 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Financial place.</t>
+          <t>Kid artist support.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Power call various.</t>
+          <t>Chance moment.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>3517</v>
+        <v>9995</v>
       </c>
       <c r="N18" t="n">
-        <v>1621</v>
+        <v>2139</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Head parent.</t>
+          <t>Require serious.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>O***r W****r</t>
+          <t>E***a H*******n</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08/10/1971</t>
+          <t>31/08/1950</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* James Neck Suite *
-Barbarabury, ME *</t>
+          <t>* Jennifer Roads Suite *
+Carterfurt, MH *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-68349**61</t>
+          <t>(012)-00921**23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Meet drive society.</t>
+          <t>Anyone tonight both.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>c*********0@example.net</t>
+          <t>p*********a@example.net</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hand hot reduce.</t>
+          <t>F*****a</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Then stay blood.</t>
+          <t>Story television.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Also detail ready.</t>
+          <t>PM plan great sense.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Particular rather.</t>
+          <t>Their player else.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>9224</v>
+        <v>2427</v>
       </c>
       <c r="N19" t="n">
-        <v>3269</v>
+        <v>7216</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Billion already.</t>
+          <t>Until wife choose.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>H****h H****y</t>
+          <t>B*****n N***k</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>05/04/1983</t>
+          <t>12/03/1960</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Ross Road
-West Brendaville, WI *</t>
+          <t>* David Overpass Apt. *
+Markstad, KS *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(012)-94912**24</t>
+          <t>(012)-39822**00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Building treatment.</t>
+          <t>Group check decade.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>h*********l@example.com</t>
+          <t>b******3@example.net</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rather bring.</t>
+          <t>S**********a</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>State name behind.</t>
+          <t>Letter join and.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Appear life movie.</t>
+          <t>Exactly own subject.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Ready store.</t>
+          <t>Collection where.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>7799</v>
+        <v>6618</v>
       </c>
       <c r="N20" t="n">
-        <v>7328</v>
+        <v>3358</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Leader foot stuff.</t>
+          <t>Mention carry every.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S*******e B*****t</t>
+          <t>S****n J******n</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/05/1935</t>
+          <t>14/01/1960</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1940,323 +1940,323 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(012)-94296**74</t>
+          <t>(012)-99737**10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>His recognize fact.</t>
+          <t>Example national.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>j***************s@example.net</t>
+          <t>c***********4@example.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>End ground energy.</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Reach term make.</t>
+          <t>Himself policy.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Popular identify.</t>
+          <t>Less show war.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Bar pattern young.</t>
+          <t>Someone radio right.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>8884</v>
+        <v>4011</v>
       </c>
       <c r="N21" t="n">
-        <v>1983</v>
+        <v>9117</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Tax perhaps story.</t>
+          <t>Baby staff rest.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M*. S****n J*****n I*I</t>
+          <t>H*****r S***t</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6************6</t>
+          <t>9************9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>04/05/1929</t>
+          <t>03/11/2003</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* James Brook Suite *
-New Patriciafort, HI *</t>
+          <t>* Rodriguez Bridge
+North Deborah, SC *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(012)-99947**08</t>
+          <t>(012)-42905**76</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Visit response.</t>
+          <t>Kitchen pay.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>v*************n@example.net</t>
+          <t>d**************r@example.org</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Again industry.</t>
+          <t>U**h</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Four any because.</t>
+          <t>Teacher political.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Population here our.</t>
+          <t>Tree conference.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Off yard add poor.</t>
+          <t>Author big quickly.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5191</v>
+        <v>5188</v>
       </c>
       <c r="N22" t="n">
-        <v>6591</v>
+        <v>3570</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Expert eye born.</t>
+          <t>Practice.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>J***n L**g</t>
+          <t>E*******h R****a</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6************5</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21/03/1984</t>
+          <t>22/11/1979</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Derek Groves Apt. *
-South Emilyview, CO *</t>
+          <t>* Don Lodge
+Griffintown, TX *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(012)-68454**59</t>
+          <t>(012)-68169**83</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Challenge various.</t>
+          <t>Drive shoulder.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>g*********n@example.org</t>
+          <t>j*****6@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Why yard last call.</t>
+          <t>G*****a</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Next east test tax.</t>
+          <t>Eye operation.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Effect talk item.</t>
+          <t>Work take time list.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Hand official turn.</t>
+          <t>Pattern so natural.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>6218</v>
+        <v>8912</v>
       </c>
       <c r="N23" t="n">
-        <v>8578</v>
+        <v>3921</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Information road.</t>
+          <t>Father itself.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>L**a R*y</t>
+          <t>E*******h R**e</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>5************1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>29/10/2005</t>
+          <t>27/02/1947</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Jones Ville
-Port Jenniferborough, VA *</t>
+          <t>* Ian Divide Apt. *
+Tiffanychester, NC *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(012)-24879**91</t>
+          <t>(012)-05928**12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Little family.</t>
+          <t>Improve defense.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>g**********a@example.net</t>
+          <t>t****s@example.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Woman movie soon.</t>
+          <t>H****i</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Area picture wide.</t>
+          <t>Standard behavior.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>100-100</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Why rate seat.</t>
+          <t>Everybody again no.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Be at nor suggest.</t>
+          <t>Number might.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3727</v>
+        <v>3282</v>
       </c>
       <c r="N24" t="n">
-        <v>3826</v>
+        <v>9906</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Phone billion blood.</t>
+          <t>Notice despite idea.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C*****y A******n</t>
+          <t>D****e M******l</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5************9</t>
+          <t>8************7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14/06/1960</t>
+          <t>30/03/1986</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Solomon Forks Apt. *
-East Jeffreyton, OK *</t>
+          <t>* Hannah Turnpike
+North Alexisbury, LA *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(012)-51459**59</t>
+          <t>(012)-62965**68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Really PM accept.</t>
+          <t>Car stock first.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>a**********d@example.com</t>
+          <t>j**********r@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Industry operation.</t>
+          <t>C*********t</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Thought receive fly.</t>
+          <t>Stay wrong purpose.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2266,467 +2266,467 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Career stuff lot.</t>
+          <t>Physical her peace.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Little technology.</t>
+          <t>Trouble pretty.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2860</v>
+        <v>8337</v>
       </c>
       <c r="N25" t="n">
-        <v>2884</v>
+        <v>5747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Method its purpose.</t>
+          <t>Field edge.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>K**i B******n</t>
+          <t>A*****y A***s</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3************1</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30/01/1938</t>
+          <t>22/09/1924</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Vazquez Landing Apt. *
-Josephfort, MT *</t>
+          <t>* Hart Skyway
+Brockside, MT *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(012)-95937**32</t>
+          <t>(012)-53448**11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Common answer seven.</t>
+          <t>Choice choice value.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>h**********o@example.org</t>
+          <t>v********0@example.net</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Right machine new.</t>
+          <t>K****s</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Late crime coach.</t>
+          <t>Offer quickly.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Whose another alone.</t>
+          <t>Send there perhaps.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Method learn tough.</t>
+          <t>Matter heart notice.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>6003</v>
+        <v>9148</v>
       </c>
       <c r="N26" t="n">
-        <v>4243</v>
+        <v>2707</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Degree expert trip.</t>
+          <t>Alone them age.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>M*****a L****n</t>
+          <t>W***e P*******n</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3************1</t>
+          <t>3************5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/04/1977</t>
+          <t>02/07/1979</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Cortez Plain Suite *
-North Jenniferton, KY *</t>
+          <t>Unit * Box *
+DPO AE *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(012)-70735**09</t>
+          <t>(012)-94740**18</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Central difficult.</t>
+          <t>But field return.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>t******6@example.com</t>
+          <t>x*****s@example.com</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Doctor throw field.</t>
+          <t>F*****a</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Toward action model.</t>
+          <t>They would home.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bed claim friend.</t>
+          <t>Give data each.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Hard ok method.</t>
+          <t>Remember American.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>9632</v>
+        <v>3916</v>
       </c>
       <c r="N27" t="n">
-        <v>9097</v>
+        <v>1788</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Office PM line.</t>
+          <t>Anything home buy.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P***r W****s</t>
+          <t>A*****l K**g</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5************1</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>02/08/1961</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* David Bridge Suite *
-Rhondamouth, RI *</t>
+          <t>PSC *, Box *
+APO AP *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(012)-94570**74</t>
+          <t>(012)-68959**28</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Begin join improve.</t>
+          <t>Baby she.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>s********r@example.net</t>
+          <t>r***********e@example.net</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>And let forget risk.</t>
+          <t>T*******e</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Worry edge none.</t>
+          <t>So success teacher.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Ok card might of.</t>
+          <t>Guy per thousand.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Admit me find long.</t>
+          <t>College treatment.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>6001</v>
+        <v>8976</v>
       </c>
       <c r="N28" t="n">
-        <v>2380</v>
+        <v>4799</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Attack American.</t>
+          <t>Most truth wall my.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A**a M******z</t>
+          <t>C*****s M*****a</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4************2</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08/01/1934</t>
+          <t>08/12/1975</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Gonzalez Flat Suite *
-Andersonhaven, MN *</t>
+          <t>* Donna Station
+Connorburgh, KY *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(012)-44166**41</t>
+          <t>(012)-96705**55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Again special.</t>
+          <t>Easy choose.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>p***********r@example.com</t>
+          <t>m****************n@example.org</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>American determine.</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Star stuff shoulder.</t>
+          <t>Parent Mr thousand.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Time upon attorney.</t>
+          <t>Hit act cut treat.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Who weight six eat.</t>
+          <t>Institution under.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>6617</v>
+        <v>4926</v>
       </c>
       <c r="N29" t="n">
-        <v>1312</v>
+        <v>8671</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Production billion.</t>
+          <t>Now instead lawyer.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S***i C****r</t>
+          <t>V****r T**n</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3************4</t>
+          <t>0************7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>23/06/1960</t>
+          <t>06/12/1928</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AP *</t>
+          <t>* Hull Square
+Mclaughlinstad, FM *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(012)-06025**71</t>
+          <t>(012)-94151**94</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Approach future.</t>
+          <t>West toward.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>i********s@example.org</t>
+          <t>f********y@example.com</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Follow question bit.</t>
+          <t>I**a</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Left behind when.</t>
+          <t>From drive guy play.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Medical food ok.</t>
+          <t>More answer check.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Measure measure.</t>
+          <t>Ball it money rest.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>7111</v>
+        <v>4495</v>
       </c>
       <c r="N30" t="n">
-        <v>9393</v>
+        <v>6523</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Sort modern dream.</t>
+          <t>Majority across.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>J***b G****s</t>
+          <t>D****e M**a</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5************9</t>
+          <t>3************3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15/12/1950</t>
+          <t>03/10/1949</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Virginia Lane Apt. *
-Christopherville, CA *</t>
+          <t>Unit * Box *
+DPO AA *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(012)-36484**39</t>
+          <t>(012)-42944**75</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Measure put star PM.</t>
+          <t>Operation through.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>e****k@example.com</t>
+          <t>j*****2@example.org</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Treatment huge buy.</t>
+          <t>W*******n</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Check stock bag.</t>
+          <t>Century technology.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Toward central.</t>
+          <t>Every authority.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Hair watch heart.</t>
+          <t>Family standard.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>2298</v>
+        <v>3997</v>
       </c>
       <c r="N31" t="n">
-        <v>3572</v>
+        <v>9361</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Hot every likely.</t>
+          <t>Control measure.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Birth Date</t>
+          <t>Tarikh Lahir</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Place of Birth</t>
+          <t>Tempat Lahir</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -513,418 +513,418 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A****a R*****s</t>
+          <t>W*****m M******l</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8************3</t>
+          <t>5************3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06/11/1987</t>
+          <t>06/05/1955</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Thompson Lodge
-New Charlesmouth, ME *</t>
+          <t>* Emily Greens Suite *
+Johnsonborough, VA *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(012)-61860**91</t>
+          <t>(012)-18560**65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Word foreign staff.</t>
+          <t>Military pick.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>k****s@example.com</t>
+          <t>t****s@example.net</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>M*********i</t>
+          <t>K****s</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Big first stock.</t>
+          <t>Thousand effect.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>None seem term.</t>
+          <t>Decision stage.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Television note.</t>
+          <t>Challenge message.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4612</v>
+        <v>3075</v>
       </c>
       <c r="N2" t="n">
-        <v>7009</v>
+        <v>7090</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Performance become.</t>
+          <t>Management during.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A**m B***r</t>
+          <t>R****a D***s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6************4</t>
+          <t>8************3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05/09/1989</t>
+          <t>11/11/1961</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Susan Dam Suite *
-Christinamouth, KS *</t>
+          <t>* Mcdonald Pass
+South George, LA *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(012)-90561**90</t>
+          <t>(012)-69173**89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>State set woman.</t>
+          <t>Provide no early.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>d***********r@example.net</t>
+          <t>m****2@example.org</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>S************a</t>
+          <t>W***********a</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Painting shake our.</t>
+          <t>However quite.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Group wind me smile.</t>
+          <t>Interest forget.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Available thought.</t>
+          <t>Within very college.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5009</v>
+        <v>8300</v>
       </c>
       <c r="N3" t="n">
-        <v>1224</v>
+        <v>5858</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Else prepare.</t>
+          <t>First race western.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W*****m H****s</t>
+          <t>D***d S****s</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6************5</t>
+          <t>4************7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14/03/1968</t>
+          <t>20/04/1995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Michelle Squares
-Sextonshire, RI *</t>
+          <t>* Lopez Rest Suite *
+Danielbury, ME *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(012)-35822**98</t>
+          <t>(012)-52203**70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>New me safe begin.</t>
+          <t>College center hard.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>e***z@example.net</t>
+          <t>s****7@example.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>M***********s</t>
+          <t>C******o</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Make fight.</t>
+          <t>Hospital full.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Under you bill.</t>
+          <t>Onto should ever.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Identify care sea.</t>
+          <t>Near building.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>7765</v>
+        <v>3965</v>
       </c>
       <c r="N4" t="n">
-        <v>6216</v>
+        <v>3461</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Foot month style.</t>
+          <t>Occur than.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P******a M****n</t>
+          <t>P*****k D*****o</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11/07/1947</t>
+          <t>02/01/1997</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Craig Mission Suite *
-West Michaelton, CO *</t>
+          <t>* Beasley Heights
+South Dorothy, ID *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(012)-39699**13</t>
+          <t>(012)-80094**32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Truth manage.</t>
+          <t>Available movement.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>h***t@example.net</t>
+          <t>c******7@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Agency catch full.</t>
+          <t>Trip myself kid tax.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Source now once.</t>
+          <t>Two task know but.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Should agree.</t>
+          <t>Word color data.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2135</v>
+        <v>3258</v>
       </c>
       <c r="N5" t="n">
-        <v>3942</v>
+        <v>1023</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Game listen case.</t>
+          <t>Relationship only.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L****e J***s</t>
+          <t>C*******e L*e</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>3************7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10/04/1961</t>
+          <t>06/08/1988</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Robert Stream
-New Katherine, DE *</t>
+          <t>* Andrea Hollow
+Lake Michaelland, IA *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(012)-99016**47</t>
+          <t>(012)-09917**17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Study identify fact.</t>
+          <t>On work news next.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>k******e@example.org</t>
+          <t>t******6@example.net</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L*******a</t>
+          <t>N********o</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Take which but lead.</t>
+          <t>Kind view own place.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Military sell.</t>
+          <t>Order role blue.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Serve kind.</t>
+          <t>Executive us.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>8817</v>
+        <v>6724</v>
       </c>
       <c r="N6" t="n">
-        <v>1031</v>
+        <v>2954</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Police star.</t>
+          <t>Bank month run.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M*****l D***s</t>
+          <t>T*****y M****n</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5************7</t>
+          <t>5************9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08/06/1987</t>
+          <t>16/11/1996</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AE *</t>
+          <t>* Austin Isle
+Davidfurt, ID *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(012)-12999**47</t>
+          <t>(012)-39914**56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fund material clear.</t>
+          <t>Guess yes prepare.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>j******s@example.org</t>
+          <t>g************s@example.net</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>U**h</t>
+          <t>M***e</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Myself rise town.</t>
+          <t>Money up explain.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -934,367 +934,367 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>So bad company.</t>
+          <t>Goal lay such those.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Side enter stage.</t>
+          <t>Side establish.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>6094</v>
+        <v>7560</v>
       </c>
       <c r="N7" t="n">
-        <v>6369</v>
+        <v>7630</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Matter keep area.</t>
+          <t>Have really civil.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P***o L***z</t>
+          <t>O***r B****n</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4************2</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14/08/1932</t>
+          <t>12/04/1968</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Deborah Villages
-East Devin, SD *</t>
+          <t>* Rosales Parkways Apt. *
+Payneview, ME *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-74693**76</t>
+          <t>(012)-52086**05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Foreign management.</t>
+          <t>Instead season.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>s**************a@example.org</t>
+          <t>m**********n@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>U**h</t>
+          <t>W*******n</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Many whose.</t>
+          <t>Discuss when field.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Every weight.</t>
+          <t>Church try tonight.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Light society.</t>
+          <t>Risk short exist.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5262</v>
+        <v>4874</v>
       </c>
       <c r="N8" t="n">
-        <v>4900</v>
+        <v>2080</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Pass Democrat my.</t>
+          <t>Nearly floor last.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G*****y R*******z</t>
+          <t>K*****n R***s</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5************2</t>
+          <t>8************0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12/06/1975</t>
+          <t>24/11/1977</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Bridget Court Apt. *
-Port Joannaberg, LA *</t>
+          <t>* Colon Stravenue
+North Madelinehaven, GU *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-79270**22</t>
+          <t>(012)-78445**66</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Third real.</t>
+          <t>Find respond pretty.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>k********s@example.org</t>
+          <t>w*************d@example.net</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N******a</t>
+          <t>I**a</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Test want field and.</t>
+          <t>Billion perhaps ask.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Family customer.</t>
+          <t>Fish suddenly.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Feeling rate.</t>
+          <t>Computer sing.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>8705</v>
+        <v>5070</v>
       </c>
       <c r="N9" t="n">
-        <v>1589</v>
+        <v>2566</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Stay market.</t>
+          <t>Focus blue reality.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A*****n M***e</t>
+          <t>J***n W****r</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4************9</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15/12/2005</t>
+          <t>24/09/1956</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Tammie Mall
-Jacksonmouth, SD *</t>
+          <t>* Davis Rest
+South Jennifer, FM *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(012)-80018**53</t>
+          <t>(012)-16737**35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Finish stop capital.</t>
+          <t>Time concern.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>j*****4@example.com</t>
+          <t>w*********r@example.net</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>T*******e</t>
+          <t>G*****a</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Return quickly.</t>
+          <t>Others detail Mr.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Really toward along.</t>
+          <t>Second road suggest.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Cold cold foot.</t>
+          <t>Report place.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2419</v>
+        <v>8259</v>
       </c>
       <c r="N10" t="n">
-        <v>6687</v>
+        <v>8122</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Model minute.</t>
+          <t>Movement force yes.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>J******r N****s</t>
+          <t>R*****a F****s D*S</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>7************4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07/12/1999</t>
+          <t>17/12/1948</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Evans Vista Apt. *
-Smithton, IN *</t>
+          <t>* Brianna Cliff
+Bauerberg, MA *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-79448**61</t>
+          <t>(012)-12540**92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Argue soldier their.</t>
+          <t>Reveal picture.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>a***********s@example.org</t>
+          <t>r******l@example.org</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>U**h</t>
+          <t>H****i</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Computer second.</t>
+          <t>Heavy reason you.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Story good put.</t>
+          <t>Shake policy half.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Sure may debate.</t>
+          <t>Report compare.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3819</v>
+        <v>2927</v>
       </c>
       <c r="N11" t="n">
-        <v>1395</v>
+        <v>5502</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Play size attack.</t>
+          <t>Quickly risk once.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P***a S****n</t>
+          <t>J*****a B***n</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6************7</t>
+          <t>2************0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>23/08/2002</t>
+          <t>30/07/1996</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Blair Mountain
-Lake Christian, RI *</t>
+          <t>* Adam Course Suite *
+Hannahtown, MN *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(012)-70651**47</t>
+          <t>(012)-49850**04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Now few again.</t>
+          <t>Alone full approach.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>h*********n@example.net</t>
+          <t>t******e@example.com</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>M******n</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Plant drop gas word.</t>
+          <t>Government down.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1304,283 +1304,283 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Right account give.</t>
+          <t>Analysis easy fire.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Rock movie since.</t>
+          <t>Large son surface.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>4130</v>
+        <v>8371</v>
       </c>
       <c r="N12" t="n">
-        <v>9942</v>
+        <v>3807</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Son in fine tell.</t>
+          <t>I seek newspaper.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D*****h O****r</t>
+          <t>D***d S***s</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7************2</t>
+          <t>2************2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19/01/1953</t>
+          <t>12/08/1981</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Smith Union Suite *
-South Scott, MD *</t>
+          <t>* Brenda Lakes
+Port Lisa, AR *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(012)-23436**82</t>
+          <t>(012)-33037**26</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Future special.</t>
+          <t>Old note enough.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>v****e@example.org</t>
+          <t>o******1@example.com</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>T*******e</t>
+          <t>W********n</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Impact site.</t>
+          <t>Center see top.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Energy prepare only.</t>
+          <t>Election seek town.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Adult our against.</t>
+          <t>Spend area focus.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>4615</v>
+        <v>7291</v>
       </c>
       <c r="N13" t="n">
-        <v>8054</v>
+        <v>5505</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Fear key ground for.</t>
+          <t>Tree check respond.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S****y G******z</t>
+          <t>T***r C**k</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3************8</t>
+          <t>4************6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14/11/1992</t>
+          <t>10/09/1988</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* David Lights
-Avilafurt, UT *</t>
+          <t>PSC *, Box *
+APO AP *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(012)-01813**53</t>
+          <t>(012)-11223**21</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Would theory TV.</t>
+          <t>Pick democratic.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>b********s@example.net</t>
+          <t>d***********r@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A****a</t>
+          <t>N****a</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Truth write if get.</t>
+          <t>Market small record.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Experience forward.</t>
+          <t>Ground once once.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Simple course.</t>
+          <t>Civil song quality.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>3068</v>
+        <v>8941</v>
       </c>
       <c r="N14" t="n">
-        <v>5468</v>
+        <v>9213</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Page outside.</t>
+          <t>Attorney represent.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D***d P***y</t>
+          <t>C*********r F**e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25/01/1925</t>
+          <t>08/05/1982</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Day Heights
-East Christinaview, WV *</t>
+          <t>* Christine Avenue Apt. *
+New Benjamin, IA *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(012)-75840**56</t>
+          <t>(012)-35517**72</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Performance rate.</t>
+          <t>Deep trial place.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>s*****y@example.org</t>
+          <t>c***************s@example.com</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>O******a</t>
+          <t>A****a</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Everything look.</t>
+          <t>Off him bit stay.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Finish box while.</t>
+          <t>Modern test.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Bit answer cover.</t>
+          <t>Foreign girl hard.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5990</v>
+        <v>2313</v>
       </c>
       <c r="N15" t="n">
-        <v>7096</v>
+        <v>3324</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Place treatment.</t>
+          <t>Wish song name bag.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>G**y R**d</t>
+          <t>S****l C*****a</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3************2</t>
+          <t>8************8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09/11/1981</t>
+          <t>24/11/1997</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Weber Spring
-South Katherineburgh, PW *</t>
+          <t>* Peterson Fork
+Joshuamouth, PA *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(012)-55868**14</t>
+          <t>(012)-16833**62</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Religious side.</t>
+          <t>Plan who into use.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>j***********t@example.org</t>
+          <t>s**********s@example.com</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1590,155 +1590,155 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Though address.</t>
+          <t>Can cost later.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Least you realize.</t>
+          <t>Interview black.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Important eat.</t>
+          <t>Senior probably.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>9051</v>
+        <v>5468</v>
       </c>
       <c r="N16" t="n">
-        <v>8683</v>
+        <v>6291</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Full sound red.</t>
+          <t>Part according we.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>J***y T****s</t>
+          <t>C***g M****z</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8************5</t>
+          <t>3************6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16/09/1936</t>
+          <t>18/02/1956</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Turner Drives Suite *
-Lake Teresamouth, PA *</t>
+          <t>* Tiffany Squares Apt. *
+Port Amber, WY *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-11440**96</t>
+          <t>(012)-58814**63</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>My star evening.</t>
+          <t>Organization north.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>d*******n@example.com</t>
+          <t>t*****9@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>M******n</t>
+          <t>K****s</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Technology send.</t>
+          <t>Almost and year.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Yeah house my.</t>
+          <t>Recently east.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>By article wonder.</t>
+          <t>Much easy manage.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>6414</v>
+        <v>5550</v>
       </c>
       <c r="N17" t="n">
-        <v>4159</v>
+        <v>1069</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Interview view.</t>
+          <t>Worry player foot.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M*****e S****s</t>
+          <t>T****r A******o</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5************0</t>
+          <t>3************4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>03/11/1967</t>
+          <t>09/07/1967</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Jacob Rue
-Lake Natalie, PA *</t>
+          <t>* Short Station Apt. *
+New Jessicaburgh, AS *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(012)-88959**54</t>
+          <t>(012)-72277**54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Reduce play against.</t>
+          <t>Soldier couple her.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>c**************h@example.net</t>
+          <t>r**********s@example.org</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A****a</t>
+          <t>U**h</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Back step.</t>
+          <t>Rule peace myself.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1748,985 +1748,985 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Kid artist support.</t>
+          <t>Bank child require.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Chance moment.</t>
+          <t>Under response yard.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>9995</v>
+        <v>9146</v>
       </c>
       <c r="N18" t="n">
-        <v>2139</v>
+        <v>1756</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Require serious.</t>
+          <t>Deal focus.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E***a H*******n</t>
+          <t>V******a P***e</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>4************2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/08/1950</t>
+          <t>12/02/1952</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Jennifer Roads Suite *
-Carterfurt, MH *</t>
+          <t>PSC *, Box *
+APO AP *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-00921**23</t>
+          <t>(012)-54200**36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Anyone tonight both.</t>
+          <t>Security may inside.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>p*********a@example.net</t>
+          <t>b************n@example.org</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>F*****a</t>
+          <t>W********n</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Story television.</t>
+          <t>In relationship.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>PM plan great sense.</t>
+          <t>Whole unit family.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Their player else.</t>
+          <t>Financial.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2427</v>
+        <v>2406</v>
       </c>
       <c r="N19" t="n">
-        <v>7216</v>
+        <v>3790</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Until wife choose.</t>
+          <t>If case could.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B*****n N***k</t>
+          <t>S*****r T******n</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>8************4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12/03/1960</t>
+          <t>08/01/1949</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* David Overpass Apt. *
-Markstad, KS *</t>
+          <t>* Randall Circles
+South Jennifer, TN *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(012)-39822**00</t>
+          <t>(012)-39505**79</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Group check decade.</t>
+          <t>Power expect home.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>b******3@example.net</t>
+          <t>p********6@example.org</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>S**********a</t>
+          <t>T***s</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Letter join and.</t>
+          <t>Skin consider past.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Exactly own subject.</t>
+          <t>Identify walk.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Collection where.</t>
+          <t>Result of though.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>6618</v>
+        <v>2556</v>
       </c>
       <c r="N20" t="n">
-        <v>3358</v>
+        <v>2082</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Mention carry every.</t>
+          <t>State drop people.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S****n J******n</t>
+          <t>C******y T****s</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14/01/1960</t>
+          <t>21/12/2001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>* Lewis Place Apt. *
+East Alexandra, PW *</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>(012)-07008**02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Recently little.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c************n@example.net</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>W*****g</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Dark individual act.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20-29</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Good dark again.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Fire thought radio.</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>7939</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5205</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Less than Congress.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>M*****l W****r</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6************8</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>24/08/1936</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>* Maria Mill
+North Michael, ID *</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>(012)-11990**41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hundred let hard.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>w*****t@example.org</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>W*****g</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Result for provide.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Remain use federal.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Not minute heart.</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>5643</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3744</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Thing movie story.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>T*****y S*******n</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4************3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>13/10/1957</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>* Bennett Fall
+West Daniel, DE *</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>(012)-04551**67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Over practice go.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>c**********y@example.com</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N******a</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Some indeed adult.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20-29</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Enter top leader by.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Early high place.</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>6608</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9060</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Clearly catch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>M***a A******n</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0************9</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23/11/1954</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>* Carter River Apt. *
+Quinnside, VT *</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>(012)-26106**21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Community upon.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>r*************z@example.org</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>A******s</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Chance trip success.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>90-99</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Field sign window.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Upon there type.</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>3778</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7072</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Recent pretty color.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>J****n T****s</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8************7</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>29/12/1998</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>* *
+FPO AP *</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>(012)-82119**68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Center money.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>l********y@example.net</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>I*****a</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Open voice other.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>80-89</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Deal agency sit.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Civil treat us.</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>7880</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9157</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Eye partner nearly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>R*****a H****s</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9************2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>27/04/1957</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>* Barnes Forks Apt. *
+Angelabury, IN *</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>(012)-19895**48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Everything song.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>d*************d@example.com</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N********o</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Ago oil place where.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Tax pull capital.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Free teach.</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>6742</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3662</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Unit employee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>M****a R**d</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3************3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>24/06/1941</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>* Kelly Junctions
+Isabellafort, NC *</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>(012)-66932**34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Top final however.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>l******n@example.com</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>I*****a</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Generation return.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>90-99</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Pass experience.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Ahead talk owner do.</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>4884</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2886</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Event million best.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>H*****r S*****n</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>8************5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>23/07/1940</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>PSC *, Box *
 APO AP *</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>(012)-99737**10</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Example national.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>c***********4@example.com</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>A*****a</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Himself policy.</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>90-99</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Less show war.</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Someone radio right.</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>4011</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9117</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Baby staff rest.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>H*****r S***t</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>9************9</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>03/11/2003</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>* Rodriguez Bridge
-North Deborah, SC *</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>(012)-42905**76</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kitchen pay.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>d**************r@example.org</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>U**h</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Teacher political.</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>30-39</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Tree conference.</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Author big quickly.</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>5188</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3570</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Practice.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>E*******h R****a</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>4************0</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22/11/1979</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>* Don Lodge
-Griffintown, TX *</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>(012)-68169**83</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Drive shoulder.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>j*****6@example.org</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>G*****a</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Eye operation.</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>90-99</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Work take time list.</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Pattern so natural.</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>8912</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3921</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Father itself.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>E*******h R**e</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>5************1</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>27/02/1947</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>* Ian Divide Apt. *
-Tiffanychester, NC *</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>(012)-05928**12</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Improve defense.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>t****s@example.com</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>H****i</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Standard behavior.</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>100-100</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Everybody again no.</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Number might.</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>3282</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9906</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Notice despite idea.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>D****e M******l</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>8************7</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>30/03/1986</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>* Hannah Turnpike
-North Alexisbury, LA *</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>(012)-62965**68</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Car stock first.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>j**********r@example.com</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>C*********t</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Stay wrong purpose.</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>20-29</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Physical her peace.</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Trouble pretty.</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>8337</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Field edge.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A*****y A***s</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>9************3</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>22/09/1924</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>* Hart Skyway
-Brockside, MT *</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>(012)-53448**11</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Choice choice value.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>v********0@example.net</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>K****s</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Offer quickly.</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>40-49</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Send there perhaps.</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Matter heart notice.</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>9148</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2707</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Alone them age.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>W***e P*******n</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3************5</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>02/07/1979</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Unit * Box *
-DPO AE *</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>(012)-94740**18</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>But field return.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>x*****s@example.com</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>F*****a</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>They would home.</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>18-19</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Give data each.</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Remember American.</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>3916</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1788</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Anything home buy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A*****l K**g</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>6************6</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>02/08/1961</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>(012)-45464**39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Republican up.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>m************s@example.com</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>W*****g</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Low name cultural.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Visit trade have.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Cut commercial.</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>9317</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5418</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Knowledge religious.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>S*******e S*****s</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4************6</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>06/09/1963</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>PSC *, Box *
 APO AP *</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>(012)-68959**28</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Baby she.</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>r***********e@example.net</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>T*******e</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>So success teacher.</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>(012)-01402**61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Store pull care lot.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>w*********a@example.com</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>S************a</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Data peace end my.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>30-39</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Guy per thousand.</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>College treatment.</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>8976</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4799</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Most truth wall my.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>C*****s M*****a</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0************8</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>08/12/1975</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>* Donna Station
-Connorburgh, KY *</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>(012)-96705**55</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Easy choose.</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>m****************n@example.org</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>A*****a</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Parent Mr thousand.</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>50-59</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Hit act cut treat.</t>
+          <t>Specific without.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Institution under.</t>
+          <t>Benefit doctor blue.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>4926</v>
+        <v>5493</v>
       </c>
       <c r="N29" t="n">
-        <v>8671</v>
+        <v>6655</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Now instead lawyer.</t>
+          <t>Use scientist skill.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>V****r T**n</t>
+          <t>C*******a B****t</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0************7</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06/12/1928</t>
+          <t>06/10/1963</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Hull Square
-Mclaughlinstad, FM *</t>
+          <t>* Sanders Mission Apt. *
+Jessicaview, NV *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(012)-94151**94</t>
+          <t>(012)-95989**54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>West toward.</t>
+          <t>Computer be author.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>f********y@example.com</t>
+          <t>m***********a@example.net</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>I**a</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>From drive guy play.</t>
+          <t>School member rate.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>More answer check.</t>
+          <t>Family always lay.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Ball it money rest.</t>
+          <t>Test trade several.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>4495</v>
+        <v>9739</v>
       </c>
       <c r="N30" t="n">
-        <v>6523</v>
+        <v>4903</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Majority across.</t>
+          <t>Vote above whatever.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D****e M**a</t>
+          <t>D****l S**s</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3************3</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>03/10/1949</t>
+          <t>22/03/2005</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AA *</t>
+          <t>* *
+FPO AP *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(012)-42944**75</t>
+          <t>(012)-06866**47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Operation through.</t>
+          <t>Source red fall.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>j*****2@example.org</t>
+          <t>i********n@example.net</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>W*******n</t>
+          <t>M******n</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Century technology.</t>
+          <t>Allow position.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Every authority.</t>
+          <t>Use seat worry.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Family standard.</t>
+          <t>Feeling rest open.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>3997</v>
+        <v>9356</v>
       </c>
       <c r="N31" t="n">
-        <v>9361</v>
+        <v>1117</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Control measure.</t>
+          <t>Town picture glass.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tarikh Lahir</t>
+          <t>Birth Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Tempat Lahir</t>
+          <t>Place of Birth</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -513,492 +513,492 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W*****m M******l</t>
+          <t>B***n G*****t</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5************3</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06/05/1955</t>
+          <t>23/03/1987</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Emily Greens Suite *
-Johnsonborough, VA *</t>
+          <t>* Brandon Trail
+Robinsonchester, WV *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(012)-18560**65</t>
+          <t>(012)-65710**14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Military pick.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>t****s@example.net</t>
+          <t>s**********a@example.org</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>K****s</t>
+          <t>I***o</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Thousand effect.</t>
+          <t>Claim forward.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Decision stage.</t>
+          <t>Ground start.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Challenge message.</t>
+          <t>Law Congress nearly.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3075</v>
+        <v>2605</v>
       </c>
       <c r="N2" t="n">
-        <v>7090</v>
+        <v>7368</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Management during.</t>
+          <t>Feel claim project.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R****a D***s</t>
+          <t>C*****l S****s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8************3</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11/11/1961</t>
+          <t>02/08/1990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Mcdonald Pass
-South George, LA *</t>
+          <t>* Gordon Branch Apt. *
+Garciabury, WV *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(012)-69173**89</t>
+          <t>(012)-11120**02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Provide no early.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>m****2@example.org</t>
+          <t>k*********7@example.net</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>W***********a</t>
+          <t>W*******n</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>However quite.</t>
+          <t>Outside Republican.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Interest forget.</t>
+          <t>Soon baby hold must.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Within very college.</t>
+          <t>Citizen table short.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8300</v>
+        <v>7561</v>
       </c>
       <c r="N3" t="n">
-        <v>5858</v>
+        <v>6058</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>First race western.</t>
+          <t>Theory that coach.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D***d S****s</t>
+          <t>J******n D*****o</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4************7</t>
+          <t>6************3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20/04/1995</t>
+          <t>25/12/1943</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Lopez Rest Suite *
-Danielbury, ME *</t>
+          <t>* Garcia Cove Apt. *
+Jacobville, WI *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(012)-52203**70</t>
+          <t>(012)-62900**34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>College center hard.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s****7@example.com</t>
+          <t>o*****0@example.net</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C******o</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hospital full.</t>
+          <t>Think lay large.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Onto should ever.</t>
+          <t>Citizen card.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Near building.</t>
+          <t>There central past.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3965</v>
+        <v>4350</v>
       </c>
       <c r="N4" t="n">
-        <v>3461</v>
+        <v>3576</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Occur than.</t>
+          <t>Modern once raise.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P*****k D*****o</t>
+          <t>K****y K**g</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>8************8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02/01/1997</t>
+          <t>12/10/1990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Beasley Heights
-South Dorothy, ID *</t>
+          <t>* Navarro Fields Apt. *
+West Jessica, UT *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(012)-80094**32</t>
+          <t>(012)-51078**11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Available movement.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>c******7@example.net</t>
+          <t>j****4@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>O******a</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Trip myself kid tax.</t>
+          <t>Various voice field.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Two task know but.</t>
+          <t>Would research.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Word color data.</t>
+          <t>Measure same.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3258</v>
+        <v>5710</v>
       </c>
       <c r="N5" t="n">
-        <v>1023</v>
+        <v>5814</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Relationship only.</t>
+          <t>Add six field.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C*******e L*e</t>
+          <t>E****d R******n</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3************7</t>
+          <t>2************5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06/08/1988</t>
+          <t>15/04/1965</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Andrea Hollow
-Lake Michaelland, IA *</t>
+          <t>* Lewis Road
+North Kristenfort, CO *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(012)-09917**17</t>
+          <t>(012)-73605**60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>On work news next.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>t******6@example.net</t>
+          <t>m**********n@example.org</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N********o</t>
+          <t>A****a</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Kind view own place.</t>
+          <t>Discuss fly only.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Order role blue.</t>
+          <t>Green medical a.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Executive us.</t>
+          <t>Away occur total.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6724</v>
+        <v>4269</v>
       </c>
       <c r="N6" t="n">
-        <v>2954</v>
+        <v>8829</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Bank month run.</t>
+          <t>Exactly forward.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>T*****y M****n</t>
+          <t>M******e M******z</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5************9</t>
+          <t>7************1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16/11/1996</t>
+          <t>28/04/1929</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Austin Isle
-Davidfurt, ID *</t>
+          <t>* John Flat Apt. *
+South Angela, OH *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(012)-39914**56</t>
+          <t>(012)-29912**63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Guess yes prepare.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>g************s@example.net</t>
+          <t>b*********h@example.net</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>M***e</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Money up explain.</t>
+          <t>Vote six relate.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Goal lay such those.</t>
+          <t>Dark specific easy.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Side establish.</t>
+          <t>Improve be we.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>7560</v>
+        <v>3926</v>
       </c>
       <c r="N7" t="n">
-        <v>7630</v>
+        <v>5659</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Have really civil.</t>
+          <t>Trial teach drop.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>O***r B****n</t>
+          <t>C***g G*****n</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>8************7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12/04/1968</t>
+          <t>19/10/1935</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Rosales Parkways Apt. *
-Payneview, ME *</t>
+          <t>* Rivas Valleys Suite *
+South Brookehaven, MT *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-52086**05</t>
+          <t>(012)-13433**29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Instead season.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>m**********n@example.com</t>
+          <t>d******9@example.net</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>W*******n</t>
+          <t>F*****a</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Discuss when field.</t>
+          <t>Write grow worry.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1008,663 +1008,663 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Church try tonight.</t>
+          <t>Site send.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Risk short exist.</t>
+          <t>Kitchen current.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>4874</v>
+        <v>8932</v>
       </c>
       <c r="N8" t="n">
-        <v>2080</v>
+        <v>8373</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Nearly floor last.</t>
+          <t>Fine consumer many.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K*****n R***s</t>
+          <t>J***n J***s J*.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8************0</t>
+          <t>8************4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24/11/1977</t>
+          <t>03/03/1975</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Colon Stravenue
-North Madelinehaven, GU *</t>
+          <t>* Erik Heights
+East Barry, AS *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-78445**66</t>
+          <t>(012)-71097**73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Find respond pretty.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>w*************d@example.net</t>
+          <t>t*******s@example.net</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>I**a</t>
+          <t>N************a</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Billion perhaps ask.</t>
+          <t>Heavy ball official.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fish suddenly.</t>
+          <t>Treatment something.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Computer sing.</t>
+          <t>Wrong test least.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>5070</v>
+        <v>6077</v>
       </c>
       <c r="N9" t="n">
-        <v>2566</v>
+        <v>9085</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Focus blue reality.</t>
+          <t>Up former Congress.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J***n W****r</t>
+          <t>D*. N******s H******n</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24/09/1956</t>
+          <t>02/09/1952</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Davis Rest
-South Jennifer, FM *</t>
+          <t>* Shannon Stream Apt. *
+Rebeccaside, CA *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(012)-16737**35</t>
+          <t>(012)-91304**60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Time concern.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>w*********r@example.net</t>
+          <t>x******e@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>G*****a</t>
+          <t>W********n</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Others detail Mr.</t>
+          <t>Turn new ago expert.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Second road suggest.</t>
+          <t>Cut fight region.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Report place.</t>
+          <t>Our onto happy.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>8259</v>
+        <v>7493</v>
       </c>
       <c r="N10" t="n">
-        <v>8122</v>
+        <v>4006</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Movement force yes.</t>
+          <t>Woman notice safe.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R*****a F****s D*S</t>
+          <t>M*. S*****n H****s D*S</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7************4</t>
+          <t>9************9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17/12/1948</t>
+          <t>01/11/1962</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Brianna Cliff
-Bauerberg, MA *</t>
+          <t>* Nicole Shores Apt. *
+Guerreroport, FM *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-12540**92</t>
+          <t>(012)-31184**78</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Reveal picture.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>r******l@example.org</t>
+          <t>t******7@example.org</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>H****i</t>
+          <t>N***********e</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Heavy reason you.</t>
+          <t>Hospital stop find.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Shake policy half.</t>
+          <t>Worry once four.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Report compare.</t>
+          <t>Product direction.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2927</v>
+        <v>8657</v>
       </c>
       <c r="N11" t="n">
-        <v>5502</v>
+        <v>1286</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Quickly risk once.</t>
+          <t>Get clearly action.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J*****a B***n</t>
+          <t>J**e R****o</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2************0</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/07/1996</t>
+          <t>02/11/1970</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Adam Course Suite *
-Hannahtown, MN *</t>
+          <t>* Johnson Knolls
+Yangchester, NJ *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(012)-49850**04</t>
+          <t>(012)-19394**92</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Alone full approach.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>t******e@example.com</t>
+          <t>u*****s@example.com</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>I******s</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Government down.</t>
+          <t>Technology.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Analysis easy fire.</t>
+          <t>Station decade.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Large son surface.</t>
+          <t>Student manager.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>8371</v>
+        <v>9498</v>
       </c>
       <c r="N12" t="n">
-        <v>3807</v>
+        <v>1311</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>I seek newspaper.</t>
+          <t>Hand short skill.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D***d S***s</t>
+          <t>S***h Y***g</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2************2</t>
+          <t>0************5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12/08/1981</t>
+          <t>16/12/1977</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Brenda Lakes
-Port Lisa, AR *</t>
+          <t>* *
+FPO AP *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(012)-33037**26</t>
+          <t>(012)-53906**80</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Old note enough.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>o******1@example.com</t>
+          <t>j************r@example.net</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>W********n</t>
+          <t>M******d</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Center see top.</t>
+          <t>Skill red pull how.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Election seek town.</t>
+          <t>Thus manager nearly.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Spend area focus.</t>
+          <t>During just admit.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>7291</v>
+        <v>9090</v>
       </c>
       <c r="N13" t="n">
-        <v>5505</v>
+        <v>2473</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Tree check respond.</t>
+          <t>Why not anything.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T***r C**k</t>
+          <t>A*****e R****a</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4************6</t>
+          <t>5************7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10/09/1988</t>
+          <t>30/10/1944</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AP *</t>
+          <t>* Matthew Heights
+West Heather, GA *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(012)-11223**21</t>
+          <t>(012)-45102**73</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pick democratic.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>d***********r@example.org</t>
+          <t>p************n@example.net</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N****a</t>
+          <t>I******s</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Market small record.</t>
+          <t>Protect for health.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Ground once once.</t>
+          <t>Choice I visit law.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Civil song quality.</t>
+          <t>Financial board.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>8941</v>
+        <v>6112</v>
       </c>
       <c r="N14" t="n">
-        <v>9213</v>
+        <v>9404</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Attorney represent.</t>
+          <t>Above final idea.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C*********r F**e</t>
+          <t>J***n H***s</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08/05/1982</t>
+          <t>01/07/1955</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Christine Avenue Apt. *
-New Benjamin, IA *</t>
+          <t>* Perez Via
+Pamelaland, OR *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(012)-35517**72</t>
+          <t>(012)-79734**25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Deep trial place.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>c***************s@example.com</t>
+          <t>r*****4@example.org</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A****a</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Off him bit stay.</t>
+          <t>Beat issue very.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Modern test.</t>
+          <t>Forget leave seek.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Foreign girl hard.</t>
+          <t>Remain run capital.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2313</v>
+        <v>4428</v>
       </c>
       <c r="N15" t="n">
-        <v>3324</v>
+        <v>1403</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Wish song name bag.</t>
+          <t>Approach surface.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S****l C*****a</t>
+          <t>A****a D******n</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8************8</t>
+          <t>3************4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>24/11/1997</t>
+          <t>16/03/1999</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Peterson Fork
-Joshuamouth, PA *</t>
+          <t>* Christopher Trail Suite *
+East Lonnieburgh, DE *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(012)-16833**62</t>
+          <t>(012)-66126**93</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Plan who into use.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>s**********s@example.com</t>
+          <t>j*****6@example.com</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M***********s</t>
+          <t>M*********i</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Can cost later.</t>
+          <t>Mother account.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Interview black.</t>
+          <t>Push investment.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Senior probably.</t>
+          <t>Into send special.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>5468</v>
+        <v>2882</v>
       </c>
       <c r="N16" t="n">
-        <v>6291</v>
+        <v>2198</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Part according we.</t>
+          <t>Trade source force.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C***g M****z</t>
+          <t>Y*****a M***z</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3************6</t>
+          <t>6************9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18/02/1956</t>
+          <t>01/10/1941</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Tiffany Squares Apt. *
-Port Amber, WY *</t>
+          <t>* Dawn Creek
+Amyside, FL *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-58814**63</t>
+          <t>(012)-95550**62</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Organization north.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>t*****9@example.com</t>
+          <t>j*************y@example.net</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>K****s</t>
+          <t>M***********s</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Almost and year.</t>
+          <t>Toward edge place.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1674,145 +1674,145 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Recently east.</t>
+          <t>Either religious.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Much easy manage.</t>
+          <t>Audience however PM.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5550</v>
+        <v>6849</v>
       </c>
       <c r="N17" t="n">
-        <v>1069</v>
+        <v>5933</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Worry player foot.</t>
+          <t>No adult sea car.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T****r A******o</t>
+          <t>Z*****y H****s</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3************4</t>
+          <t>8************0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09/07/1967</t>
+          <t>09/03/1925</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Short Station Apt. *
-New Jessicaburgh, AS *</t>
+          <t>* Johns Ports Apt. *
+Lake Todd, GA *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(012)-72277**54</t>
+          <t>(012)-65128**32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Soldier couple her.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>r**********s@example.org</t>
+          <t>s*************n@example.net</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>U**h</t>
+          <t>G*****a</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Rule peace myself.</t>
+          <t>Politics best.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bank child require.</t>
+          <t>Three push American.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Under response yard.</t>
+          <t>South fill third.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>9146</v>
+        <v>8692</v>
       </c>
       <c r="N18" t="n">
-        <v>1756</v>
+        <v>8508</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Deal focus.</t>
+          <t>Spend author people.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>V******a P***e</t>
+          <t>G****e W**d</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4************2</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12/02/1952</t>
+          <t>27/06/2002</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AP *</t>
+          <t>* Julia Motorway Apt. *
+Susanberg, PW *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-54200**36</t>
+          <t>(012)-60391**67</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Security may inside.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>b************n@example.org</t>
+          <t>s******2@example.org</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>W********n</t>
+          <t>N**********a</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>In relationship.</t>
+          <t>Risk forward world.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1822,30 +1822,30 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Whole unit family.</t>
+          <t>Send yet as new.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Financial.</t>
+          <t>Machine drop him.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2406</v>
+        <v>7436</v>
       </c>
       <c r="N19" t="n">
-        <v>3790</v>
+        <v>4537</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>If case could.</t>
+          <t>War person central.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S*****r T******n</t>
+          <t>B*****a W****n</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1855,186 +1855,186 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08/01/1949</t>
+          <t>06/08/1990</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Randall Circles
-South Jennifer, TN *</t>
+          <t>* Stevenson Light Apt. *
+Lake Melissa, NC *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(012)-39505**79</t>
+          <t>(012)-00349**19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Power expect home.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>p********6@example.org</t>
+          <t>t******z@example.net</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>T***s</t>
+          <t>V*****t</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Skin consider past.</t>
+          <t>Sing even help.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Identify walk.</t>
+          <t>Feel successful.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Result of though.</t>
+          <t>Certain us speak.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2556</v>
+        <v>9410</v>
       </c>
       <c r="N20" t="n">
-        <v>2082</v>
+        <v>2790</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>State drop people.</t>
+          <t>Rule prove just.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C******y T****s</t>
+          <t>C****s W****n</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>5************4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21/12/2001</t>
+          <t>03/06/1937</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Lewis Place Apt. *
-East Alexandra, PW *</t>
+          <t>* Brenda Station Apt. *
+East Meganport, ID *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(012)-07008**02</t>
+          <t>(012)-00428**52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Recently little.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>c************n@example.net</t>
+          <t>f****s@example.net</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>W*****g</t>
+          <t>F*****a</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Dark individual act.</t>
+          <t>Million season.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Good dark again.</t>
+          <t>Poor however data.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Fire thought radio.</t>
+          <t>My management raise.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>7939</v>
+        <v>8198</v>
       </c>
       <c r="N21" t="n">
-        <v>5205</v>
+        <v>9005</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Less than Congress.</t>
+          <t>Money analysis.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M*****l W****r</t>
+          <t>S*****n C****o **</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>3************9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>24/08/1936</t>
+          <t>18/01/1942</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Maria Mill
-North Michael, ID *</t>
+          <t>* Sanchez Well
+Lake Hayleyport, IN *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(012)-11990**41</t>
+          <t>(012)-97329**95</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hundred let hard.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>w*****t@example.org</t>
+          <t>o****e@example.org</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>W*****g</t>
+          <t>S************a</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Result for provide.</t>
+          <t>Quality brother.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2044,474 +2044,474 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Remain use federal.</t>
+          <t>Probably identify.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Not minute heart.</t>
+          <t>Defense example.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5643</v>
+        <v>6104</v>
       </c>
       <c r="N22" t="n">
-        <v>3744</v>
+        <v>9140</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Thing movie story.</t>
+          <t>Movement modern.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>T*****y S*******n</t>
+          <t>R*****a B***n</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4************3</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13/10/1957</t>
+          <t>17/01/1951</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Bennett Fall
-West Daniel, DE *</t>
+          <t>* Alyssa Mills
+New Christopher, OK *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(012)-04551**67</t>
+          <t>(012)-75325**08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Over practice go.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>c**********y@example.com</t>
+          <t>w*******3@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N******a</t>
+          <t>N********o</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Some indeed adult.</t>
+          <t>Land live become.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Enter top leader by.</t>
+          <t>Consumer guess.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Early high place.</t>
+          <t>Politics successful.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>6608</v>
+        <v>6171</v>
       </c>
       <c r="N23" t="n">
-        <v>9060</v>
+        <v>3315</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Clearly catch.</t>
+          <t>National look.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M***a A******n</t>
+          <t>N****e E***n</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0************9</t>
+          <t>4************3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23/11/1954</t>
+          <t>17/10/1994</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Carter River Apt. *
-Quinnside, VT *</t>
+          <t>* Tammy Springs Suite *
+Michaelmouth, MH *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(012)-26106**21</t>
+          <t>(012)-51735**24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Community upon.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>r*************z@example.org</t>
+          <t>r********e@example.org</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>A******s</t>
+          <t>S************a</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Chance trip success.</t>
+          <t>Where east boy.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Field sign window.</t>
+          <t>Win where available.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Upon there type.</t>
+          <t>Book of structure.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3778</v>
+        <v>3256</v>
       </c>
       <c r="N24" t="n">
-        <v>7072</v>
+        <v>2916</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Recent pretty color.</t>
+          <t>Effect cover.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>J****n T****s</t>
+          <t>B******y J*****n</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8************7</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>29/12/1998</t>
+          <t>17/04/1946</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* *
-FPO AP *</t>
+          <t>* William Key
+Ericborough, GU *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(012)-82119**68</t>
+          <t>(012)-33667**44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Center money.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>l********y@example.net</t>
+          <t>m*************a@example.net</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>I*****a</t>
+          <t>H****i</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Open voice other.</t>
+          <t>Partner mention.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Deal agency sit.</t>
+          <t>Building plan food.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Civil treat us.</t>
+          <t>Environmental.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>7880</v>
+        <v>7871</v>
       </c>
       <c r="N25" t="n">
-        <v>9157</v>
+        <v>8800</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Eye partner nearly.</t>
+          <t>Manage yet western.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R*****a H****s</t>
+          <t>G*****l B***n</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9************2</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>27/04/1957</t>
+          <t>21/03/1976</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Barnes Forks Apt. *
-Angelabury, IN *</t>
+          <t>* Lang Motorway
+Port Melissa, FM *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(012)-19895**48</t>
+          <t>(012)-24127**00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Everything song.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>d*************d@example.com</t>
+          <t>u****z@example.org</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>N********o</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Ago oil place where.</t>
+          <t>Tax house concern.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Tax pull capital.</t>
+          <t>Garden trial worker.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Free teach.</t>
+          <t>Set age huge guy.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>6742</v>
+        <v>8574</v>
       </c>
       <c r="N26" t="n">
-        <v>3662</v>
+        <v>8342</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Unit employee.</t>
+          <t>Specific visit.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>M****a R**d</t>
+          <t>A****a M****n</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3************3</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24/06/1941</t>
+          <t>19/12/1928</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Kelly Junctions
-Isabellafort, NC *</t>
+          <t>* Black Junction
+West Stanleyton, MH *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(012)-66932**34</t>
+          <t>(012)-15167**10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Top final however.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>l******n@example.com</t>
+          <t>b*******5@example.com</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>I*****a</t>
+          <t>M******d</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Generation return.</t>
+          <t>Large issue avoid.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Pass experience.</t>
+          <t>But executive fall.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Ahead talk owner do.</t>
+          <t>Ahead wear goal.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4884</v>
+        <v>4258</v>
       </c>
       <c r="N27" t="n">
-        <v>2886</v>
+        <v>4612</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Event million best.</t>
+          <t>As wind own.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H*****r S*****n</t>
+          <t>D****l M*******n</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8************5</t>
+          <t>9************0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>23/07/1940</t>
+          <t>30/09/1948</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AP *</t>
+          <t>* Harold Creek Suite *
+Melissaside, UT *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(012)-45464**39</t>
+          <t>(012)-43579**46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Republican up.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>m************s@example.com</t>
+          <t>g********n@example.com</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>W*****g</t>
+          <t>L*******a</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Low name cultural.</t>
+          <t>Against military.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Visit trade have.</t>
+          <t>Pay executive.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Cut commercial.</t>
+          <t>With clearly.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>9317</v>
+        <v>4667</v>
       </c>
       <c r="N28" t="n">
-        <v>5418</v>
+        <v>7399</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Knowledge religious.</t>
+          <t>Long policy pattern.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S*******e S*****s</t>
+          <t>T****y S***h</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2521,212 +2521,212 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06/09/1963</t>
+          <t>16/08/2001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AP *</t>
+          <t>* Potter Neck
+Lake Tinaberg, VI *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(012)-01402**61</t>
+          <t>(012)-15156**79</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Store pull care lot.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>w*********a@example.com</t>
+          <t>a***9@example.com</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>S************a</t>
+          <t>W***********a</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Data peace end my.</t>
+          <t>This ten show.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Specific without.</t>
+          <t>Office discover.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Benefit doctor blue.</t>
+          <t>Stock region oil.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>5493</v>
+        <v>2740</v>
       </c>
       <c r="N29" t="n">
-        <v>6655</v>
+        <v>4019</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Use scientist skill.</t>
+          <t>Big behind industry.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C*******a B****t</t>
+          <t>N******s G****a</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9************3</t>
+          <t>3************3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06/10/1963</t>
+          <t>04/06/1929</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Sanders Mission Apt. *
-Jessicaview, NV *</t>
+          <t>PSC *, Box *
+APO AA *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(012)-95989**54</t>
+          <t>(012)-28715**13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Computer be author.</t>
+          <t>Gender2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>m***********a@example.net</t>
+          <t>p*********e@example.com</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>C******o</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>School member rate.</t>
+          <t>Six anyone word.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>100-100</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Family always lay.</t>
+          <t>Card baby notice.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Test trade several.</t>
+          <t>Win language.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>9739</v>
+        <v>9942</v>
       </c>
       <c r="N30" t="n">
-        <v>4903</v>
+        <v>2492</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Vote above whatever.</t>
+          <t>Sometimes door.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D****l S**s</t>
+          <t>S****y M******z</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>9************5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>22/03/2005</t>
+          <t>30/12/1930</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* *
-FPO AP *</t>
+          <t>* Brooks Extensions
+Christopherstad, TN *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(012)-06866**47</t>
+          <t>(012)-44150**42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Source red fall.</t>
+          <t>Gender1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>i********n@example.net</t>
+          <t>m*************z@example.org</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>M******n</t>
+          <t>I**a</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Allow position.</t>
+          <t>If loss there most.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Use seat worry.</t>
+          <t>Hair fish this.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Feeling rest open.</t>
+          <t>Value bring remain.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>9356</v>
+        <v>4626</v>
       </c>
       <c r="N31" t="n">
-        <v>1117</v>
+        <v>9384</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Town picture glass.</t>
+          <t>Economy station.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B***n G*****t</t>
+          <t>C***l L***z</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>3************6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23/03/1987</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Brandon Trail
-Robinsonchester, WV *</t>
+          <t>* Garcia Lodge Suite *
+Morrowfort, MP *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(012)-65710**14</t>
+          <t>(012)-75647**15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,71 +544,71 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>s**********a@example.org</t>
+          <t>g************e@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>I***o</t>
+          <t>V******a</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Claim forward.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Ground start.</t>
+          <t>Already list.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Law Congress nearly.</t>
+          <t>Act conference.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2605</v>
+        <v>4211</v>
       </c>
       <c r="N2" t="n">
-        <v>7368</v>
+        <v>4549</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Feel claim project.</t>
+          <t>Effort full just.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C*****l S****s</t>
+          <t>V******a F****s D*M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02/08/1990</t>
+          <t>04/12/1997</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Gordon Branch Apt. *
-Garciabury, WV *</t>
+          <t>* Lisa Spurs Suite *
+North David, AR *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(012)-11120**02</t>
+          <t>(012)-64663**44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,71 +618,71 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>k*********7@example.net</t>
+          <t>w********n@example.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>W*******n</t>
+          <t>G*****a</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Outside Republican.</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Soon baby hold must.</t>
+          <t>Between many happen.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Citizen table short.</t>
+          <t>Similar animal.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7561</v>
+        <v>3622</v>
       </c>
       <c r="N3" t="n">
-        <v>6058</v>
+        <v>3444</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Theory that coach.</t>
+          <t>Past never protect.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>J******n D*****o</t>
+          <t>K*****h M*****e</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6************3</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25/12/1943</t>
+          <t>18/03/1939</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Garcia Cove Apt. *
-Jacobville, WI *</t>
+          <t>* Mcknight Mountains
+Randolphshire, WV *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(012)-62900**34</t>
+          <t>(012)-06745**56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -692,71 +692,71 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>o*****0@example.net</t>
+          <t>s*********k@example.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>I***o</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Think lay large.</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Citizen card.</t>
+          <t>Fill reason check.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>There central past.</t>
+          <t>Deep several.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4350</v>
+        <v>3585</v>
       </c>
       <c r="N4" t="n">
-        <v>3576</v>
+        <v>7860</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Modern once raise.</t>
+          <t>Once process.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K****y K**g</t>
+          <t>M*****l S******n</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8************8</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12/10/1990</t>
+          <t>13/09/1958</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Navarro Fields Apt. *
-West Jessica, UT *</t>
+          <t>* Miller Walk Apt. *
+Ingramshire, SC *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(012)-51078**11</t>
+          <t>(012)-86189**38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>j****4@example.net</t>
+          <t>b******n@example.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>O******a</t>
+          <t>L*******a</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Various voice field.</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -786,51 +786,51 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Would research.</t>
+          <t>Cut remember family.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Measure same.</t>
+          <t>Go station election.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5710</v>
+        <v>2367</v>
       </c>
       <c r="N5" t="n">
-        <v>5814</v>
+        <v>2422</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Add six field.</t>
+          <t>Cultural be while.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E****d R******n</t>
+          <t>S***n M******z</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2************5</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15/04/1965</t>
+          <t>03/04/1950</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Lewis Road
-North Kristenfort, CO *</t>
+          <t>* Edwin Walk
+North Taraton, NM *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(012)-73605**60</t>
+          <t>(012)-50027**90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -840,71 +840,71 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>m**********n@example.org</t>
+          <t>d*********n@example.org</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>A****a</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Discuss fly only.</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Green medical a.</t>
+          <t>Bit land fast bad.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Away occur total.</t>
+          <t>Argue special.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4269</v>
+        <v>9756</v>
       </c>
       <c r="N6" t="n">
-        <v>8829</v>
+        <v>2747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Exactly forward.</t>
+          <t>Everything.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M******e M******z</t>
+          <t>M****n S**w</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7************1</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28/04/1929</t>
+          <t>04/02/1962</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* John Flat Apt. *
-South Angela, OH *</t>
+          <t>* Nguyen Knolls
+Ibarraville, OR *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(012)-29912**63</t>
+          <t>(012)-18921**50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -914,71 +914,71 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>b*********h@example.net</t>
+          <t>k**********a@example.org</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>I***o</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Vote six relate.</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Dark specific easy.</t>
+          <t>Indeed chance staff.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Improve be we.</t>
+          <t>Off newspaper.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3926</v>
+        <v>9956</v>
       </c>
       <c r="N7" t="n">
-        <v>5659</v>
+        <v>7074</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Trial teach drop.</t>
+          <t>South cause.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C***g G*****n</t>
+          <t>J***s C****e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8************7</t>
+          <t>5************7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19/10/1935</t>
+          <t>19/06/1965</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Rivas Valleys Suite *
-South Brookehaven, MT *</t>
+          <t>* Stafford Green Apt. *
+Kennedyborough, TX *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-13433**29</t>
+          <t>(012)-49621**28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -988,71 +988,71 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>d******9@example.net</t>
+          <t>g*********n@example.org</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>F*****a</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Write grow worry.</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Site send.</t>
+          <t>Move final most.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Kitchen current.</t>
+          <t>Author owner face.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>8932</v>
+        <v>5332</v>
       </c>
       <c r="N8" t="n">
-        <v>8373</v>
+        <v>4091</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Fine consumer many.</t>
+          <t>Your player theory.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J***n J***s J*.</t>
+          <t>B******y F*******z</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8************4</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03/03/1975</t>
+          <t>31/08/1924</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Erik Heights
-East Barry, AS *</t>
+          <t>Unit * Box *
+DPO AA *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-71097**73</t>
+          <t>(012)-32731**32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1062,71 +1062,71 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>t*******s@example.net</t>
+          <t>g*****n@example.com</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N************a</t>
+          <t>P**********a</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Heavy ball official.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Treatment something.</t>
+          <t>Mr fund television.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Wrong test least.</t>
+          <t>Remember above task.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>6077</v>
+        <v>6093</v>
       </c>
       <c r="N9" t="n">
-        <v>9085</v>
+        <v>3003</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Up former Congress.</t>
+          <t>Plant on hospital.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D*. N******s H******n</t>
+          <t>S****n D***s</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>0************7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>02/09/1952</t>
+          <t>07/01/1990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Shannon Stream Apt. *
-Rebeccaside, CA *</t>
+          <t>* Santos Plaza Suite *
+Howardhaven, AR *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(012)-91304**60</t>
+          <t>(012)-21050**54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1136,71 +1136,71 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>x******e@example.com</t>
+          <t>a***********a@example.org</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>W********n</t>
+          <t>S************a</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Turn new ago expert.</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cut fight region.</t>
+          <t>Itself school.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Our onto happy.</t>
+          <t>Single walk school.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>7493</v>
+        <v>6638</v>
       </c>
       <c r="N10" t="n">
-        <v>4006</v>
+        <v>7736</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Woman notice safe.</t>
+          <t>Record body one.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M*. S*****n H****s D*S</t>
+          <t>D****l V*****n</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9************9</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/11/1962</t>
+          <t>05/12/1986</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Nicole Shores Apt. *
-Guerreroport, FM *</t>
+          <t>* Christina Land
+Larsonville, WI *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-31184**78</t>
+          <t>(012)-60264**59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1210,71 +1210,71 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>t******7@example.org</t>
+          <t>k*******5@example.org</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N***********e</t>
+          <t>N************a</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Hospital stop find.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Worry once four.</t>
+          <t>About report form.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Product direction.</t>
+          <t>Worker politics.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>8657</v>
+        <v>7827</v>
       </c>
       <c r="N11" t="n">
-        <v>1286</v>
+        <v>9591</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Get clearly action.</t>
+          <t>Science reveal.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J**e R****o</t>
+          <t>J**l J****n</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>02/11/1970</t>
+          <t>14/02/1926</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Johnson Knolls
-Yangchester, NJ *</t>
+          <t>* Jeffrey View Suite *
+Andrewborough, KY *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(012)-19394**92</t>
+          <t>(012)-66365**11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1284,71 +1284,71 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>u*****s@example.com</t>
+          <t>d**********n@example.net</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>I******s</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Technology.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Station decade.</t>
+          <t>If cultural likely.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Student manager.</t>
+          <t>Property beautiful.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>9498</v>
+        <v>4085</v>
       </c>
       <c r="N12" t="n">
-        <v>1311</v>
+        <v>1859</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Hand short skill.</t>
+          <t>Never loss night.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S***h Y***g</t>
+          <t>L**a A***s</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0************5</t>
+          <t>9************4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16/12/1977</t>
+          <t>10/02/1993</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* *
-FPO AP *</t>
+          <t>* Marc Crest Apt. *
+Jenniferberg, AZ *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(012)-53906**80</t>
+          <t>(012)-58913**97</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1358,71 +1358,71 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>j************r@example.net</t>
+          <t>p**************y@example.com</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>M******d</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Skill red pull how.</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Thus manager nearly.</t>
+          <t>Suffer laugh.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>During just admit.</t>
+          <t>Risk force concern.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>9090</v>
+        <v>5366</v>
       </c>
       <c r="N13" t="n">
-        <v>2473</v>
+        <v>9740</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Why not anything.</t>
+          <t>For room would old.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A*****e R****a</t>
+          <t>L****e J****h</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5************7</t>
+          <t>0************1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30/10/1944</t>
+          <t>25/11/1964</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Matthew Heights
-West Heather, GA *</t>
+          <t>* Joseph Extensions Suite *
+East Ruth, NY *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(012)-45102**73</t>
+          <t>(012)-42181**43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1432,71 +1432,71 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>p************n@example.net</t>
+          <t>p*****n@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>I******s</t>
+          <t>N********o</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Protect for health.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Choice I visit law.</t>
+          <t>Movie along.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Financial board.</t>
+          <t>Air goal why test.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>6112</v>
+        <v>2381</v>
       </c>
       <c r="N14" t="n">
-        <v>9404</v>
+        <v>4616</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Above final idea.</t>
+          <t>Approach practice.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>J***n H***s</t>
+          <t>S****n O***z</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>9************4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/07/1955</t>
+          <t>16/10/1952</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Perez Via
-Pamelaland, OR *</t>
+          <t>* Olivia Locks
+North Seantown, VT *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(012)-79734**25</t>
+          <t>(012)-77992**81</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1506,71 +1506,71 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>r*****4@example.org</t>
+          <t>l******y@example.net</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>M*******a</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Beat issue very.</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Forget leave seek.</t>
+          <t>Good present story.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Remain run capital.</t>
+          <t>Leader center hit.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>4428</v>
+        <v>3852</v>
       </c>
       <c r="N15" t="n">
-        <v>1403</v>
+        <v>1074</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Approach surface.</t>
+          <t>Newspaper type.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A****a D******n</t>
+          <t>E*******h R*******z</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3************4</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16/03/1999</t>
+          <t>05/08/1971</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Christopher Trail Suite *
-East Lonnieburgh, DE *</t>
+          <t>* *
+FPO AE *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(012)-66126**93</t>
+          <t>(012)-45926**15</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1580,71 +1580,71 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>j*****6@example.com</t>
+          <t>a*************n@example.net</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M*********i</t>
+          <t>M*******a</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Mother account.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Push investment.</t>
+          <t>Prevent trade.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Into send special.</t>
+          <t>Situation address.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2882</v>
+        <v>3025</v>
       </c>
       <c r="N16" t="n">
-        <v>2198</v>
+        <v>2259</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Trade source force.</t>
+          <t>Buy energy military.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Y*****a M***z</t>
+          <t>A****a P****r</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6************9</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/1941</t>
+          <t>28/03/1934</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Dawn Creek
-Amyside, FL *</t>
+          <t>* Matthew Causeway
+Masonland, OH *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-95550**62</t>
+          <t>(012)-97387**63</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1654,71 +1654,71 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>j*************y@example.net</t>
+          <t>m**********y@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>M***********s</t>
+          <t>M*******a</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Toward edge place.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Either religious.</t>
+          <t>Get short why.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Audience however PM.</t>
+          <t>Return bill player.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>6849</v>
+        <v>8708</v>
       </c>
       <c r="N17" t="n">
-        <v>5933</v>
+        <v>1365</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>No adult sea car.</t>
+          <t>Tree stop idea plan.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Z*****y H****s</t>
+          <t>J***d L***s</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8************0</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09/03/1925</t>
+          <t>07/10/1967</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Johns Ports Apt. *
-Lake Todd, GA *</t>
+          <t>* Philip Garden
+Mitchellmouth, ID *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(012)-65128**32</t>
+          <t>(012)-07264**41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1728,71 +1728,71 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>s*************n@example.net</t>
+          <t>b********s@example.net</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>G*****a</t>
+          <t>N******a</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Politics best.</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Three push American.</t>
+          <t>Stay form style.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>South fill third.</t>
+          <t>Cold down service.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>8692</v>
+        <v>8391</v>
       </c>
       <c r="N18" t="n">
-        <v>8508</v>
+        <v>3803</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Spend author people.</t>
+          <t>Coach natural.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G****e W**d</t>
+          <t>K*m C*****s **</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>5************0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27/06/2002</t>
+          <t>29/11/1954</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Julia Motorway Apt. *
-Susanberg, PW *</t>
+          <t>* Turner Corners Suite *
+Lake Jenniferstad, GU *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-60391**67</t>
+          <t>(012)-17968**52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1802,71 +1802,71 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>s******2@example.org</t>
+          <t>f*****y@example.net</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N**********a</t>
+          <t>D******e</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Risk forward world.</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Send yet as new.</t>
+          <t>Better letter white.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Machine drop him.</t>
+          <t>World sister true.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>7436</v>
+        <v>5371</v>
       </c>
       <c r="N19" t="n">
-        <v>4537</v>
+        <v>6816</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>War person central.</t>
+          <t>Ask single rate.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B*****a W****n</t>
+          <t>B******y M**s</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8************4</t>
+          <t>3************8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06/08/1990</t>
+          <t>09/08/1951</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Stevenson Light Apt. *
-Lake Melissa, NC *</t>
+          <t>* *
+FPO AE *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(012)-00349**19</t>
+          <t>(012)-96384**69</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1876,71 +1876,71 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>t******z@example.net</t>
+          <t>n****s@example.org</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>V*****t</t>
+          <t>M*******a</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Sing even help.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Feel successful.</t>
+          <t>Fund necessary ok.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Certain us speak.</t>
+          <t>Order fund sea.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>9410</v>
+        <v>5376</v>
       </c>
       <c r="N20" t="n">
-        <v>2790</v>
+        <v>6479</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Rule prove just.</t>
+          <t>Between design lose.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C****s W****n</t>
+          <t>D**a M****r</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5************4</t>
+          <t>6************9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>03/06/1937</t>
+          <t>29/08/1937</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Brenda Station Apt. *
-East Meganport, ID *</t>
+          <t>* Taylor Extensions Suite *
+Lake Troyport, VA *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(012)-00428**52</t>
+          <t>(012)-44655**84</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1950,71 +1950,71 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>f****s@example.net</t>
+          <t>y*****n@example.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>F*****a</t>
+          <t>V******a</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Million season.</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Poor however data.</t>
+          <t>Between listen.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>My management raise.</t>
+          <t>Ask bag let none.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>8198</v>
+        <v>8311</v>
       </c>
       <c r="N21" t="n">
-        <v>9005</v>
+        <v>1255</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Money analysis.</t>
+          <t>North community.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S*****n C****o **</t>
+          <t>A*****y M***e</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3************9</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18/01/1942</t>
+          <t>30/03/1993</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Sanchez Well
-Lake Hayleyport, IN *</t>
+          <t>* Zachary Mission Apt. *
+Thomasville, LA *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(012)-97329**95</t>
+          <t>(012)-91385**23</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2024,71 +2024,71 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>o****e@example.org</t>
+          <t>w****h@example.com</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S************a</t>
+          <t>S**********a</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Quality brother.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Probably identify.</t>
+          <t>May either serve.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Defense example.</t>
+          <t>Until light agency.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>6104</v>
+        <v>9276</v>
       </c>
       <c r="N22" t="n">
-        <v>9140</v>
+        <v>2258</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Movement modern.</t>
+          <t>Method range good.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R*****a B***n</t>
+          <t>R*****l G****a</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>3************4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17/01/1951</t>
+          <t>21/04/1957</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Alyssa Mills
-New Christopher, OK *</t>
+          <t>* Davis Spur Suite *
+Porterport, IL *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(012)-75325**08</t>
+          <t>(012)-31311**91</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2098,71 +2098,71 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>w*******3@example.org</t>
+          <t>b************n@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N********o</t>
+          <t>O****n</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Land live become.</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Consumer guess.</t>
+          <t>Even chair certain.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Politics successful.</t>
+          <t>Painting war likely.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>6171</v>
+        <v>9152</v>
       </c>
       <c r="N23" t="n">
-        <v>3315</v>
+        <v>2537</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>National look.</t>
+          <t>Size person special.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>N****e E***n</t>
+          <t>L***s J*****n</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4************3</t>
+          <t>3************3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17/10/1994</t>
+          <t>21/05/1974</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Tammy Springs Suite *
-Michaelmouth, MH *</t>
+          <t>* Lindsey Street
+Joseborough, NJ *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(012)-51735**24</t>
+          <t>(012)-36884**91</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2172,17 +2172,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>r********e@example.org</t>
+          <t>j********e@example.org</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S************a</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Where east boy.</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2192,51 +2192,51 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Win where available.</t>
+          <t>Include upon.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Book of structure.</t>
+          <t>Really worry tough.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3256</v>
+        <v>9677</v>
       </c>
       <c r="N24" t="n">
-        <v>2916</v>
+        <v>4137</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Effect cover.</t>
+          <t>Part democratic.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B******y J*****n</t>
+          <t>E**c W****n</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7************0</t>
+          <t>2************8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17/04/1946</t>
+          <t>11/09/1974</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* William Key
-Ericborough, GU *</t>
+          <t>* Ingram Extensions
+Ericland, MT *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(012)-33667**44</t>
+          <t>(012)-36296**48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2246,71 +2246,71 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>m*************a@example.net</t>
+          <t>e*****y@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>H****i</t>
+          <t>M*********i</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Partner mention.</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Building plan food.</t>
+          <t>Raise cultural.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Environmental.</t>
+          <t>Four movement north.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>7871</v>
+        <v>9728</v>
       </c>
       <c r="N25" t="n">
-        <v>8800</v>
+        <v>2072</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Manage yet western.</t>
+          <t>Know position be.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>G*****l B***n</t>
+          <t>J******r B****s</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>5************9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21/03/1976</t>
+          <t>06/06/1934</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Lang Motorway
-Port Melissa, FM *</t>
+          <t>* Mary Greens Suite *
+Davisfort, ND *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(012)-24127**00</t>
+          <t>(012)-50614**21</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2320,71 +2320,71 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>u****z@example.org</t>
+          <t>e*************d@example.net</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>W********n</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tax house concern.</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Garden trial worker.</t>
+          <t>Compare resource.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Set age huge guy.</t>
+          <t>Data economy floor.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>8574</v>
+        <v>7817</v>
       </c>
       <c r="N26" t="n">
-        <v>8342</v>
+        <v>7197</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Specific visit.</t>
+          <t>Power rather foot.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A****a M****n</t>
+          <t>A****s M*****a</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19/12/1928</t>
+          <t>13/03/1945</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Black Junction
-West Stanleyton, MH *</t>
+          <t>* Melvin Prairie
+Matthewberg, NM *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(012)-15167**10</t>
+          <t>(012)-05342**99</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2394,71 +2394,71 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>b*******5@example.com</t>
+          <t>j************m@example.net</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>M******d</t>
+          <t>N******k</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Large issue avoid.</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>But executive fall.</t>
+          <t>Any nor debate.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Ahead wear goal.</t>
+          <t>Character simply.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4258</v>
+        <v>3651</v>
       </c>
       <c r="N27" t="n">
-        <v>4612</v>
+        <v>2117</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>As wind own.</t>
+          <t>Detail claim power.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D****l M*******n</t>
+          <t>P*****k J*****s</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>2************2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30/09/1948</t>
+          <t>29/08/2003</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Harold Creek Suite *
-Melissaside, UT *</t>
+          <t>* Nancy Lakes
+West Coryfort, WA *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(012)-43579**46</t>
+          <t>(012)-83216**88</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2468,71 +2468,71 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>g********n@example.com</t>
+          <t>a*******n@example.com</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L*******a</t>
+          <t>M******i</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Against military.</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Pay executive.</t>
+          <t>Task outside form.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>With clearly.</t>
+          <t>Cold but democratic.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>4667</v>
+        <v>7154</v>
       </c>
       <c r="N28" t="n">
-        <v>7399</v>
+        <v>7122</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Long policy pattern.</t>
+          <t>Cover effect third.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>T****y S***h</t>
+          <t>R**n C***k</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4************6</t>
+          <t>0************7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16/08/2001</t>
+          <t>08/05/1981</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Potter Neck
-Lake Tinaberg, VI *</t>
+          <t>* Sanchez Greens Apt. *
+South Joshua, CO *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(012)-15156**79</t>
+          <t>(012)-92555**93</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2542,71 +2542,71 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>a***9@example.com</t>
+          <t>s*******a@example.net</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>W***********a</t>
+          <t>F*****a</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>This ten show.</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Office discover.</t>
+          <t>Day participant.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Stock region oil.</t>
+          <t>Red lawyer design.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2740</v>
+        <v>7316</v>
       </c>
       <c r="N29" t="n">
-        <v>4019</v>
+        <v>6819</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Big behind industry.</t>
+          <t>Artist large lose.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>N******s G****a</t>
+          <t>A***n G******h</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3************3</t>
+          <t>4************2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>04/06/1929</t>
+          <t>11/10/2004</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AA *</t>
+          <t>* Larry Vista
+Wolfbury, SC *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(012)-28715**13</t>
+          <t>(012)-15105**41</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2616,71 +2616,71 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>p*********e@example.com</t>
+          <t>m********e@example.org</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>C******o</t>
+          <t>M*******a</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Six anyone word.</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>100-100</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Card baby notice.</t>
+          <t>Reveal certain hair.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Win language.</t>
+          <t>School PM skill.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>9942</v>
+        <v>3660</v>
       </c>
       <c r="N30" t="n">
-        <v>2492</v>
+        <v>6907</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Sometimes door.</t>
+          <t>This others address.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S****y M******z</t>
+          <t>K******y R**s</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9************5</t>
+          <t>6************9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30/12/1930</t>
+          <t>04/02/1938</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Brooks Extensions
-Christopherstad, TN *</t>
+          <t>* Novak Plains
+Chaseberg, WY *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(012)-44150**42</t>
+          <t>(012)-46805**56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2690,43 +2690,43 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>m*************z@example.org</t>
+          <t>n*******2@example.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>I**a</t>
+          <t>V******a</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>If loss there most.</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hair fish this.</t>
+          <t>Improve list here.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Value bring remain.</t>
+          <t>Significant wall.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4626</v>
+        <v>7543</v>
       </c>
       <c r="N31" t="n">
-        <v>9384</v>
+        <v>3080</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Economy station.</t>
+          <t>Conference kid.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Religion</t>
+          <t>Agama</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C***l L***z</t>
+          <t>A*****n B******w</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3************6</t>
+          <t>6************1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>16/03/1958</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Garcia Lodge Suite *
-Morrowfort, MP *</t>
+          <t>* Eddie Summit Apt. *
+New Margaretmouth, WI *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(012)-75647**15</t>
+          <t>(012)-93631**39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,71 +544,71 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>g************e@example.com</t>
+          <t>r**********n@example.org</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>V******a</t>
+          <t>O**o</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Already list.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Act conference.</t>
+          <t>Congress poor part.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4211</v>
+        <v>7326</v>
       </c>
       <c r="N2" t="n">
-        <v>4549</v>
+        <v>1774</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Effort full just.</t>
+          <t>Have very finish.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V******a F****s D*M</t>
+          <t>M***n B****s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>6************0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04/12/1997</t>
+          <t>26/07/1960</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Lisa Spurs Suite *
-North David, AR *</t>
+          <t>* Brett Rue Suite *
+Port Tiffany, ND *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(012)-64663**44</t>
+          <t>(012)-89463**69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>w********n@example.com</t>
+          <t>p*****r@example.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>G*****a</t>
+          <t>M******d</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -633,56 +633,56 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Between many happen.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Similar animal.</t>
+          <t>Chair since quickly.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3622</v>
+        <v>5693</v>
       </c>
       <c r="N3" t="n">
-        <v>3444</v>
+        <v>4236</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Past never protect.</t>
+          <t>Prevent especially.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K*****h M*****e</t>
+          <t>K**a E*****t</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>6************0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18/03/1939</t>
+          <t>24/12/1972</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Mcknight Mountains
-Randolphshire, WV *</t>
+          <t>* Jimmy Knolls Apt. *
+North Alexandriaville, MH *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(012)-06745**56</t>
+          <t>(012)-24843**94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -692,12 +692,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s*********k@example.com</t>
+          <t>k*******5@example.org</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>I***o</t>
+          <t>L*******a</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -707,56 +707,56 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fill reason check.</t>
+          <t>Religion2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Deep several.</t>
+          <t>Network protect.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3585</v>
+        <v>2910</v>
       </c>
       <c r="N4" t="n">
-        <v>7860</v>
+        <v>8685</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Once process.</t>
+          <t>Dinner beat.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M*****l S******n</t>
+          <t>R*****d H****r</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>8************2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13/09/1958</t>
+          <t>22/02/1945</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Miller Walk Apt. *
-Ingramshire, SC *</t>
+          <t>PSC *, Box *
+APO AE *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(012)-86189**38</t>
+          <t>(012)-76962**97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -766,71 +766,71 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>b******n@example.com</t>
+          <t>j***********s@example.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L*******a</t>
+          <t>M******i</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Cut remember family.</t>
+          <t>Religion3</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Go station election.</t>
+          <t>Lawyer it almost.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2367</v>
+        <v>9407</v>
       </c>
       <c r="N5" t="n">
-        <v>2422</v>
+        <v>4381</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Cultural be while.</t>
+          <t>Go situation skin.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S***n M******z</t>
+          <t>L**i F******n</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>8************7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03/04/1950</t>
+          <t>30/12/1934</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Edwin Walk
-North Taraton, NM *</t>
+          <t>* Rodriguez Circle
+East Jesseland, KY *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(012)-50027**90</t>
+          <t>(012)-44628**12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -840,71 +840,71 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>d*********n@example.org</t>
+          <t>w********y@example.org</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>K******y</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bit land fast bad.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Argue special.</t>
+          <t>Story learn wish.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>9756</v>
+        <v>5000</v>
       </c>
       <c r="N6" t="n">
-        <v>2747</v>
+        <v>5847</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Everything.</t>
+          <t>Above scene.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M****n S**w</t>
+          <t>L***a P****e</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>6************5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>04/02/1962</t>
+          <t>20/01/1927</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Nguyen Knolls
-Ibarraville, OR *</t>
+          <t>* Baker Well
+New Samueltown, ME *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(012)-18921**50</t>
+          <t>(012)-98811**17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -914,71 +914,71 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>k**********a@example.org</t>
+          <t>j********y@example.net</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>I***o</t>
+          <t>N******k</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Indeed chance staff.</t>
+          <t>Religion2</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Off newspaper.</t>
+          <t>Gun always remain.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>9956</v>
+        <v>3768</v>
       </c>
       <c r="N7" t="n">
-        <v>7074</v>
+        <v>9354</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>South cause.</t>
+          <t>Region including.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J***s C****e</t>
+          <t>J****n H*****d</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5************7</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19/06/1965</t>
+          <t>30/10/2006</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Stafford Green Apt. *
-Kennedyborough, TX *</t>
+          <t>* Johnson Springs
+Lake Jessica, AK *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-49621**28</t>
+          <t>(012)-44210**40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -988,71 +988,71 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>g*********n@example.org</t>
+          <t>m*********r@example.org</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Move final most.</t>
+          <t>Religion4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Author owner face.</t>
+          <t>Nice against idea.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5332</v>
+        <v>5536</v>
       </c>
       <c r="N8" t="n">
-        <v>4091</v>
+        <v>9402</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Your player theory.</t>
+          <t>Ready admit husband.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B******y F*******z</t>
+          <t>R****a I****m</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>5************6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/08/1924</t>
+          <t>12/02/1976</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AA *</t>
+          <t>* Dorothy Manor
+Jessicaview, MA *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-32731**32</t>
+          <t>(012)-74601**52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>g*****n@example.com</t>
+          <t>t**********r@example.net</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P**********a</t>
+          <t>N******a</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1077,56 +1077,56 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mr fund television.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Remember above task.</t>
+          <t>Agreement think guy.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>6093</v>
+        <v>3654</v>
       </c>
       <c r="N9" t="n">
-        <v>3003</v>
+        <v>5524</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Plant on hospital.</t>
+          <t>Boy build fly among.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S****n D***s</t>
+          <t>G****e W***e</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0************7</t>
+          <t>6************0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07/01/1990</t>
+          <t>23/11/1974</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Santos Plaza Suite *
-Howardhaven, AR *</t>
+          <t>* Kimberly Trafficway
+Angelaport, HI *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(012)-21050**54</t>
+          <t>(012)-12946**74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1136,71 +1136,71 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>a***********a@example.org</t>
+          <t>e********r@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>S************a</t>
+          <t>N******a</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Itself school.</t>
+          <t>Religion2</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Single walk school.</t>
+          <t>Rise find think by.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>6638</v>
+        <v>3240</v>
       </c>
       <c r="N10" t="n">
-        <v>7736</v>
+        <v>4700</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Record body one.</t>
+          <t>Reach listen get.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D****l V*****n</t>
+          <t>S***e M******l</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>3************5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>05/12/1986</t>
+          <t>22/04/1941</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Christina Land
-Larsonville, WI *</t>
+          <t>* Brown Alley Suite *
+Ortizview, DC *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-60264**59</t>
+          <t>(012)-23443**62</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>k*******5@example.org</t>
+          <t>t*******o@example.org</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N************a</t>
+          <t>M******d</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1225,56 +1225,56 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>About report form.</t>
+          <t>Religion4</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Worker politics.</t>
+          <t>Science doctor.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>7827</v>
+        <v>8621</v>
       </c>
       <c r="N11" t="n">
-        <v>9591</v>
+        <v>7954</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Science reveal.</t>
+          <t>Risk near message.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J**l J****n</t>
+          <t>K*m B*****s</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>3************2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14/02/1926</t>
+          <t>30/03/1990</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Jeffrey View Suite *
-Andrewborough, KY *</t>
+          <t>* Jon Walks
+East Randyton, FM *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(012)-66365**11</t>
+          <t>(012)-56060**44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>d**********n@example.net</t>
+          <t>r*******6@example.com</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>W*******n</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1299,56 +1299,56 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>If cultural likely.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Property beautiful.</t>
+          <t>Single program.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>4085</v>
+        <v>8300</v>
       </c>
       <c r="N12" t="n">
-        <v>1859</v>
+        <v>4646</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Never loss night.</t>
+          <t>Let address enjoy.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L**a A***s</t>
+          <t>J****n M******z</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9************4</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10/02/1993</t>
+          <t>06/04/1980</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Marc Crest Apt. *
-Jenniferberg, AZ *</t>
+          <t>* Payne Flat Suite *
+Munozview, CT *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(012)-58913**97</t>
+          <t>(012)-64593**38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1358,71 +1358,71 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>p**************y@example.com</t>
+          <t>r********a@example.com</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>P**********a</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Suffer laugh.</t>
+          <t>Religion2</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Risk force concern.</t>
+          <t>Test federal help.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5366</v>
+        <v>5691</v>
       </c>
       <c r="N13" t="n">
-        <v>9740</v>
+        <v>3304</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>For room would old.</t>
+          <t>Measure value onto.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>L****e J****h</t>
+          <t>J**l T****r</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0************1</t>
+          <t>3************1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>25/11/1964</t>
+          <t>26/01/1943</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Joseph Extensions Suite *
-East Ruth, NY *</t>
+          <t>* Madeline Tunnel Apt. *
+North Jasonbury, PW *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(012)-42181**43</t>
+          <t>(012)-07816**02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>p*****n@example.org</t>
+          <t>j****n@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N********o</t>
+          <t>L*******a</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1447,56 +1447,56 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Movie along.</t>
+          <t>Religion4</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Air goal why test.</t>
+          <t>White hard the risk.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2381</v>
+        <v>2297</v>
       </c>
       <c r="N14" t="n">
-        <v>4616</v>
+        <v>5696</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Approach practice.</t>
+          <t>South still leave.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S****n O***z</t>
+          <t>J***e L*u</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9************4</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16/10/1952</t>
+          <t>26/12/1933</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Olivia Locks
-North Seantown, VT *</t>
+          <t>* Carter Cliffs Suite *
+New Michael, WV *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(012)-77992**81</t>
+          <t>(012)-37982**34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>l******y@example.net</t>
+          <t>d********z@example.com</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>M*******a</t>
+          <t>A****a</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1526,51 +1526,51 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Good present story.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Leader center hit.</t>
+          <t>Once help reality.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3852</v>
+        <v>4450</v>
       </c>
       <c r="N15" t="n">
-        <v>1074</v>
+        <v>9234</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Newspaper type.</t>
+          <t>Dream hand well.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E*******h R*******z</t>
+          <t>S***t B***n</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>05/08/1971</t>
+          <t>25/12/1966</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* *
-FPO AE *</t>
+          <t>* Hamilton Mission
+Lake Kristin, WI *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(012)-45926**15</t>
+          <t>(012)-57939**41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>a*************n@example.net</t>
+          <t>k***********n@example.net</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M*******a</t>
+          <t>N**********a</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1600,51 +1600,51 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Prevent trade.</t>
+          <t>Religion2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Situation address.</t>
+          <t>Debate matter.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>3025</v>
+        <v>2607</v>
       </c>
       <c r="N16" t="n">
-        <v>2259</v>
+        <v>2425</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Buy energy military.</t>
+          <t>Line imagine break.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A****a P****r</t>
+          <t>E*******h J*****n</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>8************9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>28/03/1934</t>
+          <t>20/04/1996</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Matthew Causeway
-Masonland, OH *</t>
+          <t>* Alyssa Camp Apt. *
+Dennisside, FL *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-97387**63</t>
+          <t>(012)-56220**93</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1654,71 +1654,71 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>m**********y@example.com</t>
+          <t>j*****************n@example.net</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>M*******a</t>
+          <t>N****a</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Get short why.</t>
+          <t>Religion4</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Return bill player.</t>
+          <t>Prevent of worker.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>8708</v>
+        <v>5328</v>
       </c>
       <c r="N17" t="n">
-        <v>1365</v>
+        <v>1052</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Tree stop idea plan.</t>
+          <t>Use citizen either.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>J***d L***s</t>
+          <t>J******r H****n</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>6************4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07/10/1967</t>
+          <t>10/07/1998</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Philip Garden
-Mitchellmouth, ID *</t>
+          <t>* Kevin Centers
+Port Jessicastad, WV *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(012)-07264**41</t>
+          <t>(012)-02343**54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>b********s@example.net</t>
+          <t>b************n@example.org</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N******a</t>
+          <t>U**h</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1748,51 +1748,51 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Stay form style.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Cold down service.</t>
+          <t>Discuss data all.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>8391</v>
+        <v>2689</v>
       </c>
       <c r="N18" t="n">
-        <v>3803</v>
+        <v>4453</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Coach natural.</t>
+          <t>Each successful.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>K*m C*****s **</t>
+          <t>C*****a L***z</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5************0</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>29/11/1954</t>
+          <t>13/05/2003</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Turner Corners Suite *
-Lake Jenniferstad, GU *</t>
+          <t>* Rivera Plain Apt. *
+New Jessicahaven, UT *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-17968**52</t>
+          <t>(012)-31947**22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1802,71 +1802,71 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>f*****y@example.net</t>
+          <t>r******9@example.org</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>D******e</t>
+          <t>N**********a</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Better letter white.</t>
+          <t>Religion2</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>World sister true.</t>
+          <t>History sister.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5371</v>
+        <v>2050</v>
       </c>
       <c r="N19" t="n">
-        <v>6816</v>
+        <v>8828</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Ask single rate.</t>
+          <t>Girl mind free good.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B******y M**s</t>
+          <t>J****a L***z</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3************8</t>
+          <t>7************5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09/08/1951</t>
+          <t>07/10/1973</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* *
-FPO AE *</t>
+          <t>* Brandon Shore Apt. *
+Tylerview, MA *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(012)-96384**69</t>
+          <t>(012)-34085**19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1876,71 +1876,71 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>n****s@example.org</t>
+          <t>a************d@example.org</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>M*******a</t>
+          <t>F*****a</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fund necessary ok.</t>
+          <t>Religion4</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Order fund sea.</t>
+          <t>Laugh despite.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>5376</v>
+        <v>7061</v>
       </c>
       <c r="N20" t="n">
-        <v>6479</v>
+        <v>8774</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Between design lose.</t>
+          <t>Stand indicate.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D**a M****r</t>
+          <t>J****a L***z</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6************9</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>29/08/1937</t>
+          <t>26/11/1952</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Taylor Extensions Suite *
-Lake Troyport, VA *</t>
+          <t>* Kevin Lodge Suite *
+North Kimberlyport, MA *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(012)-44655**84</t>
+          <t>(012)-39254**48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1950,17 +1950,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>y*****n@example.com</t>
+          <t>r***********n@example.org</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>V******a</t>
+          <t>C*********t</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1970,51 +1970,51 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Between listen.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Ask bag let none.</t>
+          <t>Fire contain both.</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>8311</v>
+        <v>4467</v>
       </c>
       <c r="N21" t="n">
-        <v>1255</v>
+        <v>1447</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>North community.</t>
+          <t>Ok include low.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A*****y M***e</t>
+          <t>T*****y Y***s</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>6************7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>30/03/1993</t>
+          <t>25/06/1982</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Zachary Mission Apt. *
-Thomasville, LA *</t>
+          <t>* Teresa Green
+Lake Paulmouth, NJ *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(012)-91385**23</t>
+          <t>(012)-95883**68</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2024,71 +2024,71 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>w****h@example.com</t>
+          <t>t**********n@example.org</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S**********a</t>
+          <t>C*********t</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>May either serve.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Until light agency.</t>
+          <t>Deal value forget.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>9276</v>
+        <v>6636</v>
       </c>
       <c r="N22" t="n">
-        <v>2258</v>
+        <v>3444</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Method range good.</t>
+          <t>Hand table hair.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R*****l G****a</t>
+          <t>M*****l T**n P*D</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3************4</t>
+          <t>9************2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21/04/1957</t>
+          <t>23/08/1990</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Davis Spur Suite *
-Porterport, IL *</t>
+          <t>* Lisa Shores
+South Monicaborough, WA *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(012)-31311**91</t>
+          <t>(012)-71810**41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2098,71 +2098,71 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>b************n@example.org</t>
+          <t>f****n@example.net</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>O****n</t>
+          <t>O******a</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Even chair certain.</t>
+          <t>Religion2</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Painting war likely.</t>
+          <t>Tell newspaper note.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>9152</v>
+        <v>5963</v>
       </c>
       <c r="N23" t="n">
-        <v>2537</v>
+        <v>1988</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Size person special.</t>
+          <t>Participant.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>L***s J*****n</t>
+          <t>J*****y Y***g</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3************3</t>
+          <t>5************4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21/05/1974</t>
+          <t>23/10/2004</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Lindsey Street
-Joseborough, NJ *</t>
+          <t>* Walters Coves
+Maldonadoborough, MP *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(012)-36884**91</t>
+          <t>(012)-22746**49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2172,71 +2172,71 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>j********e@example.org</t>
+          <t>s*****3@example.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>O**o</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Include upon.</t>
+          <t>Religion4</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Really worry tough.</t>
+          <t>Thing assume sure.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>9677</v>
+        <v>3740</v>
       </c>
       <c r="N24" t="n">
-        <v>4137</v>
+        <v>1489</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Part democratic.</t>
+          <t>Light prevent worry.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E**c W****n</t>
+          <t>S*****n B***s</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2************8</t>
+          <t>3************4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11/09/1974</t>
+          <t>28/11/1956</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Ingram Extensions
-Ericland, MT *</t>
+          <t>* Jody Mill Suite *
+Nicholsfurt, PW *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(012)-36296**48</t>
+          <t>(012)-91026**14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2246,17 +2246,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>e*****y@example.com</t>
+          <t>d***********n@example.org</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>M*********i</t>
+          <t>V******a</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2266,51 +2266,51 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Raise cultural.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Four movement north.</t>
+          <t>Care matter among.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>9728</v>
+        <v>9875</v>
       </c>
       <c r="N25" t="n">
-        <v>2072</v>
+        <v>7893</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Know position be.</t>
+          <t>Have something.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>J******r B****s</t>
+          <t>D****n G****m</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5************9</t>
+          <t>5************5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06/06/1934</t>
+          <t>04/04/1973</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Mary Greens Suite *
-Davisfort, ND *</t>
+          <t>* Young Turnpike
+New Carolineland, PW *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(012)-50614**21</t>
+          <t>(012)-97576**61</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2320,71 +2320,71 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>e*************d@example.net</t>
+          <t>b*************n@example.com</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>W********n</t>
+          <t>N******k</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Compare resource.</t>
+          <t>Religion2</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Data economy floor.</t>
+          <t>Window hundred soon.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>7817</v>
+        <v>4823</v>
       </c>
       <c r="N26" t="n">
-        <v>7197</v>
+        <v>2738</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Power rather foot.</t>
+          <t>Forward shoulder.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A****s M*****a</t>
+          <t>T****a C****y</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7************0</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13/03/1945</t>
+          <t>16/09/1969</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Melvin Prairie
-Matthewberg, NM *</t>
+          <t>* Matthew Park
+Lonnieport, AL *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(012)-05342**99</t>
+          <t>(012)-43208**57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2394,71 +2394,71 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>j************m@example.net</t>
+          <t>s*****1@example.com</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>N******k</t>
+          <t>W*****g</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Any nor debate.</t>
+          <t>Religion4</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Character simply.</t>
+          <t>Trade state source.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>3651</v>
+        <v>5355</v>
       </c>
       <c r="N27" t="n">
-        <v>2117</v>
+        <v>3580</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Detail claim power.</t>
+          <t>Unit entire.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P*****k J*****s</t>
+          <t>R***y W******s</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2************2</t>
+          <t>3************2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>29/08/2003</t>
+          <t>10/11/1969</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Nancy Lakes
-West Coryfort, WA *</t>
+          <t>* Jones Stream
+Billyfurt, NH *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(012)-83216**88</t>
+          <t>(012)-89707**56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2468,71 +2468,71 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>a*******n@example.com</t>
+          <t>i**x@example.net</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>M******i</t>
+          <t>C******o</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Task outside form.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Cold but democratic.</t>
+          <t>Idea sell summer.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>7154</v>
+        <v>8541</v>
       </c>
       <c r="N28" t="n">
-        <v>7122</v>
+        <v>3861</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Cover effect third.</t>
+          <t>Oil soldier student.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R**n C***k</t>
+          <t>T*****y C*****n</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0************7</t>
+          <t>9************9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08/05/1981</t>
+          <t>06/05/1952</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Sanchez Greens Apt. *
-South Joshua, CO *</t>
+          <t>* Katherine Spurs Suite *
+Bellbury, IA *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(012)-92555**93</t>
+          <t>(012)-49231**27</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2542,71 +2542,71 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>s*******a@example.net</t>
+          <t>r**************y@example.net</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>F*****a</t>
+          <t>K******y</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Day participant.</t>
+          <t>Religion2</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Red lawyer design.</t>
+          <t>Computer explain.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>7316</v>
+        <v>2290</v>
       </c>
       <c r="N29" t="n">
-        <v>6819</v>
+        <v>2165</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Artist large lose.</t>
+          <t>System government.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A***n G******h</t>
+          <t>S****n A*******r</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4************2</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11/10/2004</t>
+          <t>11/02/1948</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Larry Vista
-Wolfbury, SC *</t>
+          <t>* Osborn Mountain
+Smithview, AL *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(012)-15105**41</t>
+          <t>(012)-83418**63</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2616,71 +2616,71 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>m********e@example.org</t>
+          <t>p******y@example.org</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>M*******a</t>
+          <t>C******o</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Reveal certain hair.</t>
+          <t>Religion1</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>School PM skill.</t>
+          <t>Though stock garden.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>3660</v>
+        <v>7512</v>
       </c>
       <c r="N30" t="n">
-        <v>6907</v>
+        <v>1876</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>This others address.</t>
+          <t>Similar just always.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>K******y R**s</t>
+          <t>J**e C**b</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6************9</t>
+          <t>9************4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>04/02/1938</t>
+          <t>28/10/1989</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Novak Plains
-Chaseberg, WY *</t>
+          <t>* Karen Rapid
+Denniston, IL *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(012)-46805**56</t>
+          <t>(012)-50717**23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2690,43 +2690,43 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>n*******2@example.com</t>
+          <t>s****s@example.org</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>V******a</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Improve list here.</t>
+          <t>Religion4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Significant wall.</t>
+          <t>Lot full week crime.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>7543</v>
+        <v>3077</v>
       </c>
       <c r="N31" t="n">
-        <v>3080</v>
+        <v>7407</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Conference kid.</t>
+          <t>Smile cup room look.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -486,12 +486,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Agama</t>
+          <t>Religion</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Bangsa</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A*****n B******w</t>
+          <t>L**a R**h</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6************1</t>
+          <t>9************0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16/03/1958</t>
+          <t>11/12/1936</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Eddie Summit Apt. *
-New Margaretmouth, WI *</t>
+          <t>* Lewis Junctions Suite *
+West Grant, FM *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(012)-93631**39</t>
+          <t>(012)-80465**12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,12 +544,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>r**********n@example.org</t>
+          <t>l********r@example.net</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>O**o</t>
+          <t>M***e</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -569,46 +569,46 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Congress poor part.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7326</v>
+        <v>2724</v>
       </c>
       <c r="N2" t="n">
-        <v>1774</v>
+        <v>2255</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Have very finish.</t>
+          <t>Stock language.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M***n B****s</t>
+          <t>A*y B***n</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6************0</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26/07/1960</t>
+          <t>30/06/1928</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Brett Rue Suite *
-Port Tiffany, ND *</t>
+          <t>* Bryan Green
+Lake Jaredchester, PW *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(012)-89463**69</t>
+          <t>(012)-37794**80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,22 +618,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>p*****r@example.com</t>
+          <t>c**************s@example.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>M******d</t>
+          <t>N**********a</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -643,46 +643,46 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Chair since quickly.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5693</v>
+        <v>5981</v>
       </c>
       <c r="N3" t="n">
-        <v>4236</v>
+        <v>1937</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Prevent especially.</t>
+          <t>Admit door ground.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K**a E*****t</t>
+          <t>K*****n J*****n</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6************0</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24/12/1972</t>
+          <t>28/11/1935</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Jimmy Knolls Apt. *
-North Alexandriaville, MH *</t>
+          <t>* Kenneth Port
+Port Audrey, VA *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(012)-24843**94</t>
+          <t>(012)-19359**95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -692,22 +692,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>k*******5@example.org</t>
+          <t>e*******o@example.net</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L*******a</t>
+          <t>K******y</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -717,46 +717,46 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Network protect.</t>
+          <t>Race2</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2910</v>
+        <v>3315</v>
       </c>
       <c r="N4" t="n">
-        <v>8685</v>
+        <v>7409</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Dinner beat.</t>
+          <t>Traditional onto be.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R*****d H****r</t>
+          <t>C*********r R*******z</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8************2</t>
+          <t>6************0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22/02/1945</t>
+          <t>28/01/1993</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AE *</t>
+          <t>* Bishop Forges Apt. *
+Port Justinmouth, SD *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(012)-76962**97</t>
+          <t>(012)-18734**06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>j***********s@example.com</t>
+          <t>k**********n@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>M******i</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -791,46 +791,46 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Lawyer it almost.</t>
+          <t>Race3</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>9407</v>
+        <v>6929</v>
       </c>
       <c r="N5" t="n">
-        <v>4381</v>
+        <v>7905</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Go situation skin.</t>
+          <t>Indicate hear truth.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L**i F******n</t>
+          <t>S***h M******z</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8************7</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30/12/1934</t>
+          <t>12/04/1931</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Rodriguez Circle
-East Jesseland, KY *</t>
+          <t>* Tracy Place
+East Daniel, NV *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(012)-44628**12</t>
+          <t>(012)-19542**44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -840,22 +840,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>w********y@example.org</t>
+          <t>p*****z@example.net</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>K******y</t>
+          <t>T***s</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -865,46 +865,46 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Story learn wish.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>5000</v>
+        <v>8741</v>
       </c>
       <c r="N6" t="n">
-        <v>5847</v>
+        <v>3507</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Above scene.</t>
+          <t>Central career high.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L***a P****e</t>
+          <t>C****l J***s</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6************5</t>
+          <t>3************4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20/01/1927</t>
+          <t>14/09/1926</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Baker Well
-New Samueltown, ME *</t>
+          <t>* Becker Mountain Suite *
+Lake Michaelton, WA *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(012)-98811**17</t>
+          <t>(012)-84432**75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>j********y@example.net</t>
+          <t>l****n@example.com</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N******k</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -939,46 +939,46 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Gun always remain.</t>
+          <t>Race2</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3768</v>
+        <v>4900</v>
       </c>
       <c r="N7" t="n">
-        <v>9354</v>
+        <v>1510</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Region including.</t>
+          <t>Traditional us.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J****n H*****d</t>
+          <t>N****e L**y</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30/10/2006</t>
+          <t>24/08/1971</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Johnson Springs
-Lake Jessica, AK *</t>
+          <t>* Jeffrey Circles Suite *
+West Denise, MA *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-44210**40</t>
+          <t>(012)-30386**14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -988,22 +988,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>m*********r@example.org</t>
+          <t>d*****9@example.net</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>O******a</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1013,46 +1013,46 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Nice against idea.</t>
+          <t>Race3</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5536</v>
+        <v>3503</v>
       </c>
       <c r="N8" t="n">
-        <v>9402</v>
+        <v>3101</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Ready admit husband.</t>
+          <t>Church happy wide.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R****a I****m</t>
+          <t>J****a J*****n</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5************6</t>
+          <t>5************7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12/02/1976</t>
+          <t>23/09/1988</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Dorothy Manor
-Jessicaview, MA *</t>
+          <t>* Richard Hollow
+East Michael, OR *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-74601**52</t>
+          <t>(012)-48257**49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1062,22 +1062,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>t**********r@example.net</t>
+          <t>b****e@example.org</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N******a</t>
+          <t>O**o</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1087,46 +1087,46 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Agreement think guy.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3654</v>
+        <v>3316</v>
       </c>
       <c r="N9" t="n">
-        <v>5524</v>
+        <v>7352</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Boy build fly among.</t>
+          <t>Share very computer.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>G****e W***e</t>
+          <t>M*****a F*****n</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6************0</t>
+          <t>8************4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23/11/1974</t>
+          <t>02/07/1967</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Kimberly Trafficway
-Angelaport, HI *</t>
+          <t>* Debra Route
+South Amber, WY *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(012)-12946**74</t>
+          <t>(012)-92960**61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1136,22 +1136,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>e********r@example.com</t>
+          <t>j********h@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N******a</t>
+          <t>W***********a</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1161,46 +1161,46 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Rise find think by.</t>
+          <t>Race2</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3240</v>
+        <v>2012</v>
       </c>
       <c r="N10" t="n">
-        <v>4700</v>
+        <v>5408</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Reach listen get.</t>
+          <t>Office few yet.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S***e M******l</t>
+          <t>S****n C******l</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3************5</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22/04/1941</t>
+          <t>10/04/1975</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Brown Alley Suite *
-Ortizview, DC *</t>
+          <t>* Manning Junction Suite *
+Port Kimberlystad, HI *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-23443**62</t>
+          <t>(012)-26781**50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1210,22 +1210,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>t*******o@example.org</t>
+          <t>s******n@example.net</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>M******d</t>
+          <t>K****s</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1235,46 +1235,46 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Science doctor.</t>
+          <t>Race3</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>8621</v>
+        <v>3457</v>
       </c>
       <c r="N11" t="n">
-        <v>7954</v>
+        <v>9523</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Risk near message.</t>
+          <t>Politics mind.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>K*m B*****s</t>
+          <t>J****a B*****t</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3************2</t>
+          <t>3************0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/03/1990</t>
+          <t>29/08/1998</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Jon Walks
-East Randyton, FM *</t>
+          <t>* Edwards Skyway Suite *
+Lifort, GU *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(012)-56060**44</t>
+          <t>(012)-78150**41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1284,22 +1284,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>r*******6@example.com</t>
+          <t>z****h@example.org</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>W*******n</t>
+          <t>C*********t</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1309,46 +1309,46 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Single program.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>8300</v>
+        <v>7767</v>
       </c>
       <c r="N12" t="n">
-        <v>4646</v>
+        <v>4318</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Let address enjoy.</t>
+          <t>Model manager end.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>J****n M******z</t>
+          <t>R****t B***n</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0************6</t>
+          <t>3************6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06/04/1980</t>
+          <t>10/02/1947</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Payne Flat Suite *
-Munozview, CT *</t>
+          <t>* Moyer Greens Apt. *
+North Sue, AR *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(012)-64593**38</t>
+          <t>(012)-36125**82</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>r********a@example.com</t>
+          <t>p******n@example.net</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P**********a</t>
+          <t>M*********i</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1383,46 +1383,46 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Test federal help.</t>
+          <t>Race2</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5691</v>
+        <v>9579</v>
       </c>
       <c r="N13" t="n">
-        <v>3304</v>
+        <v>6577</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Measure value onto.</t>
+          <t>Knowledge never.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>J**l T****r</t>
+          <t>H*****r Y***s</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3************1</t>
+          <t>9************2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26/01/1943</t>
+          <t>05/12/1966</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Madeline Tunnel Apt. *
-North Jasonbury, PW *</t>
+          <t>* Aaron Road
+Andrealand, AS *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(012)-07816**02</t>
+          <t>(012)-80778**68</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1432,17 +1432,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>j****n@example.org</t>
+          <t>p****1@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L*******a</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1457,46 +1457,46 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>White hard the risk.</t>
+          <t>Race3</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2297</v>
+        <v>5463</v>
       </c>
       <c r="N14" t="n">
-        <v>5696</v>
+        <v>3568</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>South still leave.</t>
+          <t>Speech clearly.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>J***e L*u</t>
+          <t>A****y H****y</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>9************2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>26/12/1933</t>
+          <t>17/03/1972</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Carter Cliffs Suite *
-New Michael, WV *</t>
+          <t>* Diane Island
+South Brianview, TN *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(012)-37982**34</t>
+          <t>(012)-60039**26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>d********z@example.com</t>
+          <t>w*****t@example.org</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A****a</t>
+          <t>T***s</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1531,46 +1531,46 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Once help reality.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>4450</v>
+        <v>2023</v>
       </c>
       <c r="N15" t="n">
-        <v>9234</v>
+        <v>6582</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Dream hand well.</t>
+          <t>Security skill.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S***t B***n</t>
+          <t>R*****a S***h</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>2************0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>25/12/1966</t>
+          <t>25/04/1977</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Hamilton Mission
-Lake Kristin, WI *</t>
+          <t>PSC *, Box *
+APO AA *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(012)-57939**41</t>
+          <t>(012)-15256**83</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1580,22 +1580,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>k***********n@example.net</t>
+          <t>m********s@example.org</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N**********a</t>
+          <t>P**********a</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1605,46 +1605,46 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Debate matter.</t>
+          <t>Race2</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2607</v>
+        <v>6849</v>
       </c>
       <c r="N16" t="n">
-        <v>2425</v>
+        <v>2946</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Line imagine break.</t>
+          <t>Job which produce.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E*******h J*****n</t>
+          <t>B***n H****n</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8************9</t>
+          <t>8************3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20/04/1996</t>
+          <t>16/12/1992</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Alyssa Camp Apt. *
-Dennisside, FL *</t>
+          <t>* Flores Spur Suite *
+Woodstown, CT *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-56220**93</t>
+          <t>(012)-69314**51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>j*****************n@example.net</t>
+          <t>f*******z@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N****a</t>
+          <t>I******s</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1679,46 +1679,46 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Prevent of worker.</t>
+          <t>Race3</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5328</v>
+        <v>2644</v>
       </c>
       <c r="N17" t="n">
-        <v>1052</v>
+        <v>7338</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Use citizen either.</t>
+          <t>Common agreement.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>J******r H****n</t>
+          <t>M*****l D**n</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6************4</t>
+          <t>2************0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10/07/1998</t>
+          <t>13/04/1977</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Kevin Centers
-Port Jessicastad, WV *</t>
+          <t>Unit * Box *
+DPO AA *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(012)-02343**54</t>
+          <t>(012)-00382**52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1728,22 +1728,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>b************n@example.org</t>
+          <t>c*************o@example.org</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>U**h</t>
+          <t>C*********t</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1753,46 +1753,46 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Discuss data all.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2689</v>
+        <v>2955</v>
       </c>
       <c r="N18" t="n">
-        <v>4453</v>
+        <v>3461</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Each successful.</t>
+          <t>Region imagine.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C*****a L***z</t>
+          <t>T****s V**a</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>8************6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13/05/2003</t>
+          <t>13/08/1987</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Rivera Plain Apt. *
-New Jessicahaven, UT *</t>
+          <t>* Sherri Hill
+Port Amanda, DE *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-31947**22</t>
+          <t>(012)-11787**18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1802,17 +1802,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>r******9@example.org</t>
+          <t>r**************e@example.net</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N**********a</t>
+          <t>I**a</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1827,46 +1827,46 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>History sister.</t>
+          <t>Race2</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2050</v>
+        <v>4826</v>
       </c>
       <c r="N19" t="n">
-        <v>8828</v>
+        <v>5018</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Girl mind free good.</t>
+          <t>Course design.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>J****a L***z</t>
+          <t>P*****p F****h</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7************5</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07/10/1973</t>
+          <t>16/09/1971</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Brandon Shore Apt. *
-Tylerview, MA *</t>
+          <t>* Dean Overpass Suite *
+East Angela, MT *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(012)-34085**19</t>
+          <t>(012)-91639**81</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1876,22 +1876,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>a************d@example.org</t>
+          <t>h*********l@example.net</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>F*****a</t>
+          <t>M*******a</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1901,46 +1901,46 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Laugh despite.</t>
+          <t>Race3</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>7061</v>
+        <v>6922</v>
       </c>
       <c r="N20" t="n">
-        <v>8774</v>
+        <v>9849</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Stand indicate.</t>
+          <t>Sometimes first.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>J****a L***z</t>
+          <t>T***y M******l</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>6************5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>26/11/1952</t>
+          <t>14/11/1993</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Kevin Lodge Suite *
-North Kimberlyport, MA *</t>
+          <t>* Eddie Land
+New Ronald, IL *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(012)-39254**48</t>
+          <t>(012)-38054**54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1950,22 +1950,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>r***********n@example.org</t>
+          <t>l******0@example.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>C*********t</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1975,46 +1975,46 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Fire contain both.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4467</v>
+        <v>9951</v>
       </c>
       <c r="N21" t="n">
-        <v>1447</v>
+        <v>1748</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Ok include low.</t>
+          <t>Letter have issue.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>T*****y Y***s</t>
+          <t>R****e L***s</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6************7</t>
+          <t>6************2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>25/06/1982</t>
+          <t>17/11/1996</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Teresa Green
-Lake Paulmouth, NJ *</t>
+          <t>* Hanson Squares Suite *
+Marshallview, IA *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(012)-95883**68</t>
+          <t>(012)-86149**96</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2024,22 +2024,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>t**********n@example.org</t>
+          <t>s*****e@example.com</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>C*********t</t>
+          <t>H****i</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2049,46 +2049,46 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Deal value forget.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>6636</v>
+        <v>2805</v>
       </c>
       <c r="N22" t="n">
-        <v>3444</v>
+        <v>1211</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Hand table hair.</t>
+          <t>Wonder today look.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>M*****l T**n P*D</t>
+          <t>R****a W******s</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9************2</t>
+          <t>8************3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>23/08/1990</t>
+          <t>25/03/1935</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Lisa Shores
-South Monicaborough, WA *</t>
+          <t>* Harris Glens Apt. *
+Lake Tammy, AL *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(012)-71810**41</t>
+          <t>(012)-14649**28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2098,22 +2098,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>f****n@example.net</t>
+          <t>d***********n@example.com</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>O******a</t>
+          <t>N******a</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>18-19</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2123,46 +2123,46 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Tell newspaper note.</t>
+          <t>Race2</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5963</v>
+        <v>2747</v>
       </c>
       <c r="N23" t="n">
-        <v>1988</v>
+        <v>4449</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Participant.</t>
+          <t>Security message.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>J*****y Y***g</t>
+          <t>C*****n J***s</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5************4</t>
+          <t>7************3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23/10/2004</t>
+          <t>21/08/1942</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Walters Coves
-Maldonadoborough, MP *</t>
+          <t>* Matthew Turnpike
+Rodriguezfurt, RI *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(012)-22746**49</t>
+          <t>(012)-70573**39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>s*****3@example.com</t>
+          <t>d******0@example.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>O**o</t>
+          <t>M******i</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2197,46 +2197,46 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Thing assume sure.</t>
+          <t>Race3</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3740</v>
+        <v>2893</v>
       </c>
       <c r="N24" t="n">
-        <v>1489</v>
+        <v>9736</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Light prevent worry.</t>
+          <t>Clearly four.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S*****n B***s</t>
+          <t>M****y V*****t</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3************4</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>28/11/1956</t>
+          <t>29/03/1995</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Jody Mill Suite *
-Nicholsfurt, PW *</t>
+          <t>* Walker Camp
+Jamesville, UT *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(012)-91026**14</t>
+          <t>(012)-41798**92</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2246,17 +2246,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>d***********n@example.org</t>
+          <t>g***********l@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>V******a</t>
+          <t>M*********i</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2271,46 +2271,46 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Care matter among.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>9875</v>
+        <v>7616</v>
       </c>
       <c r="N25" t="n">
-        <v>7893</v>
+        <v>5998</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Have something.</t>
+          <t>Put glass improve.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D****n G****m</t>
+          <t>M**k H**l J*.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5************5</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>04/04/1973</t>
+          <t>25/12/1955</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Young Turnpike
-New Carolineland, PW *</t>
+          <t>* Shawn Mission
+North Shannon, MN *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(012)-97576**61</t>
+          <t>(012)-77210**05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2320,22 +2320,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>b*************n@example.com</t>
+          <t>j********n@example.org</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>N******k</t>
+          <t>M******i</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2345,46 +2345,46 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Window hundred soon.</t>
+          <t>Race2</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>4823</v>
+        <v>4979</v>
       </c>
       <c r="N26" t="n">
-        <v>2738</v>
+        <v>7456</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Forward shoulder.</t>
+          <t>Know ask many.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>T****a C****y</t>
+          <t>B*****y S***h J*.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>3************0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16/09/1969</t>
+          <t>05/08/1983</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Matthew Park
-Lonnieport, AL *</t>
+          <t>* Anna Hill Apt. *
+North James, MH *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(012)-43208**57</t>
+          <t>(012)-18885**44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2394,22 +2394,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>s*****1@example.com</t>
+          <t>h***********a@example.org</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>W*****g</t>
+          <t>N****a</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2419,46 +2419,46 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Trade state source.</t>
+          <t>Race3</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>5355</v>
+        <v>4559</v>
       </c>
       <c r="N27" t="n">
-        <v>3580</v>
+        <v>8905</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Unit entire.</t>
+          <t>Affect half edge as.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R***y W******s</t>
+          <t>J******r O**n</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3************2</t>
+          <t>9************0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10/11/1969</t>
+          <t>27/12/1983</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Jones Stream
-Billyfurt, NH *</t>
+          <t>* Richardson Inlet
+South Ronaldton, IL *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(012)-89707**56</t>
+          <t>(012)-58789**24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2468,22 +2468,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>i**x@example.net</t>
+          <t>j********4@example.com</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>C******o</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2493,46 +2493,46 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Idea sell summer.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>8541</v>
+        <v>6475</v>
       </c>
       <c r="N28" t="n">
-        <v>3861</v>
+        <v>9585</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Oil soldier student.</t>
+          <t>Nation white share.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>T*****y C*****n</t>
+          <t>R**n W******s</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9************9</t>
+          <t>8************4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06/05/1952</t>
+          <t>23/02/1973</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Katherine Spurs Suite *
-Bellbury, IA *</t>
+          <t>* Strickland Common
+East Brian, AK *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(012)-49231**27</t>
+          <t>(012)-50308**27</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2542,22 +2542,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>r**************y@example.net</t>
+          <t>f******n@example.com</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>K******y</t>
+          <t>N**********a</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2567,46 +2567,46 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Computer explain.</t>
+          <t>Race2</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2290</v>
+        <v>7735</v>
       </c>
       <c r="N29" t="n">
-        <v>2165</v>
+        <v>1494</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>System government.</t>
+          <t>Down base food wife.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S****n A*******r</t>
+          <t>A*******r B***n</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11/02/1948</t>
+          <t>14/12/1938</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Osborn Mountain
-Smithview, AL *</t>
+          <t>* Garcia Point
+East Amandatown, PA *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(012)-83418**63</t>
+          <t>(012)-95653**69</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2616,22 +2616,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>p******y@example.org</t>
+          <t>k*****n@example.org</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>C******o</t>
+          <t>N**********a</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2641,46 +2641,46 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Though stock garden.</t>
+          <t>Race1</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>7512</v>
+        <v>8591</v>
       </c>
       <c r="N30" t="n">
-        <v>1876</v>
+        <v>5820</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Similar just always.</t>
+          <t>Happen record next.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>J**e C**b</t>
+          <t>D*****h H*****d</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9************4</t>
+          <t>4************2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28/10/1989</t>
+          <t>19/02/1983</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Karen Rapid
-Denniston, IL *</t>
+          <t>* Gail Plains Apt. *
+North David, WA *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(012)-50717**23</t>
+          <t>(012)-81361**07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2690,22 +2690,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>s****s@example.org</t>
+          <t>l*******x@example.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>M*******a</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2715,18 +2715,18 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Lot full week crime.</t>
+          <t>Race3</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>3077</v>
+        <v>7917</v>
       </c>
       <c r="N31" t="n">
-        <v>7407</v>
+        <v>8194</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Smile cup room look.</t>
+          <t>Avoid mother.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Bangsa</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>L**a R**h</t>
+          <t>E***y W******s</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>9************4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11/12/1936</t>
+          <t>06/08/1927</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Lewis Junctions Suite *
-West Grant, FM *</t>
+          <t>* Anna Ridges Suite *
+Sparksbury, VI *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(012)-80465**12</t>
+          <t>(012)-03875**37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>l********r@example.net</t>
+          <t>g***********e@example.net</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>M***e</t>
+          <t>C******o</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -573,42 +573,42 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2724</v>
+        <v>3478</v>
       </c>
       <c r="N2" t="n">
-        <v>2255</v>
+        <v>2750</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Stock language.</t>
+          <t>Computer affect.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A*y B***n</t>
+          <t>R****t J*****n</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>5************6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30/06/1928</t>
+          <t>13/04/1933</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Bryan Green
-Lake Jaredchester, PW *</t>
+          <t>* Rodney Cape
+Joshuaview, VT *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(012)-37794**80</t>
+          <t>(012)-70823**37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,22 +618,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>c**************s@example.com</t>
+          <t>t***********y@example.org</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N**********a</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -647,42 +647,42 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5981</v>
+        <v>9675</v>
       </c>
       <c r="N3" t="n">
-        <v>1937</v>
+        <v>3257</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Admit door ground.</t>
+          <t>Style offer history.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K*****n J*****n</t>
+          <t>M******e N****n</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>8************9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>28/11/1935</t>
+          <t>18/01/1927</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Kenneth Port
-Port Audrey, VA *</t>
+          <t>* Tracy Prairie
+Pamelaland, IA *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(012)-19359**95</t>
+          <t>(012)-69728**32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -692,22 +692,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>e*******o@example.net</t>
+          <t>m**************l@example.net</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>K******y</t>
+          <t>N***********e</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -721,42 +721,42 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3315</v>
+        <v>9254</v>
       </c>
       <c r="N4" t="n">
-        <v>7409</v>
+        <v>7602</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Traditional onto be.</t>
+          <t>No staff fire order.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C*********r R*******z</t>
+          <t>K******y D****n</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6************0</t>
+          <t>2************2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28/01/1993</t>
+          <t>30/04/1965</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Bishop Forges Apt. *
-Port Justinmouth, SD *</t>
+          <t>* Carter Key
+New Lori, SD *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(012)-18734**06</t>
+          <t>(012)-82235**55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>k**********n@example.net</t>
+          <t>q******d@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>T*******e</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -795,42 +795,42 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6929</v>
+        <v>3311</v>
       </c>
       <c r="N5" t="n">
-        <v>7905</v>
+        <v>5492</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Indicate hear truth.</t>
+          <t>Follow research Mrs.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S***h M******z</t>
+          <t>M*****l K****y</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>6************7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12/04/1931</t>
+          <t>15/11/1956</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Tracy Place
-East Daniel, NV *</t>
+          <t>* Karen Cape
+Masonshire, AL *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(012)-19542**44</t>
+          <t>(012)-93628**91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -840,22 +840,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>p*****z@example.net</t>
+          <t>e*****2@example.org</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>T***s</t>
+          <t>D******e</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -869,42 +869,42 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>8741</v>
+        <v>6029</v>
       </c>
       <c r="N6" t="n">
-        <v>3507</v>
+        <v>8902</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Central career high.</t>
+          <t>Throw ok strong.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C****l J***s</t>
+          <t>E**n C******o</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3************4</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14/09/1926</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Becker Mountain Suite *
-Lake Michaelton, WA *</t>
+          <t>* Owens Glen
+New Nicolechester, SC *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(012)-84432**75</t>
+          <t>(012)-55148**67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -914,22 +914,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>l****n@example.com</t>
+          <t>c************g@example.org</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -943,42 +943,42 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4900</v>
+        <v>2395</v>
       </c>
       <c r="N7" t="n">
-        <v>1510</v>
+        <v>6642</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Traditional us.</t>
+          <t>Owner thing manager.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N****e L**y</t>
+          <t>D***d B****r</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24/08/1971</t>
+          <t>07/05/1945</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Jeffrey Circles Suite *
-West Denise, MA *</t>
+          <t>* Shirley Plains
+West Kelsey, SC *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-30386**14</t>
+          <t>(012)-68473**14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -988,22 +988,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>d*****9@example.net</t>
+          <t>b**********y@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>O******a</t>
+          <t>C********a</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1017,42 +1017,42 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>3503</v>
+        <v>2305</v>
       </c>
       <c r="N8" t="n">
-        <v>3101</v>
+        <v>4221</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Church happy wide.</t>
+          <t>Movement born bad.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J****a J*****n</t>
+          <t>J****h W*******n</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5************7</t>
+          <t>0************1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23/09/1988</t>
+          <t>24/09/1953</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Richard Hollow
-East Michael, OR *</t>
+          <t>* Allen Ferry
+East Keithport, DE *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-48257**49</t>
+          <t>(012)-92704**04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1062,22 +1062,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>b****e@example.org</t>
+          <t>j************n@example.org</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>O**o</t>
+          <t>O****n</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1091,42 +1091,42 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3316</v>
+        <v>3648</v>
       </c>
       <c r="N9" t="n">
-        <v>7352</v>
+        <v>9785</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Share very computer.</t>
+          <t>Others right finish.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M*****a F*****n</t>
+          <t>A****a T****r</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8************4</t>
+          <t>2************7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>02/07/1967</t>
+          <t>10/01/1964</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Debra Route
-South Amber, WY *</t>
+          <t>PSC *, Box *
+APO AA *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(012)-92960**61</t>
+          <t>(012)-47971**54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1136,22 +1136,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>j********h@example.com</t>
+          <t>j*********s@example.net</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>W***********a</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>18-19</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1165,42 +1165,42 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2012</v>
+        <v>7980</v>
       </c>
       <c r="N10" t="n">
-        <v>5408</v>
+        <v>2378</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Office few yet.</t>
+          <t>Face game wife long.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S****n C******l</t>
+          <t>T***y D***s</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>0************0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10/04/1975</t>
+          <t>02/10/1969</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Manning Junction Suite *
-Port Kimberlystad, HI *</t>
+          <t>PSC *, Box *
+APO AA *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-26781**50</t>
+          <t>(012)-09447**29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1210,22 +1210,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>s******n@example.net</t>
+          <t>b********9@example.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>K****s</t>
+          <t>R**********d</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1239,42 +1239,42 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3457</v>
+        <v>7892</v>
       </c>
       <c r="N11" t="n">
-        <v>9523</v>
+        <v>1775</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Politics mind.</t>
+          <t>Seat us analysis ok.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J****a B*****t</t>
+          <t>T*****y T****r</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3************0</t>
+          <t>9************2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/08/1998</t>
+          <t>05/07/1977</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Edwards Skyway Suite *
-Lifort, GU *</t>
+          <t>* Martinez Plains
+Thomasborough, VA *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(012)-78150**41</t>
+          <t>(012)-15928**01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>z****h@example.org</t>
+          <t>w******n@example.net</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>C*********t</t>
+          <t>T***s</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,42 +1313,42 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>7767</v>
+        <v>5328</v>
       </c>
       <c r="N12" t="n">
-        <v>4318</v>
+        <v>3102</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Model manager end.</t>
+          <t>Well day home move.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R****t B***n</t>
+          <t>L**a H*****a</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3************6</t>
+          <t>7************1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10/02/1947</t>
+          <t>09/12/1991</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Moyer Greens Apt. *
-North Sue, AR *</t>
+          <t>* Donna Light Suite *
+Christinetown, OK *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(012)-36125**82</t>
+          <t>(012)-20543**66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>p******n@example.net</t>
+          <t>x*******n@example.org</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>M*********i</t>
+          <t>C******o</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1387,42 +1387,42 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>9579</v>
+        <v>8591</v>
       </c>
       <c r="N13" t="n">
-        <v>6577</v>
+        <v>4563</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Knowledge never.</t>
+          <t>Step happy.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>H*****r Y***s</t>
+          <t>R***n V***z</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9************2</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>05/12/1966</t>
+          <t>30/05/1988</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Aaron Road
-Andrealand, AS *</t>
+          <t>Unit * Box *
+DPO AA *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(012)-80778**68</t>
+          <t>(012)-11692**02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1432,22 +1432,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>p****1@example.org</t>
+          <t>r******3@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>D******e</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1461,42 +1461,42 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5463</v>
+        <v>4190</v>
       </c>
       <c r="N14" t="n">
-        <v>3568</v>
+        <v>9189</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Speech clearly.</t>
+          <t>Ahead one party.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A****y H****y</t>
+          <t>L***y W******s</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9************2</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17/03/1972</t>
+          <t>19/07/1953</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Diane Island
-South Brianview, TN *</t>
+          <t>* Laura Mountains Apt. *
+Pattersonview, MA *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(012)-60039**26</t>
+          <t>(012)-20623**08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>w*****t@example.org</t>
+          <t>g*************n@example.net</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>T***s</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1535,42 +1535,42 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2023</v>
+        <v>5612</v>
       </c>
       <c r="N15" t="n">
-        <v>6582</v>
+        <v>4787</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Security skill.</t>
+          <t>Hold both defense.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R*****a S***h</t>
+          <t>M******e F*x</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2************0</t>
+          <t>5************3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>25/04/1977</t>
+          <t>11/01/1930</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AA *</t>
+          <t>* Maxwell Brooks Apt. *
+Timbury, UT *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(012)-15256**83</t>
+          <t>(012)-75340**01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1580,22 +1580,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>m********s@example.org</t>
+          <t>w***********l@example.org</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P**********a</t>
+          <t>S**********a</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1609,42 +1609,42 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6849</v>
+        <v>6665</v>
       </c>
       <c r="N16" t="n">
-        <v>2946</v>
+        <v>4712</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Job which produce.</t>
+          <t>Mr draw democratic.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B***n H****n</t>
+          <t>K******n B****s</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8************3</t>
+          <t>3************7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16/12/1992</t>
+          <t>11/09/1960</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Flores Spur Suite *
-Woodstown, CT *</t>
+          <t>* Cruz Fords Apt. *
+West Stephaniemouth, NH *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-69314**51</t>
+          <t>(012)-93195**17</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1654,17 +1654,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>f*******z@example.com</t>
+          <t>q******n@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>I******s</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1683,42 +1683,42 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2644</v>
+        <v>4274</v>
       </c>
       <c r="N17" t="n">
-        <v>7338</v>
+        <v>3776</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Common agreement.</t>
+          <t>Professor.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M*****l D**n</t>
+          <t>M******e D***s</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2************0</t>
+          <t>7************3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13/04/1977</t>
+          <t>17/11/2000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AA *</t>
+          <t>* Steve Dale Apt. *
+Port Joshua, TX *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(012)-00382**52</t>
+          <t>(012)-15972**45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1728,22 +1728,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>c*************o@example.org</t>
+          <t>b*************s@example.com</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>C*********t</t>
+          <t>N***********e</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1757,42 +1757,42 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2955</v>
+        <v>6359</v>
       </c>
       <c r="N18" t="n">
-        <v>3461</v>
+        <v>9057</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Region imagine.</t>
+          <t>Note process second.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T****s V**a</t>
+          <t>M*****a L***h</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8************6</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13/08/1987</t>
+          <t>17/07/1980</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Sherri Hill
-Port Amanda, DE *</t>
+          <t>* Johnson Trail Apt. *
+Adamhaven, TX *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-11787**18</t>
+          <t>(012)-77735**48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1802,22 +1802,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>r**************e@example.net</t>
+          <t>s*****4@example.com</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>I**a</t>
+          <t>U**h</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1831,42 +1831,42 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>4826</v>
+        <v>7956</v>
       </c>
       <c r="N19" t="n">
-        <v>5018</v>
+        <v>1721</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Course design.</t>
+          <t>Because try perhaps.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P*****p F****h</t>
+          <t>S***t D***s</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>3************2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16/09/1971</t>
+          <t>16/08/1934</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Dean Overpass Suite *
-East Angela, MT *</t>
+          <t>* Micheal Cape
+Grahamchester, FM *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(012)-91639**81</t>
+          <t>(012)-67885**13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>h*********l@example.net</t>
+          <t>s*********y@example.net</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1905,42 +1905,42 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>6922</v>
+        <v>6480</v>
       </c>
       <c r="N20" t="n">
-        <v>9849</v>
+        <v>3976</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Sometimes first.</t>
+          <t>Join interest hair.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>T***y M******l</t>
+          <t>S***t R****s</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6************5</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14/11/1993</t>
+          <t>27/05/1959</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Eddie Land
-New Ronald, IL *</t>
+          <t>* Scott Estates
+Jaychester, IA *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(012)-38054**54</t>
+          <t>(012)-77278**49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1950,22 +1950,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>l******0@example.com</t>
+          <t>t***********n@example.net</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>D******e</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1979,42 +1979,42 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>9951</v>
+        <v>9523</v>
       </c>
       <c r="N21" t="n">
-        <v>1748</v>
+        <v>7654</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Letter have issue.</t>
+          <t>However age.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R****e L***s</t>
+          <t>J*y C*******s</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6************2</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17/11/1996</t>
+          <t>18/06/1931</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Hanson Squares Suite *
-Marshallview, IA *</t>
+          <t>* *
+FPO AP *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(012)-86149**96</t>
+          <t>(012)-32071**47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2024,22 +2024,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>s*****e@example.com</t>
+          <t>a******6@example.com</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>H****i</t>
+          <t>N***********e</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2053,42 +2053,42 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2805</v>
+        <v>2713</v>
       </c>
       <c r="N22" t="n">
-        <v>1211</v>
+        <v>2781</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Wonder today look.</t>
+          <t>Her today manage.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R****a W******s</t>
+          <t>W*****m B****n</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8************3</t>
+          <t>2************9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>25/03/1935</t>
+          <t>22/07/1937</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Harris Glens Apt. *
-Lake Tammy, AL *</t>
+          <t>* Sawyer Squares
+Fisherburgh, SD *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(012)-14649**28</t>
+          <t>(012)-08318**88</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2098,22 +2098,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>d***********n@example.com</t>
+          <t>m********e@example.net</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N******a</t>
+          <t>N************a</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2127,42 +2127,42 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2747</v>
+        <v>7740</v>
       </c>
       <c r="N23" t="n">
-        <v>4449</v>
+        <v>6538</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Security message.</t>
+          <t>Group cause very.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C*****n J***s</t>
+          <t>D***a M******l</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7************3</t>
+          <t>2************8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21/08/1942</t>
+          <t>06/11/1930</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Matthew Turnpike
-Rodriguezfurt, RI *</t>
+          <t>* Nelson Stravenue Apt. *
+North Kyle, WV *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(012)-70573**39</t>
+          <t>(012)-14567**92</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>d******0@example.com</t>
+          <t>s********s@example.org</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>M******i</t>
+          <t>O**o</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2201,42 +2201,42 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2893</v>
+        <v>5732</v>
       </c>
       <c r="N24" t="n">
-        <v>9736</v>
+        <v>3279</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Clearly four.</t>
+          <t>Seem together.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>M****y V*****t</t>
+          <t>K*******e S*****n</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>29/03/1995</t>
+          <t>13/03/1954</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Walker Camp
-Jamesville, UT *</t>
+          <t>* Lynch Villages
+Rodgersstad, OH *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(012)-41798**92</t>
+          <t>(012)-90726**54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2246,22 +2246,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>g***********l@example.com</t>
+          <t>g*******s@example.net</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>M*********i</t>
+          <t>T***s</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2275,42 +2275,42 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>7616</v>
+        <v>2400</v>
       </c>
       <c r="N25" t="n">
-        <v>5998</v>
+        <v>9237</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Put glass improve.</t>
+          <t>Ability know side.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M**k H**l J*.</t>
+          <t>S***n H***s</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>9************0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25/12/1955</t>
+          <t>20/06/1944</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Shawn Mission
-North Shannon, MN *</t>
+          <t>* Jack Roads Apt. *
+North Peter, NY *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(012)-77210**05</t>
+          <t>(012)-42145**11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2320,17 +2320,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>j********n@example.org</t>
+          <t>n*********6@example.org</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>M******i</t>
+          <t>I******s</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2349,42 +2349,42 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>4979</v>
+        <v>6021</v>
       </c>
       <c r="N26" t="n">
-        <v>7456</v>
+        <v>6346</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Know ask many.</t>
+          <t>Improve success up.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B*****y S***h J*.</t>
+          <t>M*****l M****y</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3************0</t>
+          <t>9************5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>05/08/1983</t>
+          <t>27/09/1931</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Anna Hill Apt. *
-North James, MH *</t>
+          <t>* Burke Forks Suite *
+Esparzaberg, CT *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(012)-18885**44</t>
+          <t>(012)-57756**55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2394,22 +2394,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>h***********a@example.org</t>
+          <t>b********a@example.org</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>N****a</t>
+          <t>T***s</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2423,42 +2423,42 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4559</v>
+        <v>5829</v>
       </c>
       <c r="N27" t="n">
-        <v>8905</v>
+        <v>7482</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Affect half edge as.</t>
+          <t>Attention poor.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>J******r O**n</t>
+          <t>N****n S*****s</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27/12/1983</t>
+          <t>15/07/1930</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Richardson Inlet
-South Ronaldton, IL *</t>
+          <t>* Spencer Turnpike Suite *
+Andrewbury, PA *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(012)-58789**24</t>
+          <t>(012)-42909**68</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2468,22 +2468,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>j********4@example.com</t>
+          <t>n******y@example.org</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>G*****a</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2497,42 +2497,42 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>6475</v>
+        <v>2870</v>
       </c>
       <c r="N28" t="n">
-        <v>9585</v>
+        <v>7452</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Nation white share.</t>
+          <t>Watch at film.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R**n W******s</t>
+          <t>J***s P****r</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8************4</t>
+          <t>7************2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23/02/1973</t>
+          <t>20/12/1981</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Strickland Common
-East Brian, AK *</t>
+          <t>* Griffin Drive
+Lake Lisa, MP *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(012)-50308**27</t>
+          <t>(012)-45052**46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2542,22 +2542,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>f******n@example.com</t>
+          <t>z****n@example.com</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>N**********a</t>
+          <t>O****n</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2571,42 +2571,42 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>7735</v>
+        <v>6933</v>
       </c>
       <c r="N29" t="n">
-        <v>1494</v>
+        <v>4558</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Down base food wife.</t>
+          <t>Risk create because.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A*******r B***n</t>
+          <t>K**e F***y</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9************3</t>
+          <t>5************0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14/12/1938</t>
+          <t>15/03/1976</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Garcia Point
-East Amandatown, PA *</t>
+          <t>* Elizabeth Motorway Apt. *
+Alexfort, ND *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(012)-95653**69</t>
+          <t>(012)-85702**70</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2616,22 +2616,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>k*****n@example.org</t>
+          <t>n******1@example.net</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>N**********a</t>
+          <t>W*******n</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2645,42 +2645,42 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>8591</v>
+        <v>7994</v>
       </c>
       <c r="N30" t="n">
-        <v>5820</v>
+        <v>9121</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Happen record next.</t>
+          <t>Ready information.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D*****h H*****d</t>
+          <t>S****n W****t</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4************2</t>
+          <t>7************6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19/02/1983</t>
+          <t>14/05/1996</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Gail Plains Apt. *
-North David, WA *</t>
+          <t>* Keith Junctions Suite *
+West Susanland, MN *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(012)-81361**07</t>
+          <t>(012)-93335**13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2690,12 +2690,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>l*******x@example.com</t>
+          <t>k*****5@example.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>M*******a</t>
+          <t>C******o</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>100-100</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2719,14 +2719,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>7917</v>
+        <v>9726</v>
       </c>
       <c r="N31" t="n">
-        <v>8194</v>
+        <v>9540</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Avoid mother.</t>
+          <t>View conference by.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E***y W******s</t>
+          <t>S****y Y***g</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9************4</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06/08/1927</t>
+          <t>09/01/1974</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Anna Ridges Suite *
-Sparksbury, VI *</t>
+          <t>* Dickerson Lock
+Port Joseph, HI *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(012)-03875**37</t>
+          <t>(017)-*****83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>g***********e@example.net</t>
+          <t>p************n@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>C******o</t>
+          <t>T***s</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -573,42 +573,42 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3478</v>
+        <v>2635</v>
       </c>
       <c r="N2" t="n">
-        <v>2750</v>
+        <v>7730</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Computer affect.</t>
+          <t>View before wish.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R****t J*****n</t>
+          <t>J****n P*****k D*S</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5************6</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13/04/1933</t>
+          <t>07/09/1978</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Rodney Cape
-Joshuaview, VT *</t>
+          <t>* Patricia Common Suite *
+New Janetview, ID *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(012)-70823**37</t>
+          <t>(011)-*****06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,22 +618,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>t***********y@example.org</t>
+          <t>j*********a@example.org</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>V*****t</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -647,42 +647,42 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9675</v>
+        <v>4999</v>
       </c>
       <c r="N3" t="n">
-        <v>3257</v>
+        <v>2080</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Style offer history.</t>
+          <t>Turn eye bad.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M******e N****n</t>
+          <t>N****e V********a</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8************9</t>
+          <t>8************6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18/01/1927</t>
+          <t>30/07/1947</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Tracy Prairie
-Pamelaland, IA *</t>
+          <t>* Michael Shoals Apt. *
+West Kenneth, VI *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(012)-69728**32</t>
+          <t>(016)-*****36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -692,12 +692,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>m**************l@example.net</t>
+          <t>o******n@example.org</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N***********e</t>
+          <t>C*********t</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -721,42 +721,42 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>9254</v>
+        <v>9443</v>
       </c>
       <c r="N4" t="n">
-        <v>7602</v>
+        <v>1534</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>No staff fire order.</t>
+          <t>Television air only.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K******y D****n</t>
+          <t>E***a M***e</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2************2</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/04/1965</t>
+          <t>27/01/1993</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Carter Key
-New Lori, SD *</t>
+          <t>* Moore Ports
+Lake Melody, WI *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(012)-82235**55</t>
+          <t>(019)-*****10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>q******d@example.net</t>
+          <t>b*******n@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>T*******e</t>
+          <t>C********a</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -795,42 +795,42 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3311</v>
+        <v>7378</v>
       </c>
       <c r="N5" t="n">
-        <v>5492</v>
+        <v>7986</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Follow research Mrs.</t>
+          <t>Mother care writer.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M*****l K****y</t>
+          <t>N****e B***n</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6************7</t>
+          <t>3************1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15/11/1956</t>
+          <t>30/05/1932</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Karen Cape
-Masonshire, AL *</t>
+          <t>* Anthony Divide Apt. *
+New Samuel, KY *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(012)-93628**91</t>
+          <t>(014)-*****06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -840,22 +840,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>e*****2@example.org</t>
+          <t>a***************t@example.org</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>D******e</t>
+          <t>W***********a</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -869,42 +869,42 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6029</v>
+        <v>8195</v>
       </c>
       <c r="N6" t="n">
-        <v>8902</v>
+        <v>7418</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Throw ok strong.</t>
+          <t>Mean between become.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E**n C******o</t>
+          <t>S****n B****n</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>2************7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>10/04/1974</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Owens Glen
-New Nicolechester, SC *</t>
+          <t>Unit * Box *
+DPO AE *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(012)-55148**67</t>
+          <t>(015)-*****80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -914,22 +914,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>c************g@example.org</t>
+          <t>h*****r@example.net</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>T*******e</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -943,42 +943,42 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>2395</v>
+        <v>4650</v>
       </c>
       <c r="N7" t="n">
-        <v>6642</v>
+        <v>4053</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Owner thing manager.</t>
+          <t>Physical cell take.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D***d B****r</t>
+          <t>J****a G****a</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>9************5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07/05/1945</t>
+          <t>19/01/1967</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Shirley Plains
-West Kelsey, SC *</t>
+          <t>Unit * Box *
+DPO AA *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-68473**14</t>
+          <t>(012)-*****38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -988,22 +988,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>b**********y@example.com</t>
+          <t>m****8@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>C********a</t>
+          <t>C*********t</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1017,42 +1017,42 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>2305</v>
+        <v>9364</v>
       </c>
       <c r="N8" t="n">
-        <v>4221</v>
+        <v>3689</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Movement born bad.</t>
+          <t>Suffer research.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J****h W*******n</t>
+          <t>C*****a W******s</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0************1</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24/09/1953</t>
+          <t>01/12/1992</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Allen Ferry
-East Keithport, DE *</t>
+          <t>* Rodriguez Fork
+Adamstad, AL *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-92704**04</t>
+          <t>(018)-*****61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1062,22 +1062,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>j************n@example.org</t>
+          <t>j******7@example.net</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>O****n</t>
+          <t>M*******a</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1091,42 +1091,42 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3648</v>
+        <v>9216</v>
       </c>
       <c r="N9" t="n">
-        <v>9785</v>
+        <v>1496</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Others right finish.</t>
+          <t>Century black.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A****a T****r</t>
+          <t>E***a S***h</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2************7</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10/01/1964</t>
+          <t>17/01/1957</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AA *</t>
+          <t>* Levi Curve Suite *
+Wilsonborough, FL *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(012)-47971**54</t>
+          <t>(019)-*****03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1136,22 +1136,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>j*********s@example.net</t>
+          <t>d*****6@example.net</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>C*********t</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1165,42 +1165,42 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>7980</v>
+        <v>7054</v>
       </c>
       <c r="N10" t="n">
-        <v>2378</v>
+        <v>5428</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Face game wife long.</t>
+          <t>Ago capital rather.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>T***y D***s</t>
+          <t>L***n M******z</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0************0</t>
+          <t>7************4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>02/10/1969</t>
+          <t>24/01/1967</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AA *</t>
+          <t>* Ball Extension Apt. *
+Mariaberg, CT *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-09447**29</t>
+          <t>(013)-*****03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1210,22 +1210,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>b********9@example.com</t>
+          <t>c***********n@example.net</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>R**********d</t>
+          <t>H****i</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1239,42 +1239,42 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>7892</v>
+        <v>5469</v>
       </c>
       <c r="N11" t="n">
-        <v>1775</v>
+        <v>3702</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Seat us analysis ok.</t>
+          <t>Everybody nice.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T*****y T****r</t>
+          <t>V*****a G****y</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9************2</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>05/07/1977</t>
+          <t>11/05/1944</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Martinez Plains
-Thomasborough, VA *</t>
+          <t>* Mario Common
+Coreyfort, AL *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(012)-15928**01</t>
+          <t>(013)-*****88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>w******n@example.net</t>
+          <t>f*******4@example.org</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>T***s</t>
+          <t>O******a</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,42 +1313,42 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>5328</v>
+        <v>7784</v>
       </c>
       <c r="N12" t="n">
-        <v>3102</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Well day home move.</t>
+          <t>Security rest best.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L**a H*****a</t>
+          <t>D***a R*****z</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7************1</t>
+          <t>2************9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09/12/1991</t>
+          <t>05/07/1933</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Donna Light Suite *
-Christinetown, OK *</t>
+          <t>* Morgan Loaf Apt. *
+Port Matthew, MA *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(012)-20543**66</t>
+          <t>(012)-*****63</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>x*******n@example.org</t>
+          <t>c*****9@example.com</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>C******o</t>
+          <t>A******s</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1387,42 +1387,42 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>8591</v>
+        <v>7034</v>
       </c>
       <c r="N13" t="n">
-        <v>4563</v>
+        <v>9064</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Step happy.</t>
+          <t>Decide prepare.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R***n V***z</t>
+          <t>E**n M****n</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30/05/1988</t>
+          <t>07/03/1951</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AA *</t>
+          <t>* Keith Fork Suite *
+Christinemouth, KY *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(012)-11692**02</t>
+          <t>(012)-*****66</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1432,22 +1432,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>r******3@example.org</t>
+          <t>j**********d@example.net</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>D******e</t>
+          <t>M*******a</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1461,42 +1461,42 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>4190</v>
+        <v>6589</v>
       </c>
       <c r="N14" t="n">
-        <v>9189</v>
+        <v>2970</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Ahead one party.</t>
+          <t>Season wish full.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>L***y W******s</t>
+          <t>A**e G*****t</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>6************1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19/07/1953</t>
+          <t>13/12/1967</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Laura Mountains Apt. *
-Pattersonview, MA *</t>
+          <t>* Thomas Manors Apt. *
+North Cynthialand, SD *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(012)-20623**08</t>
+          <t>(013)-*****24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>g*************n@example.net</t>
+          <t>r*************d@example.net</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>M*********i</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1535,42 +1535,42 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5612</v>
+        <v>5275</v>
       </c>
       <c r="N15" t="n">
-        <v>4787</v>
+        <v>3531</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Hold both defense.</t>
+          <t>Bring we society.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M******e F*x</t>
+          <t>D****n G***d</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5************3</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11/01/1930</t>
+          <t>06/08/1954</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Maxwell Brooks Apt. *
-Timbury, UT *</t>
+          <t>* Steven Forge
+Brittneyville, NJ *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(012)-75340**01</t>
+          <t>(013)-*****51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1580,22 +1580,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>w***********l@example.org</t>
+          <t>r*******n@example.org</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>S**********a</t>
+          <t>M******n</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1609,42 +1609,42 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6665</v>
+        <v>8942</v>
       </c>
       <c r="N16" t="n">
-        <v>4712</v>
+        <v>6200</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Mr draw democratic.</t>
+          <t>Plant probably.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>K******n B****s</t>
+          <t>A****y N****n</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3************7</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11/09/1960</t>
+          <t>24/03/1977</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Cruz Fords Apt. *
-West Stephaniemouth, NH *</t>
+          <t>* Crawford Cape Suite *
+Port Joe, MA *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-93195**17</t>
+          <t>(019)-*****03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1654,22 +1654,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>q******n@example.com</t>
+          <t>r******3@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>N********o</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1683,42 +1683,42 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>4274</v>
+        <v>5954</v>
       </c>
       <c r="N17" t="n">
-        <v>3776</v>
+        <v>8298</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Professor.</t>
+          <t>Care color notice.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M******e D***s</t>
+          <t>K******y K****y</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7************3</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17/11/2000</t>
+          <t>12/11/1929</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Steve Dale Apt. *
-Port Joshua, TX *</t>
+          <t>* Gary Causeway Suite *
+Lake Brianhaven, WV *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(012)-15972**45</t>
+          <t>(013)-*****98</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1728,22 +1728,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>b*************s@example.com</t>
+          <t>n*********h@example.com</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N***********e</t>
+          <t>A*****a</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1757,21 +1757,21 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>6359</v>
+        <v>9343</v>
       </c>
       <c r="N18" t="n">
-        <v>9057</v>
+        <v>8707</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Note process second.</t>
+          <t>Central newspaper.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M*****a L***h</t>
+          <t>K******y C****r</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1781,18 +1781,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17/07/1980</t>
+          <t>15/08/1965</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Johnson Trail Apt. *
-Adamhaven, TX *</t>
+          <t>* Christopher Shoals Suite *
+West Amandabury, AL *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-77735**48</t>
+          <t>(012)-*****37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>s*****4@example.com</t>
+          <t>j*****5@example.com</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>U**h</t>
+          <t>H****i</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1831,42 +1831,42 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>7956</v>
+        <v>6933</v>
       </c>
       <c r="N19" t="n">
-        <v>1721</v>
+        <v>7826</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Because try perhaps.</t>
+          <t>Truth provide.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S***t D***s</t>
+          <t>S*****n R**d</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3************2</t>
+          <t>3************8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16/08/1934</t>
+          <t>29/01/1990</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Micheal Cape
-Grahamchester, FM *</t>
+          <t>* Harrison Cape
+Thomasbury, DE *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(012)-67885**13</t>
+          <t>(011)-*****79</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1876,22 +1876,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>s*********y@example.net</t>
+          <t>r****n@example.org</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>M*******a</t>
+          <t>C******o</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1905,42 +1905,42 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>6480</v>
+        <v>6092</v>
       </c>
       <c r="N20" t="n">
-        <v>3976</v>
+        <v>6017</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Join interest hair.</t>
+          <t>Wide whether figure.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S***t R****s</t>
+          <t>B******n G*******r</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>2************5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>27/05/1959</t>
+          <t>08/08/1973</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Scott Estates
-Jaychester, IA *</t>
+          <t>* Brooke Forge Suite *
+Velezport, WV *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(012)-77278**49</t>
+          <t>(014)-*****88</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1950,22 +1950,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>t***********n@example.net</t>
+          <t>a*********6@example.org</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>D******e</t>
+          <t>N********o</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1979,42 +1979,42 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>9523</v>
+        <v>9241</v>
       </c>
       <c r="N21" t="n">
-        <v>7654</v>
+        <v>6658</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>However age.</t>
+          <t>Like would thus.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>J*y C*******s</t>
+          <t>J****a P*******n</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>5************0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18/06/1931</t>
+          <t>08/10/1980</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* *
-FPO AP *</t>
+          <t>* Meadows Pines
+South Michael, AS *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(012)-32071**47</t>
+          <t>(015)-*****12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2024,22 +2024,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>a******6@example.com</t>
+          <t>j********0@example.com</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>N***********e</t>
+          <t>T*******e</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2053,42 +2053,42 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2713</v>
+        <v>3557</v>
       </c>
       <c r="N22" t="n">
-        <v>2781</v>
+        <v>2853</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Her today manage.</t>
+          <t>Everybody concern.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W*****m B****n</t>
+          <t>J*****y S*****t</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2************9</t>
+          <t>6************0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22/07/1937</t>
+          <t>18/07/1981</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Sawyer Squares
-Fisherburgh, SD *</t>
+          <t>* Brenda Park
+South Dianeville, LA *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(012)-08318**88</t>
+          <t>(014)-*****38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>m********e@example.net</t>
+          <t>x****n@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N************a</t>
+          <t>O****n</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2127,42 +2127,42 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>7740</v>
+        <v>6980</v>
       </c>
       <c r="N23" t="n">
-        <v>6538</v>
+        <v>3907</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Group cause very.</t>
+          <t>Learn pretty act.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D***a M******l</t>
+          <t>I***c T****r</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2************8</t>
+          <t>5************5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06/11/1930</t>
+          <t>18/05/2002</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Nelson Stravenue Apt. *
-North Kyle, WV *</t>
+          <t>* Nathan Union
+North Sandra, WV *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(012)-14567**92</t>
+          <t>(010)-*****25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>s********s@example.org</t>
+          <t>h******n@example.net</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>O**o</t>
+          <t>M*********i</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2201,42 +2201,42 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>5732</v>
+        <v>5169</v>
       </c>
       <c r="N24" t="n">
-        <v>3279</v>
+        <v>2335</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Seem together.</t>
+          <t>Arrive huge such.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>K*******e S*****n</t>
+          <t>K******y L***s</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13/03/1954</t>
+          <t>04/02/1972</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Lynch Villages
-Rodgersstad, OH *</t>
+          <t>* Smith Viaduct
+Christophermouth, AK *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(012)-90726**54</t>
+          <t>(013)-*****61</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>g*******s@example.net</t>
+          <t>d****n@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>T***s</t>
+          <t>T*******e</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2275,42 +2275,42 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2400</v>
+        <v>7394</v>
       </c>
       <c r="N25" t="n">
-        <v>9237</v>
+        <v>6950</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Ability know side.</t>
+          <t>Never weight moment.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S***n H***s</t>
+          <t>K***e L*e</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20/06/1944</t>
+          <t>28/10/1943</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Jack Roads Apt. *
-North Peter, NY *</t>
+          <t>* Perkins Lake
+South Christina, NJ *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(012)-42145**11</t>
+          <t>(011)-*****12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2320,22 +2320,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>n*********6@example.org</t>
+          <t>o*****d@example.com</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>I******s</t>
+          <t>O****n</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2349,42 +2349,42 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>6021</v>
+        <v>5442</v>
       </c>
       <c r="N26" t="n">
-        <v>6346</v>
+        <v>6658</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Improve success up.</t>
+          <t>Beautiful college.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>M*****l M****y</t>
+          <t>A*****y W********n</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9************5</t>
+          <t>6************8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>27/09/1931</t>
+          <t>20/03/1992</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Burke Forks Suite *
-Esparzaberg, CT *</t>
+          <t>* Brandy Haven Apt. *
+Lake Cindyview, NY *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(012)-57756**55</t>
+          <t>(012)-*****28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2394,22 +2394,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>b********a@example.org</t>
+          <t>h**********n@example.com</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>T***s</t>
+          <t>W*****g</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2423,42 +2423,42 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>5829</v>
+        <v>9567</v>
       </c>
       <c r="N27" t="n">
-        <v>7482</v>
+        <v>6820</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Attention poor.</t>
+          <t>Agent property when.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>N****n S*****s</t>
+          <t>D*****s J*****n</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>5************7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15/07/1930</t>
+          <t>08/08/1990</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Spencer Turnpike Suite *
-Andrewbury, PA *</t>
+          <t>* Thomas Tunnel
+Austinview, GU *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(012)-42909**68</t>
+          <t>(019)-*****45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2468,22 +2468,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>n******y@example.org</t>
+          <t>s******5@example.com</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>G*****a</t>
+          <t>W*****g</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2497,42 +2497,42 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2870</v>
+        <v>2001</v>
       </c>
       <c r="N28" t="n">
-        <v>7452</v>
+        <v>4573</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Watch at film.</t>
+          <t>Technology.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J***s P****r</t>
+          <t>C***y S***h **</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7************2</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20/12/1981</t>
+          <t>03/02/1949</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Griffin Drive
-Lake Lisa, MP *</t>
+          <t>* Hill Drives Apt. *
+North Robert, NM *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(012)-45052**46</t>
+          <t>(015)-*****54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2542,22 +2542,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>z****n@example.com</t>
+          <t>d**********o@example.org</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>O****n</t>
+          <t>M******n</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>18-19</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2571,42 +2571,42 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>6933</v>
+        <v>9490</v>
       </c>
       <c r="N29" t="n">
-        <v>4558</v>
+        <v>2842</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Risk create because.</t>
+          <t>Surface affect.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>K**e F***y</t>
+          <t>E*******h P****r</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5************0</t>
+          <t>5************4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15/03/1976</t>
+          <t>25/10/1945</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Elizabeth Motorway Apt. *
-Alexfort, ND *</t>
+          <t>* Webster Creek Apt. *
+Johnside, WI *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(012)-85702**70</t>
+          <t>(016)-*****03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2616,22 +2616,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>n******1@example.net</t>
+          <t>s********t@example.org</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>W*******n</t>
+          <t>D******e</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2645,42 +2645,42 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>7994</v>
+        <v>2086</v>
       </c>
       <c r="N30" t="n">
-        <v>9121</v>
+        <v>7896</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Ready information.</t>
+          <t>Condition body.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S****n W****t</t>
+          <t>C*****s S****n</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7************6</t>
+          <t>3************6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14/05/1996</t>
+          <t>25/04/1959</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Keith Junctions Suite *
-West Susanland, MN *</t>
+          <t>* Michelle Falls Apt. *
+Lake Jeremyland, ME *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(012)-93335**13</t>
+          <t>(010)-*****19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2690,22 +2690,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>k*****5@example.com</t>
+          <t>d*******d@example.net</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>C******o</t>
+          <t>N****a</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>100-100</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2719,14 +2719,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>9726</v>
+        <v>8791</v>
       </c>
       <c r="N31" t="n">
-        <v>9540</v>
+        <v>1033</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>View conference by.</t>
+          <t>Future prepare set.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S****y Y***g</t>
+          <t>C**y C**k</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>9************9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09/01/1974</t>
+          <t>02/05/1971</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Dickerson Lock
-Port Joseph, HI *</t>
+          <t>* Jackson Landing Apt. *
+East Debbieborough, AR *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(017)-*****83</t>
+          <t>(016)-*****61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>p************n@example.com</t>
+          <t>r****t@example.net</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>T***s</t>
+          <t>K******y</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -572,43 +572,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>2635</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>11000-11999</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>7730</v>
+        <v>2128</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>View before wish.</t>
+          <t>Ready church week.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>J****n P*****k D*S</t>
+          <t>A***a Y***g</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6************6</t>
+          <t>8************6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07/09/1978</t>
+          <t>27/04/1959</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Patricia Common Suite *
-New Janetview, ID *</t>
+          <t>* Sharon Skyway Suite *
+East Patriciaview, GU *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(011)-*****06</t>
+          <t>(018)-*****08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,12 +620,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>j*********a@example.org</t>
+          <t>b*********a@example.net</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>V*****t</t>
+          <t>W********n</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -633,7 +635,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -646,43 +648,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>4999</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>4000-4999</t>
+        </is>
       </c>
       <c r="N3" t="n">
-        <v>2080</v>
+        <v>7474</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Turn eye bad.</t>
+          <t>Hit certainly.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>N****e V********a</t>
+          <t>K***n P****r</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8************6</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/07/1947</t>
+          <t>13/11/1932</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Michael Shoals Apt. *
-West Kenneth, VI *</t>
+          <t>* *
+FPO AP *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(016)-*****36</t>
+          <t>(018)-*****05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -692,22 +696,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>o******n@example.org</t>
+          <t>k*******n@example.net</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C*********t</t>
+          <t>N**********a</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -720,43 +724,45 @@
           <t>Race2</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>9443</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6000-6999</t>
+        </is>
       </c>
       <c r="N4" t="n">
-        <v>1534</v>
+        <v>5927</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Television air only.</t>
+          <t>Real significant.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E***a M***e</t>
+          <t>J****e P****r</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>0************9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>27/01/1993</t>
+          <t>14/02/1938</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Moore Ports
-Lake Melody, WI *</t>
+          <t>* Jon Trace Apt. *
+Smithfurt, AL *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(019)-*****10</t>
+          <t>(011)-*****68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -766,22 +772,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>b*******n@example.net</t>
+          <t>c***********a@example.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>C********a</t>
+          <t>A******s</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -794,43 +800,45 @@
           <t>Race3</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>7378</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>14000-14999</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>7986</v>
+        <v>1122</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Mother care writer.</t>
+          <t>Look sea friend.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N****e B***n</t>
+          <t>J**n S*******r</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3************1</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30/05/1932</t>
+          <t>28/07/1980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Anthony Divide Apt. *
-New Samuel, KY *</t>
+          <t>* Gregory Inlet
+Port Kevintown, ND *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(014)-*****06</t>
+          <t>(013)-*****20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -840,22 +848,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>a***************t@example.org</t>
+          <t>k************s@example.com</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>W***********a</t>
+          <t>M******d</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -868,43 +876,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>8195</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12000-12999</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>7418</v>
+        <v>5623</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Mean between become.</t>
+          <t>You against five.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S****n B****n</t>
+          <t>C***y J****z</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2************7</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10/04/1974</t>
+          <t>20/05/1986</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AE *</t>
+          <t>* Hunter Square
+North Jill, AR *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(015)-*****80</t>
+          <t>(015)-*****18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -914,22 +924,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>h*****r@example.net</t>
+          <t>j********n@example.org</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>T*******e</t>
+          <t>N**********a</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -942,43 +952,45 @@
           <t>Race2</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>4650</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>7000-7999</t>
+        </is>
       </c>
       <c r="N7" t="n">
-        <v>4053</v>
+        <v>9647</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Physical cell take.</t>
+          <t>Include fill best.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J****a G****a</t>
+          <t>A***l F******n</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9************5</t>
+          <t>7************8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19/01/1967</t>
+          <t>02/02/1939</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AA *</t>
+          <t>* Scott Mall Apt. *
+Mendezborough, KS *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-*****38</t>
+          <t>(011)-*****80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -988,22 +1000,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>m****8@example.com</t>
+          <t>f************h@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>C*********t</t>
+          <t>W*****g</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1016,43 +1028,45 @@
           <t>Race3</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>9364</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>14000-14999</t>
+        </is>
       </c>
       <c r="N8" t="n">
-        <v>3689</v>
+        <v>1366</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Suffer research.</t>
+          <t>Avoid response good.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C*****a W******s</t>
+          <t>M***a T****r</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/12/1992</t>
+          <t>28/03/1993</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Rodriguez Fork
-Adamstad, AL *</t>
+          <t>* Thomas Extension Apt. *
+East Josephstad, MA *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(018)-*****61</t>
+          <t>(017)-*****92</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1062,22 +1076,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>j******7@example.net</t>
+          <t>k**************n@example.org</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>M*******a</t>
+          <t>K******y</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1090,43 +1104,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>9216</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7000-7999</t>
+        </is>
       </c>
       <c r="N9" t="n">
-        <v>1496</v>
+        <v>3356</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Century black.</t>
+          <t>Information join.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E***a S***h</t>
+          <t>Y****e G***n</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>2************1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17/01/1957</t>
+          <t>28/10/1956</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Levi Curve Suite *
-Wilsonborough, FL *</t>
+          <t>* Donald Estates
+West Matthewmouth, NC *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(019)-*****03</t>
+          <t>(019)-*****12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1136,17 +1152,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>d*****6@example.net</t>
+          <t>w********a@example.org</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>C*********t</t>
+          <t>V******a</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1164,43 +1180,45 @@
           <t>Race2</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>7054</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>7000-7999</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>5428</v>
+        <v>7551</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Ago capital rather.</t>
+          <t>Anyone test idea.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L***n M******z</t>
+          <t>K***n J*****z</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7************4</t>
+          <t>2************9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>24/01/1967</t>
+          <t>05/04/1975</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Ball Extension Apt. *
-Mariaberg, CT *</t>
+          <t>* Palmer Stravenue Apt. *
+New Johnview, PW *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(013)-*****03</t>
+          <t>(018)-*****12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1210,22 +1228,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>c***********n@example.net</t>
+          <t>v*u@example.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>H****i</t>
+          <t>W********n</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,43 +1256,45 @@
           <t>Race3</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>5469</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>6000-6999</t>
+        </is>
       </c>
       <c r="N11" t="n">
-        <v>3702</v>
+        <v>7490</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Everybody nice.</t>
+          <t>Describe research.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>V*****a G****y</t>
+          <t>E***y W******s</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>9************2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11/05/1944</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Mario Common
-Coreyfort, AL *</t>
+          <t>* Chad Club Suite *
+Port Janet, LA *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(013)-*****88</t>
+          <t>(019)-*****86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1284,22 +1304,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>f*******4@example.org</t>
+          <t>j********t@example.org</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>O******a</t>
+          <t>N****a</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1312,43 +1332,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>7784</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3000-3999</t>
+        </is>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>6154</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Security rest best.</t>
+          <t>Spring Mr smile.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D***a R*****z</t>
+          <t>G*****y V****s</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2************9</t>
+          <t>3************3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>05/07/1933</t>
+          <t>12/08/1936</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Morgan Loaf Apt. *
-Port Matthew, MA *</t>
+          <t>* Durham Mission Suite *
+New Elizabeth, OR *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(012)-*****63</t>
+          <t>(013)-*****90</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1358,22 +1380,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>c*****9@example.com</t>
+          <t>j****2@example.com</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A******s</t>
+          <t>C******o</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1386,43 +1408,45 @@
           <t>Race2</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>7034</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>6000-6999</t>
+        </is>
       </c>
       <c r="N13" t="n">
-        <v>9064</v>
+        <v>8784</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Decide prepare.</t>
+          <t>Notice customer.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E**n M****n</t>
+          <t>T****a F****s</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>7************2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07/03/1951</t>
+          <t>09/07/1972</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Keith Fork Suite *
-Christinemouth, KY *</t>
+          <t>* Robinson Estates
+Villarrealview, OK *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(012)-*****66</t>
+          <t>(018)-*****33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1432,22 +1456,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>j**********d@example.net</t>
+          <t>d*******8@example.net</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M*******a</t>
+          <t>O**o</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1460,43 +1484,45 @@
           <t>Race3</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>6589</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3000-3999</t>
+        </is>
       </c>
       <c r="N14" t="n">
-        <v>2970</v>
+        <v>2018</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Season wish full.</t>
+          <t>Leg need look.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A**e G*****t</t>
+          <t>S*****y H*****n</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6************1</t>
+          <t>7************7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13/12/1967</t>
+          <t>05/12/2000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Thomas Manors Apt. *
-North Cynthialand, SD *</t>
+          <t>* Washington Estate Suite *
+Lindsaychester, HI *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(013)-*****24</t>
+          <t>(017)-*****84</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1506,22 +1532,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>r*************d@example.net</t>
+          <t>e*********2@example.org</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>M*********i</t>
+          <t>N********o</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1534,43 +1560,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>5275</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>6000-6999</t>
+        </is>
       </c>
       <c r="N15" t="n">
-        <v>3531</v>
+        <v>7936</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Bring we society.</t>
+          <t>Final sell raise PM.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D****n G***d</t>
+          <t>J******r R*****z</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7************0</t>
+          <t>5************7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06/08/1954</t>
+          <t>19/09/1935</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Steven Forge
-Brittneyville, NJ *</t>
+          <t>* Davis Loop Suite *
+East Ann, CT *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(013)-*****51</t>
+          <t>(016)-*****16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1580,22 +1608,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>r*******n@example.org</t>
+          <t>c*****1@example.org</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M******n</t>
+          <t>N******k</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1608,43 +1636,45 @@
           <t>Race2</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>8942</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4000-4999</t>
+        </is>
       </c>
       <c r="N16" t="n">
-        <v>6200</v>
+        <v>5838</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Plant probably.</t>
+          <t>Summer might.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A****y N****n</t>
+          <t>M******e B***y</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24/03/1977</t>
+          <t>21/01/1949</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Crawford Cape Suite *
-Port Joe, MA *</t>
+          <t>PSC *, Box *
+APO AP *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(019)-*****03</t>
+          <t>(016)-*****36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1654,22 +1684,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>r******3@example.com</t>
+          <t>n******s@example.net</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N********o</t>
+          <t>N************a</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1682,43 +1712,45 @@
           <t>Race3</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>5954</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>8000-8999</t>
+        </is>
       </c>
       <c r="N17" t="n">
-        <v>8298</v>
+        <v>9703</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Care color notice.</t>
+          <t>Party subject.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>K******y K****y</t>
+          <t>C*********r G****a</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>3************9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12/11/1929</t>
+          <t>17/02/2006</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Gary Causeway Suite *
-Lake Brianhaven, WV *</t>
+          <t>* Timothy Avenue
+South Jimshire, WY *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(013)-*****98</t>
+          <t>(019)-*****15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1728,22 +1760,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>n*********h@example.com</t>
+          <t>s************l@example.net</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A*****a</t>
+          <t>O****n</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1756,43 +1788,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>9343</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12000-12999</t>
+        </is>
       </c>
       <c r="N18" t="n">
-        <v>8707</v>
+        <v>9051</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Central newspaper.</t>
+          <t>Cover whatever.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>K******y C****r</t>
+          <t>L**a P**a</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15/08/1965</t>
+          <t>22/02/1959</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Christopher Shoals Suite *
-West Amandabury, AL *</t>
+          <t>* Cheyenne Motorway
+New Justinstad, FM *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-*****37</t>
+          <t>(012)-*****13</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1802,22 +1836,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>j*****5@example.com</t>
+          <t>k*******1@example.org</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>H****i</t>
+          <t>G*****a</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1830,43 +1864,45 @@
           <t>Race2</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>6933</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>10000-10999</t>
+        </is>
       </c>
       <c r="N19" t="n">
-        <v>7826</v>
+        <v>1306</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Truth provide.</t>
+          <t>Space real program.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S*****n R**d</t>
+          <t>T***r C*x</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3************8</t>
+          <t>7************7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29/01/1990</t>
+          <t>23/01/1982</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Harrison Cape
-Thomasbury, DE *</t>
+          <t>Unit * Box *
+DPO AP *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(011)-*****79</t>
+          <t>(017)-*****42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1876,22 +1912,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>r****n@example.org</t>
+          <t>p******3@example.net</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C******o</t>
+          <t>I***o</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1904,43 +1940,45 @@
           <t>Race3</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>6092</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>3000-3999</t>
+        </is>
       </c>
       <c r="N20" t="n">
-        <v>6017</v>
+        <v>6673</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Wide whether figure.</t>
+          <t>General itself fish.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B******n G*******r</t>
+          <t>J******r S********n</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2************5</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08/08/1973</t>
+          <t>20/05/1963</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Brooke Forge Suite *
-Velezport, WV *</t>
+          <t>* Nunez Rest Apt. *
+Brownhaven, KS *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(014)-*****88</t>
+          <t>(013)-*****13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1950,22 +1988,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>a*********6@example.org</t>
+          <t>e*******n@example.org</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N********o</t>
+          <t>P**********a</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1978,43 +2016,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>9241</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>3000-3999</t>
+        </is>
       </c>
       <c r="N21" t="n">
-        <v>6658</v>
+        <v>8585</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Like would thus.</t>
+          <t>Treatment soon hot.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>J****a P*******n</t>
+          <t>M*****a B***r</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5************0</t>
+          <t>5************3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08/10/1980</t>
+          <t>02/03/1965</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Meadows Pines
-South Michael, AS *</t>
+          <t>* Nicholson Shoals
+North Amber, WY *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(015)-*****12</t>
+          <t>(018)-*****73</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2024,22 +2064,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>j********0@example.com</t>
+          <t>b**************n@example.org</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>T*******e</t>
+          <t>S**********a</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2052,43 +2092,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>3557</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>7000-7999</t>
+        </is>
       </c>
       <c r="N22" t="n">
-        <v>2853</v>
+        <v>3440</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Everybody concern.</t>
+          <t>Safe scientist wear.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>J*****y S*****t</t>
+          <t>D***d M******s</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6************0</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18/07/1981</t>
+          <t>24/04/1975</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Brenda Park
-South Dianeville, LA *</t>
+          <t>* Jackson Drive Apt. *
+Johnstad, VA *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(014)-*****38</t>
+          <t>(016)-*****53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2098,17 +2140,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>x****n@example.org</t>
+          <t>b**********h@example.com</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>O****n</t>
+          <t>N********y</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2126,43 +2168,45 @@
           <t>Race2</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>6980</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>7000-7999</t>
+        </is>
       </c>
       <c r="N23" t="n">
-        <v>3907</v>
+        <v>6389</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Learn pretty act.</t>
+          <t>Always building.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I***c T****r</t>
+          <t>J****a P****r</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5************5</t>
+          <t>5************2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18/05/2002</t>
+          <t>08/03/1938</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Nathan Union
-North Sandra, WV *</t>
+          <t>* Navarro Lodge Apt. *
+South Emily, CA *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(010)-*****25</t>
+          <t>(016)-*****17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2172,22 +2216,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>h******n@example.net</t>
+          <t>s**********e@example.net</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>M*********i</t>
+          <t>P**********a</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2200,43 +2244,45 @@
           <t>Race3</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>5169</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>7000-7999</t>
+        </is>
       </c>
       <c r="N24" t="n">
-        <v>2335</v>
+        <v>6101</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Arrive huge such.</t>
+          <t>Next because heart.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>K******y L***s</t>
+          <t>K***e M******d</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>04/02/1972</t>
+          <t>12/02/1950</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Smith Viaduct
-Christophermouth, AK *</t>
+          <t>* Philip Ways
+Christophermouth, GU *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(013)-*****61</t>
+          <t>(011)-*****75</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2246,22 +2292,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>d****n@example.com</t>
+          <t>s****0@example.org</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>T*******e</t>
+          <t>K******y</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2274,43 +2320,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>7394</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2000-2999</t>
+        </is>
       </c>
       <c r="N25" t="n">
-        <v>6950</v>
+        <v>5830</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Never weight moment.</t>
+          <t>Bar remember result.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>K***e L*e</t>
+          <t>V******a S***h</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>8************3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/10/1943</t>
+          <t>28/08/1983</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Perkins Lake
-South Christina, NJ *</t>
+          <t>* Howard Isle Suite *
+East Brenda, MS *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(011)-*****12</t>
+          <t>(017)-*****50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2320,22 +2368,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>o*****d@example.com</t>
+          <t>r*****r@example.net</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>O****n</t>
+          <t>I******s</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2348,43 +2396,45 @@
           <t>Race2</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>5442</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>9000-9999</t>
+        </is>
       </c>
       <c r="N26" t="n">
-        <v>6658</v>
+        <v>5077</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Beautiful college.</t>
+          <t>Against attention.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A*****y W********n</t>
+          <t>A*****l G*****n</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6************8</t>
+          <t>5************6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20/03/1992</t>
+          <t>07/04/1960</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Brandy Haven Apt. *
-Lake Cindyview, NY *</t>
+          <t>* Davis Loaf
+Laurahaven, NY *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(012)-*****28</t>
+          <t>(015)-*****99</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2394,17 +2444,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>h**********n@example.com</t>
+          <t>j*************y@example.net</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>W*****g</t>
+          <t>F*****a</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2422,43 +2472,45 @@
           <t>Race3</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>9567</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4000-4999</t>
+        </is>
       </c>
       <c r="N27" t="n">
-        <v>6820</v>
+        <v>7685</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Agent property when.</t>
+          <t>Direction cover.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D*****s J*****n</t>
+          <t>O**r H***y</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5************7</t>
+          <t>3************7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08/08/1990</t>
+          <t>16/04/1957</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Thomas Tunnel
-Austinview, GU *</t>
+          <t>* Mcfarland Ridges Apt. *
+Julieside, CA *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(019)-*****45</t>
+          <t>(016)-*****64</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2468,12 +2520,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>s******5@example.com</t>
+          <t>h******6@example.org</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>W*****g</t>
+          <t>I******s</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2483,7 +2535,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>18-19</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2496,43 +2548,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>2001</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>11000-11999</t>
+        </is>
       </c>
       <c r="N28" t="n">
-        <v>4573</v>
+        <v>9168</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Technology.</t>
+          <t>Physical nearly.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C***y S***h **</t>
+          <t>S**a D***s</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6************6</t>
+          <t>8************9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>03/02/1949</t>
+          <t>30/11/1947</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Hill Drives Apt. *
-North Robert, NM *</t>
+          <t>* Drew Mission Suite *
+Lake Jenniferborough, WV *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(015)-*****54</t>
+          <t>(010)-*****93</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2542,22 +2596,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>d**********o@example.org</t>
+          <t>f**********s@example.net</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>M******n</t>
+          <t>M*********i</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2570,43 +2624,45 @@
           <t>Race2</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>9490</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>13000-13999</t>
+        </is>
       </c>
       <c r="N29" t="n">
-        <v>2842</v>
+        <v>2241</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Surface affect.</t>
+          <t>Industry turn.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>E*******h P****r</t>
+          <t>T**a J***s</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5************4</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>25/10/1945</t>
+          <t>27/04/1932</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Webster Creek Apt. *
-Johnside, WI *</t>
+          <t>* Matthew Causeway Suite *
+Spenceborough, VI *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(016)-*****03</t>
+          <t>(016)-*****62</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2616,22 +2672,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>s********t@example.org</t>
+          <t>l*****4@example.com</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>D******e</t>
+          <t>F*****a</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2644,43 +2700,45 @@
           <t>Race1</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>2086</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>14000-14999</t>
+        </is>
       </c>
       <c r="N30" t="n">
-        <v>7896</v>
+        <v>7063</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Condition body.</t>
+          <t>Even big rise fund.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C*****s S****n</t>
+          <t>G*****l C****s</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3************6</t>
+          <t>8************3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>25/04/1959</t>
+          <t>08/03/1942</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Michelle Falls Apt. *
-Lake Jeremyland, ME *</t>
+          <t>* Mary Park Suite *
+East Jasonview, MN *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(010)-*****19</t>
+          <t>(014)-*****03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2690,22 +2748,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>d*******d@example.net</t>
+          <t>i****s@example.net</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N****a</t>
+          <t>O****n</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2718,15 +2776,17 @@
           <t>Race3</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>8791</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>10000-10999</t>
+        </is>
       </c>
       <c r="N31" t="n">
-        <v>1033</v>
+        <v>6369</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Future prepare set.</t>
+          <t>Exactly a forward.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C**y C**k</t>
+          <t>E*******h H**l</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9************9</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02/05/1971</t>
+          <t>24/08/1963</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Jackson Landing Apt. *
-East Debbieborough, AR *</t>
+          <t>* Eric Turnpike
+Port Scott, NH *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(016)-*****61</t>
+          <t>(018)-*****76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>r****t@example.net</t>
+          <t>l******y@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>K******y</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -574,43 +574,43 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2128</v>
+        <v>3723</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Ready church week.</t>
+          <t>Light free south.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A***a Y***g</t>
+          <t>A*****y B***d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8************6</t>
+          <t>6************3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27/04/1959</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Sharon Skyway Suite *
-East Patriciaview, GU *</t>
+          <t>* Dennis Pass Suite *
+Dylanborough, MT *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(018)-*****08</t>
+          <t>(015)-*****32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>b*********a@example.net</t>
+          <t>v***g@example.org</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>W********n</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -650,43 +650,43 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>11000-11999</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7474</v>
+        <v>6785</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Hit certainly.</t>
+          <t>Situation attention.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K***n P****r</t>
+          <t>D***d B***e</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>6************4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13/11/1932</t>
+          <t>18/11/1979</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* *
-FPO AP *</t>
+          <t>* Morris Pines Apt. *
+Petersonmouth, AZ *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(018)-*****05</t>
+          <t>(018)-*****89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>k*******n@example.net</t>
+          <t>c**************n@example.net</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N**********a</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -726,43 +726,43 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5927</v>
+        <v>6558</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Real significant.</t>
+          <t>Star east later ok.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>J****e P****r</t>
+          <t>K****i J****n</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0************9</t>
+          <t>7************1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14/02/1938</t>
+          <t>04/04/1940</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Jon Trace Apt. *
-Smithfurt, AL *</t>
+          <t>* Smith Cliffs Apt. *
+North Rachaelton, NC *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(011)-*****68</t>
+          <t>(011)-*****10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -772,22 +772,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>c***********a@example.com</t>
+          <t>f*******l@example.net</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A******s</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -802,43 +802,43 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>14000-14999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1122</v>
+        <v>2815</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Look sea friend.</t>
+          <t>Budget feeling.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J**n S*******r</t>
+          <t>J**n H***y</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>4************3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28/07/1980</t>
+          <t>15/05/1931</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Gregory Inlet
-Port Kevintown, ND *</t>
+          <t>* Janet Viaduct
+Gabrielton, HI *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(013)-*****20</t>
+          <t>(016)-*****56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -848,22 +848,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>k************s@example.com</t>
+          <t>t*****5@example.org</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>M******d</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -878,43 +878,43 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>4000-4999</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5623</v>
+        <v>4616</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>You against five.</t>
+          <t>Improve trip.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C***y J****z</t>
+          <t>J******r M****n D*S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20/05/1986</t>
+          <t>10/12/1924</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Hunter Square
-North Jill, AR *</t>
+          <t>* Baker Causeway
+Mayland, MS *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(015)-*****18</t>
+          <t>(010)-*****50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -924,22 +924,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>j********n@example.org</t>
+          <t>f****n@example.com</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N**********a</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -954,43 +954,43 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>9647</v>
+        <v>4553</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Include fill best.</t>
+          <t>No company catch.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A***l F******n</t>
+          <t>T****a L*u</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7************8</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02/02/1939</t>
+          <t>09/11/1965</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Scott Mall Apt. *
-Mendezborough, KS *</t>
+          <t>* Barker Forges Apt. *
+Georgechester, HI *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(011)-*****80</t>
+          <t>(014)-*****54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>f************h@example.com</t>
+          <t>k********5@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>W*****g</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1034,39 +1034,39 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1366</v>
+        <v>7478</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Avoid response good.</t>
+          <t>Sound major society.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M***a T****r</t>
+          <t>A****y W*****d</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28/03/1993</t>
+          <t>29/08/1995</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Thomas Extension Apt. *
-East Josephstad, MA *</t>
+          <t>* Rivera Points
+Jaredberg, WI *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(017)-*****92</t>
+          <t>(012)-*****54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>k**************n@example.org</t>
+          <t>i*****s@example.com</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>K******y</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1106,43 +1106,43 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3356</v>
+        <v>6977</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Information join.</t>
+          <t>Class themselves.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Y****e G***n</t>
+          <t>H*****r O****a</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2************1</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/10/1956</t>
+          <t>17/07/1944</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Donald Estates
-West Matthewmouth, NC *</t>
+          <t>* Deanna Court
+Lake Frederickmouth, PA *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(019)-*****12</t>
+          <t>(013)-*****44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1152,17 +1152,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>w********a@example.org</t>
+          <t>j**********l@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>V******a</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1182,43 +1182,43 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7551</v>
+        <v>3297</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Anyone test idea.</t>
+          <t>You character use.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>K***n J*****z</t>
+          <t>J**n P***y</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2************9</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>05/04/1975</t>
+          <t>21/08/2004</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Palmer Stravenue Apt. *
-New Johnview, PW *</t>
+          <t>* Rachel View Apt. *
+Jameschester, NJ *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(018)-*****12</t>
+          <t>(012)-*****42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1228,22 +1228,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>v*u@example.com</t>
+          <t>h**********a@example.net</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>W********n</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1258,43 +1258,43 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>11000-11999</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>7490</v>
+        <v>8598</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Describe research.</t>
+          <t>Affect foot say.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E***y W******s</t>
+          <t>M**k C***k</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9************2</t>
+          <t>4************2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>13/05/1925</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Chad Club Suite *
-Port Janet, LA *</t>
+          <t>* Jennifer Lock
+Lake Ryan, KS *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(019)-*****86</t>
+          <t>(019)-*****70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1304,22 +1304,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>j********t@example.org</t>
+          <t>h*********n@example.com</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N****a</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1334,43 +1334,43 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>6154</v>
+        <v>9866</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Spring Mr smile.</t>
+          <t>Source family.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G*****y V****s</t>
+          <t>A****y D***s</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3************3</t>
+          <t>8************9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12/08/1936</t>
+          <t>02/01/1957</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Durham Mission Suite *
-New Elizabeth, OR *</t>
+          <t>* Eric Causeway
+Wolfeport, MO *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(013)-*****90</t>
+          <t>(015)-*****80</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>j****2@example.com</t>
+          <t>a********m@example.com</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>C******o</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1410,43 +1410,43 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>13000-13999</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>8784</v>
+        <v>9911</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Notice customer.</t>
+          <t>Same appear.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T****a F****s</t>
+          <t>T****s C****r</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7************2</t>
+          <t>6************9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09/07/1972</t>
+          <t>26/07/1946</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Robinson Estates
-Villarrealview, OK *</t>
+          <t>Unit * Box *
+DPO AE *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(018)-*****33</t>
+          <t>(014)-*****54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>d*******8@example.net</t>
+          <t>b****g@example.net</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>O**o</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1486,43 +1486,43 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2018</v>
+        <v>2566</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Leg need look.</t>
+          <t>Wind outside small.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S*****y H*****n</t>
+          <t>C*****s K**x</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7************7</t>
+          <t>0************9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>05/12/2000</t>
+          <t>29/09/1965</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Washington Estate Suite *
-Lindsaychester, HI *</t>
+          <t>* Margaret Ways
+West Christianville, RI *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(017)-*****84</t>
+          <t>(013)-*****90</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1532,22 +1532,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>e*********2@example.org</t>
+          <t>l********9@example.net</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N********o</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1562,43 +1562,43 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>7936</v>
+        <v>4126</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Final sell raise PM.</t>
+          <t>Their become nation.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>J******r R*****z</t>
+          <t>J***e S*****s</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5************7</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19/09/1935</t>
+          <t>02/01/1959</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Davis Loop Suite *
-East Ann, CT *</t>
+          <t>* Kimberly Drives Apt. *
+Port Brandon, DE *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(016)-*****16</t>
+          <t>(011)-*****58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1608,22 +1608,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>c*****1@example.org</t>
+          <t>d********y@example.net</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N******k</t>
+          <t>J****************m</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1638,43 +1638,43 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5838</v>
+        <v>1890</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Summer might.</t>
+          <t>Few hospital.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>M******e B***y</t>
+          <t>K***y C***y</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>3************8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21/01/1949</t>
+          <t>19/08/1955</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AP *</t>
+          <t>* Sandra Junction
+North Susanberg, NH *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(016)-*****36</t>
+          <t>(012)-*****22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1684,22 +1684,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>n******s@example.net</t>
+          <t>d********n@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N************a</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1714,43 +1714,43 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>9703</v>
+        <v>4727</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Party subject.</t>
+          <t>Quickly study book.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C*********r G****a</t>
+          <t>R****t L**e</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3************9</t>
+          <t>5************3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17/02/2006</t>
+          <t>13/03/1975</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Timothy Avenue
-South Jimshire, WY *</t>
+          <t>* Rodgers Ferry Apt. *
+South Steven, AK *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(019)-*****15</t>
+          <t>(012)-*****08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>s************l@example.net</t>
+          <t>a*****5@example.org</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>O****n</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1790,43 +1790,43 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>9051</v>
+        <v>8029</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Cover whatever.</t>
+          <t>Think moment.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>L**a P**a</t>
+          <t>A****y D*****s</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>4************9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22/02/1959</t>
+          <t>09/09/1957</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Cheyenne Motorway
-New Justinstad, FM *</t>
+          <t>* Decker Ramp
+West Johnland, WV *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(012)-*****13</t>
+          <t>(014)-*****82</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1836,12 +1836,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>k*******1@example.org</t>
+          <t>a*******3@example.com</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>G*****a</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1866,43 +1866,43 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1306</v>
+        <v>1227</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Space real program.</t>
+          <t>Ago ready reality.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>T***r C*x</t>
+          <t>J****n A******n</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7************7</t>
+          <t>0************2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23/01/1982</t>
+          <t>03/04/1929</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Unit * Box *
-DPO AP *</t>
+DPO AA *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(017)-*****42</t>
+          <t>(018)-*****71</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1912,17 +1912,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>p******3@example.net</t>
+          <t>a*****7@example.com</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>I***o</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1942,43 +1942,43 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>11000-11999</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>6673</v>
+        <v>7425</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>General itself fish.</t>
+          <t>Deep beyond.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>J******r S********n</t>
+          <t>B******y N****n</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7************0</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20/05/1963</t>
+          <t>27/04/1934</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Nunez Rest Apt. *
-Brownhaven, KS *</t>
+          <t>* Danielle Isle Apt. *
+North Shawnville, KY *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(013)-*****13</t>
+          <t>(011)-*****49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1988,22 +1988,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>e*******n@example.org</t>
+          <t>d*********y@example.org</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P**********a</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2018,43 +2018,43 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>8585</v>
+        <v>2024</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Treatment soon hot.</t>
+          <t>Whom wall southern.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M*****a B***r</t>
+          <t>H*****r W*****e</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5************3</t>
+          <t>4************6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>02/03/1965</t>
+          <t>07/05/2004</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Nicholson Shoals
-North Amber, WY *</t>
+          <t>* George Passage
+North Angela, MP *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(018)-*****73</t>
+          <t>(011)-*****88</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>b**************n@example.org</t>
+          <t>s********a@example.net</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S**********a</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2094,43 +2094,43 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>11000-11999</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3440</v>
+        <v>8295</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Safe scientist wear.</t>
+          <t>TV half long.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D***d M******s</t>
+          <t>L***y W******s</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6************6</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>24/04/1975</t>
+          <t>30/03/1924</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Jackson Drive Apt. *
-Johnstad, VA *</t>
+          <t>* Johnson Summit Apt. *
+Michaelburgh, MH *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(016)-*****53</t>
+          <t>(011)-*****13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>b**********h@example.com</t>
+          <t>v******n@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N********y</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2170,43 +2170,43 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6389</v>
+        <v>4092</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Always building.</t>
+          <t>Exist education.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>J****a P****r</t>
+          <t>L***a D***s</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5************2</t>
+          <t>6************5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08/03/1938</t>
+          <t>20/02/1946</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Navarro Lodge Apt. *
-South Emily, CA *</t>
+          <t>Unit * Box *
+DPO AA *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(016)-*****17</t>
+          <t>(014)-*****39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>s**********e@example.net</t>
+          <t>d******i@example.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>P**********a</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>100-100</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2246,43 +2246,43 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>6101</v>
+        <v>9595</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Next because heart.</t>
+          <t>Among affect.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>K***e M******d</t>
+          <t>J***s L*****t</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>7************6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12/02/1950</t>
+          <t>21/02/2005</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Philip Ways
-Christophermouth, GU *</t>
+          <t>* Strickland Walks
+Julieburgh, WV *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(011)-*****75</t>
+          <t>(014)-*****00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2292,22 +2292,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>s****0@example.org</t>
+          <t>a*****1@example.org</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>K******y</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2322,43 +2322,43 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2000-2999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>5830</v>
+        <v>1140</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Bar remember result.</t>
+          <t>It bit conference.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>V******a S***h</t>
+          <t>S*****n M******z</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8************3</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/08/1983</t>
+          <t>10/06/1931</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Howard Isle Suite *
-East Brenda, MS *</t>
+          <t>* Abbott Orchard
+Audreyfort, VA *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(017)-*****50</t>
+          <t>(016)-*****64</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2368,22 +2368,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>r*****r@example.net</t>
+          <t>g*********l@example.com</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>I******s</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2398,43 +2398,43 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>5077</v>
+        <v>3087</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Against attention.</t>
+          <t>Respond draw see.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A*****l G*****n</t>
+          <t>B******y M***n</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5************6</t>
+          <t>0************9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>07/04/1960</t>
+          <t>14/08/1987</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Davis Loaf
-Laurahaven, NY *</t>
+          <t>* Paula Forest
+Costaborough, VI *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(015)-*****99</t>
+          <t>(011)-*****62</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2444,22 +2444,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>j*************y@example.net</t>
+          <t>s**********n@example.net</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>F*****a</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2474,43 +2474,43 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>7685</v>
+        <v>2252</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Direction cover.</t>
+          <t>Blood however north.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>O**r H***y</t>
+          <t>D****l R*y</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3************7</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16/04/1957</t>
+          <t>08/09/1982</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Mcfarland Ridges Apt. *
-Julieside, CA *</t>
+          <t>* Clark Fall
+Bankstown, KY *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(016)-*****64</t>
+          <t>(013)-*****79</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2520,22 +2520,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>h******6@example.org</t>
+          <t>t*******n@example.com</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>I******s</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2550,43 +2550,43 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>7000-7999</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>9168</v>
+        <v>5058</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Physical nearly.</t>
+          <t>Account sit.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S**a D***s</t>
+          <t>D****d B*****n</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8************9</t>
+          <t>7************4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>30/11/1947</t>
+          <t>14/02/1992</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Drew Mission Suite *
-Lake Jenniferborough, WV *</t>
+          <t>* Joseph Pass
+Port Stephaniehaven, MA *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(010)-*****93</t>
+          <t>(016)-*****44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>f**********s@example.net</t>
+          <t>k************h@example.com</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>M*********i</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2626,43 +2626,43 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13000-13999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2241</v>
+        <v>3073</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Industry turn.</t>
+          <t>Ever authority.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>T**a J***s</t>
+          <t>N*****e W****n</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27/04/1932</t>
+          <t>30/11/1962</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Matthew Causeway Suite *
-Spenceborough, VI *</t>
+          <t>* Schroeder Prairie Apt. *
+South Daniellemouth, GA *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(016)-*****62</t>
+          <t>(017)-*****47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2672,12 +2672,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>l*****4@example.com</t>
+          <t>b********y@example.net</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>F*****a</t>
+          <t>J****************m</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2702,43 +2702,43 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>14000-14999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>7063</v>
+        <v>4315</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Even big rise fund.</t>
+          <t>Choose out name.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>G*****l C****s</t>
+          <t>J***e R**d</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8************3</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08/03/1942</t>
+          <t>31/10/1969</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Mary Park Suite *
-East Jasonview, MN *</t>
+          <t>* Banks Prairie Suite *
+Port Kimberlychester, MI *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(014)-*****03</t>
+          <t>(012)-*****38</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2748,22 +2748,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>i****s@example.net</t>
+          <t>a*******a@example.org</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>O****n</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2778,15 +2778,15 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>4000-4999</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>6369</v>
+        <v>3866</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Exactly a forward.</t>
+          <t>Couple worker.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E*******h H**l</t>
+          <t>J****h P****e</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>3************8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24/08/1963</t>
+          <t>21/07/1989</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Eric Turnpike
-Port Scott, NH *</t>
+          <t>* Julia Expressway Apt. *
+Melissaton, RI *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(018)-*****76</t>
+          <t>(017)-*****43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>l******y@example.com</t>
+          <t>m**********s@example.net</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -574,43 +574,43 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>7000-7999</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3723</v>
+        <v>1584</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Light free south.</t>
+          <t>Shake eight.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A*****y B***d</t>
+          <t>B****a C***k</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6************3</t>
+          <t>5************2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>08/04/1935</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Dennis Pass Suite *
-Dylanborough, MT *</t>
+          <t>PSC *, Box *
+APO AE *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(015)-*****32</t>
+          <t>(019)-*****77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>v***g@example.org</t>
+          <t>s***********m@example.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>K***h</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -650,43 +650,43 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6785</v>
+        <v>3721</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Situation attention.</t>
+          <t>Television until.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D***d B***e</t>
+          <t>R****l R***s</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6************4</t>
+          <t>3************2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18/11/1979</t>
+          <t>02/08/1961</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Morris Pines Apt. *
-Petersonmouth, AZ *</t>
+          <t>* Edward Junctions
+South Michellefurt, MO *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(018)-*****89</t>
+          <t>(013)-*****70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -696,22 +696,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>c**************n@example.net</t>
+          <t>t*******s@example.org</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -726,43 +726,43 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14000-14999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6558</v>
+        <v>4745</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Star east later ok.</t>
+          <t>Unit pull in.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K****i J****n</t>
+          <t>R***n P***y</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7************1</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04/04/1940</t>
+          <t>24/04/1952</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Smith Cliffs Apt. *
-North Rachaelton, NC *</t>
+          <t>* Bailey Hollow Apt. *
+West Roberthaven, CT *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(011)-*****10</t>
+          <t>(018)-*****80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -772,22 +772,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>f*******l@example.net</t>
+          <t>j***h@example.org</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>100-100</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -802,43 +802,43 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2815</v>
+        <v>9926</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Budget feeling.</t>
+          <t>Mean many hospital.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J**n H***y</t>
+          <t>J**l S*****t</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4************3</t>
+          <t>3************1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15/05/1931</t>
+          <t>23/01/1976</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Janet Viaduct
-Gabrielton, HI *</t>
+          <t>* Michelle Cape Suite *
+Chapmanview, IL *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(016)-*****56</t>
+          <t>(019)-*****67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -848,22 +848,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>t*****5@example.org</t>
+          <t>r**********s@example.com</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>K***h</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -878,43 +878,43 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4616</v>
+        <v>7116</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Improve trip.</t>
+          <t>Amount time between.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>J******r M****n D*S</t>
+          <t>T***r L****y</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6************6</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10/12/1924</t>
+          <t>10/08/1937</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Baker Causeway
-Mayland, MS *</t>
+          <t>* Miller Park Apt. *
+Leonmouth, PR *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(010)-*****50</t>
+          <t>(015)-*****13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -924,22 +924,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>f****n@example.com</t>
+          <t>m***********a@example.net</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -954,22 +954,22 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5000-5999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4553</v>
+        <v>3896</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>No company catch.</t>
+          <t>Worker cause myself.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T****a L*u</t>
+          <t>T****r M****y</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -979,18 +979,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09/11/1965</t>
+          <t>08/02/1982</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Barker Forges Apt. *
-Georgechester, HI *</t>
+          <t>* Brown Overpass Suite *
+Allenport, IN *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(014)-*****54</t>
+          <t>(011)-*****76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>k********5@example.com</t>
+          <t>n********1@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N*************n</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1030,43 +1030,43 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14000-14999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7478</v>
+        <v>4568</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Sound major society.</t>
+          <t>Share once thank.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A****y W*****d</t>
+          <t>A***l G******z</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>4************5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/08/1995</t>
+          <t>19/08/1994</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Rivera Points
-Jaredberg, WI *</t>
+          <t>* Melissa Ports Suite *
+Jakebury, OR *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-*****54</t>
+          <t>(018)-*****02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1076,22 +1076,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>i*****s@example.com</t>
+          <t>r*********e@example.com</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1106,43 +1106,43 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2000-2999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6977</v>
+        <v>4154</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Class themselves.</t>
+          <t>Crime protect.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>H*****r O****a</t>
+          <t>K**e M****s</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>6************3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17/07/1944</t>
+          <t>02/11/1968</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Deanna Court
-Lake Frederickmouth, PA *</t>
+          <t>* Timothy Mall Suite *
+South Fernando, OH *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(013)-*****44</t>
+          <t>(012)-*****45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1152,22 +1152,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>j**********l@example.com</t>
+          <t>k*****3@example.org</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1182,43 +1182,43 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3297</v>
+        <v>7826</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>You character use.</t>
+          <t>Laugh pay third ten.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>J**n P***y</t>
+          <t>R****t B*****t</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>0************5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21/08/2004</t>
+          <t>24/06/1954</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Rachel View Apt. *
-Jameschester, NJ *</t>
+          <t>* Cooper Harbors
+Harrisberg, VT *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-*****42</t>
+          <t>(011)-*****20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1228,22 +1228,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>h**********a@example.net</t>
+          <t>s*****s@example.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S***h</t>
+          <t>J****************m</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1258,43 +1258,43 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>8598</v>
+        <v>6124</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Affect foot say.</t>
+          <t>Student be friend.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M**k C***k</t>
+          <t>L***y S***h</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4************2</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13/05/1925</t>
+          <t>26/11/1983</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Jennifer Lock
-Lake Ryan, KS *</t>
+          <t>* Angela Spurs Suite *
+Scottland, WA *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(019)-*****70</t>
+          <t>(016)-*****48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1304,22 +1304,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>h*********n@example.com</t>
+          <t>j*********y@example.com</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1334,43 +1334,43 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>9866</v>
+        <v>7523</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Source family.</t>
+          <t>Green of yet front.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A****y D***s</t>
+          <t>W*****m V*****z</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8************9</t>
+          <t>3************4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>02/01/1957</t>
+          <t>23/07/1942</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Eric Causeway
-Wolfeport, MO *</t>
+          <t>* Brian Extension
+Brandonhaven, MD *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(015)-*****80</t>
+          <t>(015)-*****66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1380,22 +1380,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>a********m@example.com</t>
+          <t>p***********z@example.net</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1410,43 +1410,43 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13000-13999</t>
+          <t>7000-7999</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>9911</v>
+        <v>8750</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Same appear.</t>
+          <t>Paper yes section.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T****s C****r</t>
+          <t>A*a W***s</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6************9</t>
+          <t>2************9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26/07/1946</t>
+          <t>10/11/1979</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AE *</t>
+          <t>* Simon Roads
+Roseton, UT *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(014)-*****54</t>
+          <t>(013)-*****87</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1456,22 +1456,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>b****g@example.net</t>
+          <t>j************e@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N*************n</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>18-19</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1486,43 +1486,43 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>13000-13999</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2566</v>
+        <v>6448</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Wind outside small.</t>
+          <t>Return something.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C*****s K**x</t>
+          <t>T****a B***n</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0************9</t>
+          <t>5************0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29/09/1965</t>
+          <t>06/12/1927</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Margaret Ways
-West Christianville, RI *</t>
+          <t>* Brittany Ranch Suite *
+Port Gregview, WA *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(013)-*****90</t>
+          <t>(012)-*****74</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1532,22 +1532,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>l********9@example.net</t>
+          <t>j***************n@example.com</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>S******r</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1566,39 +1566,39 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4126</v>
+        <v>7687</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Their become nation.</t>
+          <t>People story where.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>J***e S*****s</t>
+          <t>B***y C**z</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9************3</t>
+          <t>3************8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>02/01/1959</t>
+          <t>10/12/1957</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Kimberly Drives Apt. *
-Port Brandon, DE *</t>
+          <t>* Robert Trail Apt. *
+Bradleychester, GU *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(011)-*****58</t>
+          <t>(013)-*****83</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>d********y@example.net</t>
+          <t>h***********l@example.org</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1638,43 +1638,43 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>13000-13999</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1890</v>
+        <v>3467</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Few hospital.</t>
+          <t>Hope decide lawyer.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>K***y C***y</t>
+          <t>S***h C**k</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3************8</t>
+          <t>5************3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19/08/1955</t>
+          <t>07/09/1981</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Sandra Junction
-North Susanberg, NH *</t>
+          <t>* Ashley Estate
+Johnsontown, SC *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-*****22</t>
+          <t>(017)-*****80</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1684,22 +1684,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>d********n@example.com</t>
+          <t>m***********e@example.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1714,43 +1714,43 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2000-2999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4727</v>
+        <v>3488</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Quickly study book.</t>
+          <t>Same identify.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R****t L**e</t>
+          <t>R*****d J***s</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5************3</t>
+          <t>4************9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13/03/1975</t>
+          <t>02/06/1964</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Rodgers Ferry Apt. *
-South Steven, AK *</t>
+          <t>* Ethan Pass Suite *
+Michaeltown, DC *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(012)-*****08</t>
+          <t>(013)-*****93</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>a*****5@example.org</t>
+          <t>n*************t@example.net</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1770,12 +1770,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1790,43 +1790,43 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>8029</v>
+        <v>6701</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Think moment.</t>
+          <t>Drug positive eye.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A****y D*****s</t>
+          <t>A****w S*****t</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4************9</t>
+          <t>4************3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09/09/1957</t>
+          <t>11/07/1946</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Decker Ramp
-West Johnland, WV *</t>
+          <t>* Jesus Creek
+North Jodi, OR *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(014)-*****82</t>
+          <t>(013)-*****19</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1836,17 +1836,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>a*******3@example.com</t>
+          <t>q***e@example.com</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P****s</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1866,43 +1866,43 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>7000-7999</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1227</v>
+        <v>5141</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Ago ready reality.</t>
+          <t>Study meet black.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>J****n A******n</t>
+          <t>S**n S***h</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0************2</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>03/04/1929</t>
+          <t>25/06/1977</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AA *</t>
+          <t>* Julia Islands Apt. *
+Lake Connieport, NC *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(018)-*****71</t>
+          <t>(014)-*****44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1912,22 +1912,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>a*****7@example.com</t>
+          <t>w***********e@example.net</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>S******r</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1942,43 +1942,43 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>7425</v>
+        <v>2254</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Deep beyond.</t>
+          <t>Group act term.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B******y N****n</t>
+          <t>W*****m O****a</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>27/04/1934</t>
+          <t>04/08/1995</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Danielle Isle Apt. *
-North Shawnville, KY *</t>
+          <t>Unit * Box *
+DPO AP *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(011)-*****49</t>
+          <t>(016)-*****51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1988,22 +1988,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>d*********y@example.org</t>
+          <t>s******6@example.net</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N*************n</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2018,43 +2018,43 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2000-2999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2024</v>
+        <v>1518</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Whom wall southern.</t>
+          <t>Resource future.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>H*****r W*****e</t>
+          <t>A****a B***e</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4************6</t>
+          <t>2************9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07/05/2004</t>
+          <t>09/08/2005</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* George Passage
-North Angela, MP *</t>
+          <t>* Scott Crest
+New William, NC *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(011)-*****88</t>
+          <t>(018)-*****47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>s********a@example.net</t>
+          <t>m********4@example.com</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2094,43 +2094,43 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>8295</v>
+        <v>3923</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>TV half long.</t>
+          <t>Hope course budget.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L***y W******s</t>
+          <t>B***n P****r</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7************0</t>
+          <t>7************7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>30/03/1924</t>
+          <t>21/05/1995</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Johnson Summit Apt. *
-Michaelburgh, MH *</t>
+          <t>* Boyd Village
+Smithview, ND *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(011)-*****13</t>
+          <t>(010)-*****90</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>v******n@example.org</t>
+          <t>u*****n@example.com</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>S******r</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2170,43 +2170,43 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4092</v>
+        <v>7623</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Exist education.</t>
+          <t>Seven tonight.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>L***a D***s</t>
+          <t>H*****r M***e</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6************5</t>
+          <t>2************0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20/02/1946</t>
+          <t>24/01/1961</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AA *</t>
+          <t>* Lisa Lake Apt. *
+South Lisatown, CO *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(014)-*****39</t>
+          <t>(019)-*****67</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2216,22 +2216,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>d******i@example.com</t>
+          <t>a*********9@example.net</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>T********u</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>100-100</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2246,43 +2246,43 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>4000-4999</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>9595</v>
+        <v>9874</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Among affect.</t>
+          <t>I authority.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>J***s L*****t</t>
+          <t>J***n M***s</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7************6</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21/02/2005</t>
+          <t>20/02/1962</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Strickland Walks
-Julieburgh, WV *</t>
+          <t>* Freeman Throughway Suite *
+Watsonside, AR *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(014)-*****00</t>
+          <t>(012)-*****43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2292,22 +2292,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>a*****1@example.org</t>
+          <t>n*****n@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2322,43 +2322,43 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1140</v>
+        <v>9264</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>It bit conference.</t>
+          <t>Sell sea among door.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S*****n M******z</t>
+          <t>M******t G******z</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>6************5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10/06/1931</t>
+          <t>03/07/1952</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Abbott Orchard
-Audreyfort, VA *</t>
+          <t>* Catherine Canyon
+New Stephaniehaven, VT *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(016)-*****64</t>
+          <t>(019)-*****85</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2368,22 +2368,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>g*********l@example.com</t>
+          <t>e****k@example.net</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>N*************n</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2398,43 +2398,43 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3087</v>
+        <v>9402</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Respond draw see.</t>
+          <t>Material ago office.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B******y M***n</t>
+          <t>P*****p A******n</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0************9</t>
+          <t>4************8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14/08/1987</t>
+          <t>13/07/1988</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Paula Forest
-Costaborough, VI *</t>
+          <t>* Veronica Knoll
+West Marieborough, FM *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(011)-*****62</t>
+          <t>(017)-*****87</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2444,17 +2444,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>s**********n@example.net</t>
+          <t>w**********e@example.net</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2474,43 +2474,43 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>5000-5999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2252</v>
+        <v>9221</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Blood however north.</t>
+          <t>Policy along social.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D****l R*y</t>
+          <t>M****a W***s</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>7************9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08/09/1982</t>
+          <t>23/03/1958</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Clark Fall
-Bankstown, KY *</t>
+          <t>* Jackson Mission Apt. *
+Aprilburgh, AS *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(013)-*****79</t>
+          <t>(012)-*****66</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2520,12 +2520,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>t*******n@example.com</t>
+          <t>q*******z@example.net</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2550,43 +2550,43 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>5058</v>
+        <v>4008</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Account sit.</t>
+          <t>Painting watch each.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D****d B*****n</t>
+          <t>C***b N***k</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7************4</t>
+          <t>2************6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14/02/1992</t>
+          <t>02/08/1932</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Joseph Pass
-Port Stephaniehaven, MA *</t>
+          <t>* Sanford Square
+South Monica, SD *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(016)-*****44</t>
+          <t>(010)-*****54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2596,17 +2596,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>k************h@example.com</t>
+          <t>t*********e@example.com</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2626,22 +2626,22 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3073</v>
+        <v>6796</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Ever authority.</t>
+          <t>Spend building this.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>N*****e W****n</t>
+          <t>W***y H**l</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2651,18 +2651,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>30/11/1962</t>
+          <t>09/02/1947</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Schroeder Prairie Apt. *
-South Daniellemouth, GA *</t>
+          <t>* Andrew Pike Apt. *
+Matthewstad, ND *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(017)-*****47</t>
+          <t>(011)-*****47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2672,22 +2672,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>b********y@example.net</t>
+          <t>j****e@example.org</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>J****************m</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2702,43 +2702,43 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4315</v>
+        <v>7260</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Choose out name.</t>
+          <t>Guess attack.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>J***e R**d</t>
+          <t>Z*****y B***r</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>7************3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/10/1969</t>
+          <t>30/08/1972</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Banks Prairie Suite *
-Port Kimberlychester, MI *</t>
+          <t>* Ana Loaf
+Douglastown, AR *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(012)-*****38</t>
+          <t>(019)-*****75</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2748,22 +2748,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>a*******a@example.org</t>
+          <t>j******2@example.org</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2778,15 +2778,15 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3866</v>
+        <v>2887</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Couple worker.</t>
+          <t>Law reflect test.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J****h P****e</t>
+          <t>T*****y M****n</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3************8</t>
+          <t>5************5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21/07/1989</t>
+          <t>17/08/1996</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Julia Expressway Apt. *
-Melissaton, RI *</t>
+          <t>* Dana Overpass
+North Jeanetteberg, GU *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(017)-*****43</t>
+          <t>(017)-*****02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>m**********s@example.net</t>
+          <t>m**********n@example.net</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -574,43 +574,43 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1584</v>
+        <v>9307</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Shake eight.</t>
+          <t>Church move cell.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B****a C***k</t>
+          <t>C*******e T****s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5************2</t>
+          <t>8************4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08/04/1935</t>
+          <t>06/06/1928</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AE *</t>
+          <t>* Matthew Alley Apt. *
+East Lindseyburgh, KS *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(019)-*****77</t>
+          <t>(010)-*****93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s***********m@example.com</t>
+          <t>w*********l@example.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -650,43 +650,43 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3721</v>
+        <v>9458</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Television until.</t>
+          <t>Meet would.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R****l R***s</t>
+          <t>C*******e C***k</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3************2</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>02/08/1961</t>
+          <t>15/06/1961</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Edward Junctions
-South Michellefurt, MO *</t>
+          <t>* Sierra Route
+Ninachester, OR *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(013)-*****70</t>
+          <t>(014)-*****72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>t*******s@example.org</t>
+          <t>e**********n@example.org</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>J****************m</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -730,39 +730,39 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4745</v>
+        <v>6441</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Unit pull in.</t>
+          <t>Mrs morning wear we.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R***n P***y</t>
+          <t>M******e G*******z</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>0************2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24/04/1952</t>
+          <t>04/08/1974</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Bailey Hollow Apt. *
-West Roberthaven, CT *</t>
+          <t>* Allen Freeway Apt. *
+West Ryanhaven, PW *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(018)-*****80</t>
+          <t>(013)-*****79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -772,22 +772,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>j***h@example.org</t>
+          <t>b*******h@example.org</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>100-100</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -802,43 +802,43 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5000-5999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>9926</v>
+        <v>6414</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Mean many hospital.</t>
+          <t>Site stay physical.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J**l S*****t</t>
+          <t>G**y M***s</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3************1</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23/01/1976</t>
+          <t>01/11/1948</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Michelle Cape Suite *
-Chapmanview, IL *</t>
+          <t>* Robbins Spur
+Garciachester, NV *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(019)-*****67</t>
+          <t>(016)-*****35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -848,22 +848,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>r**********s@example.com</t>
+          <t>s*****1@example.org</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S***h</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -878,43 +878,43 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>7116</v>
+        <v>5655</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Amount time between.</t>
+          <t>Television tree.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>T***r L****y</t>
+          <t>M****a D***s</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>0************5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10/08/1937</t>
+          <t>26/07/1930</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Miller Park Apt. *
-Leonmouth, PR *</t>
+          <t>* Alicia Isle
+South Brettside, NV *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(015)-*****13</t>
+          <t>(011)-*****77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>m***********a@example.net</t>
+          <t>b*******6@example.com</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -934,12 +934,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -954,43 +954,43 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3896</v>
+        <v>9124</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Worker cause myself.</t>
+          <t>Gas also say part.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T****r M****y</t>
+          <t>D***a P****r</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>7************1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08/02/1982</t>
+          <t>18/10/1982</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Brown Overpass Suite *
-Allenport, IN *</t>
+          <t>* Murphy Inlet Suite *
+Christopherborough, GA *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(011)-*****76</t>
+          <t>(012)-*****49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1000,22 +1000,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>n********1@example.com</t>
+          <t>c*********1@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1030,43 +1030,43 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4568</v>
+        <v>9159</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Share once thank.</t>
+          <t>Even drop positive.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A***l G******z</t>
+          <t>A*****y D*****s</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4************5</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19/08/1994</t>
+          <t>06/03/1931</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Melissa Ports Suite *
-Jakebury, OR *</t>
+          <t>* Rose Port Suite *
+Phillipsstad, AZ *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(018)-*****02</t>
+          <t>(012)-*****93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1076,22 +1076,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>r*********e@example.com</t>
+          <t>d*******1@example.org</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>T********u</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1106,43 +1106,43 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4154</v>
+        <v>4104</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Crime protect.</t>
+          <t>Thousand son.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>K**e M****s</t>
+          <t>L**i B****s</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6************3</t>
+          <t>9************0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>02/11/1968</t>
+          <t>27/11/1976</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Timothy Mall Suite *
-South Fernando, OH *</t>
+          <t>* James Forge
+Lake Todd, VA *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(012)-*****45</t>
+          <t>(017)-*****33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1152,22 +1152,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>k*****3@example.org</t>
+          <t>t*******4@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1182,43 +1182,43 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>11000-11999</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7826</v>
+        <v>1150</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Laugh pay third ten.</t>
+          <t>Total truth.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R****t B*****t</t>
+          <t>A****y R******s</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0************5</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>24/06/1954</t>
+          <t>05/01/1993</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Cooper Harbors
-Harrisberg, VT *</t>
+          <t>PSC *, Box *
+APO AP *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(011)-*****20</t>
+          <t>(017)-*****04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1228,22 +1228,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>s*****s@example.com</t>
+          <t>v********5@example.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>J****************m</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1258,43 +1258,43 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5000-5999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6124</v>
+        <v>3745</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Student be friend.</t>
+          <t>Morning enjoy.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L***y S***h</t>
+          <t>B***n H***h</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8************1</t>
+          <t>4************6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26/11/1983</t>
+          <t>16/01/1955</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Angela Spurs Suite *
-Scottland, WA *</t>
+          <t>* Joseph Parks Apt. *
+East Michelle, AZ *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(016)-*****48</t>
+          <t>(010)-*****53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1304,22 +1304,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>j*********y@example.com</t>
+          <t>d*******0@example.com</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1334,43 +1334,43 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2000-2999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>7523</v>
+        <v>4971</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Green of yet front.</t>
+          <t>Ready fear apply.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W*****m V*****z</t>
+          <t>J**n P****e</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3************4</t>
+          <t>3************8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>23/07/1942</t>
+          <t>31/01/1946</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Brian Extension
-Brandonhaven, MD *</t>
+          <t>* Weber Stream
+Alvarezport, IL *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(015)-*****66</t>
+          <t>(013)-*****59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>p***********z@example.net</t>
+          <t>u*****x@example.net</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1390,12 +1390,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1410,43 +1410,43 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>8750</v>
+        <v>8670</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Paper yes section.</t>
+          <t>Media several up.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A*a W***s</t>
+          <t>R*****d W****r</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2************9</t>
+          <t>5************1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10/11/1979</t>
+          <t>14/01/1958</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Simon Roads
-Roseton, UT *</t>
+          <t>* Marissa Courts Apt. *
+Lake Samantha, LA *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(013)-*****87</t>
+          <t>(011)-*****11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1456,22 +1456,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>j************e@example.org</t>
+          <t>k******d@example.com</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1486,43 +1486,43 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13000-13999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6448</v>
+        <v>8626</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Return something.</t>
+          <t>Meet door shake.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>T****a B***n</t>
+          <t>J**n R**e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5************0</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06/12/1927</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Brittany Ranch Suite *
-Port Gregview, WA *</t>
+          <t>* Jessica Trail
+Victoriaport, AL *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(012)-*****74</t>
+          <t>(014)-*****78</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1532,22 +1532,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>j***************n@example.com</t>
+          <t>c****0@example.com</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1562,43 +1562,43 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14000-14999</t>
+          <t>13000-13999</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>7687</v>
+        <v>9296</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>People story where.</t>
+          <t>Also her stuff job.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B***y C**z</t>
+          <t>S***t P***y</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3************8</t>
+          <t>7************7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10/12/1957</t>
+          <t>30/04/1974</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Robert Trail Apt. *
-Bradleychester, GU *</t>
+          <t>* Turner Turnpike Suite *
+Murphyview, IA *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(013)-*****83</t>
+          <t>(019)-*****52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1608,22 +1608,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>h***********l@example.org</t>
+          <t>s*******0@example.net</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>J****************m</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1638,43 +1638,43 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13000-13999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3467</v>
+        <v>8620</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Hope decide lawyer.</t>
+          <t>Center final gun.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S***h C**k</t>
+          <t>P****a J*****n</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5************3</t>
+          <t>0************5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07/09/1981</t>
+          <t>21/09/1993</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Ashley Estate
-Johnsontown, SC *</t>
+          <t>* Angela Mount
+West Carltown, RI *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(017)-*****80</t>
+          <t>(010)-*****70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1684,22 +1684,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>m***********e@example.com</t>
+          <t>a******4@example.org</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1714,43 +1714,43 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3488</v>
+        <v>2213</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Same identify.</t>
+          <t>Actually guess let.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R*****d J***s</t>
+          <t>M****n R***n</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4************9</t>
+          <t>8************0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>02/06/1964</t>
+          <t>26/07/1957</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Ethan Pass Suite *
-Michaeltown, DC *</t>
+          <t>* Ellison Stream
+Angelafurt, PR *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(013)-*****93</t>
+          <t>(018)-*****64</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>n*************t@example.net</t>
+          <t>r*********s@example.com</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1790,43 +1790,43 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>14000-14999</t>
+          <t>13000-13999</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6701</v>
+        <v>4920</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Drug positive eye.</t>
+          <t>Others authority.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A****w S*****t</t>
+          <t>A***r H**l</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4************3</t>
+          <t>0************7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11/07/1946</t>
+          <t>23/02/1947</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Jesus Creek
-North Jodi, OR *</t>
+          <t>* Bell Unions Suite *
+Bryanchester, OK *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(013)-*****19</t>
+          <t>(010)-*****24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1836,22 +1836,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>q***e@example.com</t>
+          <t>h******c@example.net</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>T********u</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1866,43 +1866,43 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>5141</v>
+        <v>1451</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Study meet black.</t>
+          <t>Town material.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S**n S***h</t>
+          <t>F***k H*******n</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>2************3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>25/06/1977</t>
+          <t>15/09/1997</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Julia Islands Apt. *
-Lake Connieport, NC *</t>
+          <t>* Margaret Trafficway
+Alexanderchester, PR *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(014)-*****44</t>
+          <t>(014)-*****75</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>w***********e@example.net</t>
+          <t>z****e@example.net</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1942,43 +1942,43 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14000-14999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2254</v>
+        <v>6623</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Group act term.</t>
+          <t>Drug head finally.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W*****m O****a</t>
+          <t>K******y S*****n</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>3************1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04/08/1995</t>
+          <t>24/05/1965</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AP *</t>
+          <t>* Isaac Mountain Apt. *
+Port Jasonchester, FM *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(016)-*****51</t>
+          <t>(010)-*****15</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1988,22 +1988,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>s******6@example.net</t>
+          <t>i*****t@example.org</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>S***h</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2018,43 +2018,43 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1518</v>
+        <v>4124</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Resource future.</t>
+          <t>National single.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A****a B***e</t>
+          <t>M****l S*****s</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2************9</t>
+          <t>4************6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09/08/2005</t>
+          <t>23/05/1984</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Scott Crest
-New William, NC *</t>
+          <t>* Sara Ranch
+New Christopherfort, MO *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(018)-*****47</t>
+          <t>(012)-*****69</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2064,22 +2064,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>m********4@example.com</t>
+          <t>s***********a@example.net</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S******r</t>
+          <t>J****************m</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2094,43 +2094,43 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14000-14999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3923</v>
+        <v>8217</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Hope course budget.</t>
+          <t>Week woman hear.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B***n P****r</t>
+          <t>B******y R*******z</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7************7</t>
+          <t>6************0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21/05/1995</t>
+          <t>12/01/1988</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Boyd Village
-Smithview, ND *</t>
+          <t>* Penny Course Apt. *
+Mckenzieburgh, MA *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(010)-*****90</t>
+          <t>(017)-*****65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2140,22 +2140,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>u*****n@example.com</t>
+          <t>i*******n@example.net</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P****s</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>100-100</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2170,43 +2170,43 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>7623</v>
+        <v>3753</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Seven tonight.</t>
+          <t>Parent chance since.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>H*****r M***e</t>
+          <t>S****y F********d</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2************0</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24/01/1961</t>
+          <t>28/05/1974</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Lisa Lake Apt. *
-South Lisatown, CO *</t>
+          <t>* Huang Club Suite *
+West Michael, VI *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(019)-*****67</t>
+          <t>(013)-*****43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2216,22 +2216,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>a*********9@example.net</t>
+          <t>d********t@example.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2246,43 +2246,43 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>7000-7999</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>9874</v>
+        <v>2508</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>I authority.</t>
+          <t>Position few relate.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>J***n M***s</t>
+          <t>P***y D***s</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6************6</t>
+          <t>0************7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20/02/1962</t>
+          <t>15/03/1995</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Freeman Throughway Suite *
-Watsonside, AR *</t>
+          <t>* Kelsey Overpass
+Port Deborahmouth, HI *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(012)-*****43</t>
+          <t>(018)-*****90</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>n*****n@example.com</t>
+          <t>n**************s@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2322,43 +2322,43 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>9264</v>
+        <v>8866</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Sell sea among door.</t>
+          <t>Unit political may.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M******t G******z</t>
+          <t>J**e W******s</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6************5</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>03/07/1952</t>
+          <t>06/06/1948</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Catherine Canyon
-New Stephaniehaven, VT *</t>
+          <t>* Mcgee Shoals
+Brandiland, IL *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(019)-*****85</t>
+          <t>(016)-*****13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>e****k@example.net</t>
+          <t>e******z@example.org</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2398,43 +2398,43 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>9402</v>
+        <v>7365</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Material ago office.</t>
+          <t>Will early her.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P*****p A******n</t>
+          <t>A**m W******s</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4************8</t>
+          <t>7************5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13/07/1988</t>
+          <t>30/08/1983</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Veronica Knoll
-West Marieborough, FM *</t>
+          <t>* Brown Ramp
+East Joe, OK *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(017)-*****87</t>
+          <t>(016)-*****03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2444,12 +2444,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>w**********e@example.net</t>
+          <t>t**********r@example.net</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>T********u</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2474,43 +2474,43 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>11000-11999</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>9221</v>
+        <v>2025</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Policy along social.</t>
+          <t>You company window.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>M****a W***s</t>
+          <t>K***a M****n</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7************9</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>23/03/1958</t>
+          <t>31/05/1968</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Jackson Mission Apt. *
-Aprilburgh, AS *</t>
+          <t>* Jeremy Fall
+Taraton, WA *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(012)-*****66</t>
+          <t>(010)-*****34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2520,22 +2520,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>q*******z@example.net</t>
+          <t>a****5@example.com</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>K***h</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2550,43 +2550,43 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4008</v>
+        <v>2408</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Painting watch each.</t>
+          <t>Hold job similar.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C***b N***k</t>
+          <t>M*****l R*******z</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2************6</t>
+          <t>5************5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>02/08/1932</t>
+          <t>26/01/1973</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Sanford Square
-South Monica, SD *</t>
+          <t>* Travis Court
+Markport, IL *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(010)-*****54</t>
+          <t>(012)-*****77</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2596,22 +2596,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>t*********e@example.com</t>
+          <t>e********y@example.net</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>T********u</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2630,39 +2630,39 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>6796</v>
+        <v>6232</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Spend building this.</t>
+          <t>Interesting visit.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>W***y H**l</t>
+          <t>K***n B*****n</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>0************8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>09/02/1947</t>
+          <t>12/01/1968</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Andrew Pike Apt. *
-Matthewstad, ND *</t>
+          <t>* Samantha Canyon
+Mortonstad, MT *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(011)-*****47</t>
+          <t>(015)-*****28</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2672,22 +2672,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>j****e@example.org</t>
+          <t>s*******6@example.com</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2702,43 +2702,43 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5000-5999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>7260</v>
+        <v>4306</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Guess attack.</t>
+          <t>West reach.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Z*****y B***r</t>
+          <t>P**l P***z</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7************3</t>
+          <t>6************7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30/08/1972</t>
+          <t>28/12/1960</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Ana Loaf
-Douglastown, AR *</t>
+          <t>* Heather Meadows Apt. *
+Henryville, SD *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(019)-*****75</t>
+          <t>(013)-*****04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2748,22 +2748,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>j******2@example.org</t>
+          <t>a******5@example.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N*************n</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2778,15 +2778,15 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>14000-14999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2887</v>
+        <v>5769</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Law reflect test.</t>
+          <t>Team artist fire.</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>T*****y M****n</t>
+          <t>J***e L**e</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5************5</t>
+          <t>9************7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17/08/1996</t>
+          <t>09/03/1975</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Dana Overpass
-North Jeanetteberg, GU *</t>
+          <t>* Erik Cliff Apt. *
+East Edward, KY *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(017)-*****02</t>
+          <t>(015)-*****94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>m**********n@example.net</t>
+          <t>d********7@example.net</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -574,43 +574,45 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>9000-9999</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>9307</v>
+          <t>13000-13999</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Church move cell.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C*******e T****s</t>
+          <t>B*****a D***s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8************4</t>
+          <t>5************9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06/06/1928</t>
+          <t>16/04/1960</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Matthew Alley Apt. *
-East Lindseyburgh, KS *</t>
+          <t>* Freeman Junctions
+Lake Christineview, NC *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(010)-*****93</t>
+          <t>(012)-*****82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,22 +622,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>w*********l@example.com</t>
+          <t>j******s@example.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>K***h</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -650,43 +652,45 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6000-6999</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>9458</v>
+          <t>12000-12999</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Meet would.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C*******e C***k</t>
+          <t>E**n J*****n</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>6************2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15/06/1961</t>
+          <t>13/03/1993</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Sierra Route
-Ninachester, OR *</t>
+          <t>* John Roads Suite *
+New Brianberg, MD *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(014)-*****72</t>
+          <t>(017)-*****94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -696,22 +700,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>e**********n@example.org</t>
+          <t>a**********r@example.net</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>J****************m</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -726,43 +730,45 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12000-12999</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>6441</v>
+          <t>3000-3999</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Mrs morning wear we.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M******e G*******z</t>
+          <t>M*****l D*****n</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0************2</t>
+          <t>8************0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04/08/1974</t>
+          <t>19/05/1987</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Allen Freeway Apt. *
-West Ryanhaven, PW *</t>
+          <t>* *
+FPO AE *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(013)-*****79</t>
+          <t>(012)-*****10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -772,22 +778,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>b*******h@example.org</t>
+          <t>c******a@example.org</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -802,43 +808,45 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3000-3999</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>6414</v>
+          <t>7000-7999</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Site stay physical.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G**y M***s</t>
+          <t>A****y W****n</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/11/1948</t>
+          <t>27/01/1952</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Robbins Spur
-Garciachester, NV *</t>
+          <t>* Gonzalez Springs Apt. *
+Lake Stephaniefort, OR *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(016)-*****35</t>
+          <t>(010)-*****17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -848,22 +856,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>s*****1@example.org</t>
+          <t>x******n@example.net</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -878,43 +886,45 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5000-5999</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>5655</v>
+          <t>3000-3999</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Television tree.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M****a D***s</t>
+          <t>E**c F****r</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0************5</t>
+          <t>5************1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26/07/1930</t>
+          <t>08/07/1990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Alicia Isle
-South Brettside, NV *</t>
+          <t>Unit * Box *
+DPO AP *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(011)-*****77</t>
+          <t>(012)-*****41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -924,22 +934,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>b*******6@example.com</t>
+          <t>w*********y@example.net</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>J****************m</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -954,43 +964,45 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3000-3999</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>9124</v>
+          <t>7000-7999</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Gas also say part.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D***a P****r</t>
+          <t>J***d T******n</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7************1</t>
+          <t>3************9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18/10/1982</t>
+          <t>25/04/1936</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Murphy Inlet Suite *
-Christopherborough, GA *</t>
+          <t>Unit * Box *
+DPO AP *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(012)-*****49</t>
+          <t>(016)-*****32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1000,17 +1012,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>c*********1@example.com</t>
+          <t>l****1@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>J****************m</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1030,43 +1042,45 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5000-5999</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>9159</v>
+          <t>2000-2999</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Even drop positive.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A*****y D*****s</t>
+          <t>A****a D**n</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7************0</t>
+          <t>7************3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06/03/1931</t>
+          <t>18/01/1945</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Rose Port Suite *
-Phillipsstad, AZ *</t>
+          <t>* Nelson Inlet Suite *
+Steventown, WI *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(012)-*****93</t>
+          <t>(018)-*****94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1076,22 +1090,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>d*******1@example.org</t>
+          <t>l**********n@example.net</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1106,43 +1120,45 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8000-8999</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>4104</v>
+          <t>11000-11999</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Thousand son.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L**i B****s</t>
+          <t>N***y B*****t</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>8************7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>27/11/1976</t>
+          <t>17/07/1949</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* James Forge
-Lake Todd, VA *</t>
+          <t>* *
+FPO AP *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(017)-*****33</t>
+          <t>(018)-*****08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1152,7 +1168,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>t*******4@example.com</t>
+          <t>b*****5@example.net</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1162,12 +1178,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>18-19</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1182,43 +1198,45 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11000-11999</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>1150</v>
+          <t>8000-8999</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Total truth.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A****y R******s</t>
+          <t>K***n C*******s</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>6************4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>05/01/1993</t>
+          <t>05/09/1978</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PSC *, Box *
-APO AP *</t>
+          <t>* Jennifer Fall
+Jimenezburgh, NE *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(017)-*****04</t>
+          <t>(017)-*****43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1228,22 +1246,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>v********5@example.com</t>
+          <t>c*******0@example.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>100-100</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1258,43 +1276,45 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10000-10999</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>3745</v>
+          <t>6000-6999</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Morning enjoy.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B***n H***h</t>
+          <t>J***n B****s</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4************6</t>
+          <t>3************9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16/01/1955</t>
+          <t>31/07/1977</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Joseph Parks Apt. *
-East Michelle, AZ *</t>
+          <t>* Jessica Summit
+Weberhaven, WI *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(010)-*****53</t>
+          <t>(011)-*****81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1304,7 +1324,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>d*******0@example.com</t>
+          <t>s*********t@example.net</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1314,12 +1334,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1334,43 +1354,45 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3000-3999</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>4971</v>
+          <t>12000-12999</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Ready fear apply.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>J**n P****e</t>
+          <t>M**. S**a J*****n</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3************8</t>
+          <t>9************0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/01/1946</t>
+          <t>10/08/2005</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Weber Stream
-Alvarezport, IL *</t>
+          <t>* Zimmerman Park Suite *
+South Brad, PW *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(013)-*****59</t>
+          <t>(010)-*****28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1380,17 +1402,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>u*****x@example.net</t>
+          <t>j*******t@example.org</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1410,43 +1432,45 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3000-3999</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>8670</v>
+          <t>11000-11999</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Media several up.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R*****d W****r</t>
+          <t>R****t W**f</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5************1</t>
+          <t>9************8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14/01/1958</t>
+          <t>10/05/1989</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Marissa Courts Apt. *
-Lake Samantha, LA *</t>
+          <t>* Morgan Curve
+Lake Meghanland, OK *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(011)-*****11</t>
+          <t>(019)-*****28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1456,22 +1480,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>k******d@example.com</t>
+          <t>j*****7@example.com</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S***h</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1486,43 +1510,45 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>8000-8999</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>8626</v>
+          <t>12000-12999</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Meet door shake.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>J**n R**e</t>
+          <t>J**n C***e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>9************4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>15/11/1997</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Jessica Trail
-Victoriaport, AL *</t>
+          <t>* Sanchez Plain Suite *
+Julieport, MS *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(014)-*****78</t>
+          <t>(018)-*****43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1532,22 +1558,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>c****0@example.com</t>
+          <t>c*************n@example.net</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1562,43 +1588,45 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13000-13999</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>9296</v>
+          <t>2000-2999</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Also her stuff job.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S***t P***y</t>
+          <t>K**e B****s</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7************7</t>
+          <t>4************7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30/04/1974</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Turner Turnpike Suite *
-Murphyview, IA *</t>
+          <t>* Cain Camp Suite *
+Ryanbury, MD *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(019)-*****52</t>
+          <t>(012)-*****78</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1608,17 +1636,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>s*******0@example.net</t>
+          <t>s*******e@example.net</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1638,43 +1666,45 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6000-6999</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>8620</v>
+          <t>13000-13999</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Center final gun.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P****a J*****n</t>
+          <t>R***y H****n</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0************5</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21/09/1993</t>
+          <t>02/12/1999</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Angela Mount
-West Carltown, RI *</t>
+          <t>* John Station
+Granttown, MA *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(010)-*****70</t>
+          <t>(012)-*****44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1684,22 +1714,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>a******4@example.org</t>
+          <t>p****s@example.org</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>S***h</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1717,40 +1747,42 @@
           <t>8000-8999</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>2213</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Actually guess let.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M****n R***n</t>
+          <t>E****d L***z</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8************0</t>
+          <t>5************8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>26/07/1957</t>
+          <t>09/12/1981</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Ellison Stream
-Angelafurt, PR *</t>
+          <t>* Ward Cliff
+Lake Amanda, FM *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(018)-*****64</t>
+          <t>(011)-*****70</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1760,12 +1792,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>r*********s@example.com</t>
+          <t>k************n@example.org</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1775,7 +1807,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1790,43 +1822,45 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13000-13999</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>4920</v>
+          <t>11000-11999</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Others authority.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A***r H**l</t>
+          <t>L***s D***s **</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0************7</t>
+          <t>2************3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23/02/1947</t>
+          <t>28/10/1999</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Bell Unions Suite *
-Bryanchester, OK *</t>
+          <t>* Ortega Manors Apt. *
+Kennedyton, IL *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(010)-*****24</t>
+          <t>(014)-*****67</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1836,22 +1870,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>h******c@example.net</t>
+          <t>k*******l@example.net</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1866,43 +1900,45 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>9000-9999</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>1451</v>
+          <t>7000-7999</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Town material.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F***k H*******n</t>
+          <t>E*******h W**e **</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2************3</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15/09/1997</t>
+          <t>29/03/1984</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Margaret Trafficway
-Alexanderchester, PR *</t>
+          <t>* Albert Hills
+East Charlesfurt, MA *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(014)-*****75</t>
+          <t>(014)-*****56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1912,7 +1948,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>z****e@example.net</t>
+          <t>c***************r@example.com</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1927,7 +1963,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1942,43 +1978,45 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12000-12999</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>6623</v>
+          <t>3000-3999</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Drug head finally.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>K******y S*****n</t>
+          <t>P****a G*****r</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3************1</t>
+          <t>2************2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>24/05/1965</t>
+          <t>17/04/1938</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Isaac Mountain Apt. *
-Port Jasonchester, FM *</t>
+          <t>* Gould Station
+Mirandabury, UT *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(010)-*****15</t>
+          <t>(018)-*****51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1988,12 +2026,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>i*****t@example.org</t>
+          <t>c***********y@example.org</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2003,7 +2041,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2018,43 +2056,45 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6000-6999</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>4124</v>
+          <t>4000-4999</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>National single.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M****l S*****s</t>
+          <t>M***y A***n</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4************6</t>
+          <t>8************6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>23/05/1984</t>
+          <t>02/02/1965</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Sara Ranch
-New Christopherfort, MO *</t>
+          <t>* *
+FPO AA *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(012)-*****69</t>
+          <t>(017)-*****55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2064,22 +2104,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>s***********a@example.net</t>
+          <t>p**********y@example.net</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>J****************m</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2094,43 +2134,45 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6000-6999</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>8217</v>
+          <t>3000-3999</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Week woman hear.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B******y R*******z</t>
+          <t>C*********r W****r</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6************0</t>
+          <t>6************5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12/01/1988</t>
+          <t>02/11/1927</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Penny Course Apt. *
-Mckenzieburgh, MA *</t>
+          <t>* Richardson Stravenue
+North Kimberlytown, CA *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(017)-*****65</t>
+          <t>(014)-*****90</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2140,12 +2182,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>i*******n@example.net</t>
+          <t>m****e@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2155,7 +2197,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>100-100</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2170,43 +2212,45 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9000-9999</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>3753</v>
+          <t>12000-12999</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Parent chance since.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S****y F********d</t>
+          <t>S***h A******n</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>4************2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28/05/1974</t>
+          <t>06/07/1949</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Huang Club Suite *
-West Michael, VI *</t>
+          <t>* *
+FPO AP *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(013)-*****43</t>
+          <t>(016)-*****69</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2216,7 +2260,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>d********t@example.com</t>
+          <t>b*****b@example.org</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2226,12 +2270,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2246,43 +2290,45 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>7000-7999</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>2508</v>
+          <t>5000-5999</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Position few relate.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P***y D***s</t>
+          <t>A**m T****r</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0************7</t>
+          <t>5************5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15/03/1995</t>
+          <t>26/04/1996</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Kelsey Overpass
-Port Deborahmouth, HI *</t>
+          <t>* George Path Apt. *
+Brianhaven, NH *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(018)-*****90</t>
+          <t>(011)-*****65</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2292,22 +2338,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>n**************s@example.com</t>
+          <t>n*****r@example.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2322,43 +2368,45 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>14000-14999</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>8866</v>
+          <t>13000-13999</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Unit political may.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>J**e W******s</t>
+          <t>M*****l A***n</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6************6</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06/06/1948</t>
+          <t>20/02/1975</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Mcgee Shoals
-Brandiland, IL *</t>
+          <t>* Sanders Tunnel
+New Mia, MA *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(016)-*****13</t>
+          <t>(011)-*****93</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2368,12 +2416,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>e******z@example.org</t>
+          <t>b*******s@example.com</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>N*************n</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2383,7 +2431,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2398,43 +2446,45 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>5000-5999</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>7365</v>
+          <t>10000-10999</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Will early her.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A**m W******s</t>
+          <t>C*****l S***e</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7************5</t>
+          <t>2************0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30/08/1983</t>
+          <t>10/11/1928</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Brown Ramp
-East Joe, OK *</t>
+          <t>* Mindy Ramp Apt. *
+Stuartfort, WY *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(016)-*****03</t>
+          <t>(012)-*****96</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2444,22 +2494,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>t**********r@example.net</t>
+          <t>j**********s@example.com</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P****s</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2474,43 +2524,45 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11000-11999</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>2025</v>
+          <t>10000-10999</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>You company window.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>K***a M****n</t>
+          <t>J**n P**k</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0************3</t>
+          <t>8************0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/05/1968</t>
+          <t>03/06/1925</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Jeremy Fall
-Taraton, WA *</t>
+          <t>* Franco Burg
+Gonzalezbury, OK *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(010)-*****34</t>
+          <t>(011)-*****71</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2520,22 +2572,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>a****5@example.com</t>
+          <t>a****8@example.org</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>S******r</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2550,43 +2602,45 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>6000-6999</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>2408</v>
+          <t>2000-2999</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Hold job similar.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>M*****l R*******z</t>
+          <t>G**e S***h</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5************5</t>
+          <t>4************7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>26/01/1973</t>
+          <t>22/04/1994</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Travis Court
-Markport, IL *</t>
+          <t>* Brian Union Apt. *
+Lake Carolynton, IA *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(012)-*****77</t>
+          <t>(012)-*****84</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2596,7 +2650,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>e********y@example.net</t>
+          <t>q******z@example.com</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2606,12 +2660,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>18-19</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2626,43 +2680,45 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>5000-5999</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>6232</v>
+          <t>4000-4999</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Interesting visit.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>K***n B*****n</t>
+          <t>A*****l S*****z</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0************8</t>
+          <t>3************4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12/01/1968</t>
+          <t>19/12/1965</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Samantha Canyon
-Mortonstad, MT *</t>
+          <t>Unit * Box *
+DPO AP *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(015)-*****28</t>
+          <t>(010)-*****49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2672,22 +2728,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>s*******6@example.com</t>
+          <t>s****n@example.org</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>J****************m</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2702,43 +2758,45 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2000-2999</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>4306</v>
+          <t>4000-4999</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>West reach.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P**l P***z</t>
+          <t>M******e G****a</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6************7</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28/12/1960</t>
+          <t>22/09/1958</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Heather Meadows Apt. *
-Henryville, SD *</t>
+          <t>* Robin Falls
+Leeburgh, IL *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(013)-*****04</t>
+          <t>(010)-*****24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2748,22 +2806,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>a******5@example.com</t>
+          <t>m***********s@example.org</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S***h</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2781,12 +2839,14 @@
           <t>9000-9999</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>5769</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Team artist fire.</t>
+          <t>*****</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J***e L**e</t>
+          <t>C******y B***n</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9************7</t>
+          <t>0************9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09/03/1975</t>
+          <t>12/07/1989</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Erik Cliff Apt. *
-East Edward, KY *</t>
+          <t>Unit * Box *
+DPO AE *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(015)-*****94</t>
+          <t>(016)-*****95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>d********7@example.net</t>
+          <t>l********e@example.org</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P****s</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13000-13999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -584,35 +584,35 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B*****a D***s</t>
+          <t>G*****y M****n J*.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5************9</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16/04/1960</t>
+          <t>26/10/2006</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Freeman Junctions
-Lake Christineview, NC *</t>
+          <t>* Johnson Square Suite *
+Burkeburgh, TX *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(012)-*****82</t>
+          <t>(015)-*****35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -622,22 +622,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>j******s@example.com</t>
+          <t>e*********2@example.org</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P****s</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>4000-4999</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -662,35 +662,35 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E**n J*****n</t>
+          <t>F*******k S**o</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6************2</t>
+          <t>6************3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13/03/1993</t>
+          <t>18/09/1933</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* John Roads Suite *
-New Brianberg, MD *</t>
+          <t>* Evan Parkways Suite *
+New Kenneth, MS *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(017)-*****94</t>
+          <t>(016)-*****16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -700,22 +700,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>a**********r@example.net</t>
+          <t>b********0@example.net</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>100-100</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -740,35 +740,35 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M*****l D*****n</t>
+          <t>J***n B***y</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8************0</t>
+          <t>5************9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19/05/1987</t>
+          <t>16/12/1945</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* *
-FPO AE *</t>
+          <t>* Frank Expressway
+West Evanfurt, GA *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(012)-*****10</t>
+          <t>(011)-*****12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>c******a@example.org</t>
+          <t>k*********s@example.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S******r</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>4000-4999</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -818,35 +818,35 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A****y W****n</t>
+          <t>R**n M***y</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>3************0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>27/01/1952</t>
+          <t>11/02/1971</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Gonzalez Springs Apt. *
-Lake Stephaniefort, OR *</t>
+          <t>* Gilmore Lake Suite *
+Snyderland, WA *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(010)-*****17</t>
+          <t>(018)-*****39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>x******n@example.net</t>
+          <t>o*********e@example.net</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>T********u</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -896,35 +896,35 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E**c F****r</t>
+          <t>A***r P**a</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5************1</t>
+          <t>9************1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08/07/1990</t>
+          <t>13/03/1999</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AP *</t>
+          <t>* Travis Ways Apt. *
+Smithstad, MH *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(012)-*****41</t>
+          <t>(013)-*****72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>w*********y@example.net</t>
+          <t>s***********w@example.net</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>J****************m</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -974,35 +974,35 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J***d T******n</t>
+          <t>E****d L********n</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3************9</t>
+          <t>3************5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25/04/1936</t>
+          <t>30/11/1977</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AP *</t>
+          <t>* Doyle Bypass Suite *
+Valerieville, CA *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(016)-*****32</t>
+          <t>(017)-*****65</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>l****1@example.com</t>
+          <t>l******s@example.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>J****************m</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2000-2999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1052,35 +1052,35 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A****a D**n</t>
+          <t>M****s C*x</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7************3</t>
+          <t>8************6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18/01/1945</t>
+          <t>01/02/1924</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Nelson Inlet Suite *
-Steventown, WI *</t>
+          <t>* Skinner Street
+East Katherineville, MA *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(018)-*****94</t>
+          <t>(015)-*****09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>l**********n@example.net</t>
+          <t>e******l@example.org</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>N***y B*****t</t>
+          <t>M*****l A******n</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1147,18 +1147,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17/07/1949</t>
+          <t>02/12/1981</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* *
-FPO AP *</t>
+          <t>* Bell Causeway
+Lake Jamesborough, OH *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(018)-*****08</t>
+          <t>(013)-*****60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>b*****5@example.net</t>
+          <t>j************t@example.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1208,35 +1208,35 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>K***n C*******s</t>
+          <t>D****e R*****z</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6************4</t>
+          <t>5************6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>05/09/1978</t>
+          <t>19/12/1985</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* Jennifer Fall
-Jimenezburgh, NE *</t>
+          <t>Unit * Box *
+DPO AA *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(017)-*****43</t>
+          <t>(012)-*****82</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>c*******0@example.com</t>
+          <t>c*******6@example.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>100-100</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>11000-11999</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1286,35 +1286,35 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J***n B****s</t>
+          <t>J****a C***k J*.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3************9</t>
+          <t>6************6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/07/1977</t>
+          <t>08/04/1961</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Jessica Summit
-Weberhaven, WI *</t>
+          <t>* Walker Locks Suite *
+West Josephview, MH *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(011)-*****81</t>
+          <t>(016)-*****73</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>s*********t@example.net</t>
+          <t>k************s@example.org</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>4000-4999</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1364,35 +1364,35 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M**. S**a J*****n</t>
+          <t>R*****o K***y</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>0************2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10/08/2005</t>
+          <t>05/03/2006</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Zimmerman Park Suite *
-South Brad, PW *</t>
+          <t>* Jessica Spurs Apt. *
+Reneeland, SC *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(010)-*****28</t>
+          <t>(015)-*****16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1402,22 +1402,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>j*******t@example.org</t>
+          <t>m********n@example.org</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>K***h</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1442,35 +1442,35 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R****t W**f</t>
+          <t>M*. W*****m P*****s</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9************8</t>
+          <t>5************7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10/05/1989</t>
+          <t>23/12/1929</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Morgan Curve
-Lake Meghanland, OK *</t>
+          <t>* Holly Bypass
+Port Katherinechester, TN *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(019)-*****28</t>
+          <t>(016)-*****86</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1480,22 +1480,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>j*****7@example.com</t>
+          <t>n***l@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>T********u</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>7000-7999</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1520,35 +1520,35 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>J**n C***e</t>
+          <t>T****s H*******z</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9************4</t>
+          <t>6************4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15/11/1997</t>
+          <t>02/07/1988</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Sanchez Plain Suite *
-Julieport, MS *</t>
+          <t>* Carr Run
+Hillton, PA *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(018)-*****43</t>
+          <t>(013)-*****28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1558,22 +1558,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>c*************n@example.net</t>
+          <t>h*****l@example.org</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2000-2999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1598,35 +1598,35 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>K**e B****s</t>
+          <t>J*****e W*******n</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4************7</t>
+          <t>9************0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>20/07/1933</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Cain Camp Suite *
-Ryanbury, MD *</t>
+          <t>* Green Key
+New Tammy, DE *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(012)-*****78</t>
+          <t>(011)-*****97</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1636,22 +1636,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>s*******e@example.net</t>
+          <t>q*****n@example.org</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13000-13999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1676,35 +1676,35 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R***y H****n</t>
+          <t>J******r M****a</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>3************2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>02/12/1999</t>
+          <t>21/02/2001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* John Station
-Granttown, MA *</t>
+          <t>* Sarah Center Suite *
+Port Victoriaville, MD *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(012)-*****44</t>
+          <t>(011)-*****45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1714,22 +1714,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>p****s@example.org</t>
+          <t>l******n@example.net</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1754,35 +1754,35 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E****d L***z</t>
+          <t>J***s W***s</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5************8</t>
+          <t>6************1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09/12/1981</t>
+          <t>05/01/1928</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Ward Cliff
-Lake Amanda, FM *</t>
+          <t>* Garcia Village
+Garciafurt, ND *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(011)-*****70</t>
+          <t>(015)-*****60</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1792,22 +1792,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>k************n@example.org</t>
+          <t>b*****5@example.com</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1832,35 +1832,35 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>L***s D***s **</t>
+          <t>M**s N*****a H****s D*S</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2************3</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28/10/1999</t>
+          <t>01/11/1972</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Ortega Manors Apt. *
-Kennedyton, IL *</t>
+          <t>* Bauer Skyway Apt. *
+South Davidport, NE *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(014)-*****67</t>
+          <t>(011)-*****11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1870,22 +1870,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>k*******l@example.net</t>
+          <t>c**********l@example.net</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18-19</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1910,35 +1910,35 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E*******h W**e **</t>
+          <t>M*****l M****n</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>5************5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29/03/1984</t>
+          <t>02/05/1951</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Albert Hills
-East Charlesfurt, MA *</t>
+          <t>* Brooks Crest Suite *
+Malonechester, OR *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(014)-*****56</t>
+          <t>(017)-*****61</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>c***************r@example.com</t>
+          <t>j*******n@example.org</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1988,14 +1988,14 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P****a G*****r</t>
+          <t>L****e P****r</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2005,18 +2005,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17/04/1938</t>
+          <t>01/09/1974</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Gould Station
-Mirandabury, UT *</t>
+          <t>* Yvonne Estate Suite *
+Lake Kevinton, DC *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(018)-*****51</t>
+          <t>(015)-*****70</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>c***********y@example.org</t>
+          <t>r*********a@example.org</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2066,35 +2066,35 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M***y A***n</t>
+          <t>M**y D***s</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8************6</t>
+          <t>9************6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>02/02/1965</t>
+          <t>03/04/1924</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* *
-FPO AA *</t>
+          <t>* Vazquez Mountain
+North Karenstad, GU *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(017)-*****55</t>
+          <t>(010)-*****76</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2104,22 +2104,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>p**********y@example.net</t>
+          <t>h*********l@example.com</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>11000-11999</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2144,35 +2144,35 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C*********r W****r</t>
+          <t>N****n H****s</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6************5</t>
+          <t>0************4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>02/11/1927</t>
+          <t>20/04/1970</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Richardson Stravenue
-North Kimberlytown, CA *</t>
+          <t>* Karen Freeway
+Lopezville, NH *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(014)-*****90</t>
+          <t>(012)-*****92</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2182,22 +2182,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>m****e@example.org</t>
+          <t>b*********n@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>K***h</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Under Observation</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>13000-13999</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2222,35 +2222,35 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S***h A******n</t>
+          <t>C*****a D****y</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4************2</t>
+          <t>8************8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06/07/1949</t>
+          <t>26/06/1949</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* *
-FPO AP *</t>
+          <t>* Gordon Extension Apt. *
+West Kimberlyfort, MP *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(016)-*****69</t>
+          <t>(018)-*****72</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>b*****b@example.org</t>
+          <t>f****z@example.org</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>5000-5999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2300,35 +2300,35 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A**m T****r</t>
+          <t>M***n G**y</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5************5</t>
+          <t>4************7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>26/04/1996</t>
+          <t>12/06/1972</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* George Path Apt. *
-Brianhaven, NH *</t>
+          <t>* Dale Valley
+North Kellistad, RI *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(011)-*****65</t>
+          <t>(015)-*****73</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>n*****r@example.com</t>
+          <t>d*****s@example.org</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>N*************n</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13000-13999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2378,35 +2378,35 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M*****l A***n</t>
+          <t>R****y Y***g</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>2************3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20/02/1975</t>
+          <t>28/05/1934</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Sanders Tunnel
-New Mia, MA *</t>
+          <t>* Martin Trafficway
+New Nicole, KY *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(011)-*****93</t>
+          <t>(011)-*****26</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2416,12 +2416,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>b*******s@example.com</t>
+          <t>h*i@example.org</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>N*************n</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>9000-9999</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2456,35 +2456,35 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C*****l S***e</t>
+          <t>J***s T**e</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2************0</t>
+          <t>5************6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10/11/1928</t>
+          <t>28/04/1993</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Mindy Ramp Apt. *
-Stuartfort, WY *</t>
+          <t>* Christina Groves
+Williambury, AS *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(012)-*****96</t>
+          <t>(017)-*****76</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2494,22 +2494,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>j**********s@example.com</t>
+          <t>w*******0@example.org</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>13000-13999</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2534,35 +2534,35 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>J**n P**k</t>
+          <t>M****a B****s</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8************0</t>
+          <t>0************0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>03/06/1925</t>
+          <t>28/01/1990</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Franco Burg
-Gonzalezbury, OK *</t>
+          <t>* Brenda Mountain
+Johnberg, MH *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(011)-*****71</t>
+          <t>(013)-*****97</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2572,12 +2572,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>a****8@example.org</t>
+          <t>x********z@example.org</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>P****s</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2612,35 +2612,35 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>G**e S***h</t>
+          <t>J***s B****n</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4************7</t>
+          <t>4************6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22/04/1994</t>
+          <t>12/05/2003</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Brian Union Apt. *
-Lake Carolynton, IA *</t>
+          <t>* Maria Union
+East Gerald, NY *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(012)-*****84</t>
+          <t>(018)-*****85</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2650,22 +2650,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>q******z@example.com</t>
+          <t>b*********y@example.net</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P****s</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2690,35 +2690,35 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A*****l S*****z</t>
+          <t>M*****l H**s</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3************4</t>
+          <t>4************0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19/12/1965</t>
+          <t>22/10/1983</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AP *</t>
+          <t>* Morgan Ramp Apt. *
+Kruegerfort, MH *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(010)-*****49</t>
+          <t>(016)-*****62</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2728,22 +2728,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>s****n@example.org</t>
+          <t>w******t@example.org</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>J****************m</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2768,35 +2768,35 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M******e G****a</t>
+          <t>K***n B****n</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>22/09/1958</t>
+          <t>08/06/1963</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Robin Falls
-Leeburgh, IL *</t>
+          <t>* Brandy Valleys Suite *
+Evanborough, ND *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(010)-*****24</t>
+          <t>(018)-*****53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2806,22 +2806,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>m***********s@example.org</t>
+          <t>l****5@example.net</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>K******n</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>XXXXXX</t>
         </is>
       </c>
     </row>

--- a/backend/uploads/masked/masked_Student_Information.xlsx
+++ b/backend/uploads/masked/masked_Student_Information.xlsx
@@ -513,28 +513,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C******y B***n</t>
+          <t>K****y H***s</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0************9</t>
+          <t>2************4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12/07/1989</t>
+          <t>03/02/2006</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AE *</t>
+          <t>* Elizabeth Wells
+Port Samantha, AR *</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(016)-*****95</t>
+          <t>(018)-*****14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>l********e@example.org</t>
+          <t>d********0@example.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -591,28 +591,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G*****y M****n J*.</t>
+          <t>G*****l D**e **</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>7************7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26/10/2006</t>
+          <t>24/01/1967</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>* Johnson Square Suite *
-Burkeburgh, TX *</t>
+          <t>* David Highway Suite *
+East Daniel, KY *</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(015)-*****35</t>
+          <t>(016)-*****76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -622,22 +622,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>e*********2@example.org</t>
+          <t>n********1@example.org</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>90-99</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>8000-8999</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -669,28 +669,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F*******k S**o</t>
+          <t>T***r F********d</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6************3</t>
+          <t>2************8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18/09/1933</t>
+          <t>03/11/1978</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>* Evan Parkways Suite *
-New Kenneth, MS *</t>
+          <t>* Dickerson Inlet
+Port Melissa, AL *</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(016)-*****16</t>
+          <t>(016)-*****31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>b********0@example.net</t>
+          <t>c*********n@example.net</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>K***h</t>
+          <t>J****************m</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>100-100</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>7000-7999</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -747,28 +747,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>J***n B***y</t>
+          <t>M*****l H****s</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5************9</t>
+          <t>8************0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16/12/1945</t>
+          <t>27/10/1982</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>* Frank Expressway
-West Evanfurt, GA *</t>
+          <t>* Perez Track
+Curryview, FL *</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(011)-*****12</t>
+          <t>(016)-*****79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -778,22 +778,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>k*********s@example.com</t>
+          <t>h************o@example.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>K***h</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -825,28 +825,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R**n M***y</t>
+          <t>S***n T****s</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3************0</t>
+          <t>5************3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11/02/1971</t>
+          <t>12/04/1976</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* Gilmore Lake Suite *
-Snyderland, WA *</t>
+          <t>* Alan Walk Suite *
+New Cristianshire, PR *</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(018)-*****39</t>
+          <t>(019)-*****26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -856,22 +856,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>o*********e@example.net</t>
+          <t>v*****r@example.com</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>S*****k</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>18-19</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5000-5999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -903,28 +903,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A***r P**a</t>
+          <t>O****a **</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9************1</t>
+          <t>8************8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13/03/1999</t>
+          <t>09/05/1962</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* Travis Ways Apt. *
-Smithstad, MH *</t>
+          <t>* Melton Junction
+Zacharyport, KS *</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(013)-*****72</t>
+          <t>(014)-*****11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -934,12 +934,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>s***********w@example.net</t>
+          <t>j********3@example.com</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>K***h</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5000-5999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E****d L********n</t>
+          <t>A*n H*******s</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -991,18 +991,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30/11/1977</t>
+          <t>30/08/1965</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* Doyle Bypass Suite *
-Valerieville, CA *</t>
+          <t>* Byrd Expressway Suite *
+East John, TX *</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(017)-*****65</t>
+          <t>(017)-*****11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>l******s@example.com</t>
+          <t>j**********p@example.net</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6000-6999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1059,28 +1059,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M****s C*x</t>
+          <t>B*****y M*******o</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8************6</t>
+          <t>8************4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/02/1924</t>
+          <t>13/10/1972</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* Skinner Street
-East Katherineville, MA *</t>
+          <t>* Chad Lodge
+Port Suzanneview, AZ *</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(015)-*****09</t>
+          <t>(018)-*****94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1090,22 +1090,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>e******l@example.org</t>
+          <t>h*****r@example.org</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S***h</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12000-12999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1137,28 +1137,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M*****l A******n</t>
+          <t>V****r A***n</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8************7</t>
+          <t>6************0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>02/12/1981</t>
+          <t>12/02/2004</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* Bell Causeway
-Lake Jamesborough, OH *</t>
+          <t>* Bennett Junctions Suite *
+Farrellmouth, FM *</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(013)-*****60</t>
+          <t>(017)-*****04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>j************t@example.com</t>
+          <t>p****4@example.net</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>4000-4999</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D****e R*****z</t>
+          <t>A*******a S*****r</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19/12/1985</t>
+          <t>14/12/1996</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Unit * Box *
-DPO AA *</t>
+          <t>* *
+FPO AP *</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(012)-*****82</t>
+          <t>(019)-*****04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1246,17 +1246,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>c*******6@example.com</t>
+          <t>l*******n@example.net</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J****a C***k J*.</t>
+          <t>D**n W***s</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1303,18 +1303,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08/04/1961</t>
+          <t>10/09/1947</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* Walker Locks Suite *
-West Josephview, MH *</t>
+          <t>* Kelly Coves Apt. *
+New Richard, PR *</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(016)-*****73</t>
+          <t>(019)-*****46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>k************s@example.org</t>
+          <t>j**********r@example.org</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>S******r</t>
+          <t>M*****a</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>7000-7999</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1371,28 +1371,28 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R*****o K***y</t>
+          <t>J**n W******s</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0************2</t>
+          <t>7************4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>05/03/2006</t>
+          <t>03/07/1959</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* Jessica Spurs Apt. *
-Reneeland, SC *</t>
+          <t>* Soto Walks Apt. *
+Simsbury, AR *</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(015)-*****16</t>
+          <t>(010)-*****24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>m********n@example.org</t>
+          <t>b*************n@example.net</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S******r</t>
+          <t>P****s</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3000-3999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1449,28 +1449,28 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M*. W*****m P*****s</t>
+          <t>S*****n S*******r</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5************7</t>
+          <t>0************6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23/12/1929</t>
+          <t>07/01/1944</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* Holly Bypass
-Port Katherinechester, TN *</t>
+          <t>* Patrick Islands Apt. *
+Lake Joshuaside, NC *</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(016)-*****86</t>
+          <t>(014)-*****19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1480,22 +1480,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>n***l@example.org</t>
+          <t>p*******l@example.org</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N*************n</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7000-7999</t>
+          <t>2000-2999</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1527,28 +1527,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>T****s H*******z</t>
+          <t>C*********r T****s</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6************4</t>
+          <t>4************4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>02/07/1988</t>
+          <t>27/02/1967</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Carr Run
-Hillton, PA *</t>
+          <t>* Christina Overpass
+Robinsontown, PR *</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(013)-*****28</t>
+          <t>(015)-*****98</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1558,22 +1558,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>h*****l@example.org</t>
+          <t>c*******3@example.org</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P****s</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>7000-7999</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1605,28 +1605,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>J*****e W*******n</t>
+          <t>J****e C***y</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9************0</t>
+          <t>3************7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20/07/1933</t>
+          <t>09/11/1992</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>* Green Key
-New Tammy, DE *</t>
+          <t>* Keller Plains Suite *
+North Nicolehaven, NC *</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(011)-*****97</t>
+          <t>(019)-*****65</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1636,22 +1636,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>q*****n@example.org</t>
+          <t>k*********e@example.com</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>S***h</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1683,28 +1683,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>J******r M****a</t>
+          <t>K*m W****n</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3************2</t>
+          <t>2************5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21/02/2001</t>
+          <t>06/02/1946</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>* Sarah Center Suite *
-Port Victoriaville, MD *</t>
+          <t>* Anna Creek Apt. *
+North Jessica, VA *</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(011)-*****45</t>
+          <t>(019)-*****08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>l******n@example.net</t>
+          <t>p*******n@example.org</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>M*****a</t>
+          <t>P****g</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>6000-6999</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>J***s W***s</t>
+          <t>L**a B****s D*S</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1771,18 +1771,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>05/01/1928</t>
+          <t>28/05/1955</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* Garcia Village
-Garciafurt, ND *</t>
+          <t>* Tina Parkway Apt. *
+South Francismouth, SD *</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(015)-*****60</t>
+          <t>(017)-*****28</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>b*****5@example.com</t>
+          <t>e****6@example.org</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>8000-8999</t>
+          <t>13000-13999</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1839,28 +1839,28 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M**s N*****a H****s D*S</t>
+          <t>M**y M***n</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4************1</t>
+          <t>9************5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/11/1972</t>
+          <t>25/11/1960</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>* Bauer Skyway Apt. *
-South Davidport, NE *</t>
+          <t>* Elizabeth Fields Suite *
+Douglasberg, RI *</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(011)-*****11</t>
+          <t>(019)-*****51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1870,12 +1870,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>c**********l@example.net</t>
+          <t>p***********l@example.net</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P****s</t>
+          <t>S******r</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>80-89</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2000-2999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1917,28 +1917,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M*****l M****n</t>
+          <t>K***e G***n</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5************5</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>02/05/1951</t>
+          <t>12/11/1975</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>* Brooks Crest Suite *
-Malonechester, OR *</t>
+          <t>* Courtney Roads Suite *
+North Jerrychester, OR *</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(017)-*****61</t>
+          <t>(018)-*****89</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>j*******n@example.org</t>
+          <t>t********a@example.org</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N*************n</t>
+          <t>S***h</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1995,28 +1995,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>L****e P****r</t>
+          <t>E****d L**g</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2************2</t>
+          <t>4************1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/09/1974</t>
+          <t>12/07/1949</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>* Yvonne Estate Suite *
-Lake Kevinton, DC *</t>
+          <t>* Patterson Circle
+West Dawnville, CA *</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(015)-*****70</t>
+          <t>(014)-*****45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2026,22 +2026,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>r*********a@example.org</t>
+          <t>a******s@example.org</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>S***h</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2073,28 +2073,28 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M**y D***s</t>
+          <t>J**l F******n</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9************6</t>
+          <t>0************3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>03/04/1924</t>
+          <t>15/02/1933</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Vazquez Mountain
-North Karenstad, GU *</t>
+          <t>* Megan Camp
+East Davidbury, ND *</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(010)-*****76</t>
+          <t>(017)-*****16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2104,22 +2104,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>h*********l@example.com</t>
+          <t>a*******8@example.org</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P****g</t>
+          <t>P***k</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Needs Attention</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>11000-11999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2151,28 +2151,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>N****n H****s</t>
+          <t>K******n H***s</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0************4</t>
+          <t>8************6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20/04/1970</t>
+          <t>29/07/1956</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* Karen Freeway
-Lopezville, NH *</t>
+          <t>* *
+FPO AA *</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(012)-*****92</t>
+          <t>(019)-*****83</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>b*********n@example.org</t>
+          <t>f***********w@example.org</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Under Observation</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13000-13999</t>
+          <t>10000-10999</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2229,28 +2229,28 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C*****a D****y</t>
+          <t>S******a R*******z</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8************8</t>
+          <t>3************7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>26/06/1949</t>
+          <t>10/05/1977</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>* Gordon Extension Apt. *
-West Kimberlyfort, MP *</t>
+          <t>* Dustin Fork
+West Katietown, MH *</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(018)-*****72</t>
+          <t>(019)-*****65</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2260,12 +2260,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>f****z@example.org</t>
+          <t>h******0@example.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2000-2999</t>
+          <t>5000-5999</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2307,28 +2307,28 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>M***n G**y</t>
+          <t>J******r R*****d</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4************7</t>
+          <t>8************7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12/06/1972</t>
+          <t>12/04/1944</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>* Dale Valley
-North Kellistad, RI *</t>
+          <t>* Vasquez Ford
+West Alexshire, NH *</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(015)-*****73</t>
+          <t>(013)-*****79</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2338,22 +2338,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>d*****s@example.org</t>
+          <t>r********z@example.net</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>P***k</t>
+          <t>K******n</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>13000-13999</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2385,28 +2385,28 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R****y Y***g</t>
+          <t>D******e S****r</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2************3</t>
+          <t>8************1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/05/1934</t>
+          <t>09/05/1962</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>* Martin Trafficway
-New Nicole, KY *</t>
+          <t>* Matthew Squares Apt. *
+East Shawnville, TX *</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(011)-*****26</t>
+          <t>(011)-*****52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>h*i@example.org</t>
+          <t>i****d@example.com</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>9000-9999</t>
+          <t>14000-14999</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2463,28 +2463,28 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J***s T**e</t>
+          <t>T*****y H*******z</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5************6</t>
+          <t>9************3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28/04/1993</t>
+          <t>10/04/1971</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>* Christina Groves
-Williambury, AS *</t>
+          <t>* Lewis Rapids Suite *
+Lake Gregoryfurt, AS *</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(017)-*****76</t>
+          <t>(019)-*****05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2494,22 +2494,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>w*******0@example.org</t>
+          <t>y***g@example.net</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S******r</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Recovering</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13000-13999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2541,28 +2541,28 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>M****a B****s</t>
+          <t>K****a N****s</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0************0</t>
+          <t>8************3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28/01/1990</t>
+          <t>03/09/1983</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* Brenda Mountain
-Johnberg, MH *</t>
+          <t>* Isaac Ports
+East Angela, GA *</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(013)-*****97</t>
+          <t>(011)-*****65</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2572,22 +2572,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>x********z@example.org</t>
+          <t>v*********y@example.org</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Healthy</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2619,28 +2619,28 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J***s B****n</t>
+          <t>R*****d F***z</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4************6</t>
+          <t>6************0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12/05/2003</t>
+          <t>01/07/1988</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>* Maria Union
-East Gerald, NY *</t>
+          <t>* Joshua Roads Apt. *
+New Duane, KS *</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(018)-*****85</t>
+          <t>(013)-*****26</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2650,12 +2650,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>b*********y@example.net</t>
+          <t>a***8@example.org</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>T********u</t>
+          <t>K**********r</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2697,28 +2697,28 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>M*****l H**s</t>
+          <t>P****a T****r</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4************0</t>
+          <t>7************0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>22/10/1983</t>
+          <t>09/08/1962</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>* Morgan Ramp Apt. *
-Kruegerfort, MH *</t>
+          <t>* Gonzalez Way
+New Jared, NY *</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(016)-*****62</t>
+          <t>(018)-*****52</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2728,22 +2728,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>w******t@example.org</t>
+          <t>s******5@example.com</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>K**********r</t>
+          <t>T********u</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Recovering</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>90-99</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>4000-4999</t>
+          <t>12000-12999</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2775,28 +2775,28 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>K***n B****n</t>
+          <t>T***y L***s</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4************4</t>
+          <t>3************3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08/06/1963</t>
+          <t>09/01/1976</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>* Brandy Valleys Suite *
-Evanborough, ND *</t>
+          <t>* Coleman Mission
+Doyleborough, DE *</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(018)-*****53</t>
+          <t>(011)-*****49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2806,22 +2806,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>l****5@example.net</t>
+          <t>k********7@example.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S*****k</t>
+          <t>K***h</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>Needs Attention</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80-89</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>10000-10999</t>
+          <t>3000-3999</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
